--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F0B5CD-AB7F-4328-977E-0D89309D686C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA3594-A95E-4762-B488-3D4CBA08E226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35505" yWindow="3960" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38355" yWindow="3975" windowWidth="21600" windowHeight="15435" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="769">
   <si>
     <t>AWACS</t>
   </si>
@@ -1939,12 +1939,6 @@
     <t>RW Internal #6</t>
   </si>
   <si>
-    <t>FOCUS AI AWACS</t>
-  </si>
-  <si>
-    <t>MAGIC AI AWACS</t>
-  </si>
-  <si>
     <t>CORAL 2</t>
   </si>
   <si>
@@ -2336,6 +2330,9 @@
   </si>
   <si>
     <t>Jackal backup</t>
+  </si>
+  <si>
+    <t>Khashab TWR</t>
   </si>
 </sst>
 </file>
@@ -2672,7 +2669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -3150,11 +3147,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3410,9 +3418,6 @@
     <xf numFmtId="164" fontId="23" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3421,10 +3426,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3488,6 +3502,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3893,7 +3913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
@@ -3990,21 +4010,21 @@
       <c r="S4" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="V4" s="127" t="s">
+      <c r="V4" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Z4" s="127" t="s">
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Z4" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AD4" s="127" t="s">
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AD4" s="128" t="s">
         <v>293</v>
       </c>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="58" t="s">
@@ -4230,13 +4250,13 @@
         <v>551</v>
       </c>
       <c r="AD7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AE7" s="12" t="s">
         <v>138</v>
       </c>
       <c r="AF7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4483,11 +4503,11 @@
       <c r="X11" t="s">
         <v>510</v>
       </c>
-      <c r="Z11" s="127" t="s">
+      <c r="Z11" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="58" t="s">
@@ -4914,11 +4934,11 @@
         <v>311</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="127" t="s">
+      <c r="R18" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -4974,20 +4994,20 @@
       <c r="T19" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="V19" s="128" t="s">
+      <c r="V19" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="130"/>
-      <c r="AB19" s="127" t="s">
+      <c r="W19" s="131"/>
+      <c r="X19" s="131"/>
+      <c r="Y19" s="131"/>
+      <c r="Z19" s="132"/>
+      <c r="AB19" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="128"/>
+      <c r="AF19" s="128"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="58" t="s">
@@ -5142,7 +5162,7 @@
         <v>628</v>
       </c>
       <c r="AB21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>58</v>
@@ -5205,16 +5225,16 @@
         <v>532</v>
       </c>
       <c r="W22" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="Y22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="Z22" t="s">
         <v>628</v>
       </c>
       <c r="AB22" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AC22" s="9" t="s">
         <v>269</v>
@@ -5376,11 +5396,11 @@
       </c>
       <c r="O25" s="53"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="127" t="s">
+      <c r="R25" s="128" t="s">
         <v>556</v>
       </c>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="58" t="s">
@@ -5477,13 +5497,13 @@
       </c>
       <c r="O27" s="53"/>
       <c r="R27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="S27" t="s">
         <v>557</v>
       </c>
       <c r="U27" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
@@ -5521,43 +5541,43 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="S28" t="s">
         <v>558</v>
       </c>
       <c r="U28" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="128" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="J31" s="127" t="s">
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="J31" s="128" t="s">
         <v>313</v>
       </c>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="U31" s="127" t="s">
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="U31" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="52" t="s">
@@ -5671,7 +5691,7 @@
         <v>426</v>
       </c>
       <c r="V33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W33" t="s">
         <v>417</v>
@@ -5686,7 +5706,7 @@
         <v>260</v>
       </c>
       <c r="AA33" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
@@ -5736,7 +5756,7 @@
         <v>435</v>
       </c>
       <c r="V34" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="W34" t="s">
         <v>417</v>
@@ -5751,7 +5771,7 @@
         <v>141</v>
       </c>
       <c r="AA34" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
@@ -5801,7 +5821,7 @@
         <v>441</v>
       </c>
       <c r="V35" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="W35" t="s">
         <v>417</v>
@@ -5816,7 +5836,7 @@
         <v>235</v>
       </c>
       <c r="AA35" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
@@ -5824,7 +5844,7 @@
         <v>436</v>
       </c>
       <c r="C36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D36" t="s">
         <v>467</v>
@@ -5866,7 +5886,7 @@
         <v>445</v>
       </c>
       <c r="V36" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="W36" t="s">
         <v>417</v>
@@ -5881,7 +5901,7 @@
         <v>247</v>
       </c>
       <c r="AA36" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -5889,7 +5909,7 @@
         <v>438</v>
       </c>
       <c r="C37" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D37" t="s">
         <v>467</v>
@@ -5931,7 +5951,7 @@
         <v>449</v>
       </c>
       <c r="V37" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W37" t="s">
         <v>417</v>
@@ -5946,7 +5966,7 @@
         <v>163</v>
       </c>
       <c r="AA37" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -5954,7 +5974,7 @@
         <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J38" t="s">
         <v>430</v>
@@ -5981,7 +6001,7 @@
         <v>447</v>
       </c>
       <c r="V38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W38" t="s">
         <v>417</v>
@@ -5996,7 +6016,7 @@
         <v>151</v>
       </c>
       <c r="AA38" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -6004,25 +6024,25 @@
         <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>640</v>
-      </c>
-      <c r="J39" s="126" t="s">
+        <v>638</v>
+      </c>
+      <c r="J39" s="129" t="s">
         <v>493</v>
       </c>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="126"/>
-      <c r="P39" s="126"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
+      <c r="N39" s="129"/>
+      <c r="O39" s="129"/>
+      <c r="P39" s="129"/>
       <c r="T39">
         <v>7</v>
       </c>
       <c r="U39" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="V39" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="W39" t="s">
         <v>417</v>
@@ -6037,7 +6057,7 @@
         <v>220</v>
       </c>
       <c r="AA39" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -6045,16 +6065,16 @@
         <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="T40">
         <v>8</v>
       </c>
       <c r="U40" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="V40" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="W40" t="s">
         <v>417</v>
@@ -6069,7 +6089,7 @@
         <v>276</v>
       </c>
       <c r="AA40" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
@@ -6077,16 +6097,16 @@
         <v>254</v>
       </c>
       <c r="F41" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="T41">
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="V41" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="W41" t="s">
         <v>417</v>
@@ -6101,7 +6121,7 @@
         <v>219</v>
       </c>
       <c r="AA41" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -6109,7 +6129,7 @@
         <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="T42">
         <v>10</v>
@@ -6127,116 +6147,121 @@
         <v>253</v>
       </c>
       <c r="AA42" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="U44" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="W44" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="X44" s="16" t="s">
         <v>84</v>
       </c>
       <c r="Y44" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Z44" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AA44" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W45" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="X45" s="16" t="s">
         <v>137</v>
       </c>
       <c r="Y45" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Z45" s="17" t="s">
         <v>70</v>
       </c>
       <c r="AA45" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W46" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="X46" s="16" t="s">
         <v>115</v>
       </c>
       <c r="Y46" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="Z46" s="17" t="s">
         <v>205</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W49" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X49" s="16" t="s">
         <v>100</v>
       </c>
       <c r="Y49" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Z49" s="17" t="s">
         <v>124</v>
       </c>
       <c r="AA49" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="50" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W50" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X50" s="16" t="s">
         <v>158</v>
       </c>
       <c r="Y50" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Z50" s="17" t="s">
         <v>136</v>
       </c>
       <c r="AA50" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="51" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W51" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X51" s="16" t="s">
         <v>74</v>
       </c>
       <c r="Y51" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="Z51" s="17" t="s">
         <v>150</v>
       </c>
       <c r="AA51" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6244,11 +6269,6 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6274,34 +6294,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="170" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="136" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
@@ -6843,22 +6863,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="172" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="173" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="44"/>
@@ -6963,12 +6983,12 @@
       <c r="E10" s="44"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="169" t="s">
+      <c r="B14" s="173" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="44"/>
@@ -7093,257 +7113,257 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B1" s="38">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H1" s="38">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N1" s="38">
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B2" s="38">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H2" s="38">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N2" s="38">
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B3" s="38">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H3" s="38">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N3" s="38">
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B4" s="38">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H4" s="38">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N4" s="38">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B5" s="38">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H5" s="38">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N5" s="38">
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B6" s="38">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H6" s="38">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N6" s="38">
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B7" s="38">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H7" s="38">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N7" s="38">
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B8" s="38">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H8" s="38">
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N8" s="38">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B9" s="38">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H9" s="38">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N9" s="76">
         <v>9</v>
@@ -7352,542 +7372,542 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B11" s="38">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G11" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H11" s="38">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N11" s="38">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B12" s="38">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H12" s="38">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N12" s="38">
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B13" s="38">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G13" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H13" s="38">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N13" s="38">
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B14" s="38">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H14" s="38">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N14" s="38">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B15" s="38">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H15" s="38">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N15" s="38">
         <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B16" s="38">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G16" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H16" s="38">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M16" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N16" s="38">
         <v>6</v>
       </c>
       <c r="O16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B17" s="38">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H17" s="38">
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N17" s="38">
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B18" s="38">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G18" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H18" s="38">
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N18" s="38">
         <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B19" s="38">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G19" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H19" s="38">
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M19" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N19" s="38">
         <v>9</v>
       </c>
       <c r="O19" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B21" s="38">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G21" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H21" s="38">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N21" s="38">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B22" s="38">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H22" s="38">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M22" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N22" s="38">
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B23" s="38">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G23" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H23" s="38">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N23" s="38">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B24" s="38">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G24" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H24" s="38">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M24" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N24" s="38">
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B25" s="38">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H25" s="38">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M25" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N25" s="38">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B26" s="38">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G26" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H26" s="38">
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M26" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N26" s="38">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B27" s="38">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H27" s="38">
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M27" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N27" s="38">
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B28" s="38">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H28" s="38">
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N28" s="38">
         <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B29" s="38">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H29" s="76">
         <v>9</v>
       </c>
       <c r="I29" s="3"/>
       <c r="M29" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N29" s="38">
         <v>9</v>
       </c>
       <c r="O29" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B31" s="38">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G31" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H31" s="38">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N31" s="38">
         <v>1</v>
@@ -7895,22 +7915,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B32" s="38">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G32" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H32" s="38">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N32" s="38">
         <v>2</v>
@@ -7918,22 +7938,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B33" s="38">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G33" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H33" s="38">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N33" s="38">
         <v>3</v>
@@ -7941,22 +7961,22 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B34" s="38">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G34" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H34" s="38">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N34" s="38">
         <v>4</v>
@@ -7964,22 +7984,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B35" s="38">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G35" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H35" s="38">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N35" s="38">
         <v>5</v>
@@ -7987,22 +8007,22 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B36" s="38">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H36" s="38">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N36" s="38">
         <v>6</v>
@@ -8010,22 +8030,22 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B37" s="38">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G37" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H37" s="38">
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N37" s="38">
         <v>7</v>
@@ -8033,20 +8053,20 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B38" s="76">
         <v>8</v>
       </c>
       <c r="C38" s="3"/>
       <c r="G38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H38" s="38">
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N38" s="38">
         <v>8</v>
@@ -8054,14 +8074,14 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B39" s="76">
         <v>9</v>
       </c>
       <c r="C39" s="3"/>
       <c r="G39" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H39" s="38">
         <v>9</v>
@@ -8259,7 +8279,7 @@
         <v>451</v>
       </c>
       <c r="P10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -8267,10 +8287,10 @@
         <v>452</v>
       </c>
       <c r="L11" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P11" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -8278,10 +8298,10 @@
         <v>453</v>
       </c>
       <c r="L12" t="s">
+        <v>659</v>
+      </c>
+      <c r="P12" t="s">
         <v>661</v>
-      </c>
-      <c r="P12" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -8312,14 +8332,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8330,16 +8350,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="136" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="136" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8609,173 +8629,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="123"/>
-      <c r="B2" s="124" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="123" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="123" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="123" t="s">
         <v>302</v>
       </c>
       <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="124">
+      <c r="A3" s="123">
         <v>1</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="124" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="124" t="s">
         <v>561</v>
       </c>
       <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="124">
+      <c r="A4" s="123">
         <v>2</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="124" t="s">
         <v>569</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="122" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="122" t="s">
         <v>481</v>
       </c>
       <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="124">
+      <c r="A5" s="123">
         <v>3</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="124" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="122" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="122" t="s">
         <v>484</v>
       </c>
       <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="124">
+      <c r="A6" s="123">
         <v>4</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="124" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="122" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="122" t="s">
         <v>485</v>
       </c>
       <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="124">
+      <c r="A7" s="123">
         <v>5</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="124" t="s">
         <v>572</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="122" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="122" t="s">
         <v>487</v>
       </c>
       <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="124">
+      <c r="A8" s="123">
         <v>6</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="124" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="122" t="s">
         <v>489</v>
       </c>
       <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="124">
+      <c r="A9" s="123">
         <v>7</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="124" t="s">
         <v>574</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="122" t="s">
         <v>491</v>
       </c>
       <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="124">
+      <c r="A10" s="123">
         <v>8</v>
       </c>
-      <c r="B10" s="125" t="s">
-        <v>768</v>
-      </c>
-      <c r="C10" s="123" t="s">
+      <c r="B10" s="124" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="122" t="s">
         <v>562</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="124">
+      <c r="A11" s="123">
         <v>9</v>
       </c>
-      <c r="B11" s="125" t="s">
-        <v>769</v>
-      </c>
-      <c r="C11" s="123" t="s">
+      <c r="B11" s="124" t="s">
+        <v>767</v>
+      </c>
+      <c r="C11" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="122" t="s">
         <v>563</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="124">
+      <c r="A12" s="123">
         <v>10</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="124" t="s">
         <v>567</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="123" t="s">
+      <c r="D12" s="122" t="s">
         <v>564</v>
       </c>
       <c r="E12" s="43"/>
@@ -8822,28 +8842,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="140" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -9130,12 +9150,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="140" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9314,12 +9334,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="140" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9503,44 +9523,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="A1" s="144" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="148" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="116"/>
@@ -9568,167 +9588,129 @@
       <c r="A4" s="117">
         <v>1</v>
       </c>
-      <c r="B4" s="119" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4" s="119" t="s">
-        <v>546</v>
-      </c>
+      <c r="B4" s="127" t="s">
+        <v>714</v>
+      </c>
+      <c r="C4" s="127"/>
       <c r="D4" s="119"/>
       <c r="E4" s="117">
         <v>11</v>
       </c>
-      <c r="F4" s="119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="119" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="119" t="s">
-        <v>392</v>
-      </c>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="117">
         <v>2</v>
       </c>
-      <c r="B5" s="119" t="s">
-        <v>543</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>547</v>
+      <c r="B5" s="127" t="s">
+        <v>542</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>546</v>
       </c>
       <c r="D5" s="119"/>
       <c r="E5" s="117">
         <v>12</v>
       </c>
-      <c r="F5" s="119" t="s">
-        <v>532</v>
-      </c>
-      <c r="G5" s="120">
-        <v>143</v>
-      </c>
+      <c r="F5" s="119"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="117">
         <v>3</v>
       </c>
-      <c r="B6" s="119" t="s">
-        <v>765</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>548</v>
+      <c r="B6" s="127" t="s">
+        <v>720</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>547</v>
       </c>
       <c r="D6" s="119"/>
       <c r="E6" s="117">
         <v>13</v>
       </c>
-      <c r="F6" s="119" t="s">
-        <v>767</v>
-      </c>
-      <c r="G6" s="119" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="119" t="s">
-        <v>526</v>
-      </c>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="117">
         <v>4</v>
       </c>
-      <c r="B7" s="119" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>549</v>
+      <c r="B7" s="127" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" s="127">
+        <v>121.3</v>
       </c>
       <c r="D7" s="119"/>
       <c r="E7" s="117">
         <v>14</v>
       </c>
-      <c r="F7" s="119" t="s">
-        <v>660</v>
-      </c>
-      <c r="G7" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="119" t="s">
-        <v>529</v>
-      </c>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="117">
         <v>5</v>
       </c>
-      <c r="B8" s="119" t="s">
-        <v>521</v>
-      </c>
-      <c r="C8" s="119" t="s">
-        <v>523</v>
+      <c r="B8" s="127" t="s">
+        <v>722</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>716</v>
       </c>
       <c r="D8" s="119"/>
       <c r="E8" s="117">
         <v>15</v>
       </c>
-      <c r="F8" s="119" t="s">
-        <v>624</v>
-      </c>
-      <c r="G8" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="119" t="s">
-        <v>625</v>
-      </c>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="117">
         <v>6</v>
       </c>
-      <c r="B9" s="119" t="s">
-        <v>766</v>
-      </c>
-      <c r="C9" s="121">
-        <v>121.6</v>
+      <c r="B9" s="127" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="127" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="119"/>
       <c r="E9" s="117">
         <v>16</v>
       </c>
-      <c r="F9" s="119" t="s">
-        <v>385</v>
-      </c>
-      <c r="G9" s="119" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="119" t="s">
-        <v>466</v>
-      </c>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="117">
         <v>7</v>
       </c>
-      <c r="B10" s="119" t="s">
-        <v>507</v>
-      </c>
-      <c r="C10" s="119" t="s">
-        <v>541</v>
+      <c r="B10" s="127" t="s">
+        <v>743</v>
+      </c>
+      <c r="C10" s="127" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="119"/>
       <c r="E10" s="117">
         <v>17</v>
       </c>
-      <c r="F10" s="119" t="s">
-        <v>388</v>
-      </c>
-      <c r="G10" s="119" t="s">
-        <v>280</v>
-      </c>
-      <c r="H10" s="119" t="s">
-        <v>472</v>
-      </c>
+      <c r="F10" s="127" t="s">
+        <v>768</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>619</v>
+      </c>
+      <c r="H10" s="127"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
@@ -9739,25 +9721,23 @@
       <c r="A11" s="117">
         <v>8</v>
       </c>
-      <c r="B11" s="119" t="s">
-        <v>520</v>
-      </c>
-      <c r="C11" s="119" t="s">
-        <v>525</v>
+      <c r="B11" s="127" t="s">
+        <v>744</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>269</v>
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="117">
         <v>18</v>
       </c>
-      <c r="F11" s="119" t="s">
-        <v>391</v>
-      </c>
-      <c r="G11" s="119" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="119" t="s">
-        <v>474</v>
-      </c>
+      <c r="F11" s="127" t="s">
+        <v>507</v>
+      </c>
+      <c r="G11" s="127">
+        <v>126.2</v>
+      </c>
+      <c r="H11" s="127"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -9768,25 +9748,23 @@
       <c r="A12" s="117">
         <v>9</v>
       </c>
-      <c r="B12" s="119" t="s">
-        <v>618</v>
-      </c>
-      <c r="C12" s="119" t="s">
-        <v>619</v>
+      <c r="B12" s="127" t="s">
+        <v>761</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>715</v>
       </c>
       <c r="D12" s="119"/>
       <c r="E12" s="117">
         <v>19</v>
       </c>
-      <c r="F12" s="119" t="s">
-        <v>629</v>
-      </c>
-      <c r="G12" s="119" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="119" t="s">
-        <v>473</v>
-      </c>
+      <c r="F12" s="127" t="s">
+        <v>719</v>
+      </c>
+      <c r="G12" s="127" t="s">
+        <v>718</v>
+      </c>
+      <c r="H12" s="127"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -9797,25 +9775,19 @@
       <c r="A13" s="117">
         <v>10</v>
       </c>
-      <c r="B13" s="119" t="s">
-        <v>620</v>
-      </c>
-      <c r="C13" s="119" t="s">
-        <v>621</v>
-      </c>
+      <c r="B13" s="119"/>
+      <c r="C13" s="127"/>
       <c r="D13" s="119"/>
       <c r="E13" s="117">
         <v>20</v>
       </c>
-      <c r="F13" s="119" t="s">
-        <v>630</v>
-      </c>
-      <c r="G13" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="119" t="s">
-        <v>475</v>
-      </c>
+      <c r="F13" s="127" t="s">
+        <v>764</v>
+      </c>
+      <c r="G13" s="127" t="s">
+        <v>716</v>
+      </c>
+      <c r="H13" s="127"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -9823,16 +9795,16 @@
       <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="148" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="148"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="152"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -9840,7 +9812,7 @@
       <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="117" t="s">
         <v>321</v>
       </c>
@@ -9870,26 +9842,22 @@
       <c r="A16" s="117">
         <v>1</v>
       </c>
-      <c r="B16" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="119" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="119" t="s">
-        <v>497</v>
-      </c>
+      <c r="B16" s="125" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
       <c r="E16" s="117">
         <v>11</v>
       </c>
-      <c r="F16" s="119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="119" t="s">
-        <v>516</v>
+      <c r="F16" s="126" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="127" t="s">
+        <v>519</v>
       </c>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
@@ -9901,26 +9869,26 @@
       <c r="A17" s="117">
         <v>2</v>
       </c>
-      <c r="B17" s="119" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="119" t="s">
-        <v>498</v>
+      <c r="B17" s="125" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="127" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="127" t="s">
+        <v>497</v>
       </c>
       <c r="E17" s="117">
         <v>12</v>
       </c>
-      <c r="F17" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="119" t="s">
-        <v>201</v>
-      </c>
-      <c r="H17" s="119" t="s">
-        <v>517</v>
+      <c r="F17" s="126" t="s">
+        <v>553</v>
+      </c>
+      <c r="G17" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>550</v>
       </c>
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
@@ -9932,26 +9900,26 @@
       <c r="A18" s="117">
         <v>3</v>
       </c>
-      <c r="B18" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="119" t="s">
-        <v>500</v>
+      <c r="B18" s="125" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="127" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="127" t="s">
+        <v>706</v>
       </c>
       <c r="E18" s="117">
         <v>13</v>
       </c>
-      <c r="F18" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="119" t="s">
-        <v>519</v>
+      <c r="F18" s="126" t="s">
+        <v>554</v>
+      </c>
+      <c r="G18" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="127" t="s">
+        <v>551</v>
       </c>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
@@ -9963,26 +9931,26 @@
       <c r="A19" s="117">
         <v>4</v>
       </c>
-      <c r="B19" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="119" t="s">
-        <v>499</v>
+      <c r="B19" s="125" t="s">
+        <v>509</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>501</v>
       </c>
       <c r="E19" s="117">
         <v>14</v>
       </c>
-      <c r="F19" s="119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="119" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="119" t="s">
-        <v>550</v>
+      <c r="F19" s="126" t="s">
+        <v>555</v>
+      </c>
+      <c r="G19" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="127" t="s">
+        <v>705</v>
       </c>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
@@ -9997,26 +9965,26 @@
       <c r="A20" s="117">
         <v>5</v>
       </c>
-      <c r="B20" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="119" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="119" t="s">
-        <v>501</v>
+      <c r="B20" s="125" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="127" t="s">
+        <v>498</v>
       </c>
       <c r="E20" s="117">
         <v>15</v>
       </c>
-      <c r="F20" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="119" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="119" t="s">
-        <v>551</v>
+      <c r="F20" s="126" t="s">
+        <v>355</v>
+      </c>
+      <c r="G20" s="127" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="127" t="s">
+        <v>503</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -10031,27 +9999,21 @@
       <c r="A21" s="117">
         <v>6</v>
       </c>
-      <c r="B21" s="119" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="119" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="119" t="s">
-        <v>510</v>
+      <c r="B21" s="125" t="s">
+        <v>512</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="127" t="s">
+        <v>500</v>
       </c>
       <c r="E21" s="117">
         <v>16</v>
       </c>
-      <c r="F21" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="119" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="119" t="s">
-        <v>552</v>
-      </c>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -10065,25 +10027,21 @@
       <c r="A22" s="117">
         <v>7</v>
       </c>
-      <c r="B22" s="119" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="119" t="s">
+      <c r="B22" s="125" t="s">
+        <v>514</v>
+      </c>
+      <c r="C22" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="119" t="s">
+      <c r="D22" s="127" t="s">
         <v>502</v>
       </c>
       <c r="E22" s="117">
         <v>17</v>
       </c>
-      <c r="F22" s="119" t="s">
-        <v>344</v>
-      </c>
-      <c r="G22" s="119">
-        <v>304</v>
-      </c>
-      <c r="H22" s="119"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
@@ -10097,25 +10055,21 @@
       <c r="A23" s="117">
         <v>8</v>
       </c>
-      <c r="B23" s="119" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="119" t="s">
-        <v>503</v>
+      <c r="B23" s="125" t="s">
+        <v>515</v>
+      </c>
+      <c r="C23" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="127" t="s">
+        <v>510</v>
       </c>
       <c r="E23" s="117">
         <v>18</v>
       </c>
-      <c r="F23" s="119" t="s">
-        <v>344</v>
-      </c>
-      <c r="G23" s="119">
-        <v>305</v>
-      </c>
-      <c r="H23" s="119"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
@@ -10129,57 +10083,53 @@
       <c r="A24" s="117">
         <v>9</v>
       </c>
-      <c r="B24" s="119" t="s">
-        <v>638</v>
-      </c>
-      <c r="C24" s="119">
-        <v>301</v>
-      </c>
-      <c r="D24" s="119"/>
+      <c r="B24" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>516</v>
+      </c>
       <c r="E24" s="117">
         <v>19</v>
       </c>
-      <c r="F24" s="119" t="s">
-        <v>344</v>
-      </c>
-      <c r="G24" s="119">
-        <v>306</v>
-      </c>
-      <c r="H24" s="119"/>
+      <c r="F24" s="126"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="117">
         <v>10</v>
       </c>
-      <c r="B25" s="119" t="s">
-        <v>637</v>
-      </c>
-      <c r="C25" s="119">
-        <v>300</v>
-      </c>
-      <c r="D25" s="119"/>
+      <c r="B25" s="125" t="s">
+        <v>518</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="127" t="s">
+        <v>517</v>
+      </c>
       <c r="E25" s="117">
         <v>20</v>
       </c>
-      <c r="F25" s="119" t="s">
-        <v>344</v>
-      </c>
-      <c r="G25" s="119">
-        <v>307</v>
-      </c>
-      <c r="H25" s="119"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="148" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="152"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
@@ -10338,13 +10288,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C33" s="119" t="s">
         <v>204</v>
       </c>
       <c r="D33" s="119" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E33" s="117">
         <v>16</v>
@@ -10364,13 +10314,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="119" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C34" s="119" t="s">
         <v>230</v>
       </c>
       <c r="D34" s="119" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E34" s="117">
         <v>17</v>
@@ -10390,13 +10340,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="119" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C35" s="119" t="s">
         <v>255</v>
       </c>
       <c r="D35" s="119" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E35" s="117">
         <v>18</v>
@@ -10416,13 +10366,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C36" s="119" t="s">
         <v>254</v>
       </c>
       <c r="D36" s="119" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E36" s="117">
         <v>19</v>
@@ -10442,13 +10392,13 @@
         <v>10</v>
       </c>
       <c r="B37" s="119" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C37" s="119" t="s">
         <v>177</v>
       </c>
       <c r="D37" s="119" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E37" s="117">
         <v>20</v>
@@ -10464,18 +10414,18 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="143" t="s">
-        <v>727</v>
-      </c>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144" t="s">
-        <v>728</v>
-      </c>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="145"/>
+      <c r="B41" s="145" t="s">
+        <v>725</v>
+      </c>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146" t="s">
+        <v>726</v>
+      </c>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="147"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="78">
@@ -10484,7 +10434,7 @@
       <c r="C42" s="77"/>
       <c r="D42" s="77"/>
       <c r="E42" s="88" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F42" s="79">
         <v>1</v>
@@ -10492,7 +10442,7 @@
       <c r="G42" s="80"/>
       <c r="H42" s="81"/>
       <c r="I42" s="80" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10514,9 +10464,7 @@
       <c r="G43" s="80" t="s">
         <v>546</v>
       </c>
-      <c r="H43" s="81" t="s">
-        <v>723</v>
-      </c>
+      <c r="H43" s="81"/>
       <c r="I43" s="80" t="s">
         <v>542</v>
       </c>
@@ -10529,7 +10477,7 @@
         <v>109</v>
       </c>
       <c r="D44" s="81" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E44" s="88" t="s">
         <v>508</v>
@@ -10540,11 +10488,9 @@
       <c r="G44" s="80" t="s">
         <v>547</v>
       </c>
-      <c r="H44" s="81" t="s">
-        <v>719</v>
-      </c>
+      <c r="H44" s="81"/>
       <c r="I44" s="80" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10566,11 +10512,9 @@
       <c r="G45" s="80">
         <v>121.3</v>
       </c>
-      <c r="H45" s="81" t="s">
-        <v>764</v>
-      </c>
+      <c r="H45" s="81"/>
       <c r="I45" s="80" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10590,13 +10534,11 @@
         <v>5</v>
       </c>
       <c r="G46" s="80" t="s">
-        <v>718</v>
-      </c>
-      <c r="H46" s="81" t="s">
-        <v>719</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="H46" s="81"/>
       <c r="I46" s="80" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10648,7 +10590,7 @@
         <v>526</v>
       </c>
       <c r="I48" s="80" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10674,7 +10616,7 @@
         <v>529</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10694,11 +10636,11 @@
         <v>9</v>
       </c>
       <c r="G50" s="80" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H50" s="81"/>
       <c r="I50" s="80" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10789,7 +10731,7 @@
         <v>130</v>
       </c>
       <c r="D55" s="81" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E55" s="88" t="s">
         <v>555</v>
@@ -10848,11 +10790,9 @@
       <c r="G58" s="80" t="s">
         <v>619</v>
       </c>
-      <c r="H58" s="81" t="s">
-        <v>719</v>
-      </c>
+      <c r="H58" s="81"/>
       <c r="I58" s="80" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10868,9 +10808,7 @@
       <c r="G59" s="80">
         <v>126.2</v>
       </c>
-      <c r="H59" s="81" t="s">
-        <v>719</v>
-      </c>
+      <c r="H59" s="81"/>
       <c r="I59" s="80" t="s">
         <v>507</v>
       </c>
@@ -10886,13 +10824,11 @@
         <v>19</v>
       </c>
       <c r="G60" s="80" t="s">
-        <v>720</v>
-      </c>
-      <c r="H60" s="81" t="s">
+        <v>718</v>
+      </c>
+      <c r="H60" s="81"/>
+      <c r="I60" s="80" t="s">
         <v>719</v>
-      </c>
-      <c r="I60" s="80" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10906,13 +10842,11 @@
         <v>20</v>
       </c>
       <c r="G61" s="80" t="s">
-        <v>718</v>
-      </c>
-      <c r="H61" s="81" t="s">
-        <v>719</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="H61" s="81"/>
       <c r="I61" s="80" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -10951,40 +10885,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
-        <v>758</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="151"/>
+      <c r="A1" s="153" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="158"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="159" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="159" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101">
@@ -10994,7 +10928,7 @@
         <v>191</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>400</v>
@@ -11007,7 +10941,7 @@
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11018,7 +10952,7 @@
         <v>262</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>400</v>
@@ -11031,7 +10965,7 @@
       </c>
       <c r="G5" s="81"/>
       <c r="H5" s="81" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11042,7 +10976,7 @@
         <v>240</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D6" s="103" t="s">
         <v>400</v>
@@ -11055,7 +10989,7 @@
       </c>
       <c r="G6" s="81"/>
       <c r="H6" s="81" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11066,7 +11000,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D7" s="103" t="s">
         <v>400</v>
@@ -11104,7 +11038,7 @@
         <v>109</v>
       </c>
       <c r="G8" s="81" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H8" s="81" t="s">
         <v>508</v>
@@ -11251,7 +11185,7 @@
         <v>533</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E14" s="101">
         <v>11</v>
@@ -11274,10 +11208,10 @@
         <v>256</v>
       </c>
       <c r="C15" s="103" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E15" s="101">
         <v>12</v>
@@ -11300,7 +11234,7 @@
         <v>245.75</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>344</v>
@@ -11326,7 +11260,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>344</v>
@@ -11365,7 +11299,7 @@
       </c>
       <c r="G18" s="81"/>
       <c r="H18" s="81" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11389,7 +11323,7 @@
       </c>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11400,7 +11334,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D20" s="103" t="s">
         <v>555</v>
@@ -11413,7 +11347,7 @@
       </c>
       <c r="G20" s="81"/>
       <c r="H20" s="105" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11424,7 +11358,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D21" s="81" t="s">
         <v>505</v>
@@ -11437,7 +11371,7 @@
       </c>
       <c r="G21" s="81"/>
       <c r="H21" s="105" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11485,7 +11419,7 @@
       </c>
       <c r="G23" s="81"/>
       <c r="H23" s="81" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11497,13 +11431,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G24" s="81" t="s">
         <v>526</v>
       </c>
       <c r="H24" s="105" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11521,7 +11455,7 @@
         <v>529</v>
       </c>
       <c r="H25" s="105" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11685,40 +11619,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="A1" s="163" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="159" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="159" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="162"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101">
@@ -11728,7 +11662,7 @@
         <v>191</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D4" s="103" t="s">
         <v>400</v>
@@ -11741,7 +11675,7 @@
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11752,7 +11686,7 @@
         <v>262</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>400</v>
@@ -11765,7 +11699,7 @@
       </c>
       <c r="G5" s="81"/>
       <c r="H5" s="81" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11776,7 +11710,7 @@
         <v>240</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D6" s="103" t="s">
         <v>400</v>
@@ -11789,7 +11723,7 @@
       </c>
       <c r="G6" s="81"/>
       <c r="H6" s="81" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11800,7 +11734,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D7" s="103" t="s">
         <v>400</v>
@@ -11838,7 +11772,7 @@
         <v>109</v>
       </c>
       <c r="G8" s="81" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H8" s="81" t="s">
         <v>508</v>
@@ -11985,7 +11919,7 @@
         <v>533</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E14" s="101">
         <v>11</v>
@@ -12008,10 +11942,10 @@
         <v>256</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E15" s="101">
         <v>12</v>
@@ -12037,7 +11971,7 @@
         <v>526</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E16" s="101">
         <v>13</v>
@@ -12063,7 +11997,7 @@
         <v>529</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E17" s="101">
         <v>14</v>
@@ -12099,7 +12033,7 @@
       </c>
       <c r="G18" s="81"/>
       <c r="H18" s="81" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12123,7 +12057,7 @@
       </c>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12134,7 +12068,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D20" s="81" t="s">
         <v>555</v>
@@ -12147,7 +12081,7 @@
       </c>
       <c r="G20" s="81"/>
       <c r="H20" s="105" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12158,7 +12092,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D21" s="81" t="s">
         <v>505</v>
@@ -12171,7 +12105,7 @@
       </c>
       <c r="G21" s="81"/>
       <c r="H21" s="105" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12219,7 +12153,7 @@
       </c>
       <c r="G23" s="81"/>
       <c r="H23" s="81" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -12252,40 +12186,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
-        <v>761</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="162"/>
+      <c r="A1" s="164" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="169"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
-        <v>727</v>
-      </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144" t="s">
-        <v>728</v>
-      </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
+      <c r="A3" s="145" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146" t="s">
+        <v>726</v>
+      </c>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="147"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
@@ -12294,7 +12228,7 @@
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
       <c r="D4" s="88" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E4" s="79">
         <v>1</v>
@@ -12302,7 +12236,7 @@
       <c r="F4" s="80"/>
       <c r="G4" s="81"/>
       <c r="H4" s="80" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12325,7 +12259,7 @@
         <v>546</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>542</v>
@@ -12339,7 +12273,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D6" s="88" t="s">
         <v>508</v>
@@ -12351,10 +12285,10 @@
         <v>547</v>
       </c>
       <c r="G6" s="81" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H6" s="80" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12377,10 +12311,10 @@
         <v>121.3</v>
       </c>
       <c r="G7" s="81" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H7" s="80" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12400,13 +12334,13 @@
         <v>5</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G8" s="81" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12458,7 +12392,7 @@
         <v>526</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12484,7 +12418,7 @@
         <v>529</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12504,11 +12438,11 @@
         <v>9</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G12" s="81"/>
       <c r="H12" s="80" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12608,7 +12542,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D17" s="88" t="s">
         <v>555</v>
@@ -12674,10 +12608,10 @@
         <v>619</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H20" s="80" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12694,7 +12628,7 @@
         <v>126.2</v>
       </c>
       <c r="G21" s="81" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H21" s="80" t="s">
         <v>507</v>
@@ -12711,13 +12645,13 @@
         <v>19</v>
       </c>
       <c r="F22" s="80" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G22" s="81" t="s">
+        <v>717</v>
+      </c>
+      <c r="H22" s="80" t="s">
         <v>719</v>
-      </c>
-      <c r="H22" s="80" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12731,13 +12665,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G23" s="81" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H23" s="80" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA3594-A95E-4762-B488-3D4CBA08E226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6673462-731C-46C7-B475-A815AACE0E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38355" yWindow="3975" windowWidth="21600" windowHeight="15435" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15330" yWindow="6975" windowWidth="21600" windowHeight="15435" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="766">
   <si>
     <t>AWACS</t>
   </si>
@@ -2179,9 +2179,6 @@
     <t>118.2</t>
   </si>
   <si>
-    <t>TWR</t>
-  </si>
-  <si>
     <t>119.2</t>
   </si>
   <si>
@@ -2191,9 +2188,6 @@
     <t xml:space="preserve">Al Minhad TWR </t>
   </si>
   <si>
-    <t>GND</t>
-  </si>
-  <si>
     <t>Bandar Abbas TWR</t>
   </si>
   <si>
@@ -2312,9 +2306,6 @@
   </si>
   <si>
     <t>TEXACO tanker</t>
-  </si>
-  <si>
-    <t>APP</t>
   </si>
   <si>
     <t>UAE Center</t>
@@ -3162,7 +3153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3430,15 +3421,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3572,6 +3560,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4994,13 +4988,13 @@
       <c r="T19" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="V19" s="130" t="s">
+      <c r="V19" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="132"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
+      <c r="Z19" s="131"/>
       <c r="AB19" s="128" t="s">
         <v>14</v>
       </c>
@@ -5162,7 +5156,7 @@
         <v>628</v>
       </c>
       <c r="AB21" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>58</v>
@@ -5228,7 +5222,7 @@
         <v>715</v>
       </c>
       <c r="Y22" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="Z22" t="s">
         <v>628</v>
@@ -5497,13 +5491,13 @@
       </c>
       <c r="O27" s="53"/>
       <c r="R27" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="S27" t="s">
         <v>557</v>
       </c>
       <c r="U27" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
@@ -5541,13 +5535,13 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="S28" t="s">
         <v>558</v>
       </c>
       <c r="U28" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
@@ -6026,15 +6020,15 @@
       <c r="F39" t="s">
         <v>638</v>
       </c>
-      <c r="J39" s="129" t="s">
+      <c r="J39" s="127" t="s">
         <v>493</v>
       </c>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6172,96 +6166,91 @@
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W45" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="X45" s="16" t="s">
         <v>137</v>
       </c>
       <c r="Y45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="Z45" s="17" t="s">
         <v>70</v>
       </c>
       <c r="AA45" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W46" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="X46" s="16" t="s">
         <v>115</v>
       </c>
       <c r="Y46" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Z46" s="17" t="s">
         <v>205</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="49" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W49" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="X49" s="16" t="s">
         <v>100</v>
       </c>
       <c r="Y49" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Z49" s="17" t="s">
         <v>124</v>
       </c>
       <c r="AA49" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="50" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W50" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="X50" s="16" t="s">
         <v>158</v>
       </c>
       <c r="Y50" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="Z50" s="17" t="s">
         <v>136</v>
       </c>
       <c r="AA50" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="51" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W51" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="X51" s="16" t="s">
         <v>74</v>
       </c>
       <c r="Y51" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Z51" s="17" t="s">
         <v>150</v>
       </c>
       <c r="AA51" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6269,6 +6258,11 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6294,34 +6288,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="169" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="136" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="135" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
@@ -6863,22 +6857,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="171" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="172" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="44"/>
@@ -6983,12 +6977,12 @@
       <c r="E10" s="44"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="172" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="44"/>
@@ -8332,14 +8326,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="132" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8350,16 +8344,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="135" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="136" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="135" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8629,12 +8623,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="138" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
       <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -8760,7 +8754,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="124" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C10" s="122" t="s">
         <v>135</v>
@@ -8775,7 +8769,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="124" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C11" s="122" t="s">
         <v>268</v>
@@ -8842,28 +8836,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="141"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -9150,12 +9144,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="139" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9334,12 +9328,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="139" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="142"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9523,8 +9517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,35 +9526,35 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="143" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="147" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="116"/>
@@ -9588,10 +9582,10 @@
       <c r="A4" s="117">
         <v>1</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="126" t="s">
         <v>714</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="119"/>
       <c r="E4" s="117">
         <v>11</v>
@@ -9604,10 +9598,10 @@
       <c r="A5" s="117">
         <v>2</v>
       </c>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="126" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="126" t="s">
         <v>546</v>
       </c>
       <c r="D5" s="119"/>
@@ -9622,10 +9616,10 @@
       <c r="A6" s="117">
         <v>3</v>
       </c>
-      <c r="B6" s="127" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="127" t="s">
+      <c r="B6" s="126" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" s="126" t="s">
         <v>547</v>
       </c>
       <c r="D6" s="119"/>
@@ -9640,10 +9634,10 @@
       <c r="A7" s="117">
         <v>4</v>
       </c>
-      <c r="B7" s="127" t="s">
-        <v>763</v>
-      </c>
-      <c r="C7" s="127">
+      <c r="B7" s="126" t="s">
+        <v>760</v>
+      </c>
+      <c r="C7" s="126">
         <v>121.3</v>
       </c>
       <c r="D7" s="119"/>
@@ -9658,10 +9652,10 @@
       <c r="A8" s="117">
         <v>5</v>
       </c>
-      <c r="B8" s="127" t="s">
-        <v>722</v>
-      </c>
-      <c r="C8" s="127" t="s">
+      <c r="B8" s="126" t="s">
+        <v>720</v>
+      </c>
+      <c r="C8" s="126" t="s">
         <v>716</v>
       </c>
       <c r="D8" s="119"/>
@@ -9676,10 +9670,10 @@
       <c r="A9" s="117">
         <v>6</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="126" t="s">
         <v>513</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="126" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="119"/>
@@ -9694,23 +9688,23 @@
       <c r="A10" s="117">
         <v>7</v>
       </c>
-      <c r="B10" s="127" t="s">
-        <v>743</v>
-      </c>
-      <c r="C10" s="127" t="s">
+      <c r="B10" s="126" t="s">
+        <v>741</v>
+      </c>
+      <c r="C10" s="126" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="119"/>
       <c r="E10" s="117">
         <v>17</v>
       </c>
-      <c r="F10" s="127" t="s">
-        <v>768</v>
-      </c>
-      <c r="G10" s="127" t="s">
+      <c r="F10" s="126" t="s">
+        <v>765</v>
+      </c>
+      <c r="G10" s="126" t="s">
         <v>619</v>
       </c>
-      <c r="H10" s="127"/>
+      <c r="H10" s="126"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
@@ -9721,23 +9715,23 @@
       <c r="A11" s="117">
         <v>8</v>
       </c>
-      <c r="B11" s="127" t="s">
-        <v>744</v>
-      </c>
-      <c r="C11" s="127" t="s">
+      <c r="B11" s="126" t="s">
+        <v>742</v>
+      </c>
+      <c r="C11" s="126" t="s">
         <v>269</v>
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="117">
         <v>18</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="126" t="s">
         <v>507</v>
       </c>
-      <c r="G11" s="127">
+      <c r="G11" s="126">
         <v>126.2</v>
       </c>
-      <c r="H11" s="127"/>
+      <c r="H11" s="126"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -9748,23 +9742,23 @@
       <c r="A12" s="117">
         <v>9</v>
       </c>
-      <c r="B12" s="127" t="s">
-        <v>761</v>
-      </c>
-      <c r="C12" s="127" t="s">
+      <c r="B12" s="126" t="s">
+        <v>759</v>
+      </c>
+      <c r="C12" s="126" t="s">
         <v>715</v>
       </c>
       <c r="D12" s="119"/>
       <c r="E12" s="117">
         <v>19</v>
       </c>
-      <c r="F12" s="127" t="s">
-        <v>719</v>
-      </c>
-      <c r="G12" s="127" t="s">
+      <c r="F12" s="126" t="s">
         <v>718</v>
       </c>
-      <c r="H12" s="127"/>
+      <c r="G12" s="126" t="s">
+        <v>717</v>
+      </c>
+      <c r="H12" s="126"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -9776,18 +9770,18 @@
         <v>10</v>
       </c>
       <c r="B13" s="119"/>
-      <c r="C13" s="127"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="119"/>
       <c r="E13" s="117">
         <v>20</v>
       </c>
-      <c r="F13" s="127" t="s">
-        <v>764</v>
-      </c>
-      <c r="G13" s="127" t="s">
+      <c r="F13" s="126" t="s">
+        <v>761</v>
+      </c>
+      <c r="G13" s="126" t="s">
         <v>716</v>
       </c>
-      <c r="H13" s="127"/>
+      <c r="H13" s="126"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -9795,16 +9789,16 @@
       <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="152"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="151"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -9813,23 +9807,23 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="121"/>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="117" t="s">
+      <c r="C15" s="173" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="173" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="117" t="s">
+      <c r="E15" s="174"/>
+      <c r="F15" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="117" t="s">
+      <c r="G15" s="173" t="s">
         <v>322</v>
       </c>
-      <c r="H15" s="117" t="s">
+      <c r="H15" s="173" t="s">
         <v>302</v>
       </c>
       <c r="M15" s="42"/>
@@ -9842,21 +9836,21 @@
       <c r="A16" s="117">
         <v>1</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="126" t="s">
         <v>713</v>
       </c>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
-      <c r="E16" s="117">
+      <c r="E16" s="173">
         <v>11</v>
       </c>
       <c r="F16" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="126" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="127" t="s">
+      <c r="H16" s="126" t="s">
         <v>519</v>
       </c>
       <c r="M16" s="42"/>
@@ -9869,25 +9863,25 @@
       <c r="A17" s="117">
         <v>2</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="126" t="s">
         <v>497</v>
       </c>
-      <c r="E17" s="117">
+      <c r="E17" s="173">
         <v>12</v>
       </c>
       <c r="F17" s="126" t="s">
         <v>553</v>
       </c>
-      <c r="G17" s="127" t="s">
+      <c r="G17" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="127" t="s">
+      <c r="H17" s="126" t="s">
         <v>550</v>
       </c>
       <c r="M17" s="42"/>
@@ -9900,25 +9894,25 @@
       <c r="A18" s="117">
         <v>3</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="126" t="s">
         <v>508</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="126" t="s">
         <v>706</v>
       </c>
-      <c r="E18" s="117">
+      <c r="E18" s="173">
         <v>13</v>
       </c>
       <c r="F18" s="126" t="s">
         <v>554</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="126" t="s">
         <v>551</v>
       </c>
       <c r="M18" s="42"/>
@@ -9931,25 +9925,25 @@
       <c r="A19" s="117">
         <v>4</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="126" t="s">
         <v>509</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="126" t="s">
         <v>501</v>
       </c>
-      <c r="E19" s="117">
+      <c r="E19" s="173">
         <v>14</v>
       </c>
       <c r="F19" s="126" t="s">
         <v>555</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="127" t="s">
+      <c r="H19" s="126" t="s">
         <v>705</v>
       </c>
       <c r="J19" s="42"/>
@@ -9965,25 +9959,25 @@
       <c r="A20" s="117">
         <v>5</v>
       </c>
-      <c r="B20" s="125" t="s">
+      <c r="B20" s="126" t="s">
         <v>511</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="126" t="s">
         <v>498</v>
       </c>
-      <c r="E20" s="117">
+      <c r="E20" s="173">
         <v>15</v>
       </c>
       <c r="F20" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="G20" s="127" t="s">
+      <c r="G20" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="127" t="s">
+      <c r="H20" s="126" t="s">
         <v>503</v>
       </c>
       <c r="J20" s="42"/>
@@ -9999,16 +9993,16 @@
       <c r="A21" s="117">
         <v>6</v>
       </c>
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="126" t="s">
         <v>512</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="126" t="s">
         <v>500</v>
       </c>
-      <c r="E21" s="117">
+      <c r="E21" s="173">
         <v>16</v>
       </c>
       <c r="F21" s="126"/>
@@ -10027,16 +10021,16 @@
       <c r="A22" s="117">
         <v>7</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="126" t="s">
         <v>514</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="E22" s="117">
+      <c r="E22" s="173">
         <v>17</v>
       </c>
       <c r="F22" s="126"/>
@@ -10055,16 +10049,16 @@
       <c r="A23" s="117">
         <v>8</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="126" t="s">
         <v>515</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="126" t="s">
         <v>510</v>
       </c>
-      <c r="E23" s="117">
+      <c r="E23" s="173">
         <v>18</v>
       </c>
       <c r="F23" s="126"/>
@@ -10083,16 +10077,16 @@
       <c r="A24" s="117">
         <v>9</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="126" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="126" t="s">
         <v>516</v>
       </c>
-      <c r="E24" s="117">
+      <c r="E24" s="173">
         <v>19</v>
       </c>
       <c r="F24" s="126"/>
@@ -10103,16 +10097,16 @@
       <c r="A25" s="117">
         <v>10</v>
       </c>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="126" t="s">
         <v>518</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="126" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="126" t="s">
         <v>517</v>
       </c>
-      <c r="E25" s="117">
+      <c r="E25" s="173">
         <v>20</v>
       </c>
       <c r="F25" s="126"/>
@@ -10120,16 +10114,16 @@
       <c r="H25" s="126"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="152"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="151"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
@@ -10157,25 +10151,25 @@
       <c r="A28" s="117">
         <v>1</v>
       </c>
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="125" t="s">
         <v>385</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="119" t="s">
+      <c r="D28" s="125" t="s">
         <v>476</v>
       </c>
       <c r="E28" s="117">
         <v>11</v>
       </c>
-      <c r="F28" s="119" t="s">
+      <c r="F28" s="125" t="s">
         <v>568</v>
       </c>
-      <c r="G28" s="119" t="s">
+      <c r="G28" s="125" t="s">
         <v>560</v>
       </c>
-      <c r="H28" s="119" t="s">
+      <c r="H28" s="125" t="s">
         <v>585</v>
       </c>
     </row>
@@ -10183,25 +10177,25 @@
       <c r="A29" s="117">
         <v>2</v>
       </c>
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="125" t="s">
         <v>388</v>
       </c>
-      <c r="C29" s="119" t="s">
+      <c r="C29" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="125" t="s">
         <v>477</v>
       </c>
       <c r="E29" s="117">
         <v>12</v>
       </c>
-      <c r="F29" s="119" t="s">
+      <c r="F29" s="125" t="s">
         <v>631</v>
       </c>
-      <c r="G29" s="119" t="s">
+      <c r="G29" s="125" t="s">
         <v>460</v>
       </c>
-      <c r="H29" s="119" t="s">
+      <c r="H29" s="125" t="s">
         <v>481</v>
       </c>
     </row>
@@ -10209,25 +10203,25 @@
       <c r="A30" s="117">
         <v>3</v>
       </c>
-      <c r="B30" s="119" t="s">
+      <c r="B30" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="D30" s="119" t="s">
+      <c r="D30" s="125" t="s">
         <v>478</v>
       </c>
       <c r="E30" s="117">
         <v>13</v>
       </c>
-      <c r="F30" s="119" t="s">
+      <c r="F30" s="125" t="s">
         <v>632</v>
       </c>
-      <c r="G30" s="119" t="s">
+      <c r="G30" s="125" t="s">
         <v>461</v>
       </c>
-      <c r="H30" s="119" t="s">
+      <c r="H30" s="125" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10235,25 +10229,25 @@
       <c r="A31" s="117">
         <v>4</v>
       </c>
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="125" t="s">
         <v>629</v>
       </c>
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="119" t="s">
+      <c r="D31" s="125" t="s">
         <v>479</v>
       </c>
       <c r="E31" s="117">
         <v>14</v>
       </c>
-      <c r="F31" s="119" t="s">
+      <c r="F31" s="125" t="s">
         <v>633</v>
       </c>
-      <c r="G31" s="119" t="s">
+      <c r="G31" s="125" t="s">
         <v>462</v>
       </c>
-      <c r="H31" s="119" t="s">
+      <c r="H31" s="125" t="s">
         <v>485</v>
       </c>
     </row>
@@ -10261,25 +10255,25 @@
       <c r="A32" s="117">
         <v>5</v>
       </c>
-      <c r="B32" s="119" t="s">
+      <c r="B32" s="125" t="s">
         <v>630</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="119" t="s">
+      <c r="D32" s="125" t="s">
         <v>480</v>
       </c>
       <c r="E32" s="117">
         <v>15</v>
       </c>
-      <c r="F32" s="119" t="s">
+      <c r="F32" s="125" t="s">
         <v>634</v>
       </c>
-      <c r="G32" s="119" t="s">
+      <c r="G32" s="125" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="119" t="s">
+      <c r="H32" s="125" t="s">
         <v>487</v>
       </c>
     </row>
@@ -10287,25 +10281,25 @@
       <c r="A33" s="117">
         <v>6</v>
       </c>
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="125" t="s">
         <v>642</v>
       </c>
-      <c r="C33" s="119" t="s">
+      <c r="C33" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="125" t="s">
         <v>637</v>
       </c>
       <c r="E33" s="117">
         <v>16</v>
       </c>
-      <c r="F33" s="119" t="s">
+      <c r="F33" s="125" t="s">
         <v>635</v>
       </c>
-      <c r="G33" s="119" t="s">
+      <c r="G33" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="H33" s="119" t="s">
+      <c r="H33" s="125" t="s">
         <v>489</v>
       </c>
     </row>
@@ -10313,25 +10307,25 @@
       <c r="A34" s="117">
         <v>7</v>
       </c>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="125" t="s">
         <v>643</v>
       </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="119" t="s">
+      <c r="D34" s="125" t="s">
         <v>638</v>
       </c>
       <c r="E34" s="117">
         <v>17</v>
       </c>
-      <c r="F34" s="119" t="s">
+      <c r="F34" s="125" t="s">
         <v>636</v>
       </c>
-      <c r="G34" s="119" t="s">
+      <c r="G34" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="H34" s="119" t="s">
+      <c r="H34" s="125" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10339,25 +10333,25 @@
       <c r="A35" s="117">
         <v>8</v>
       </c>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="125" t="s">
         <v>644</v>
       </c>
-      <c r="C35" s="119" t="s">
+      <c r="C35" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="119" t="s">
+      <c r="D35" s="125" t="s">
         <v>639</v>
       </c>
       <c r="E35" s="117">
         <v>18</v>
       </c>
-      <c r="F35" s="119" t="s">
+      <c r="F35" s="125" t="s">
         <v>527</v>
       </c>
-      <c r="G35" s="119" t="s">
+      <c r="G35" s="125" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="119" t="s">
+      <c r="H35" s="125" t="s">
         <v>562</v>
       </c>
     </row>
@@ -10365,25 +10359,25 @@
       <c r="A36" s="117">
         <v>9</v>
       </c>
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="125" t="s">
         <v>645</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="125" t="s">
         <v>640</v>
       </c>
       <c r="E36" s="117">
         <v>19</v>
       </c>
-      <c r="F36" s="119" t="s">
+      <c r="F36" s="125" t="s">
         <v>528</v>
       </c>
-      <c r="G36" s="119" t="s">
+      <c r="G36" s="125" t="s">
         <v>268</v>
       </c>
-      <c r="H36" s="119" t="s">
+      <c r="H36" s="125" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10391,41 +10385,41 @@
       <c r="A37" s="117">
         <v>10</v>
       </c>
-      <c r="B37" s="119" t="s">
+      <c r="B37" s="125" t="s">
         <v>646</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="125" t="s">
         <v>641</v>
       </c>
       <c r="E37" s="117">
         <v>20</v>
       </c>
-      <c r="F37" s="119" t="s">
+      <c r="F37" s="125" t="s">
         <v>624</v>
       </c>
-      <c r="G37" s="119" t="s">
+      <c r="G37" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="125" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="145" t="s">
-        <v>725</v>
-      </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146" t="s">
-        <v>726</v>
-      </c>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="147"/>
+      <c r="B41" s="144" t="s">
+        <v>723</v>
+      </c>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145" t="s">
+        <v>724</v>
+      </c>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="146"/>
     </row>
     <row r="42" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="78">
@@ -10490,7 +10484,7 @@
       </c>
       <c r="H44" s="81"/>
       <c r="I44" s="80" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10514,7 +10508,7 @@
       </c>
       <c r="H45" s="81"/>
       <c r="I45" s="80" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10538,7 +10532,7 @@
       </c>
       <c r="H46" s="81"/>
       <c r="I46" s="80" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10590,7 +10584,7 @@
         <v>526</v>
       </c>
       <c r="I48" s="80" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="49" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10616,7 +10610,7 @@
         <v>529</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10640,7 +10634,7 @@
       </c>
       <c r="H50" s="81"/>
       <c r="I50" s="80" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10792,7 +10786,7 @@
       </c>
       <c r="H58" s="81"/>
       <c r="I58" s="80" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="59" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10824,11 +10818,11 @@
         <v>19</v>
       </c>
       <c r="G60" s="80" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H60" s="81"/>
       <c r="I60" s="80" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10846,7 +10840,7 @@
       </c>
       <c r="H61" s="81"/>
       <c r="I61" s="80" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -10885,40 +10879,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
-        <v>756</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="155"/>
+      <c r="A1" s="152" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="158"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="158" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="159" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="158" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101">
@@ -10941,7 +10935,7 @@
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10965,7 +10959,7 @@
       </c>
       <c r="G5" s="81"/>
       <c r="H5" s="81" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10989,7 +10983,7 @@
       </c>
       <c r="G6" s="81"/>
       <c r="H6" s="81" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11185,7 +11179,7 @@
         <v>533</v>
       </c>
       <c r="D14" s="103" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E14" s="101">
         <v>11</v>
@@ -11211,7 +11205,7 @@
         <v>704</v>
       </c>
       <c r="D15" s="103" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E15" s="101">
         <v>12</v>
@@ -11234,7 +11228,7 @@
         <v>245.75</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D16" s="110" t="s">
         <v>344</v>
@@ -11260,7 +11254,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D17" s="110" t="s">
         <v>344</v>
@@ -11299,7 +11293,7 @@
       </c>
       <c r="G18" s="81"/>
       <c r="H18" s="81" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11323,7 +11317,7 @@
       </c>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11347,7 +11341,7 @@
       </c>
       <c r="G20" s="81"/>
       <c r="H20" s="105" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11358,7 +11352,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D21" s="81" t="s">
         <v>505</v>
@@ -11371,7 +11365,7 @@
       </c>
       <c r="G21" s="81"/>
       <c r="H21" s="105" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11419,7 +11413,7 @@
       </c>
       <c r="G23" s="81"/>
       <c r="H23" s="81" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11431,13 +11425,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G24" s="81" t="s">
         <v>526</v>
       </c>
       <c r="H24" s="105" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11455,7 +11449,7 @@
         <v>529</v>
       </c>
       <c r="H25" s="105" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11619,40 +11613,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
+      <c r="A1" s="162" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="157"/>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="158" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="159" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="158" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="160"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="162"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="101">
@@ -11675,7 +11669,7 @@
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11699,7 +11693,7 @@
       </c>
       <c r="G5" s="81"/>
       <c r="H5" s="81" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11723,7 +11717,7 @@
       </c>
       <c r="G6" s="81"/>
       <c r="H6" s="81" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11919,7 +11913,7 @@
         <v>533</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E14" s="101">
         <v>11</v>
@@ -11945,7 +11939,7 @@
         <v>704</v>
       </c>
       <c r="D15" s="81" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E15" s="101">
         <v>12</v>
@@ -11971,7 +11965,7 @@
         <v>526</v>
       </c>
       <c r="D16" s="105" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E16" s="101">
         <v>13</v>
@@ -11997,7 +11991,7 @@
         <v>529</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E17" s="101">
         <v>14</v>
@@ -12033,7 +12027,7 @@
       </c>
       <c r="G18" s="81"/>
       <c r="H18" s="81" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12057,7 +12051,7 @@
       </c>
       <c r="G19" s="81"/>
       <c r="H19" s="81" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12081,7 +12075,7 @@
       </c>
       <c r="G20" s="81"/>
       <c r="H20" s="105" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12092,7 +12086,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D21" s="81" t="s">
         <v>505</v>
@@ -12105,7 +12099,7 @@
       </c>
       <c r="G21" s="81"/>
       <c r="H21" s="105" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12153,7 +12147,7 @@
       </c>
       <c r="G23" s="81"/>
       <c r="H23" s="81" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -12171,8 +12165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12186,40 +12180,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
-        <v>759</v>
-      </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="166"/>
+      <c r="A1" s="163" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="167"/>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="169"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
-        <v>725</v>
-      </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146" t="s">
-        <v>726</v>
-      </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="147"/>
+      <c r="A3" s="144" t="s">
+        <v>723</v>
+      </c>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145" t="s">
+        <v>724</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
@@ -12258,9 +12252,7 @@
       <c r="F5" s="80" t="s">
         <v>546</v>
       </c>
-      <c r="G5" s="81" t="s">
-        <v>721</v>
-      </c>
+      <c r="G5" s="81"/>
       <c r="H5" s="80" t="s">
         <v>542</v>
       </c>
@@ -12284,11 +12276,9 @@
       <c r="F6" s="80" t="s">
         <v>547</v>
       </c>
-      <c r="G6" s="81" t="s">
-        <v>717</v>
-      </c>
+      <c r="G6" s="81"/>
       <c r="H6" s="80" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12310,11 +12300,9 @@
       <c r="F7" s="80">
         <v>121.3</v>
       </c>
-      <c r="G7" s="81" t="s">
-        <v>762</v>
-      </c>
+      <c r="G7" s="81"/>
       <c r="H7" s="80" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12336,11 +12324,9 @@
       <c r="F8" s="80" t="s">
         <v>716</v>
       </c>
-      <c r="G8" s="81" t="s">
-        <v>717</v>
-      </c>
+      <c r="G8" s="81"/>
       <c r="H8" s="80" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12392,7 +12378,7 @@
         <v>526</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12418,7 +12404,7 @@
         <v>529</v>
       </c>
       <c r="H11" s="80" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12442,7 +12428,7 @@
       </c>
       <c r="G12" s="81"/>
       <c r="H12" s="80" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12607,11 +12593,9 @@
       <c r="F20" s="80" t="s">
         <v>619</v>
       </c>
-      <c r="G20" s="81" t="s">
-        <v>717</v>
-      </c>
+      <c r="G20" s="81"/>
       <c r="H20" s="80" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12627,9 +12611,7 @@
       <c r="F21" s="80">
         <v>126.2</v>
       </c>
-      <c r="G21" s="81" t="s">
-        <v>717</v>
-      </c>
+      <c r="G21" s="81"/>
       <c r="H21" s="80" t="s">
         <v>507</v>
       </c>
@@ -12645,13 +12627,11 @@
         <v>19</v>
       </c>
       <c r="F22" s="80" t="s">
+        <v>717</v>
+      </c>
+      <c r="G22" s="81"/>
+      <c r="H22" s="80" t="s">
         <v>718</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>717</v>
-      </c>
-      <c r="H22" s="80" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12667,11 +12647,9 @@
       <c r="F23" s="80" t="s">
         <v>716</v>
       </c>
-      <c r="G23" s="81" t="s">
-        <v>717</v>
-      </c>
+      <c r="G23" s="81"/>
       <c r="H23" s="80" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6673462-731C-46C7-B475-A815AACE0E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C6951-B136-4465-B0A8-E671E8FE34CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15330" yWindow="6975" windowWidth="21600" windowHeight="15435" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37725" yWindow="2670" windowWidth="21600" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="766">
   <si>
     <t>AWACS</t>
   </si>
@@ -3153,7 +3153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3325,9 +3325,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3423,10 +3420,16 @@
     <xf numFmtId="0" fontId="23" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3561,10 +3564,31 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4004,21 +4028,21 @@
       <c r="S4" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="V4" s="128" t="s">
+      <c r="V4" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Z4" s="128" t="s">
+      <c r="W4" s="126"/>
+      <c r="X4" s="126"/>
+      <c r="Z4" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AD4" s="128" t="s">
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="126"/>
+      <c r="AD4" s="126" t="s">
         <v>293</v>
       </c>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="126"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="58" t="s">
@@ -4368,7 +4392,7 @@
         <v>298</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="S9" s="99"/>
+      <c r="S9" s="96"/>
       <c r="V9" s="8" t="s">
         <v>7</v>
       </c>
@@ -4424,10 +4448,10 @@
         <v>299</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="95" t="s">
+      <c r="R10" s="92" t="s">
         <v>542</v>
       </c>
-      <c r="S10" s="96" t="s">
+      <c r="S10" s="93" t="s">
         <v>546</v>
       </c>
       <c r="V10" s="8" t="s">
@@ -4482,7 +4506,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="R11" s="100" t="s">
+      <c r="R11" s="97" t="s">
         <v>543</v>
       </c>
       <c r="S11" s="72" t="s">
@@ -4497,11 +4521,11 @@
       <c r="X11" t="s">
         <v>510</v>
       </c>
-      <c r="Z11" s="128" t="s">
+      <c r="Z11" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="126"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="58" t="s">
@@ -4548,7 +4572,7 @@
         <v>303</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="100" t="s">
+      <c r="R12" s="97" t="s">
         <v>544</v>
       </c>
       <c r="S12" s="72" t="s">
@@ -4618,10 +4642,10 @@
         <v>18</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" s="97" t="s">
+      <c r="R13" s="94" t="s">
         <v>545</v>
       </c>
-      <c r="S13" s="98" t="s">
+      <c r="S13" s="95" t="s">
         <v>549</v>
       </c>
       <c r="V13" s="8" t="s">
@@ -4752,10 +4776,10 @@
         <v>307</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" s="95" t="s">
+      <c r="R15" s="92" t="s">
         <v>620</v>
       </c>
-      <c r="S15" s="96" t="s">
+      <c r="S15" s="93" t="s">
         <v>621</v>
       </c>
       <c r="V15" s="8" t="s">
@@ -4818,10 +4842,10 @@
         <v>306</v>
       </c>
       <c r="Q16" s="4"/>
-      <c r="R16" s="97" t="s">
+      <c r="R16" s="94" t="s">
         <v>618</v>
       </c>
-      <c r="S16" s="98" t="s">
+      <c r="S16" s="95" t="s">
         <v>619</v>
       </c>
       <c r="V16" s="74" t="s">
@@ -4928,11 +4952,11 @@
         <v>311</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="128" t="s">
+      <c r="R18" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -4988,20 +5012,20 @@
       <c r="T19" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="V19" s="129" t="s">
+      <c r="V19" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
-      <c r="Z19" s="131"/>
-      <c r="AB19" s="128" t="s">
+      <c r="W19" s="129"/>
+      <c r="X19" s="129"/>
+      <c r="Y19" s="129"/>
+      <c r="Z19" s="130"/>
+      <c r="AB19" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
+      <c r="AC19" s="126"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="58" t="s">
@@ -5022,13 +5046,13 @@
       <c r="G20" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="87">
         <v>241.75</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="86" t="s">
         <v>209</v>
       </c>
       <c r="K20" s="40" t="s">
@@ -5390,11 +5414,11 @@
       </c>
       <c r="O25" s="53"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="128" t="s">
+      <c r="R25" s="126" t="s">
         <v>556</v>
       </c>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="58" t="s">
@@ -5545,33 +5569,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="126" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="J31" s="128" t="s">
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="J31" s="126" t="s">
         <v>313</v>
       </c>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="U31" s="128" t="s">
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="U31" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="126"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="52" t="s">
@@ -6251,6 +6275,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6258,11 +6287,6 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6288,34 +6312,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="168" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="134" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="135" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="134" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
@@ -6857,22 +6881,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="171" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="44"/>
@@ -6977,12 +7001,12 @@
       <c r="E10" s="44"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="171" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="44"/>
@@ -8326,14 +8350,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8344,16 +8368,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="134" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="135" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="134" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8610,8 +8634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8623,173 +8647,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
       <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="122"/>
-      <c r="B2" s="123" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="120" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="120" t="s">
         <v>302</v>
       </c>
       <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="123">
+      <c r="A3" s="120">
         <v>1</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="121" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="119" t="s">
         <v>560</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="121" t="s">
         <v>561</v>
       </c>
       <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="123">
+      <c r="A4" s="120">
         <v>2</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="121" t="s">
         <v>569</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="119" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="119" t="s">
         <v>481</v>
       </c>
       <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="123">
+      <c r="A5" s="120">
         <v>3</v>
       </c>
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="121" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="119" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="119" t="s">
         <v>484</v>
       </c>
       <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="123">
+      <c r="A6" s="120">
         <v>4</v>
       </c>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="121" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="119" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="119" t="s">
         <v>485</v>
       </c>
       <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="123">
+      <c r="A7" s="120">
         <v>5</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="121" t="s">
         <v>572</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="119" t="s">
         <v>487</v>
       </c>
       <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="123">
+      <c r="A8" s="120">
         <v>6</v>
       </c>
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="121" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="122" t="s">
+      <c r="C8" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="119" t="s">
         <v>489</v>
       </c>
       <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="123">
+      <c r="A9" s="120">
         <v>7</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="121" t="s">
         <v>574</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="119" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="119" t="s">
         <v>491</v>
       </c>
       <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="123">
+      <c r="A10" s="120">
         <v>8</v>
       </c>
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="121" t="s">
         <v>763</v>
       </c>
-      <c r="C10" s="122" t="s">
+      <c r="C10" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="119" t="s">
         <v>562</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="123">
+      <c r="A11" s="120">
         <v>9</v>
       </c>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="119" t="s">
         <v>563</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="123">
+      <c r="A12" s="120">
         <v>10</v>
       </c>
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="121" t="s">
         <v>567</v>
       </c>
-      <c r="C12" s="122" t="s">
+      <c r="C12" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="119" t="s">
         <v>564</v>
       </c>
       <c r="E12" s="43"/>
@@ -8821,7 +8845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -8836,28 +8860,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="141" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="138" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="141"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -9144,12 +9168,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="138" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9328,12 +9352,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="138" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="140"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9517,194 +9541,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="148"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="114" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="117" t="s">
+      <c r="E3" s="115"/>
+      <c r="F3" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="117" t="s">
+      <c r="G3" s="114" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="H3" s="114" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="117">
+      <c r="A4" s="114">
         <v>1</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="123" t="s">
         <v>714</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="117">
+      <c r="C4" s="123"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="114">
         <v>11</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="117">
+      <c r="A5" s="114">
         <v>2</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="123" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="C5" s="123" t="s">
         <v>546</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="117">
+      <c r="D5" s="116"/>
+      <c r="E5" s="114">
         <v>12</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="119"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="116"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="117">
+      <c r="A6" s="114">
         <v>3</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="123" t="s">
         <v>719</v>
       </c>
-      <c r="C6" s="126" t="s">
+      <c r="C6" s="123" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="117">
+      <c r="D6" s="116"/>
+      <c r="E6" s="114">
         <v>13</v>
       </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="117">
+      <c r="A7" s="114">
         <v>4</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="123" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="123">
         <v>121.3</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="117">
+      <c r="D7" s="116"/>
+      <c r="E7" s="114">
         <v>14</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="117">
+      <c r="A8" s="114">
         <v>5</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="123" t="s">
         <v>720</v>
       </c>
-      <c r="C8" s="126" t="s">
+      <c r="C8" s="123" t="s">
         <v>716</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="117">
+      <c r="D8" s="116"/>
+      <c r="E8" s="114">
         <v>15</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="117">
+      <c r="A9" s="114">
         <v>6</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="123" t="s">
         <v>513</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="117">
+      <c r="D9" s="116"/>
+      <c r="E9" s="114">
         <v>16</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="117">
+      <c r="A10" s="114">
         <v>7</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="123" t="s">
         <v>741</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="117">
+      <c r="D10" s="116"/>
+      <c r="E10" s="114">
         <v>17</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="123" t="s">
         <v>765</v>
       </c>
-      <c r="G10" s="126" t="s">
+      <c r="G10" s="123" t="s">
         <v>619</v>
       </c>
-      <c r="H10" s="126"/>
+      <c r="H10" s="123"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
@@ -9712,26 +9738,26 @@
       <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="117">
+      <c r="A11" s="114">
         <v>8</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="C11" s="123" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="117">
+      <c r="D11" s="116"/>
+      <c r="E11" s="114">
         <v>18</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="123" t="s">
         <v>507</v>
       </c>
-      <c r="G11" s="126">
+      <c r="G11" s="123">
         <v>126.2</v>
       </c>
-      <c r="H11" s="126"/>
+      <c r="H11" s="123"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -9739,26 +9765,26 @@
       <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="117">
+      <c r="A12" s="114">
         <v>9</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="123" t="s">
         <v>759</v>
       </c>
-      <c r="C12" s="126" t="s">
+      <c r="C12" s="123" t="s">
         <v>715</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="117">
+      <c r="D12" s="116"/>
+      <c r="E12" s="114">
         <v>19</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="123" t="s">
         <v>718</v>
       </c>
-      <c r="G12" s="126" t="s">
+      <c r="G12" s="123" t="s">
         <v>717</v>
       </c>
-      <c r="H12" s="126"/>
+      <c r="H12" s="123"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -9766,22 +9792,22 @@
       <c r="Q12" s="42"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="117">
+      <c r="A13" s="114">
         <v>10</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="117">
+      <c r="B13" s="116"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="114">
         <v>20</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="123" t="s">
         <v>761</v>
       </c>
-      <c r="G13" s="126" t="s">
+      <c r="G13" s="123" t="s">
         <v>716</v>
       </c>
-      <c r="H13" s="126"/>
+      <c r="H13" s="123"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -9789,16 +9815,16 @@
       <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="146" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="151"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -9806,24 +9832,24 @@
       <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
-      <c r="B15" s="173" t="s">
+      <c r="A15" s="118"/>
+      <c r="B15" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="173" t="s">
+      <c r="D15" s="124" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="174"/>
-      <c r="F15" s="173" t="s">
+      <c r="E15" s="125"/>
+      <c r="F15" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="173" t="s">
+      <c r="G15" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="H15" s="173" t="s">
+      <c r="H15" s="124" t="s">
         <v>302</v>
       </c>
       <c r="M15" s="42"/>
@@ -9833,24 +9859,24 @@
       <c r="Q15" s="42"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="117">
+      <c r="A16" s="114">
         <v>1</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="123" t="s">
         <v>713</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="173">
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="124">
         <v>11</v>
       </c>
-      <c r="F16" s="126" t="s">
+      <c r="F16" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="126" t="s">
+      <c r="G16" s="123" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="123" t="s">
         <v>519</v>
       </c>
       <c r="M16" s="42"/>
@@ -9860,28 +9886,28 @@
       <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="117">
+      <c r="A17" s="114">
         <v>2</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="123" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="C17" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="123" t="s">
         <v>497</v>
       </c>
-      <c r="E17" s="173">
+      <c r="E17" s="124">
         <v>12</v>
       </c>
-      <c r="F17" s="126" t="s">
+      <c r="F17" s="123" t="s">
         <v>553</v>
       </c>
-      <c r="G17" s="126" t="s">
+      <c r="G17" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="123" t="s">
         <v>550</v>
       </c>
       <c r="M17" s="42"/>
@@ -9891,28 +9917,28 @@
       <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="117">
+      <c r="A18" s="114">
         <v>3</v>
       </c>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="123" t="s">
         <v>508</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D18" s="123" t="s">
         <v>706</v>
       </c>
-      <c r="E18" s="173">
+      <c r="E18" s="124">
         <v>13</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="123" t="s">
         <v>554</v>
       </c>
-      <c r="G18" s="126" t="s">
+      <c r="G18" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="H18" s="123" t="s">
         <v>551</v>
       </c>
       <c r="M18" s="42"/>
@@ -9922,28 +9948,28 @@
       <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="117">
+      <c r="A19" s="114">
         <v>4</v>
       </c>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="123" t="s">
         <v>509</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="126" t="s">
+      <c r="D19" s="123" t="s">
         <v>501</v>
       </c>
-      <c r="E19" s="173">
+      <c r="E19" s="124">
         <v>14</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="123" t="s">
         <v>555</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="123" t="s">
         <v>705</v>
       </c>
       <c r="J19" s="42"/>
@@ -9956,28 +9982,28 @@
       <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="117">
+      <c r="A20" s="114">
         <v>5</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="123" t="s">
         <v>511</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="C20" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="126" t="s">
+      <c r="D20" s="123" t="s">
         <v>498</v>
       </c>
-      <c r="E20" s="173">
+      <c r="E20" s="124">
         <v>15</v>
       </c>
-      <c r="F20" s="126" t="s">
+      <c r="F20" s="123" t="s">
         <v>355</v>
       </c>
-      <c r="G20" s="126" t="s">
+      <c r="G20" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="123" t="s">
         <v>503</v>
       </c>
       <c r="J20" s="42"/>
@@ -9990,24 +10016,24 @@
       <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="117">
+      <c r="A21" s="114">
         <v>6</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="123" t="s">
         <v>512</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="123" t="s">
         <v>500</v>
       </c>
-      <c r="E21" s="173">
+      <c r="E21" s="124">
         <v>16</v>
       </c>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -10018,24 +10044,24 @@
       <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="117">
+      <c r="A22" s="114">
         <v>7</v>
       </c>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="123" t="s">
         <v>514</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="126" t="s">
+      <c r="D22" s="123" t="s">
         <v>502</v>
       </c>
-      <c r="E22" s="173">
+      <c r="E22" s="124">
         <v>17</v>
       </c>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
@@ -10046,24 +10072,24 @@
       <c r="Q22" s="42"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="117">
+      <c r="A23" s="114">
         <v>8</v>
       </c>
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="123" t="s">
         <v>515</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="126" t="s">
+      <c r="D23" s="123" t="s">
         <v>510</v>
       </c>
-      <c r="E23" s="173">
+      <c r="E23" s="124">
         <v>18</v>
       </c>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
@@ -10074,780 +10100,553 @@
       <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="117">
+      <c r="A24" s="114">
         <v>9</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="123" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="126" t="s">
+      <c r="D24" s="123" t="s">
         <v>516</v>
       </c>
-      <c r="E24" s="173">
+      <c r="E24" s="124">
         <v>19</v>
       </c>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="117">
+      <c r="A25" s="114">
         <v>10</v>
       </c>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="123" t="s">
         <v>518</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="123" t="s">
         <v>517</v>
       </c>
-      <c r="E25" s="173">
+      <c r="E25" s="124">
         <v>20</v>
       </c>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="146" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="151"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117" t="s">
+      <c r="A27" s="113"/>
+      <c r="B27" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="114" t="s">
         <v>322</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="117" t="s">
+      <c r="E27" s="115"/>
+      <c r="F27" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="117" t="s">
+      <c r="G27" s="114" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="117" t="s">
+      <c r="H27" s="114" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="117">
+      <c r="A28" s="114">
         <v>1</v>
       </c>
-      <c r="B28" s="125" t="s">
+      <c r="B28" s="122" t="s">
         <v>385</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="122" t="s">
         <v>476</v>
       </c>
-      <c r="E28" s="117">
+      <c r="E28" s="114">
         <v>11</v>
       </c>
-      <c r="F28" s="125" t="s">
+      <c r="F28" s="122" t="s">
         <v>568</v>
       </c>
-      <c r="G28" s="125" t="s">
+      <c r="G28" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="H28" s="125" t="s">
+      <c r="H28" s="122" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="117">
+      <c r="A29" s="114">
         <v>2</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="122" t="s">
         <v>388</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="122" t="s">
         <v>477</v>
       </c>
-      <c r="E29" s="117">
+      <c r="E29" s="114">
         <v>12</v>
       </c>
-      <c r="F29" s="125" t="s">
+      <c r="F29" s="122" t="s">
         <v>631</v>
       </c>
-      <c r="G29" s="125" t="s">
+      <c r="G29" s="122" t="s">
         <v>460</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="122" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="117">
+      <c r="A30" s="114">
         <v>3</v>
       </c>
-      <c r="B30" s="125" t="s">
+      <c r="B30" s="122" t="s">
         <v>391</v>
       </c>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="122" t="s">
         <v>195</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="122" t="s">
         <v>478</v>
       </c>
-      <c r="E30" s="117">
+      <c r="E30" s="114">
         <v>13</v>
       </c>
-      <c r="F30" s="125" t="s">
+      <c r="F30" s="122" t="s">
         <v>632</v>
       </c>
-      <c r="G30" s="125" t="s">
+      <c r="G30" s="122" t="s">
         <v>461</v>
       </c>
-      <c r="H30" s="125" t="s">
+      <c r="H30" s="122" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="117">
+      <c r="A31" s="114">
         <v>4</v>
       </c>
-      <c r="B31" s="125" t="s">
+      <c r="B31" s="122" t="s">
         <v>629</v>
       </c>
-      <c r="C31" s="125" t="s">
+      <c r="C31" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="125" t="s">
+      <c r="D31" s="122" t="s">
         <v>479</v>
       </c>
-      <c r="E31" s="117">
+      <c r="E31" s="114">
         <v>14</v>
       </c>
-      <c r="F31" s="125" t="s">
+      <c r="F31" s="122" t="s">
         <v>633</v>
       </c>
-      <c r="G31" s="125" t="s">
+      <c r="G31" s="122" t="s">
         <v>462</v>
       </c>
-      <c r="H31" s="125" t="s">
+      <c r="H31" s="122" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="117">
+      <c r="A32" s="114">
         <v>5</v>
       </c>
-      <c r="B32" s="125" t="s">
+      <c r="B32" s="122" t="s">
         <v>630</v>
       </c>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="122" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="125" t="s">
+      <c r="D32" s="122" t="s">
         <v>480</v>
       </c>
-      <c r="E32" s="117">
+      <c r="E32" s="114">
         <v>15</v>
       </c>
-      <c r="F32" s="125" t="s">
+      <c r="F32" s="122" t="s">
         <v>634</v>
       </c>
-      <c r="G32" s="125" t="s">
+      <c r="G32" s="122" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="125" t="s">
+      <c r="H32" s="122" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="117">
+      <c r="A33" s="114">
         <v>6</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="B33" s="122" t="s">
         <v>642</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="D33" s="122" t="s">
         <v>637</v>
       </c>
-      <c r="E33" s="117">
+      <c r="E33" s="114">
         <v>16</v>
       </c>
-      <c r="F33" s="125" t="s">
+      <c r="F33" s="122" t="s">
         <v>635</v>
       </c>
-      <c r="G33" s="125" t="s">
+      <c r="G33" s="122" t="s">
         <v>284</v>
       </c>
-      <c r="H33" s="125" t="s">
+      <c r="H33" s="122" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="117">
+      <c r="A34" s="114">
         <v>7</v>
       </c>
-      <c r="B34" s="125" t="s">
+      <c r="B34" s="122" t="s">
         <v>643</v>
       </c>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="125" t="s">
+      <c r="D34" s="122" t="s">
         <v>638</v>
       </c>
-      <c r="E34" s="117">
+      <c r="E34" s="114">
         <v>17</v>
       </c>
-      <c r="F34" s="125" t="s">
+      <c r="F34" s="122" t="s">
         <v>636</v>
       </c>
-      <c r="G34" s="125" t="s">
+      <c r="G34" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="H34" s="125" t="s">
+      <c r="H34" s="122" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="117">
+      <c r="A35" s="114">
         <v>8</v>
       </c>
-      <c r="B35" s="125" t="s">
+      <c r="B35" s="122" t="s">
         <v>644</v>
       </c>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="D35" s="122" t="s">
         <v>639</v>
       </c>
-      <c r="E35" s="117">
+      <c r="E35" s="114">
         <v>18</v>
       </c>
-      <c r="F35" s="125" t="s">
+      <c r="F35" s="122" t="s">
         <v>527</v>
       </c>
-      <c r="G35" s="125" t="s">
+      <c r="G35" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="125" t="s">
+      <c r="H35" s="122" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="117">
+      <c r="A36" s="114">
         <v>9</v>
       </c>
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="122" t="s">
         <v>645</v>
       </c>
-      <c r="C36" s="125" t="s">
+      <c r="C36" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="D36" s="125" t="s">
+      <c r="D36" s="122" t="s">
         <v>640</v>
       </c>
-      <c r="E36" s="117">
+      <c r="E36" s="114">
         <v>19</v>
       </c>
-      <c r="F36" s="125" t="s">
+      <c r="F36" s="122" t="s">
         <v>528</v>
       </c>
-      <c r="G36" s="125" t="s">
+      <c r="G36" s="122" t="s">
         <v>268</v>
       </c>
-      <c r="H36" s="125" t="s">
+      <c r="H36" s="122" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="117">
+      <c r="A37" s="114">
         <v>10</v>
       </c>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="122" t="s">
         <v>646</v>
       </c>
-      <c r="C37" s="125" t="s">
+      <c r="C37" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="122" t="s">
         <v>641</v>
       </c>
-      <c r="E37" s="117">
+      <c r="E37" s="114">
         <v>20</v>
       </c>
-      <c r="F37" s="125" t="s">
+      <c r="F37" s="122" t="s">
         <v>624</v>
       </c>
-      <c r="G37" s="125" t="s">
+      <c r="G37" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="125" t="s">
+      <c r="H37" s="122" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="144" t="s">
-        <v>723</v>
-      </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145" t="s">
-        <v>724</v>
-      </c>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="146"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="78">
-        <v>1</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="88" t="s">
-        <v>713</v>
-      </c>
-      <c r="F42" s="79">
-        <v>1</v>
-      </c>
-      <c r="G42" s="80"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="80" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="78">
-        <v>2</v>
-      </c>
-      <c r="C43" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>497</v>
-      </c>
-      <c r="E43" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="F43" s="79">
-        <v>2</v>
-      </c>
-      <c r="G43" s="80" t="s">
-        <v>546</v>
-      </c>
-      <c r="H43" s="81"/>
-      <c r="I43" s="80" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="78">
-        <v>3</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>706</v>
-      </c>
-      <c r="E44" s="88" t="s">
-        <v>508</v>
-      </c>
-      <c r="F44" s="79">
-        <v>3</v>
-      </c>
-      <c r="G44" s="80" t="s">
-        <v>547</v>
-      </c>
-      <c r="H44" s="81"/>
-      <c r="I44" s="80" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="78">
-        <v>4</v>
-      </c>
-      <c r="C45" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="81" t="s">
-        <v>501</v>
-      </c>
-      <c r="E45" s="88" t="s">
-        <v>509</v>
-      </c>
-      <c r="F45" s="79">
-        <v>4</v>
-      </c>
-      <c r="G45" s="80">
-        <v>121.3</v>
-      </c>
-      <c r="H45" s="81"/>
-      <c r="I45" s="80" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="78">
-        <v>5</v>
-      </c>
-      <c r="C46" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>498</v>
-      </c>
-      <c r="E46" s="88" t="s">
-        <v>511</v>
-      </c>
-      <c r="F46" s="79">
-        <v>5</v>
-      </c>
-      <c r="G46" s="80" t="s">
-        <v>716</v>
-      </c>
-      <c r="H46" s="81"/>
-      <c r="I46" s="80" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="78">
-        <v>6</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="E47" s="88" t="s">
-        <v>512</v>
-      </c>
-      <c r="F47" s="79">
-        <v>6</v>
-      </c>
-      <c r="G47" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="H47" s="81" t="s">
-        <v>392</v>
-      </c>
-      <c r="I47" s="80" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="78">
-        <v>7</v>
-      </c>
-      <c r="C48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="81" t="s">
-        <v>502</v>
-      </c>
-      <c r="E48" s="88" t="s">
-        <v>514</v>
-      </c>
-      <c r="F48" s="79">
-        <v>7</v>
-      </c>
-      <c r="G48" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="81" t="s">
-        <v>526</v>
-      </c>
-      <c r="I48" s="80" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="78">
-        <v>8</v>
-      </c>
-      <c r="C49" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="81" t="s">
-        <v>510</v>
-      </c>
-      <c r="E49" s="88" t="s">
-        <v>515</v>
-      </c>
-      <c r="F49" s="79">
-        <v>8</v>
-      </c>
-      <c r="G49" s="80" t="s">
-        <v>269</v>
-      </c>
-      <c r="H49" s="81" t="s">
-        <v>529</v>
-      </c>
-      <c r="I49" s="80" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="78">
-        <v>9</v>
-      </c>
-      <c r="C50" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" s="81" t="s">
-        <v>516</v>
-      </c>
-      <c r="E50" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="79">
-        <v>9</v>
-      </c>
-      <c r="G50" s="80" t="s">
-        <v>715</v>
-      </c>
-      <c r="H50" s="81"/>
-      <c r="I50" s="80" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="78">
-        <v>10</v>
-      </c>
-      <c r="C51" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>517</v>
-      </c>
-      <c r="E51" s="88" t="s">
-        <v>518</v>
-      </c>
-      <c r="F51" s="79">
-        <v>10</v>
-      </c>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="80"/>
-    </row>
-    <row r="52" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="78">
-        <v>11</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>519</v>
-      </c>
-      <c r="E52" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="79">
-        <v>11</v>
-      </c>
-      <c r="G52" s="80"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="80"/>
-    </row>
-    <row r="53" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="78">
-        <v>12</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>550</v>
-      </c>
-      <c r="E53" s="88" t="s">
-        <v>553</v>
-      </c>
-      <c r="F53" s="79">
-        <v>12</v>
-      </c>
-      <c r="G53" s="80"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="80"/>
-    </row>
-    <row r="54" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="78">
-        <v>13</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="81" t="s">
-        <v>551</v>
-      </c>
-      <c r="E54" s="88" t="s">
-        <v>554</v>
-      </c>
-      <c r="F54" s="79">
-        <v>13</v>
-      </c>
-      <c r="G54" s="80"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="80"/>
-    </row>
-    <row r="55" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="78">
-        <v>14</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>705</v>
-      </c>
-      <c r="E55" s="88" t="s">
-        <v>555</v>
-      </c>
-      <c r="F55" s="79">
-        <v>14</v>
-      </c>
-      <c r="G55" s="80"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="80"/>
-    </row>
-    <row r="56" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="78">
-        <v>15</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="E56" s="88" t="s">
-        <v>355</v>
-      </c>
-      <c r="F56" s="79">
-        <v>15</v>
-      </c>
-      <c r="G56" s="80"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="80"/>
-    </row>
-    <row r="57" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="78">
-        <v>16</v>
-      </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="79">
-        <v>16</v>
-      </c>
-      <c r="G57" s="80"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="80"/>
-    </row>
-    <row r="58" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="78">
-        <v>17</v>
-      </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="79">
-        <v>17</v>
-      </c>
-      <c r="G58" s="80" t="s">
-        <v>619</v>
-      </c>
-      <c r="H58" s="81"/>
-      <c r="I58" s="80" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="78">
-        <v>18</v>
-      </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="79">
-        <v>18</v>
-      </c>
-      <c r="G59" s="80">
-        <v>126.2</v>
-      </c>
-      <c r="H59" s="81"/>
-      <c r="I59" s="80" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="78">
-        <v>19</v>
-      </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="79">
-        <v>19</v>
-      </c>
-      <c r="G60" s="80" t="s">
-        <v>717</v>
-      </c>
-      <c r="H60" s="81"/>
-      <c r="I60" s="80" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="78">
-        <v>20</v>
-      </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="79">
-        <v>20</v>
-      </c>
-      <c r="G61" s="80" t="s">
-        <v>716</v>
-      </c>
-      <c r="H61" s="81"/>
-      <c r="I61" s="80" t="s">
-        <v>722</v>
-      </c>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B42" s="175"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="178"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="178"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B43" s="175"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="178"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B44" s="175"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="179"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="178"/>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B45" s="175"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="178"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B46" s="175"/>
+      <c r="C46" s="178"/>
+      <c r="D46" s="179"/>
+      <c r="E46" s="177"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="178"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="178"/>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B47" s="175"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="179"/>
+      <c r="E47" s="177"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="178"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B48" s="175"/>
+      <c r="C48" s="178"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="178"/>
+    </row>
+    <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B49" s="175"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="179"/>
+      <c r="E49" s="177"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="178"/>
+    </row>
+    <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B50" s="175"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="178"/>
+    </row>
+    <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B51" s="175"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="178"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="178"/>
+    </row>
+    <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B52" s="175"/>
+      <c r="C52" s="178"/>
+      <c r="D52" s="179"/>
+      <c r="E52" s="177"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="179"/>
+      <c r="I52" s="178"/>
+    </row>
+    <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B53" s="175"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="179"/>
+      <c r="E53" s="177"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="178"/>
+      <c r="H53" s="179"/>
+      <c r="I53" s="178"/>
+    </row>
+    <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B54" s="175"/>
+      <c r="C54" s="178"/>
+      <c r="D54" s="179"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="179"/>
+      <c r="I54" s="178"/>
+    </row>
+    <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B55" s="175"/>
+      <c r="C55" s="178"/>
+      <c r="D55" s="179"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="175"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="178"/>
+    </row>
+    <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B56" s="175"/>
+      <c r="C56" s="178"/>
+      <c r="D56" s="178"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="175"/>
+      <c r="G56" s="178"/>
+      <c r="H56" s="179"/>
+      <c r="I56" s="178"/>
+    </row>
+    <row r="57" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="175"/>
+      <c r="C57" s="176"/>
+      <c r="D57" s="176"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="175"/>
+      <c r="G57" s="178"/>
+      <c r="H57" s="179"/>
+      <c r="I57" s="178"/>
+    </row>
+    <row r="58" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B58" s="175"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="178"/>
+      <c r="H58" s="179"/>
+      <c r="I58" s="178"/>
+    </row>
+    <row r="59" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B59" s="175"/>
+      <c r="C59" s="176"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="177"/>
+      <c r="F59" s="175"/>
+      <c r="G59" s="178"/>
+      <c r="H59" s="179"/>
+      <c r="I59" s="178"/>
+    </row>
+    <row r="60" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B60" s="175"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="177"/>
+      <c r="F60" s="175"/>
+      <c r="G60" s="178"/>
+      <c r="H60" s="179"/>
+      <c r="I60" s="178"/>
+    </row>
+    <row r="61" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B61" s="175"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="177"/>
+      <c r="F61" s="175"/>
+      <c r="G61" s="178"/>
+      <c r="H61" s="179"/>
+      <c r="I61" s="178"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:I41"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="A26:H26"/>
@@ -10861,7 +10660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -10879,58 +10678,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>754</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="156"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="157" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="158" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="157" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101">
+      <c r="A4" s="98">
         <v>1</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="100" t="s">
         <v>700</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="98">
         <v>1</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F4" s="101">
         <v>121.1</v>
       </c>
       <c r="G4" s="81"/>
@@ -10939,22 +10738,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101">
+      <c r="A5" s="98">
         <v>2</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="99" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="100" t="s">
         <v>701</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="98">
         <v>2</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="101">
         <v>121.2</v>
       </c>
       <c r="G5" s="81"/>
@@ -10963,22 +10762,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101">
+      <c r="A6" s="98">
         <v>3</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="100" t="s">
         <v>702</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="98">
         <v>3</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="101">
         <v>121.3</v>
       </c>
       <c r="G6" s="81"/>
@@ -10987,19 +10786,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101">
+      <c r="A7" s="98">
         <v>4</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="99" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="100" t="s">
         <v>703</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="98">
         <v>4</v>
       </c>
       <c r="F7" s="80" t="s">
@@ -11008,24 +10807,24 @@
       <c r="G7" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="102" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101">
+      <c r="A8" s="98">
         <v>5</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="100" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="98">
         <v>5</v>
       </c>
       <c r="F8" s="80" t="s">
@@ -11039,19 +10838,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101">
+      <c r="A9" s="98">
         <v>6</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="100" t="s">
         <v>535</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="98">
         <v>6</v>
       </c>
       <c r="F9" s="80" t="s">
@@ -11065,19 +10864,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="101">
+      <c r="A10" s="98">
         <v>7</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="100" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="98">
         <v>7</v>
       </c>
       <c r="F10" s="80" t="s">
@@ -11091,19 +10890,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101">
+      <c r="A11" s="98">
         <v>8</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="100" t="s">
         <v>537</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="98">
         <v>8</v>
       </c>
       <c r="F11" s="80" t="s">
@@ -11117,19 +10916,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="101">
+      <c r="A12" s="98">
         <v>9</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="100" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="98">
         <v>9</v>
       </c>
       <c r="F12" s="80" t="s">
@@ -11143,19 +10942,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101">
+      <c r="A13" s="98">
         <v>10</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="103" t="s">
+      <c r="C13" s="100" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="98">
         <v>10</v>
       </c>
       <c r="F13" s="80" t="s">
@@ -11169,19 +10968,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101">
+      <c r="A14" s="98">
         <v>11</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="100" t="s">
         <v>533</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="100" t="s">
         <v>739</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="98">
         <v>11</v>
       </c>
       <c r="F14" s="80" t="s">
@@ -11195,19 +10994,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="101">
+      <c r="A15" s="98">
         <v>12</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="C15" s="100" t="s">
         <v>704</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="100" t="s">
         <v>740</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="98">
         <v>12</v>
       </c>
       <c r="F15" s="80" t="s">
@@ -11221,19 +11020,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="101">
+      <c r="A16" s="98">
         <v>13</v>
       </c>
-      <c r="B16" s="109">
+      <c r="B16" s="106">
         <v>245.75</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="100" t="s">
         <v>755</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="98">
         <v>13</v>
       </c>
       <c r="F16" s="80" t="s">
@@ -11247,19 +11046,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101">
+      <c r="A17" s="98">
         <v>14</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="100" t="s">
         <v>738</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="98">
         <v>14</v>
       </c>
       <c r="F17" s="80" t="s">
@@ -11273,22 +11072,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="101">
+      <c r="A18" s="98">
         <v>15</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="100" t="s">
         <v>550</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="100" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="98">
         <v>15</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="101">
         <v>124.1</v>
       </c>
       <c r="G18" s="81"/>
@@ -11297,22 +11096,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101">
+      <c r="A19" s="98">
         <v>16</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="100" t="s">
         <v>551</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="100" t="s">
         <v>554</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="98">
         <v>16</v>
       </c>
-      <c r="F19" s="104">
+      <c r="F19" s="101">
         <v>124.2</v>
       </c>
       <c r="G19" s="81"/>
@@ -11321,34 +11120,34 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101">
+      <c r="A20" s="98">
         <v>17</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="100" t="s">
         <v>705</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="100" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="98">
         <v>17</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="103">
         <v>280.7</v>
       </c>
       <c r="G20" s="81"/>
-      <c r="H20" s="105" t="s">
+      <c r="H20" s="102" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101">
+      <c r="A21" s="98">
         <v>18</v>
       </c>
-      <c r="B21" s="107">
+      <c r="B21" s="104">
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -11357,31 +11156,31 @@
       <c r="D21" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="98">
         <v>18</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="101">
         <v>280.89999999999998</v>
       </c>
       <c r="G21" s="81"/>
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="102" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="101">
+      <c r="A22" s="98">
         <v>19</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="100" t="s">
         <v>503</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="107" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="98">
         <v>19</v>
       </c>
       <c r="F22" s="80" t="s">
@@ -11395,20 +11194,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101">
+      <c r="A23" s="98">
         <v>20</v>
       </c>
-      <c r="B23" s="111">
+      <c r="B23" s="108">
         <v>301</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103" t="s">
+      <c r="C23" s="100"/>
+      <c r="D23" s="100" t="s">
         <v>559</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="98">
         <v>20</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="103">
         <v>121.4</v>
       </c>
       <c r="G23" s="81"/>
@@ -11417,11 +11216,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="101">
+      <c r="A24" s="109"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="98">
         <v>21</v>
       </c>
       <c r="F24" s="80" t="s">
@@ -11430,16 +11229,16 @@
       <c r="G24" s="81" t="s">
         <v>526</v>
       </c>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="102" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="101">
+      <c r="A25" s="109"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="98">
         <v>22</v>
       </c>
       <c r="F25" s="80" t="s">
@@ -11448,16 +11247,16 @@
       <c r="G25" s="81" t="s">
         <v>529</v>
       </c>
-      <c r="H25" s="105" t="s">
+      <c r="H25" s="102" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="112"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="101">
+      <c r="A26" s="109"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="98">
         <v>23</v>
       </c>
       <c r="F26" s="80">
@@ -11469,11 +11268,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="112"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="101">
+      <c r="A27" s="109"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="98">
         <v>24</v>
       </c>
       <c r="F27" s="80">
@@ -11485,11 +11284,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="101">
+      <c r="A28" s="109"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="98">
         <v>25</v>
       </c>
       <c r="F28" s="80">
@@ -11501,11 +11300,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="112"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="101">
+      <c r="A29" s="109"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="98">
         <v>26</v>
       </c>
       <c r="F29" s="80">
@@ -11517,11 +11316,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="101">
+      <c r="A30" s="109"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="98">
         <v>27</v>
       </c>
       <c r="F30" s="80">
@@ -11533,11 +11332,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="101">
+      <c r="A31" s="109"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="98">
         <v>28</v>
       </c>
       <c r="F31" s="80">
@@ -11549,11 +11348,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="101">
+      <c r="A32" s="109"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="98">
         <v>29</v>
       </c>
       <c r="F32" s="80">
@@ -11565,11 +11364,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="101">
+      <c r="A33" s="111"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="98">
         <v>30</v>
       </c>
       <c r="F33" s="80">
@@ -11595,8 +11394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11608,63 +11407,63 @@
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="161" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="157" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="158" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="157" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101">
+      <c r="A4" s="98">
         <v>1</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="99" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="81" t="s">
         <v>700</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="98">
         <v>1</v>
       </c>
-      <c r="F4" s="104">
+      <c r="F4" s="101">
         <v>121.1</v>
       </c>
       <c r="G4" s="81"/>
@@ -11673,22 +11472,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="101">
+      <c r="A5" s="98">
         <v>2</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="99" t="s">
         <v>262</v>
       </c>
       <c r="C5" s="81" t="s">
         <v>701</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="98">
         <v>2</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="101">
         <v>121.2</v>
       </c>
       <c r="G5" s="81"/>
@@ -11697,22 +11496,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101">
+      <c r="A6" s="98">
         <v>3</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="99" t="s">
         <v>240</v>
       </c>
       <c r="C6" s="81" t="s">
         <v>702</v>
       </c>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="98">
         <v>3</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="101">
         <v>121.3</v>
       </c>
       <c r="G6" s="81"/>
@@ -11721,19 +11520,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="101">
+      <c r="A7" s="98">
         <v>4</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="99" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="81" t="s">
         <v>703</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D7" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="98">
         <v>4</v>
       </c>
       <c r="F7" s="80" t="s">
@@ -11742,24 +11541,24 @@
       <c r="G7" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="102" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101">
+      <c r="A8" s="98">
         <v>5</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="99" t="s">
         <v>257</v>
       </c>
       <c r="C8" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="98">
         <v>5</v>
       </c>
       <c r="F8" s="80" t="s">
@@ -11773,19 +11572,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="101">
+      <c r="A9" s="98">
         <v>6</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="99" t="s">
         <v>212</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>535</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="98">
         <v>6</v>
       </c>
       <c r="F9" s="80" t="s">
@@ -11799,19 +11598,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="101">
+      <c r="A10" s="98">
         <v>7</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="99" t="s">
         <v>223</v>
       </c>
       <c r="C10" s="81" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="98">
         <v>7</v>
       </c>
       <c r="F10" s="80" t="s">
@@ -11825,19 +11624,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101">
+      <c r="A11" s="98">
         <v>8</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="99" t="s">
         <v>189</v>
       </c>
       <c r="C11" s="81" t="s">
         <v>537</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="98">
         <v>8</v>
       </c>
       <c r="F11" s="80" t="s">
@@ -11851,19 +11650,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="101">
+      <c r="A12" s="98">
         <v>9</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="99" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="81" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="98">
         <v>9</v>
       </c>
       <c r="F12" s="80" t="s">
@@ -11877,19 +11676,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101">
+      <c r="A13" s="98">
         <v>10</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="99" t="s">
         <v>187</v>
       </c>
       <c r="C13" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="103" t="s">
+      <c r="D13" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="98">
         <v>10</v>
       </c>
       <c r="F13" s="80" t="s">
@@ -11903,10 +11702,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="101">
+      <c r="A14" s="98">
         <v>11</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="99" t="s">
         <v>248</v>
       </c>
       <c r="C14" s="81" t="s">
@@ -11915,7 +11714,7 @@
       <c r="D14" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="98">
         <v>11</v>
       </c>
       <c r="F14" s="80" t="s">
@@ -11929,10 +11728,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="101">
+      <c r="A15" s="98">
         <v>12</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="99" t="s">
         <v>256</v>
       </c>
       <c r="C15" s="81" t="s">
@@ -11941,7 +11740,7 @@
       <c r="D15" s="81" t="s">
         <v>740</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="98">
         <v>12</v>
       </c>
       <c r="F15" s="80" t="s">
@@ -11955,19 +11754,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="101">
+      <c r="A16" s="98">
         <v>13</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="99" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="81" t="s">
         <v>526</v>
       </c>
-      <c r="D16" s="105" t="s">
+      <c r="D16" s="102" t="s">
         <v>741</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="98">
         <v>13</v>
       </c>
       <c r="F16" s="80" t="s">
@@ -11981,19 +11780,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101">
+      <c r="A17" s="98">
         <v>14</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="99" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>529</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="102" t="s">
         <v>742</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="98">
         <v>14</v>
       </c>
       <c r="F17" s="80" t="s">
@@ -12007,10 +11806,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="101">
+      <c r="A18" s="98">
         <v>15</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="99" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="81" t="s">
@@ -12019,10 +11818,10 @@
       <c r="D18" s="81" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="98">
         <v>15</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="101">
         <v>124.1</v>
       </c>
       <c r="G18" s="81"/>
@@ -12031,10 +11830,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101">
+      <c r="A19" s="98">
         <v>16</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="99" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="81" t="s">
@@ -12043,10 +11842,10 @@
       <c r="D19" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="98">
         <v>16</v>
       </c>
-      <c r="F19" s="104">
+      <c r="F19" s="101">
         <v>124.2</v>
       </c>
       <c r="G19" s="81"/>
@@ -12055,10 +11854,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101">
+      <c r="A20" s="98">
         <v>17</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="99" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="81" t="s">
@@ -12067,22 +11866,22 @@
       <c r="D20" s="81" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="98">
         <v>17</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="103">
         <v>280.7</v>
       </c>
       <c r="G20" s="81"/>
-      <c r="H20" s="105" t="s">
+      <c r="H20" s="102" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101">
+      <c r="A21" s="98">
         <v>18</v>
       </c>
-      <c r="B21" s="107">
+      <c r="B21" s="104">
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -12091,34 +11890,34 @@
       <c r="D21" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="98">
         <v>18</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="101">
         <v>280.89999999999998</v>
       </c>
       <c r="G21" s="81"/>
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="102" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="101">
+      <c r="A22" s="98">
         <v>19</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="99" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="81" t="s">
         <v>503</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="102" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="98">
         <v>19</v>
       </c>
-      <c r="F22" s="108" t="s">
+      <c r="F22" s="105" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="81" t="s">
@@ -12129,20 +11928,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101">
+      <c r="A23" s="98">
         <v>20</v>
       </c>
-      <c r="B23" s="109">
+      <c r="B23" s="106">
         <v>301</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="81" t="s">
         <v>559</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="98">
         <v>20</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="103">
         <v>121.4</v>
       </c>
       <c r="G23" s="81"/>
@@ -12163,10 +11962,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:N53"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12176,44 +11978,44 @@
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="164"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="167"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="143" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144" t="s">
         <v>724</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="146"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="145"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
@@ -12221,7 +12023,7 @@
       </c>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="85" t="s">
         <v>713</v>
       </c>
       <c r="E4" s="79">
@@ -12243,7 +12045,7 @@
       <c r="C5" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="85" t="s">
         <v>349</v>
       </c>
       <c r="E5" s="79">
@@ -12267,7 +12069,7 @@
       <c r="C6" s="81" t="s">
         <v>706</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="85" t="s">
         <v>508</v>
       </c>
       <c r="E6" s="79">
@@ -12291,7 +12093,7 @@
       <c r="C7" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="85" t="s">
         <v>509</v>
       </c>
       <c r="E7" s="79">
@@ -12315,7 +12117,7 @@
       <c r="C8" s="81" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="85" t="s">
         <v>511</v>
       </c>
       <c r="E8" s="79">
@@ -12339,7 +12141,7 @@
       <c r="C9" s="81" t="s">
         <v>500</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="85" t="s">
         <v>512</v>
       </c>
       <c r="E9" s="79">
@@ -12365,7 +12167,7 @@
       <c r="C10" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="85" t="s">
         <v>514</v>
       </c>
       <c r="E10" s="79">
@@ -12391,7 +12193,7 @@
       <c r="C11" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="85" t="s">
         <v>515</v>
       </c>
       <c r="E11" s="79">
@@ -12417,7 +12219,7 @@
       <c r="C12" s="81" t="s">
         <v>516</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="85" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="79">
@@ -12441,7 +12243,7 @@
       <c r="C13" s="81" t="s">
         <v>517</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="85" t="s">
         <v>518</v>
       </c>
       <c r="E13" s="79">
@@ -12461,7 +12263,7 @@
       <c r="C14" s="81" t="s">
         <v>519</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="85" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="79">
@@ -12470,9 +12272,9 @@
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
       <c r="H14" s="80"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78">
@@ -12484,7 +12286,7 @@
       <c r="C15" s="81" t="s">
         <v>550</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="85" t="s">
         <v>553</v>
       </c>
       <c r="E15" s="79">
@@ -12493,9 +12295,9 @@
       <c r="F15" s="80"/>
       <c r="G15" s="81"/>
       <c r="H15" s="80"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78">
@@ -12507,7 +12309,7 @@
       <c r="C16" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="85" t="s">
         <v>554</v>
       </c>
       <c r="E16" s="79">
@@ -12516,9 +12318,9 @@
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
       <c r="H16" s="80"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78">
@@ -12530,7 +12332,7 @@
       <c r="C17" s="81" t="s">
         <v>705</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="85" t="s">
         <v>555</v>
       </c>
       <c r="E17" s="79">
@@ -12539,9 +12341,9 @@
       <c r="F17" s="80"/>
       <c r="G17" s="81"/>
       <c r="H17" s="80"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="93"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="90"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78">
@@ -12553,7 +12355,7 @@
       <c r="C18" s="80" t="s">
         <v>503</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="85" t="s">
         <v>355</v>
       </c>
       <c r="E18" s="79">
@@ -12562,9 +12364,9 @@
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
       <c r="H18" s="80"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="93"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="90"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
@@ -12572,7 +12374,7 @@
       </c>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
-      <c r="D19" s="88"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="79">
         <v>16</v>
       </c>
@@ -12586,7 +12388,7 @@
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
-      <c r="D20" s="88"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="79">
         <v>17</v>
       </c>
@@ -12604,7 +12406,7 @@
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
-      <c r="D21" s="88"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="79">
         <v>18</v>
       </c>
@@ -12622,7 +12424,7 @@
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="77"/>
-      <c r="D22" s="88"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="79">
         <v>19</v>
       </c>
@@ -12640,7 +12442,7 @@
       </c>
       <c r="B23" s="77"/>
       <c r="C23" s="77"/>
-      <c r="D23" s="88"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="79">
         <v>20</v>
       </c>
@@ -12742,7 +12544,7 @@
       <c r="G32" s="83"/>
       <c r="H32" s="84"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="82"/>
       <c r="B33" s="83"/>
       <c r="C33" s="83"/>
@@ -12752,7 +12554,7 @@
       <c r="G33" s="83"/>
       <c r="H33" s="84"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="82"/>
       <c r="B34" s="83"/>
       <c r="C34" s="83"/>
@@ -12762,7 +12564,7 @@
       <c r="G34" s="83"/>
       <c r="H34" s="84"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="82"/>
       <c r="B35" s="83"/>
       <c r="C35" s="83"/>
@@ -12772,7 +12574,7 @@
       <c r="G35" s="83"/>
       <c r="H35" s="84"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="82"/>
       <c r="B36" s="83"/>
       <c r="C36" s="83"/>
@@ -12782,7 +12584,7 @@
       <c r="G36" s="83"/>
       <c r="H36" s="84"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="82"/>
       <c r="B37" s="83"/>
       <c r="C37" s="83"/>
@@ -12792,7 +12594,7 @@
       <c r="G37" s="83"/>
       <c r="H37" s="84"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="82"/>
       <c r="B38" s="83"/>
       <c r="C38" s="83"/>
@@ -12801,8 +12603,11 @@
       <c r="F38" s="83"/>
       <c r="G38" s="83"/>
       <c r="H38" s="84"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="82"/>
       <c r="B39" s="83"/>
       <c r="C39" s="83"/>
@@ -12811,8 +12616,11 @@
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
       <c r="H39" s="84"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="82"/>
       <c r="B40" s="83"/>
       <c r="C40" s="83"/>
@@ -12821,8 +12629,11 @@
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
       <c r="H40" s="84"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="82"/>
       <c r="B41" s="83"/>
       <c r="C41" s="83"/>
@@ -12831,9 +12642,11 @@
       <c r="F41" s="83"/>
       <c r="G41" s="83"/>
       <c r="H41" s="84"/>
-      <c r="N41" s="33"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M41" s="21"/>
+      <c r="N41" s="172"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
       <c r="B42" s="83"/>
       <c r="C42" s="83"/>
@@ -12842,9 +12655,11 @@
       <c r="F42" s="83"/>
       <c r="G42" s="83"/>
       <c r="H42" s="84"/>
-      <c r="N42" s="33"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M42" s="21"/>
+      <c r="N42" s="172"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="83"/>
       <c r="C43" s="83"/>
@@ -12854,9 +12669,10 @@
       <c r="G43" s="83"/>
       <c r="H43" s="84"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="33"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N43" s="172"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="82"/>
       <c r="B44" s="83"/>
       <c r="C44" s="83"/>
@@ -12865,9 +12681,11 @@
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
       <c r="H44" s="84"/>
-      <c r="N44" s="33"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M44" s="21"/>
+      <c r="N44" s="172"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="82"/>
       <c r="B45" s="83"/>
       <c r="C45" s="83"/>
@@ -12876,9 +12694,11 @@
       <c r="F45" s="83"/>
       <c r="G45" s="83"/>
       <c r="H45" s="84"/>
-      <c r="N45" s="33"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M45" s="21"/>
+      <c r="N45" s="172"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="82"/>
       <c r="B46" s="83"/>
       <c r="C46" s="83"/>
@@ -12887,9 +12707,11 @@
       <c r="F46" s="83"/>
       <c r="G46" s="83"/>
       <c r="H46" s="84"/>
-      <c r="N46" s="33"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M46" s="21"/>
+      <c r="N46" s="172"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="82"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
@@ -12899,9 +12721,10 @@
       <c r="G47" s="83"/>
       <c r="H47" s="84"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="72"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N47" s="173"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
       <c r="B48" s="83"/>
       <c r="C48" s="83"/>
@@ -12911,9 +12734,10 @@
       <c r="G48" s="83"/>
       <c r="H48" s="84"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="72"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N48" s="173"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="82"/>
       <c r="B49" s="83"/>
       <c r="C49" s="83"/>
@@ -12923,9 +12747,10 @@
       <c r="G49" s="83"/>
       <c r="H49" s="84"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="72"/>
-    </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N49" s="173"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
       <c r="B50" s="83"/>
       <c r="C50" s="83"/>
@@ -12935,33 +12760,54 @@
       <c r="G50" s="83"/>
       <c r="H50" s="84"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="72"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="82"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84"/>
-    </row>
-    <row r="52" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="85"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="87"/>
+      <c r="N50" s="173"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="72"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N52" s="173"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M53" s="4"/>
-      <c r="N53" s="72"/>
+      <c r="N53" s="173"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C6951-B136-4465-B0A8-E671E8FE34CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65585E48-B185-4E43-861A-AAE0BC2266EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37725" yWindow="2670" windowWidth="21600" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37725" yWindow="2670" windowWidth="21600" windowHeight="15435" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -2660,7 +2660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -3149,11 +3149,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3322,9 +3333,6 @@
     <xf numFmtId="0" fontId="17" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3426,12 +3434,36 @@
     <xf numFmtId="0" fontId="24" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3477,6 +3509,75 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3486,72 +3587,6 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3564,31 +3599,22 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4028,21 +4054,21 @@
       <c r="S4" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="V4" s="126" t="s">
+      <c r="V4" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Z4" s="126" t="s">
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Z4" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AD4" s="126" t="s">
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AD4" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="58" t="s">
@@ -4392,7 +4418,7 @@
         <v>298</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="S9" s="96"/>
+      <c r="S9" s="93"/>
       <c r="V9" s="8" t="s">
         <v>7</v>
       </c>
@@ -4448,10 +4474,10 @@
         <v>299</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="92" t="s">
+      <c r="R10" s="89" t="s">
         <v>542</v>
       </c>
-      <c r="S10" s="93" t="s">
+      <c r="S10" s="90" t="s">
         <v>546</v>
       </c>
       <c r="V10" s="8" t="s">
@@ -4506,7 +4532,7 @@
         <v>14</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="R11" s="97" t="s">
+      <c r="R11" s="94" t="s">
         <v>543</v>
       </c>
       <c r="S11" s="72" t="s">
@@ -4521,11 +4547,11 @@
       <c r="X11" t="s">
         <v>510</v>
       </c>
-      <c r="Z11" s="126" t="s">
+      <c r="Z11" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="58" t="s">
@@ -4572,7 +4598,7 @@
         <v>303</v>
       </c>
       <c r="Q12" s="4"/>
-      <c r="R12" s="97" t="s">
+      <c r="R12" s="94" t="s">
         <v>544</v>
       </c>
       <c r="S12" s="72" t="s">
@@ -4642,10 +4668,10 @@
         <v>18</v>
       </c>
       <c r="Q13" s="4"/>
-      <c r="R13" s="94" t="s">
+      <c r="R13" s="91" t="s">
         <v>545</v>
       </c>
-      <c r="S13" s="95" t="s">
+      <c r="S13" s="92" t="s">
         <v>549</v>
       </c>
       <c r="V13" s="8" t="s">
@@ -4776,10 +4802,10 @@
         <v>307</v>
       </c>
       <c r="Q15" s="4"/>
-      <c r="R15" s="92" t="s">
+      <c r="R15" s="89" t="s">
         <v>620</v>
       </c>
-      <c r="S15" s="93" t="s">
+      <c r="S15" s="90" t="s">
         <v>621</v>
       </c>
       <c r="V15" s="8" t="s">
@@ -4842,10 +4868,10 @@
         <v>306</v>
       </c>
       <c r="Q16" s="4"/>
-      <c r="R16" s="94" t="s">
+      <c r="R16" s="91" t="s">
         <v>618</v>
       </c>
-      <c r="S16" s="95" t="s">
+      <c r="S16" s="92" t="s">
         <v>619</v>
       </c>
       <c r="V16" s="74" t="s">
@@ -4952,11 +4978,11 @@
         <v>311</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="126" t="s">
+      <c r="R18" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="126"/>
-      <c r="T18" s="126"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
@@ -5012,20 +5038,20 @@
       <c r="T19" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="V19" s="128" t="s">
+      <c r="V19" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="129"/>
-      <c r="X19" s="129"/>
-      <c r="Y19" s="129"/>
-      <c r="Z19" s="130"/>
-      <c r="AB19" s="126" t="s">
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="135"/>
+      <c r="AB19" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="126"/>
-      <c r="AF19" s="126"/>
+      <c r="AC19" s="132"/>
+      <c r="AD19" s="132"/>
+      <c r="AE19" s="132"/>
+      <c r="AF19" s="132"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="58" t="s">
@@ -5046,13 +5072,13 @@
       <c r="G20" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="84">
         <v>241.75</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="J20" s="86" t="s">
+      <c r="J20" s="83" t="s">
         <v>209</v>
       </c>
       <c r="K20" s="40" t="s">
@@ -5414,11 +5440,11 @@
       </c>
       <c r="O25" s="53"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="126" t="s">
+      <c r="R25" s="132" t="s">
         <v>556</v>
       </c>
-      <c r="S25" s="126"/>
-      <c r="T25" s="126"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="58" t="s">
@@ -5569,33 +5595,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="126" t="s">
+      <c r="B31" s="132" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="J31" s="126" t="s">
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="J31" s="132" t="s">
         <v>313</v>
       </c>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="U31" s="126" t="s">
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="U31" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="52" t="s">
@@ -6044,15 +6070,15 @@
       <c r="F39" t="s">
         <v>638</v>
       </c>
-      <c r="J39" s="127" t="s">
+      <c r="J39" s="131" t="s">
         <v>493</v>
       </c>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="131"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="131"/>
+      <c r="P39" s="131"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6275,11 +6301,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6287,6 +6308,11 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6312,34 +6338,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="174" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="139" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
@@ -6881,22 +6907,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="176" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="177" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="44"/>
@@ -7001,12 +7027,12 @@
       <c r="E10" s="44"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="177" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="44"/>
@@ -8350,14 +8376,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="136" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="133"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8368,16 +8394,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="139" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="139" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8634,7 +8660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -8647,173 +8673,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="142" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
       <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="117" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="117" t="s">
         <v>302</v>
       </c>
       <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="120">
+      <c r="A3" s="117">
         <v>1</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="118" t="s">
         <v>568</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="116" t="s">
         <v>560</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="118" t="s">
         <v>561</v>
       </c>
       <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="120">
+      <c r="A4" s="117">
         <v>2</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="118" t="s">
         <v>569</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="116" t="s">
         <v>460</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="116" t="s">
         <v>481</v>
       </c>
       <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="120">
+      <c r="A5" s="117">
         <v>3</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="118" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="116" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="116" t="s">
         <v>484</v>
       </c>
       <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="120">
+      <c r="A6" s="117">
         <v>4</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="118" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="116" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="116" t="s">
         <v>485</v>
       </c>
       <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="120">
+      <c r="A7" s="117">
         <v>5</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="118" t="s">
         <v>572</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="116" t="s">
         <v>487</v>
       </c>
       <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="120">
+      <c r="A8" s="117">
         <v>6</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="118" t="s">
         <v>573</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="116" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="116" t="s">
         <v>489</v>
       </c>
       <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="120">
+      <c r="A9" s="117">
         <v>7</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="118" t="s">
         <v>574</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="116" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="116" t="s">
         <v>491</v>
       </c>
       <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="120">
+      <c r="A10" s="117">
         <v>8</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="118" t="s">
         <v>763</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="116" t="s">
         <v>562</v>
       </c>
       <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="120">
+      <c r="A11" s="117">
         <v>9</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="118" t="s">
         <v>764</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="116" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="116" t="s">
         <v>563</v>
       </c>
       <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="120">
+      <c r="A12" s="117">
         <v>10</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="118" t="s">
         <v>567</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="116" t="s">
         <v>564</v>
       </c>
       <c r="E12" s="43"/>
@@ -8860,28 +8886,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="146" t="s">
         <v>579</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="143" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="140"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -9168,12 +9194,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="138" t="s">
+      <c r="A15" s="143" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9352,12 +9378,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="143" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9559,178 +9585,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="149" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="115"/>
-      <c r="F3" s="114" t="s">
+      <c r="E3" s="112"/>
+      <c r="F3" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="114">
+      <c r="A4" s="111">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="120" t="s">
         <v>714</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="114">
+      <c r="C4" s="120"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="111">
         <v>11</v>
       </c>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="114">
+      <c r="A5" s="111">
         <v>2</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="120" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="120" t="s">
         <v>546</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="114">
+      <c r="D5" s="113"/>
+      <c r="E5" s="111">
         <v>12</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="116"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="113"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="114">
+      <c r="A6" s="111">
         <v>3</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="120" t="s">
         <v>719</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="120" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="114">
+      <c r="D6" s="113"/>
+      <c r="E6" s="111">
         <v>13</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="114">
+      <c r="A7" s="111">
         <v>4</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="120" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="120">
         <v>121.3</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="114">
+      <c r="D7" s="113"/>
+      <c r="E7" s="111">
         <v>14</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="114">
+      <c r="A8" s="111">
         <v>5</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="120" t="s">
         <v>720</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="120" t="s">
         <v>716</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="114">
+      <c r="D8" s="113"/>
+      <c r="E8" s="111">
         <v>15</v>
       </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="114">
+      <c r="A9" s="111">
         <v>6</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="120" t="s">
         <v>513</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="114">
+      <c r="D9" s="113"/>
+      <c r="E9" s="111">
         <v>16</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="114">
+      <c r="A10" s="111">
         <v>7</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="120" t="s">
         <v>741</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="114">
+      <c r="D10" s="113"/>
+      <c r="E10" s="111">
         <v>17</v>
       </c>
-      <c r="F10" s="123" t="s">
+      <c r="F10" s="120" t="s">
         <v>765</v>
       </c>
-      <c r="G10" s="123" t="s">
+      <c r="G10" s="120" t="s">
         <v>619</v>
       </c>
-      <c r="H10" s="123"/>
+      <c r="H10" s="120"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
@@ -9738,26 +9764,26 @@
       <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="114">
+      <c r="A11" s="111">
         <v>8</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="120" t="s">
         <v>742</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="120" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="114">
+      <c r="D11" s="113"/>
+      <c r="E11" s="111">
         <v>18</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="120" t="s">
         <v>507</v>
       </c>
-      <c r="G11" s="123">
+      <c r="G11" s="120">
         <v>126.2</v>
       </c>
-      <c r="H11" s="123"/>
+      <c r="H11" s="120"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -9765,26 +9791,26 @@
       <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="114">
+      <c r="A12" s="111">
         <v>9</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="120" t="s">
         <v>759</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="120" t="s">
         <v>715</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="114">
+      <c r="D12" s="113"/>
+      <c r="E12" s="111">
         <v>19</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="120" t="s">
         <v>718</v>
       </c>
-      <c r="G12" s="123" t="s">
+      <c r="G12" s="120" t="s">
         <v>717</v>
       </c>
-      <c r="H12" s="123"/>
+      <c r="H12" s="120"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -9792,22 +9818,22 @@
       <c r="Q12" s="42"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="114">
+      <c r="A13" s="111">
         <v>10</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="114">
+      <c r="B13" s="113"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="111">
         <v>20</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="120" t="s">
         <v>761</v>
       </c>
-      <c r="G13" s="123" t="s">
+      <c r="G13" s="120" t="s">
         <v>716</v>
       </c>
-      <c r="H13" s="123"/>
+      <c r="H13" s="120"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -9815,16 +9841,16 @@
       <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="149" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="150"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="153"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -9832,24 +9858,24 @@
       <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
-      <c r="B15" s="124" t="s">
+      <c r="A15" s="115"/>
+      <c r="B15" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="E15" s="125"/>
-      <c r="F15" s="124" t="s">
+      <c r="E15" s="122"/>
+      <c r="F15" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="H15" s="124" t="s">
+      <c r="H15" s="121" t="s">
         <v>302</v>
       </c>
       <c r="M15" s="42"/>
@@ -9859,24 +9885,24 @@
       <c r="Q15" s="42"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="114">
+      <c r="A16" s="111">
         <v>1</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="120" t="s">
         <v>713</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124">
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="121">
         <v>11</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="123" t="s">
+      <c r="G16" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="123" t="s">
+      <c r="H16" s="120" t="s">
         <v>519</v>
       </c>
       <c r="M16" s="42"/>
@@ -9886,28 +9912,28 @@
       <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="114">
+      <c r="A17" s="111">
         <v>2</v>
       </c>
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="120" t="s">
         <v>349</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="120" t="s">
         <v>497</v>
       </c>
-      <c r="E17" s="124">
+      <c r="E17" s="121">
         <v>12</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="120" t="s">
         <v>553</v>
       </c>
-      <c r="G17" s="123" t="s">
+      <c r="G17" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="120" t="s">
         <v>550</v>
       </c>
       <c r="M17" s="42"/>
@@ -9917,28 +9943,28 @@
       <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="114">
+      <c r="A18" s="111">
         <v>3</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="120" t="s">
         <v>508</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="123" t="s">
+      <c r="D18" s="120" t="s">
         <v>706</v>
       </c>
-      <c r="E18" s="124">
+      <c r="E18" s="121">
         <v>13</v>
       </c>
-      <c r="F18" s="123" t="s">
+      <c r="F18" s="120" t="s">
         <v>554</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="120" t="s">
         <v>551</v>
       </c>
       <c r="M18" s="42"/>
@@ -9948,28 +9974,28 @@
       <c r="Q18" s="42"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="114">
+      <c r="A19" s="111">
         <v>4</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="120" t="s">
         <v>509</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="120" t="s">
         <v>501</v>
       </c>
-      <c r="E19" s="124">
+      <c r="E19" s="121">
         <v>14</v>
       </c>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="120" t="s">
         <v>555</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="123" t="s">
+      <c r="H19" s="120" t="s">
         <v>705</v>
       </c>
       <c r="J19" s="42"/>
@@ -9982,28 +10008,28 @@
       <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="114">
+      <c r="A20" s="111">
         <v>5</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="123" t="s">
+      <c r="D20" s="120" t="s">
         <v>498</v>
       </c>
-      <c r="E20" s="124">
+      <c r="E20" s="121">
         <v>15</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="120" t="s">
         <v>355</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="123" t="s">
+      <c r="H20" s="120" t="s">
         <v>503</v>
       </c>
       <c r="J20" s="42"/>
@@ -10016,24 +10042,24 @@
       <c r="Q20" s="42"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="114">
+      <c r="A21" s="111">
         <v>6</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="120" t="s">
         <v>512</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="120" t="s">
         <v>500</v>
       </c>
-      <c r="E21" s="124">
+      <c r="E21" s="121">
         <v>16</v>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -10044,24 +10070,24 @@
       <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="114">
+      <c r="A22" s="111">
         <v>7</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="120" t="s">
         <v>514</v>
       </c>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="120" t="s">
         <v>502</v>
       </c>
-      <c r="E22" s="124">
+      <c r="E22" s="121">
         <v>17</v>
       </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="42"/>
@@ -10072,24 +10098,24 @@
       <c r="Q22" s="42"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="114">
+      <c r="A23" s="111">
         <v>8</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="120" t="s">
         <v>515</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="120" t="s">
         <v>510</v>
       </c>
-      <c r="E23" s="124">
+      <c r="E23" s="121">
         <v>18</v>
       </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
@@ -10100,548 +10126,548 @@
       <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="114">
+      <c r="A24" s="111">
         <v>9</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="120" t="s">
         <v>516</v>
       </c>
-      <c r="E24" s="124">
+      <c r="E24" s="121">
         <v>19</v>
       </c>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="114">
+      <c r="A25" s="111">
         <v>10</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="120" t="s">
         <v>518</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="120" t="s">
         <v>517</v>
       </c>
-      <c r="E25" s="124">
+      <c r="E25" s="121">
         <v>20</v>
       </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="149" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="150"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="153"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="115"/>
-      <c r="F27" s="114" t="s">
+      <c r="E27" s="112"/>
+      <c r="F27" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="114" t="s">
+      <c r="G27" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="114">
+      <c r="A28" s="111">
         <v>1</v>
       </c>
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="119" t="s">
         <v>385</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="119" t="s">
         <v>476</v>
       </c>
-      <c r="E28" s="114">
+      <c r="E28" s="111">
         <v>11</v>
       </c>
-      <c r="F28" s="122" t="s">
+      <c r="F28" s="119" t="s">
         <v>568</v>
       </c>
-      <c r="G28" s="122" t="s">
+      <c r="G28" s="119" t="s">
         <v>560</v>
       </c>
-      <c r="H28" s="122" t="s">
+      <c r="H28" s="119" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="114">
+      <c r="A29" s="111">
         <v>2</v>
       </c>
-      <c r="B29" s="122" t="s">
+      <c r="B29" s="119" t="s">
         <v>388</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="119" t="s">
         <v>477</v>
       </c>
-      <c r="E29" s="114">
+      <c r="E29" s="111">
         <v>12</v>
       </c>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="119" t="s">
         <v>631</v>
       </c>
-      <c r="G29" s="122" t="s">
+      <c r="G29" s="119" t="s">
         <v>460</v>
       </c>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="119" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="114">
+      <c r="A30" s="111">
         <v>3</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="119" t="s">
         <v>391</v>
       </c>
-      <c r="C30" s="122" t="s">
+      <c r="C30" s="119" t="s">
         <v>195</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="119" t="s">
         <v>478</v>
       </c>
-      <c r="E30" s="114">
+      <c r="E30" s="111">
         <v>13</v>
       </c>
-      <c r="F30" s="122" t="s">
+      <c r="F30" s="119" t="s">
         <v>632</v>
       </c>
-      <c r="G30" s="122" t="s">
+      <c r="G30" s="119" t="s">
         <v>461</v>
       </c>
-      <c r="H30" s="122" t="s">
+      <c r="H30" s="119" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="114">
+      <c r="A31" s="111">
         <v>4</v>
       </c>
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="119" t="s">
         <v>629</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="119" t="s">
         <v>479</v>
       </c>
-      <c r="E31" s="114">
+      <c r="E31" s="111">
         <v>14</v>
       </c>
-      <c r="F31" s="122" t="s">
+      <c r="F31" s="119" t="s">
         <v>633</v>
       </c>
-      <c r="G31" s="122" t="s">
+      <c r="G31" s="119" t="s">
         <v>462</v>
       </c>
-      <c r="H31" s="122" t="s">
+      <c r="H31" s="119" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="114">
+      <c r="A32" s="111">
         <v>5</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="119" t="s">
         <v>630</v>
       </c>
-      <c r="C32" s="122" t="s">
+      <c r="C32" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="D32" s="122" t="s">
+      <c r="D32" s="119" t="s">
         <v>480</v>
       </c>
-      <c r="E32" s="114">
+      <c r="E32" s="111">
         <v>15</v>
       </c>
-      <c r="F32" s="122" t="s">
+      <c r="F32" s="119" t="s">
         <v>634</v>
       </c>
-      <c r="G32" s="122" t="s">
+      <c r="G32" s="119" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="122" t="s">
+      <c r="H32" s="119" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="114">
+      <c r="A33" s="111">
         <v>6</v>
       </c>
-      <c r="B33" s="122" t="s">
+      <c r="B33" s="119" t="s">
         <v>642</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="119" t="s">
         <v>637</v>
       </c>
-      <c r="E33" s="114">
+      <c r="E33" s="111">
         <v>16</v>
       </c>
-      <c r="F33" s="122" t="s">
+      <c r="F33" s="119" t="s">
         <v>635</v>
       </c>
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="119" t="s">
         <v>284</v>
       </c>
-      <c r="H33" s="122" t="s">
+      <c r="H33" s="119" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="114">
+      <c r="A34" s="111">
         <v>7</v>
       </c>
-      <c r="B34" s="122" t="s">
+      <c r="B34" s="119" t="s">
         <v>643</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="119" t="s">
         <v>638</v>
       </c>
-      <c r="E34" s="114">
+      <c r="E34" s="111">
         <v>17</v>
       </c>
-      <c r="F34" s="122" t="s">
+      <c r="F34" s="119" t="s">
         <v>636</v>
       </c>
-      <c r="G34" s="122" t="s">
+      <c r="G34" s="119" t="s">
         <v>285</v>
       </c>
-      <c r="H34" s="122" t="s">
+      <c r="H34" s="119" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="114">
+      <c r="A35" s="111">
         <v>8</v>
       </c>
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="119" t="s">
         <v>644</v>
       </c>
-      <c r="C35" s="122" t="s">
+      <c r="C35" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="119" t="s">
         <v>639</v>
       </c>
-      <c r="E35" s="114">
+      <c r="E35" s="111">
         <v>18</v>
       </c>
-      <c r="F35" s="122" t="s">
+      <c r="F35" s="119" t="s">
         <v>527</v>
       </c>
-      <c r="G35" s="122" t="s">
+      <c r="G35" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="122" t="s">
+      <c r="H35" s="119" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="114">
+      <c r="A36" s="111">
         <v>9</v>
       </c>
-      <c r="B36" s="122" t="s">
+      <c r="B36" s="119" t="s">
         <v>645</v>
       </c>
-      <c r="C36" s="122" t="s">
+      <c r="C36" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="119" t="s">
         <v>640</v>
       </c>
-      <c r="E36" s="114">
+      <c r="E36" s="111">
         <v>19</v>
       </c>
-      <c r="F36" s="122" t="s">
+      <c r="F36" s="119" t="s">
         <v>528</v>
       </c>
-      <c r="G36" s="122" t="s">
+      <c r="G36" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="H36" s="122" t="s">
+      <c r="H36" s="119" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="114">
+      <c r="A37" s="111">
         <v>10</v>
       </c>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="119" t="s">
         <v>646</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="119" t="s">
         <v>641</v>
       </c>
-      <c r="E37" s="114">
+      <c r="E37" s="111">
         <v>20</v>
       </c>
-      <c r="F37" s="122" t="s">
+      <c r="F37" s="119" t="s">
         <v>624</v>
       </c>
-      <c r="G37" s="122" t="s">
+      <c r="G37" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="122" t="s">
+      <c r="H37" s="119" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B42" s="175"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="178"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="129"/>
+      <c r="I42" s="128"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B43" s="175"/>
-      <c r="C43" s="178"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="177"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="179"/>
-      <c r="I43" s="178"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="129"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="129"/>
+      <c r="I43" s="128"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B44" s="175"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="177"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="178"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="128"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B45" s="175"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="177"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="178"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="128"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B46" s="175"/>
-      <c r="C46" s="178"/>
-      <c r="D46" s="179"/>
-      <c r="E46" s="177"/>
-      <c r="F46" s="175"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="179"/>
-      <c r="I46" s="178"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="128"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="175"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="179"/>
-      <c r="E47" s="177"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="179"/>
-      <c r="I47" s="178"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="128"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B48" s="175"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="177"/>
-      <c r="F48" s="175"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="179"/>
-      <c r="I48" s="178"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="127"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="128"/>
     </row>
     <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="175"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="179"/>
-      <c r="E49" s="177"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="178"/>
-      <c r="H49" s="179"/>
-      <c r="I49" s="178"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="129"/>
+      <c r="I49" s="128"/>
     </row>
     <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B50" s="175"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="179"/>
-      <c r="E50" s="177"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="179"/>
-      <c r="I50" s="178"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="127"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="128"/>
     </row>
     <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="175"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="179"/>
-      <c r="E51" s="177"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="178"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="178"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="128"/>
     </row>
     <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="175"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="179"/>
-      <c r="E52" s="177"/>
-      <c r="F52" s="175"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="179"/>
-      <c r="I52" s="178"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="128"/>
     </row>
     <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="175"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="179"/>
-      <c r="E53" s="177"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="179"/>
-      <c r="I53" s="178"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="128"/>
     </row>
     <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B54" s="175"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="179"/>
-      <c r="E54" s="177"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="179"/>
-      <c r="I54" s="178"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="128"/>
     </row>
     <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="175"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="179"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="175"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="178"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="128"/>
     </row>
     <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B56" s="175"/>
-      <c r="C56" s="178"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="175"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="179"/>
-      <c r="I56" s="178"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="128"/>
     </row>
     <row r="57" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="175"/>
-      <c r="C57" s="176"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="177"/>
-      <c r="F57" s="175"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="179"/>
-      <c r="I57" s="178"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="128"/>
     </row>
     <row r="58" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="175"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="177"/>
-      <c r="F58" s="175"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="178"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="126"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="128"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="128"/>
     </row>
     <row r="59" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="175"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="177"/>
-      <c r="F59" s="175"/>
-      <c r="G59" s="178"/>
-      <c r="H59" s="179"/>
-      <c r="I59" s="178"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="126"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="128"/>
+      <c r="H59" s="129"/>
+      <c r="I59" s="128"/>
     </row>
     <row r="60" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B60" s="175"/>
-      <c r="C60" s="176"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="177"/>
-      <c r="F60" s="175"/>
-      <c r="G60" s="178"/>
-      <c r="H60" s="179"/>
-      <c r="I60" s="178"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="128"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="128"/>
     </row>
     <row r="61" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="175"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="177"/>
-      <c r="F61" s="175"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="179"/>
-      <c r="I61" s="178"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10678,58 +10704,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>754</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="156"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="156"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="159"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="160" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="160" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98">
+      <c r="A4" s="95">
         <v>1</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="97" t="s">
         <v>700</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="95">
         <v>1</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="98">
         <v>121.1</v>
       </c>
       <c r="G4" s="81"/>
@@ -10738,22 +10764,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98">
+      <c r="A5" s="95">
         <v>2</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="96" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="97" t="s">
         <v>701</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="95">
         <v>2</v>
       </c>
-      <c r="F5" s="101">
+      <c r="F5" s="98">
         <v>121.2</v>
       </c>
       <c r="G5" s="81"/>
@@ -10762,22 +10788,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="98">
+      <c r="A6" s="95">
         <v>3</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="97" t="s">
         <v>702</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="95">
         <v>3</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="98">
         <v>121.3</v>
       </c>
       <c r="G6" s="81"/>
@@ -10786,19 +10812,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98">
+      <c r="A7" s="95">
         <v>4</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="97" t="s">
         <v>703</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="95">
         <v>4</v>
       </c>
       <c r="F7" s="80" t="s">
@@ -10807,24 +10833,24 @@
       <c r="G7" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="99" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98">
+      <c r="A8" s="95">
         <v>5</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="95">
         <v>5</v>
       </c>
       <c r="F8" s="80" t="s">
@@ -10838,19 +10864,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98">
+      <c r="A9" s="95">
         <v>6</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="97" t="s">
         <v>535</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="95">
         <v>6</v>
       </c>
       <c r="F9" s="80" t="s">
@@ -10864,19 +10890,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98">
+      <c r="A10" s="95">
         <v>7</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="95">
         <v>7</v>
       </c>
       <c r="F10" s="80" t="s">
@@ -10890,19 +10916,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98">
+      <c r="A11" s="95">
         <v>8</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="97" t="s">
         <v>537</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="95">
         <v>8</v>
       </c>
       <c r="F11" s="80" t="s">
@@ -10916,19 +10942,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98">
+      <c r="A12" s="95">
         <v>9</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="100" t="s">
+      <c r="C12" s="97" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="95">
         <v>9</v>
       </c>
       <c r="F12" s="80" t="s">
@@ -10942,19 +10968,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98">
+      <c r="A13" s="95">
         <v>10</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="96" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="95">
         <v>10</v>
       </c>
       <c r="F13" s="80" t="s">
@@ -10968,19 +10994,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98">
+      <c r="A14" s="95">
         <v>11</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="97" t="s">
         <v>533</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="97" t="s">
         <v>739</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="95">
         <v>11</v>
       </c>
       <c r="F14" s="80" t="s">
@@ -10994,19 +11020,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98">
+      <c r="A15" s="95">
         <v>12</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="97" t="s">
         <v>704</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="97" t="s">
         <v>740</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="95">
         <v>12</v>
       </c>
       <c r="F15" s="80" t="s">
@@ -11020,19 +11046,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98">
+      <c r="A16" s="95">
         <v>13</v>
       </c>
-      <c r="B16" s="106">
+      <c r="B16" s="103">
         <v>245.75</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="97" t="s">
         <v>755</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="104" t="s">
         <v>344</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="95">
         <v>13</v>
       </c>
       <c r="F16" s="80" t="s">
@@ -11046,19 +11072,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98">
+      <c r="A17" s="95">
         <v>14</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="97" t="s">
         <v>738</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="104" t="s">
         <v>344</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="95">
         <v>14</v>
       </c>
       <c r="F17" s="80" t="s">
@@ -11072,22 +11098,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98">
+      <c r="A18" s="95">
         <v>15</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="97" t="s">
         <v>550</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="97" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="95">
         <v>15</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="98">
         <v>124.1</v>
       </c>
       <c r="G18" s="81"/>
@@ -11096,22 +11122,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98">
+      <c r="A19" s="95">
         <v>16</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="97" t="s">
         <v>551</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="97" t="s">
         <v>554</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="95">
         <v>16</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="98">
         <v>124.2</v>
       </c>
       <c r="G19" s="81"/>
@@ -11120,34 +11146,34 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98">
+      <c r="A20" s="95">
         <v>17</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="97" t="s">
         <v>705</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="97" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="95">
         <v>17</v>
       </c>
-      <c r="F20" s="103">
+      <c r="F20" s="100">
         <v>280.7</v>
       </c>
       <c r="G20" s="81"/>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="99" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98">
+      <c r="A21" s="95">
         <v>18</v>
       </c>
-      <c r="B21" s="104">
+      <c r="B21" s="101">
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -11156,31 +11182,31 @@
       <c r="D21" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="95">
         <v>18</v>
       </c>
-      <c r="F21" s="101">
+      <c r="F21" s="98">
         <v>280.89999999999998</v>
       </c>
       <c r="G21" s="81"/>
-      <c r="H21" s="102" t="s">
+      <c r="H21" s="99" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98">
+      <c r="A22" s="95">
         <v>19</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="97" t="s">
         <v>503</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="104" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="95">
         <v>19</v>
       </c>
       <c r="F22" s="80" t="s">
@@ -11194,20 +11220,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98">
+      <c r="A23" s="95">
         <v>20</v>
       </c>
-      <c r="B23" s="108">
+      <c r="B23" s="105">
         <v>301</v>
       </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100" t="s">
+      <c r="C23" s="97"/>
+      <c r="D23" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="95">
         <v>20</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="100">
         <v>121.4</v>
       </c>
       <c r="G23" s="81"/>
@@ -11216,11 +11242,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="98">
+      <c r="A24" s="106"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="95">
         <v>21</v>
       </c>
       <c r="F24" s="80" t="s">
@@ -11229,16 +11255,16 @@
       <c r="G24" s="81" t="s">
         <v>526</v>
       </c>
-      <c r="H24" s="102" t="s">
+      <c r="H24" s="99" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="98">
+      <c r="A25" s="106"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="95">
         <v>22</v>
       </c>
       <c r="F25" s="80" t="s">
@@ -11247,16 +11273,16 @@
       <c r="G25" s="81" t="s">
         <v>529</v>
       </c>
-      <c r="H25" s="102" t="s">
+      <c r="H25" s="99" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="98">
+      <c r="A26" s="106"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="95">
         <v>23</v>
       </c>
       <c r="F26" s="80">
@@ -11268,11 +11294,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="109"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="98">
+      <c r="A27" s="106"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="95">
         <v>24</v>
       </c>
       <c r="F27" s="80">
@@ -11284,11 +11310,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="109"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="98">
+      <c r="A28" s="106"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="95">
         <v>25</v>
       </c>
       <c r="F28" s="80">
@@ -11300,11 +11326,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="98">
+      <c r="A29" s="106"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="95">
         <v>26</v>
       </c>
       <c r="F29" s="80">
@@ -11316,11 +11342,11 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="98">
+      <c r="A30" s="106"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="95">
         <v>27</v>
       </c>
       <c r="F30" s="80">
@@ -11332,11 +11358,11 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="98">
+      <c r="A31" s="106"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="95">
         <v>28</v>
       </c>
       <c r="F31" s="80">
@@ -11348,11 +11374,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="98">
+      <c r="A32" s="106"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="95">
         <v>29</v>
       </c>
       <c r="F32" s="80">
@@ -11364,11 +11390,11 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="98">
+      <c r="A33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="95">
         <v>30</v>
       </c>
       <c r="F33" s="80">
@@ -11412,58 +11438,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="164" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="160" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="160" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="158"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98">
+      <c r="A4" s="95">
         <v>1</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="96" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="81" t="s">
         <v>700</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="95">
         <v>1</v>
       </c>
-      <c r="F4" s="101">
+      <c r="F4" s="98">
         <v>121.1</v>
       </c>
       <c r="G4" s="81"/>
@@ -11472,22 +11498,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="98">
+      <c r="A5" s="95">
         <v>2</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="96" t="s">
         <v>262</v>
       </c>
       <c r="C5" s="81" t="s">
         <v>701</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="98">
+      <c r="E5" s="95">
         <v>2</v>
       </c>
-      <c r="F5" s="101">
+      <c r="F5" s="98">
         <v>121.2</v>
       </c>
       <c r="G5" s="81"/>
@@ -11496,22 +11522,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="98">
+      <c r="A6" s="95">
         <v>3</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="96" t="s">
         <v>240</v>
       </c>
       <c r="C6" s="81" t="s">
         <v>702</v>
       </c>
-      <c r="D6" s="100" t="s">
+      <c r="D6" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="98">
+      <c r="E6" s="95">
         <v>3</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="98">
         <v>121.3</v>
       </c>
       <c r="G6" s="81"/>
@@ -11520,19 +11546,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="98">
+      <c r="A7" s="95">
         <v>4</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="96" t="s">
         <v>259</v>
       </c>
       <c r="C7" s="81" t="s">
         <v>703</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="95">
         <v>4</v>
       </c>
       <c r="F7" s="80" t="s">
@@ -11541,24 +11567,24 @@
       <c r="G7" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="H7" s="102" t="s">
+      <c r="H7" s="99" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98">
+      <c r="A8" s="95">
         <v>5</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="96" t="s">
         <v>257</v>
       </c>
       <c r="C8" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="95">
         <v>5</v>
       </c>
       <c r="F8" s="80" t="s">
@@ -11572,19 +11598,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="98">
+      <c r="A9" s="95">
         <v>6</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="96" t="s">
         <v>212</v>
       </c>
       <c r="C9" s="81" t="s">
         <v>535</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="95">
         <v>6</v>
       </c>
       <c r="F9" s="80" t="s">
@@ -11598,19 +11624,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="98">
+      <c r="A10" s="95">
         <v>7</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="96" t="s">
         <v>223</v>
       </c>
       <c r="C10" s="81" t="s">
         <v>536</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="95">
         <v>7</v>
       </c>
       <c r="F10" s="80" t="s">
@@ -11624,19 +11650,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98">
+      <c r="A11" s="95">
         <v>8</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="96" t="s">
         <v>189</v>
       </c>
       <c r="C11" s="81" t="s">
         <v>537</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="95">
         <v>8</v>
       </c>
       <c r="F11" s="80" t="s">
@@ -11650,19 +11676,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98">
+      <c r="A12" s="95">
         <v>9</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="96" t="s">
         <v>174</v>
       </c>
       <c r="C12" s="81" t="s">
         <v>538</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E12" s="98">
+      <c r="E12" s="95">
         <v>9</v>
       </c>
       <c r="F12" s="80" t="s">
@@ -11676,19 +11702,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98">
+      <c r="A13" s="95">
         <v>10</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="96" t="s">
         <v>187</v>
       </c>
       <c r="C13" s="81" t="s">
         <v>539</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="97" t="s">
         <v>400</v>
       </c>
-      <c r="E13" s="98">
+      <c r="E13" s="95">
         <v>10</v>
       </c>
       <c r="F13" s="80" t="s">
@@ -11702,10 +11728,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="98">
+      <c r="A14" s="95">
         <v>11</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="96" t="s">
         <v>248</v>
       </c>
       <c r="C14" s="81" t="s">
@@ -11714,7 +11740,7 @@
       <c r="D14" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="95">
         <v>11</v>
       </c>
       <c r="F14" s="80" t="s">
@@ -11728,10 +11754,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="98">
+      <c r="A15" s="95">
         <v>12</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="96" t="s">
         <v>256</v>
       </c>
       <c r="C15" s="81" t="s">
@@ -11740,7 +11766,7 @@
       <c r="D15" s="81" t="s">
         <v>740</v>
       </c>
-      <c r="E15" s="98">
+      <c r="E15" s="95">
         <v>12</v>
       </c>
       <c r="F15" s="80" t="s">
@@ -11754,19 +11780,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="98">
+      <c r="A16" s="95">
         <v>13</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="96" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="81" t="s">
         <v>526</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="99" t="s">
         <v>741</v>
       </c>
-      <c r="E16" s="98">
+      <c r="E16" s="95">
         <v>13</v>
       </c>
       <c r="F16" s="80" t="s">
@@ -11780,19 +11806,19 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98">
+      <c r="A17" s="95">
         <v>14</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="96" t="s">
         <v>269</v>
       </c>
       <c r="C17" s="81" t="s">
         <v>529</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="99" t="s">
         <v>742</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="95">
         <v>14</v>
       </c>
       <c r="F17" s="80" t="s">
@@ -11806,10 +11832,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="98">
+      <c r="A18" s="95">
         <v>15</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="96" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="81" t="s">
@@ -11818,10 +11844,10 @@
       <c r="D18" s="81" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="95">
         <v>15</v>
       </c>
-      <c r="F18" s="101">
+      <c r="F18" s="98">
         <v>124.1</v>
       </c>
       <c r="G18" s="81"/>
@@ -11830,10 +11856,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="98">
+      <c r="A19" s="95">
         <v>16</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="96" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="81" t="s">
@@ -11842,10 +11868,10 @@
       <c r="D19" s="81" t="s">
         <v>554</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="95">
         <v>16</v>
       </c>
-      <c r="F19" s="101">
+      <c r="F19" s="98">
         <v>124.2</v>
       </c>
       <c r="G19" s="81"/>
@@ -11854,10 +11880,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98">
+      <c r="A20" s="95">
         <v>17</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="96" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="81" t="s">
@@ -11866,22 +11892,22 @@
       <c r="D20" s="81" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="95">
         <v>17</v>
       </c>
-      <c r="F20" s="103">
+      <c r="F20" s="100">
         <v>280.7</v>
       </c>
       <c r="G20" s="81"/>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="99" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="98">
+      <c r="A21" s="95">
         <v>18</v>
       </c>
-      <c r="B21" s="104">
+      <c r="B21" s="101">
         <v>241.75</v>
       </c>
       <c r="C21" s="81" t="s">
@@ -11890,34 +11916,34 @@
       <c r="D21" s="81" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="95">
         <v>18</v>
       </c>
-      <c r="F21" s="101">
+      <c r="F21" s="98">
         <v>280.89999999999998</v>
       </c>
       <c r="G21" s="81"/>
-      <c r="H21" s="102" t="s">
+      <c r="H21" s="99" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="98">
+      <c r="A22" s="95">
         <v>19</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="96" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="81" t="s">
         <v>503</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="99" t="s">
         <v>355</v>
       </c>
-      <c r="E22" s="98">
+      <c r="E22" s="95">
         <v>19</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="102" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="81" t="s">
@@ -11928,20 +11954,20 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98">
+      <c r="A23" s="95">
         <v>20</v>
       </c>
-      <c r="B23" s="106">
+      <c r="B23" s="103">
         <v>301</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="81" t="s">
         <v>559</v>
       </c>
-      <c r="E23" s="98">
+      <c r="E23" s="95">
         <v>20</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F23" s="100">
         <v>121.4</v>
       </c>
       <c r="G23" s="81"/>
@@ -11967,8 +11993,8 @@
   </sheetPr>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11982,40 +12008,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="165" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="164"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="167"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="170"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="171" t="s">
         <v>723</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172" t="s">
         <v>724</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="145"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="173"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78">
@@ -12023,7 +12049,7 @@
       </c>
       <c r="B4" s="77"/>
       <c r="C4" s="77"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="82" t="s">
         <v>713</v>
       </c>
       <c r="E4" s="79">
@@ -12045,7 +12071,7 @@
       <c r="C5" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="82" t="s">
         <v>349</v>
       </c>
       <c r="E5" s="79">
@@ -12069,7 +12095,7 @@
       <c r="C6" s="81" t="s">
         <v>706</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="82" t="s">
         <v>508</v>
       </c>
       <c r="E6" s="79">
@@ -12093,7 +12119,7 @@
       <c r="C7" s="81" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="82" t="s">
         <v>509</v>
       </c>
       <c r="E7" s="79">
@@ -12117,7 +12143,7 @@
       <c r="C8" s="81" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="82" t="s">
         <v>511</v>
       </c>
       <c r="E8" s="79">
@@ -12141,7 +12167,7 @@
       <c r="C9" s="81" t="s">
         <v>500</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="82" t="s">
         <v>512</v>
       </c>
       <c r="E9" s="79">
@@ -12167,7 +12193,7 @@
       <c r="C10" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="82" t="s">
         <v>514</v>
       </c>
       <c r="E10" s="79">
@@ -12193,7 +12219,7 @@
       <c r="C11" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="82" t="s">
         <v>515</v>
       </c>
       <c r="E11" s="79">
@@ -12219,7 +12245,7 @@
       <c r="C12" s="81" t="s">
         <v>516</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="82" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="79">
@@ -12243,7 +12269,7 @@
       <c r="C13" s="81" t="s">
         <v>517</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="82" t="s">
         <v>518</v>
       </c>
       <c r="E13" s="79">
@@ -12263,7 +12289,7 @@
       <c r="C14" s="81" t="s">
         <v>519</v>
       </c>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="82" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="79">
@@ -12272,9 +12298,9 @@
       <c r="F14" s="80"/>
       <c r="G14" s="81"/>
       <c r="H14" s="80"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78">
@@ -12286,7 +12312,7 @@
       <c r="C15" s="81" t="s">
         <v>550</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="82" t="s">
         <v>553</v>
       </c>
       <c r="E15" s="79">
@@ -12295,9 +12321,9 @@
       <c r="F15" s="80"/>
       <c r="G15" s="81"/>
       <c r="H15" s="80"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78">
@@ -12309,7 +12335,7 @@
       <c r="C16" s="81" t="s">
         <v>551</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="82" t="s">
         <v>554</v>
       </c>
       <c r="E16" s="79">
@@ -12318,9 +12344,9 @@
       <c r="F16" s="80"/>
       <c r="G16" s="81"/>
       <c r="H16" s="80"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78">
@@ -12332,7 +12358,7 @@
       <c r="C17" s="81" t="s">
         <v>705</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="82" t="s">
         <v>555</v>
       </c>
       <c r="E17" s="79">
@@ -12341,9 +12367,9 @@
       <c r="F17" s="80"/>
       <c r="G17" s="81"/>
       <c r="H17" s="80"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="90"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="87"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78">
@@ -12355,7 +12381,7 @@
       <c r="C18" s="80" t="s">
         <v>503</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="82" t="s">
         <v>355</v>
       </c>
       <c r="E18" s="79">
@@ -12364,9 +12390,9 @@
       <c r="F18" s="80"/>
       <c r="G18" s="81"/>
       <c r="H18" s="80"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="90"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="87"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
@@ -12374,7 +12400,7 @@
       </c>
       <c r="B19" s="77"/>
       <c r="C19" s="77"/>
-      <c r="D19" s="85"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="79">
         <v>16</v>
       </c>
@@ -12388,7 +12414,7 @@
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="77"/>
-      <c r="D20" s="85"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="79">
         <v>17</v>
       </c>
@@ -12406,7 +12432,7 @@
       </c>
       <c r="B21" s="77"/>
       <c r="C21" s="77"/>
-      <c r="D21" s="85"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="79">
         <v>18</v>
       </c>
@@ -12424,7 +12450,7 @@
       </c>
       <c r="B22" s="77"/>
       <c r="C22" s="77"/>
-      <c r="D22" s="85"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="79">
         <v>19</v>
       </c>
@@ -12436,331 +12462,331 @@
         <v>718</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="78">
+    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="178">
         <v>20</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="79">
+      <c r="B23" s="179"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="181">
         <v>20</v>
       </c>
-      <c r="F23" s="80" t="s">
+      <c r="F23" s="182" t="s">
         <v>716</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80" t="s">
+      <c r="G23" s="183"/>
+      <c r="H23" s="182" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
       <c r="O40" s="21"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="172"/>
+      <c r="N41" s="123"/>
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="172"/>
+      <c r="N42" s="123"/>
       <c r="O42" s="21"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="84"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="172"/>
+      <c r="N43" s="123"/>
       <c r="O43" s="21"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="84"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="172"/>
+      <c r="N44" s="123"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="82"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="84"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="172"/>
+      <c r="N45" s="123"/>
       <c r="O45" s="21"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="172"/>
+      <c r="N46" s="123"/>
       <c r="O46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="84"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="173"/>
+      <c r="N47" s="124"/>
       <c r="O47" s="21"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="84"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="173"/>
+      <c r="N48" s="124"/>
       <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="173"/>
+      <c r="N49" s="124"/>
       <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="173"/>
+      <c r="N50" s="124"/>
       <c r="O50" s="21"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -12786,12 +12812,12 @@
       <c r="G52" s="42"/>
       <c r="H52" s="42"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="173"/>
+      <c r="N52" s="124"/>
       <c r="O52" s="21"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M53" s="4"/>
-      <c r="N53" s="173"/>
+      <c r="N53" s="124"/>
       <c r="O53" s="21"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ECAEED-EC89-46A8-9E2D-4B8E5F4BA6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFEA301-B7C0-45CF-B1BF-37F61845C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35805" yWindow="2910" windowWidth="21600" windowHeight="12975" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="6930" windowWidth="21600" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="765">
   <si>
     <t>AWACS</t>
   </si>
@@ -1747,9 +1747,6 @@
     <t>RW internal #6</t>
   </si>
   <si>
-    <t>KA-50 presets OPUF V1.0</t>
-  </si>
-  <si>
     <t>11y</t>
   </si>
   <si>
@@ -1960,9 +1957,6 @@
     <t>Internal #10</t>
   </si>
   <si>
-    <t xml:space="preserve">A-10C presets  - OPUF v 1.0 </t>
-  </si>
-  <si>
     <t>MAROON 11</t>
   </si>
   <si>
@@ -2318,6 +2312,15 @@
   </si>
   <si>
     <t>MI-8 presets OPBH V1.0</t>
+  </si>
+  <si>
+    <t>G Washington ATIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-10C presets  - OPBH v 1.0 </t>
+  </si>
+  <si>
+    <t>KA-50 presets OPBH V1.0</t>
   </si>
 </sst>
 </file>
@@ -3462,138 +3465,6 @@
     <xf numFmtId="0" fontId="16" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3606,6 +3477,138 @@
     </xf>
     <xf numFmtId="49" fontId="22" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3947,8 +3950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,21 +4047,21 @@
       <c r="S4" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="V4" s="130" t="s">
+      <c r="V4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Z4" s="130" t="s">
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Z4" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AD4" s="130" t="s">
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AD4" s="136" t="s">
         <v>293</v>
       </c>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4284,13 +4287,13 @@
         <v>551</v>
       </c>
       <c r="AD7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AE7" s="12" t="s">
         <v>138</v>
       </c>
       <c r="AF7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4537,11 +4540,11 @@
       <c r="X11" t="s">
         <v>510</v>
       </c>
-      <c r="Z11" s="130" t="s">
+      <c r="Z11" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
@@ -4793,10 +4796,10 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="82" t="s">
+        <v>616</v>
+      </c>
+      <c r="S15" s="83" t="s">
         <v>617</v>
-      </c>
-      <c r="S15" s="83" t="s">
-        <v>618</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>13</v>
@@ -4859,13 +4862,13 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="84" t="s">
+        <v>614</v>
+      </c>
+      <c r="S16" s="85" t="s">
         <v>615</v>
       </c>
-      <c r="S16" s="85" t="s">
-        <v>616</v>
-      </c>
       <c r="V16" s="67" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W16" s="68">
         <v>301</v>
@@ -4917,7 +4920,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="V17" s="67" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="W17">
         <v>300</v>
@@ -4968,11 +4971,11 @@
         <v>311</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="130" t="s">
+      <c r="R18" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="136"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
@@ -5028,20 +5031,20 @@
       <c r="T19" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="V19" s="132" t="s">
+      <c r="V19" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="133"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="133"/>
-      <c r="Z19" s="134"/>
-      <c r="AB19" s="130" t="s">
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="139"/>
+      <c r="AB19" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="130"/>
+      <c r="AC19" s="136"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="136"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5098,7 +5101,7 @@
         <v>533</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V20" s="45" t="s">
         <v>302</v>
@@ -5181,7 +5184,7 @@
         <v>534</v>
       </c>
       <c r="U21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>531</v>
@@ -5190,13 +5193,13 @@
         <v>104</v>
       </c>
       <c r="X21" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="Y21" s="4" t="s">
-        <v>625</v>
-      </c>
       <c r="AB21" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>58</v>
@@ -5259,16 +5262,16 @@
         <v>532</v>
       </c>
       <c r="W22" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="Y22" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="Z22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AB22" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AC22" s="9" t="s">
         <v>269</v>
@@ -5328,13 +5331,13 @@
         <v>403</v>
       </c>
       <c r="AB23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AC23" s="9" t="s">
         <v>94</v>
       </c>
       <c r="AD23" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AE23" s="9" t="s">
         <v>167</v>
@@ -5430,11 +5433,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="130" t="s">
+      <c r="R25" s="136" t="s">
         <v>556</v>
       </c>
-      <c r="S25" s="130"/>
-      <c r="T25" s="130"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5531,13 +5534,13 @@
       </c>
       <c r="O27" s="46"/>
       <c r="R27" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="S27" t="s">
         <v>557</v>
       </c>
       <c r="U27" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
@@ -5575,43 +5578,51 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="S28" t="s">
         <v>558</v>
       </c>
       <c r="U28" t="s">
-        <v>746</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>762</v>
+      </c>
+      <c r="S29">
+        <v>280.60000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="136" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="J31" s="130" t="s">
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="J31" s="136" t="s">
         <v>313</v>
       </c>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="U31" s="130" t="s">
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="U31" s="136" t="s">
         <v>295</v>
       </c>
-      <c r="V31" s="130"/>
-      <c r="W31" s="130"/>
-      <c r="X31" s="130"/>
-      <c r="Y31" s="130"/>
-      <c r="Z31" s="130"/>
-      <c r="AA31" s="130"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="136"/>
+      <c r="X31" s="136"/>
+      <c r="Y31" s="136"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -5725,7 +5736,7 @@
         <v>426</v>
       </c>
       <c r="V33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="W33" t="s">
         <v>417</v>
@@ -5740,7 +5751,7 @@
         <v>260</v>
       </c>
       <c r="AA33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
@@ -5790,7 +5801,7 @@
         <v>435</v>
       </c>
       <c r="V34" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="W34" t="s">
         <v>417</v>
@@ -5805,7 +5816,7 @@
         <v>141</v>
       </c>
       <c r="AA34" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
@@ -5855,7 +5866,7 @@
         <v>441</v>
       </c>
       <c r="V35" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="W35" t="s">
         <v>417</v>
@@ -5870,7 +5881,7 @@
         <v>235</v>
       </c>
       <c r="AA35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
@@ -5878,7 +5889,7 @@
         <v>436</v>
       </c>
       <c r="C36" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D36" t="s">
         <v>467</v>
@@ -5920,7 +5931,7 @@
         <v>445</v>
       </c>
       <c r="V36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="W36" t="s">
         <v>417</v>
@@ -5935,7 +5946,7 @@
         <v>247</v>
       </c>
       <c r="AA36" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
@@ -5943,7 +5954,7 @@
         <v>438</v>
       </c>
       <c r="C37" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D37" t="s">
         <v>467</v>
@@ -5985,7 +5996,7 @@
         <v>449</v>
       </c>
       <c r="V37" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="W37" t="s">
         <v>417</v>
@@ -6000,7 +6011,7 @@
         <v>163</v>
       </c>
       <c r="AA37" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -6008,7 +6019,7 @@
         <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J38" t="s">
         <v>430</v>
@@ -6035,7 +6046,7 @@
         <v>447</v>
       </c>
       <c r="V38" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="W38" t="s">
         <v>417</v>
@@ -6050,7 +6061,7 @@
         <v>151</v>
       </c>
       <c r="AA38" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
@@ -6058,25 +6069,25 @@
         <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>635</v>
-      </c>
-      <c r="J39" s="131" t="s">
+        <v>634</v>
+      </c>
+      <c r="J39" s="135" t="s">
         <v>493</v>
       </c>
-      <c r="K39" s="131"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="131"/>
-      <c r="N39" s="131"/>
-      <c r="O39" s="131"/>
-      <c r="P39" s="131"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="135"/>
       <c r="T39">
         <v>7</v>
       </c>
       <c r="U39" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="V39" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W39" t="s">
         <v>417</v>
@@ -6091,7 +6102,7 @@
         <v>220</v>
       </c>
       <c r="AA39" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
@@ -6099,16 +6110,16 @@
         <v>255</v>
       </c>
       <c r="F40" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T40">
         <v>8</v>
       </c>
       <c r="U40" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="V40" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="W40" t="s">
         <v>417</v>
@@ -6123,7 +6134,7 @@
         <v>276</v>
       </c>
       <c r="AA40" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
@@ -6131,16 +6142,16 @@
         <v>254</v>
       </c>
       <c r="F41" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T41">
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="V41" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="W41" t="s">
         <v>417</v>
@@ -6155,7 +6166,7 @@
         <v>219</v>
       </c>
       <c r="AA41" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -6163,7 +6174,7 @@
         <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T42">
         <v>10</v>
@@ -6181,121 +6192,116 @@
         <v>253</v>
       </c>
       <c r="AA42" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="U44" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="W44" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="X44" s="16" t="s">
         <v>84</v>
       </c>
       <c r="Y44" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="Z44" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AA44" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X45" s="16" t="s">
         <v>137</v>
       </c>
       <c r="Y45" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Z45" s="17" t="s">
         <v>70</v>
       </c>
       <c r="AA45" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W46" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="X46" s="16" t="s">
         <v>115</v>
       </c>
       <c r="Y46" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Z46" s="17" t="s">
         <v>205</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="49" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W49" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="X49" s="16" t="s">
         <v>100</v>
       </c>
       <c r="Y49" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="Z49" s="17" t="s">
         <v>124</v>
       </c>
       <c r="AA49" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="50" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W50" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="X50" s="16" t="s">
         <v>158</v>
       </c>
       <c r="Y50" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="Z50" s="17" t="s">
         <v>136</v>
       </c>
       <c r="AA50" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="51" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W51" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="X51" s="16" t="s">
         <v>74</v>
       </c>
       <c r="Y51" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="Z51" s="17" t="s">
         <v>150</v>
       </c>
       <c r="AA51" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6303,6 +6309,11 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6328,34 +6339,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="175" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="143" t="s">
         <v>333</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="138" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="143" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48">
@@ -6897,22 +6908,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="177" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="178" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -7017,12 +7028,12 @@
       <c r="E10" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="178" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
+      <c r="C14" s="178"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
@@ -7147,257 +7158,257 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B1" s="32">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H1" s="32">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N1" s="32">
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B2" s="32">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H2" s="32">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N2" s="32">
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B3" s="32">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H3" s="32">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N3" s="32">
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B4" s="32">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H4" s="32">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N4" s="32">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B5" s="32">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H5" s="32">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N5" s="32">
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B6" s="32">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H6" s="32">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N6" s="32">
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B7" s="32">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H7" s="32">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N7" s="32">
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B8" s="32">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H8" s="32">
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N8" s="32">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B9" s="32">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H9" s="32">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N9" s="69">
         <v>9</v>
@@ -7406,542 +7417,542 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H11" s="32">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N11" s="32">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B12" s="32">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G12" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H12" s="32">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M12" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N12" s="32">
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B13" s="32">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G13" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H13" s="32">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N13" s="32">
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B14" s="32">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G14" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H14" s="32">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N14" s="32">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B15" s="32">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H15" s="32">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M15" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N15" s="32">
         <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H16" s="32">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N16" s="32">
         <v>6</v>
       </c>
       <c r="O16" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B17" s="32">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H17" s="32">
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M17" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N17" s="32">
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B18" s="32">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H18" s="32">
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M18" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N18" s="32">
         <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B19" s="32">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G19" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H19" s="32">
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M19" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N19" s="32">
         <v>9</v>
       </c>
       <c r="O19" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B21" s="32">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H21" s="32">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M21" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N21" s="32">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B22" s="32">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G22" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H22" s="32">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M22" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N22" s="32">
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B23" s="32">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G23" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H23" s="32">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M23" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N23" s="32">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B24" s="32">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G24" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H24" s="32">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M24" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N24" s="32">
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B25" s="32">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H25" s="32">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M25" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B26" s="32">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G26" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H26" s="32">
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M26" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N26" s="32">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B27" s="32">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G27" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H27" s="32">
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M27" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N27" s="32">
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B28" s="32">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G28" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H28" s="32">
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N28" s="32">
         <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B29" s="32">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H29" s="69">
         <v>9</v>
       </c>
       <c r="I29" s="3"/>
       <c r="M29" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N29" s="32">
         <v>9</v>
       </c>
       <c r="O29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G31" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H31" s="32">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N31" s="32">
         <v>1</v>
@@ -7949,22 +7960,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B32" s="32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G32" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H32" s="32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N32" s="32">
         <v>2</v>
@@ -7972,22 +7983,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B33" s="32">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G33" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H33" s="32">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N33" s="32">
         <v>3</v>
@@ -7995,22 +8006,22 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B34" s="32">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G34" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H34" s="32">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N34" s="32">
         <v>4</v>
@@ -8018,22 +8029,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B35" s="32">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G35" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H35" s="32">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8041,22 +8052,22 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B36" s="32">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H36" s="32">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N36" s="32">
         <v>6</v>
@@ -8064,22 +8075,22 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B37" s="32">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H37" s="32">
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N37" s="32">
         <v>7</v>
@@ -8087,20 +8098,20 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B38" s="69">
         <v>8</v>
       </c>
       <c r="C38" s="3"/>
       <c r="G38" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H38" s="32">
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N38" s="32">
         <v>8</v>
@@ -8108,14 +8119,14 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B39" s="69">
         <v>9</v>
       </c>
       <c r="C39" s="3"/>
       <c r="G39" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H39" s="32">
         <v>9</v>
@@ -8313,7 +8324,7 @@
         <v>451</v>
       </c>
       <c r="P10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -8321,10 +8332,10 @@
         <v>452</v>
       </c>
       <c r="L11" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P11" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -8332,10 +8343,10 @@
         <v>453</v>
       </c>
       <c r="L12" t="s">
+        <v>654</v>
+      </c>
+      <c r="P12" t="s">
         <v>656</v>
-      </c>
-      <c r="P12" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -8366,14 +8377,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="140" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8384,16 +8395,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="143" t="s">
         <v>317</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="138" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8650,8 +8661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8663,12 +8674,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="141" t="s">
-        <v>573</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
+      <c r="A1" s="146" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -8794,7 +8805,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C10" s="109" t="s">
         <v>135</v>
@@ -8809,7 +8820,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C11" s="109" t="s">
         <v>268</v>
@@ -8861,7 +8872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -8876,31 +8887,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
-        <v>763</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="A1" s="150" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="147" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="130" t="s">
         <v>326</v>
       </c>
       <c r="B3" s="104" t="s">
@@ -8912,7 +8923,7 @@
       <c r="D3" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="175" t="s">
+      <c r="E3" s="131" t="s">
         <v>326</v>
       </c>
       <c r="F3" s="104" t="s">
@@ -8930,10 +8941,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="106" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>613</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>614</v>
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="104">
@@ -8954,17 +8965,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="106" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>615</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>616</v>
       </c>
       <c r="D5" s="106"/>
       <c r="E5" s="104">
         <v>12</v>
       </c>
       <c r="F5" s="106" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G5" s="106" t="s">
         <v>58</v>
@@ -8978,17 +8989,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="106" t="s">
+        <v>616</v>
+      </c>
+      <c r="C6" s="106" t="s">
         <v>617</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>618</v>
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="104">
         <v>13</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G6" s="106" t="s">
         <v>269</v>
@@ -9002,7 +9013,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C7" s="106" t="s">
         <v>42</v>
@@ -9014,13 +9025,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>94</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9028,7 +9039,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C8" s="106" t="s">
         <v>113</v>
@@ -9052,7 +9063,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C9" s="106" t="s">
         <v>128</v>
@@ -9064,7 +9075,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>546</v>
@@ -9088,7 +9099,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="106" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>117</v>
@@ -9102,7 +9113,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>41</v>
@@ -9128,7 +9139,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>120</v>
@@ -9184,16 +9195,16 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="147" t="s">
         <v>327</v>
       </c>
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="130" t="s">
         <v>326</v>
       </c>
       <c r="B16" s="104" t="s">
@@ -9211,13 +9222,13 @@
       <c r="A17" s="104">
         <v>1</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="132" t="s">
         <v>566</v>
       </c>
-      <c r="C17" s="177" t="s">
+      <c r="C17" s="133" t="s">
         <v>560</v>
       </c>
-      <c r="D17" s="176" t="s">
+      <c r="D17" s="132" t="s">
         <v>561</v>
       </c>
       <c r="E17"/>
@@ -9226,13 +9237,13 @@
       <c r="A18" s="104">
         <v>2</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="132" t="s">
         <v>567</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="133" t="s">
         <v>460</v>
       </c>
-      <c r="D18" s="177" t="s">
+      <c r="D18" s="133" t="s">
         <v>481</v>
       </c>
       <c r="E18"/>
@@ -9241,13 +9252,13 @@
       <c r="A19" s="104">
         <v>3</v>
       </c>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="132" t="s">
         <v>568</v>
       </c>
-      <c r="C19" s="177" t="s">
+      <c r="C19" s="133" t="s">
         <v>461</v>
       </c>
-      <c r="D19" s="177" t="s">
+      <c r="D19" s="133" t="s">
         <v>484</v>
       </c>
       <c r="E19"/>
@@ -9256,13 +9267,13 @@
       <c r="A20" s="104">
         <v>4</v>
       </c>
-      <c r="B20" s="176" t="s">
+      <c r="B20" s="132" t="s">
         <v>569</v>
       </c>
-      <c r="C20" s="177" t="s">
+      <c r="C20" s="133" t="s">
         <v>462</v>
       </c>
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="133" t="s">
         <v>485</v>
       </c>
       <c r="E20"/>
@@ -9271,13 +9282,13 @@
       <c r="A21" s="104">
         <v>5</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="132" t="s">
         <v>570</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="133" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="177" t="s">
+      <c r="D21" s="133" t="s">
         <v>487</v>
       </c>
       <c r="E21"/>
@@ -9286,13 +9297,13 @@
       <c r="A22" s="104">
         <v>6</v>
       </c>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="132" t="s">
         <v>571</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="133" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="133" t="s">
         <v>489</v>
       </c>
       <c r="E22"/>
@@ -9301,13 +9312,13 @@
       <c r="A23" s="104">
         <v>7</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="132" t="s">
         <v>572</v>
       </c>
-      <c r="C23" s="177" t="s">
+      <c r="C23" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="133" t="s">
         <v>491</v>
       </c>
       <c r="E23"/>
@@ -9316,13 +9327,13 @@
       <c r="A24" s="104">
         <v>8</v>
       </c>
-      <c r="B24" s="176" t="s">
-        <v>760</v>
-      </c>
-      <c r="C24" s="177" t="s">
+      <c r="B24" s="132" t="s">
+        <v>758</v>
+      </c>
+      <c r="C24" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="133" t="s">
         <v>562</v>
       </c>
       <c r="E24"/>
@@ -9331,13 +9342,13 @@
       <c r="A25" s="104">
         <v>9</v>
       </c>
-      <c r="B25" s="176" t="s">
-        <v>761</v>
-      </c>
-      <c r="C25" s="177" t="s">
+      <c r="B25" s="132" t="s">
+        <v>759</v>
+      </c>
+      <c r="C25" s="133" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="133" t="s">
         <v>563</v>
       </c>
       <c r="E25"/>
@@ -9346,13 +9357,13 @@
       <c r="A26" s="104">
         <v>10</v>
       </c>
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="132" t="s">
         <v>565</v>
       </c>
-      <c r="C26" s="177" t="s">
+      <c r="C26" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="177" t="s">
+      <c r="D26" s="133" t="s">
         <v>564</v>
       </c>
       <c r="E26"/>
@@ -9368,12 +9379,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="144" t="s">
+      <c r="A28" s="147" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="149"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9396,13 +9407,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="112" t="s">
+        <v>582</v>
+      </c>
+      <c r="C30" s="134" t="s">
         <v>583</v>
       </c>
-      <c r="C30" s="178" t="s">
+      <c r="D30" s="112" t="s">
         <v>584</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>585</v>
       </c>
       <c r="E30"/>
     </row>
@@ -9411,13 +9422,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="112" t="s">
+        <v>585</v>
+      </c>
+      <c r="C31" s="134" t="s">
         <v>586</v>
       </c>
-      <c r="C31" s="178" t="s">
+      <c r="D31" s="112" t="s">
         <v>587</v>
-      </c>
-      <c r="D31" s="112" t="s">
-        <v>588</v>
       </c>
       <c r="E31"/>
     </row>
@@ -9426,13 +9437,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="112" t="s">
+        <v>588</v>
+      </c>
+      <c r="C32" s="134" t="s">
         <v>589</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="D32" s="112" t="s">
         <v>590</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>591</v>
       </c>
       <c r="E32"/>
     </row>
@@ -9441,13 +9452,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="112" t="s">
+        <v>591</v>
+      </c>
+      <c r="C33" s="134" t="s">
         <v>592</v>
       </c>
-      <c r="C33" s="178" t="s">
+      <c r="D33" s="112" t="s">
         <v>593</v>
-      </c>
-      <c r="D33" s="112" t="s">
-        <v>594</v>
       </c>
       <c r="E33"/>
     </row>
@@ -9456,13 +9467,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="112" t="s">
+        <v>594</v>
+      </c>
+      <c r="C34" s="134" t="s">
         <v>595</v>
       </c>
-      <c r="C34" s="178" t="s">
+      <c r="D34" s="112" t="s">
         <v>596</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>597</v>
       </c>
       <c r="E34"/>
     </row>
@@ -9471,13 +9482,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="112" t="s">
+        <v>597</v>
+      </c>
+      <c r="C35" s="134" t="s">
         <v>598</v>
       </c>
-      <c r="C35" s="178" t="s">
+      <c r="D35" s="112" t="s">
         <v>599</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>600</v>
       </c>
       <c r="E35"/>
     </row>
@@ -9486,13 +9497,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="112" t="s">
+        <v>600</v>
+      </c>
+      <c r="C36" s="134" t="s">
         <v>601</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="D36" s="112" t="s">
         <v>602</v>
-      </c>
-      <c r="D36" s="112" t="s">
-        <v>603</v>
       </c>
       <c r="E36"/>
     </row>
@@ -9501,13 +9512,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="112" t="s">
+        <v>603</v>
+      </c>
+      <c r="C37" s="134" t="s">
         <v>604</v>
       </c>
-      <c r="C37" s="178" t="s">
+      <c r="D37" s="112" t="s">
         <v>605</v>
-      </c>
-      <c r="D37" s="112" t="s">
-        <v>606</v>
       </c>
       <c r="E37"/>
     </row>
@@ -9516,13 +9527,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="112" t="s">
+        <v>606</v>
+      </c>
+      <c r="C38" s="134" t="s">
         <v>607</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="D38" s="112" t="s">
         <v>608</v>
-      </c>
-      <c r="D38" s="112" t="s">
-        <v>609</v>
       </c>
       <c r="E38"/>
     </row>
@@ -9531,13 +9542,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="112" t="s">
+        <v>609</v>
+      </c>
+      <c r="C39" s="134" t="s">
         <v>610</v>
       </c>
-      <c r="C39" s="178" t="s">
+      <c r="D39" s="112" t="s">
         <v>611</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>612</v>
       </c>
       <c r="E39"/>
     </row>
@@ -9557,8 +9568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9575,28 +9586,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="A1" s="151" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="147" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="103"/>
@@ -9625,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="113" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="106"/>
@@ -9659,7 +9670,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C6" s="113" t="s">
         <v>547</v>
@@ -9677,7 +9688,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C7" s="113">
         <v>121.3</v>
@@ -9695,10 +9706,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C8" s="113" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="104">
@@ -9731,7 +9742,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C10" s="113" t="s">
         <v>58</v>
@@ -9741,10 +9752,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G10" s="113" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H10" s="113"/>
       <c r="M10" s="36"/>
@@ -9758,7 +9769,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C11" s="113" t="s">
         <v>269</v>
@@ -9785,20 +9796,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D12" s="106"/>
       <c r="E12" s="104">
         <v>19</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G12" s="113" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H12" s="113"/>
       <c r="M12" s="36"/>
@@ -9818,10 +9829,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G13" s="113" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H13" s="113"/>
       <c r="M13" s="36"/>
@@ -9831,16 +9842,16 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="147" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="148"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="154"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -9879,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C16" s="113"/>
       <c r="D16" s="113"/>
@@ -9943,7 +9954,7 @@
         <v>109</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E18" s="114">
         <v>13</v>
@@ -9986,7 +9997,7 @@
         <v>130</v>
       </c>
       <c r="H19" s="113" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -10156,16 +10167,16 @@
       <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="148"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="154"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="103"/>
@@ -10212,7 +10223,7 @@
         <v>560</v>
       </c>
       <c r="H28" s="112" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10232,7 +10243,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G29" s="112" t="s">
         <v>460</v>
@@ -10258,7 +10269,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="112" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G30" s="112" t="s">
         <v>461</v>
@@ -10272,7 +10283,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C31" s="112" t="s">
         <v>200</v>
@@ -10284,7 +10295,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="112" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G31" s="112" t="s">
         <v>462</v>
@@ -10298,7 +10309,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="112" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C32" s="112" t="s">
         <v>226</v>
@@ -10310,7 +10321,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G32" s="112" t="s">
         <v>283</v>
@@ -10324,19 +10335,19 @@
         <v>6</v>
       </c>
       <c r="B33" s="112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C33" s="112" t="s">
         <v>204</v>
       </c>
       <c r="D33" s="112" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E33" s="104">
         <v>16</v>
       </c>
       <c r="F33" s="112" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G33" s="112" t="s">
         <v>284</v>
@@ -10350,19 +10361,19 @@
         <v>7</v>
       </c>
       <c r="B34" s="112" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C34" s="112" t="s">
         <v>230</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E34" s="104">
         <v>17</v>
       </c>
       <c r="F34" s="112" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G34" s="112" t="s">
         <v>285</v>
@@ -10376,13 +10387,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="112" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C35" s="112" t="s">
         <v>255</v>
       </c>
       <c r="D35" s="112" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E35" s="104">
         <v>18</v>
@@ -10402,13 +10413,13 @@
         <v>9</v>
       </c>
       <c r="B36" s="112" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C36" s="112" t="s">
         <v>254</v>
       </c>
       <c r="D36" s="112" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E36" s="104">
         <v>19</v>
@@ -10428,19 +10439,19 @@
         <v>10</v>
       </c>
       <c r="B37" s="112" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C37" s="112" t="s">
         <v>177</v>
       </c>
       <c r="D37" s="112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E37" s="104">
         <v>20</v>
       </c>
       <c r="F37" s="112" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G37" s="112" t="s">
         <v>167</v>
@@ -10450,10 +10461,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="143"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
       <c r="F41" s="123"/>
       <c r="G41" s="123"/>
       <c r="H41" s="123"/>
@@ -10694,40 +10705,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
-        <v>751</v>
-      </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="151"/>
+      <c r="A1" s="155" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
+      <c r="A2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="160"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="161" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="161" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="88">
@@ -10737,7 +10748,7 @@
         <v>191</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D4" s="90" t="s">
         <v>400</v>
@@ -10750,7 +10761,7 @@
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="74" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10761,7 +10772,7 @@
         <v>262</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D5" s="90" t="s">
         <v>400</v>
@@ -10774,7 +10785,7 @@
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10785,7 +10796,7 @@
         <v>240</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D6" s="90" t="s">
         <v>400</v>
@@ -10798,7 +10809,7 @@
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10809,7 +10820,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>400</v>
@@ -10847,7 +10858,7 @@
         <v>109</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H8" s="74" t="s">
         <v>508</v>
@@ -10994,7 +11005,7 @@
         <v>533</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E14" s="88">
         <v>11</v>
@@ -11017,10 +11028,10 @@
         <v>256</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D15" s="90" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E15" s="88">
         <v>12</v>
@@ -11043,7 +11054,7 @@
         <v>245.75</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D16" s="97" t="s">
         <v>344</v>
@@ -11069,7 +11080,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D17" s="97" t="s">
         <v>344</v>
@@ -11108,7 +11119,7 @@
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11132,7 +11143,7 @@
       </c>
       <c r="G19" s="74"/>
       <c r="H19" s="74" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11143,7 +11154,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D20" s="90" t="s">
         <v>555</v>
@@ -11156,7 +11167,7 @@
       </c>
       <c r="G20" s="74"/>
       <c r="H20" s="92" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11167,7 +11178,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D21" s="74" t="s">
         <v>505</v>
@@ -11180,7 +11191,7 @@
       </c>
       <c r="G21" s="74"/>
       <c r="H21" s="92" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11228,7 +11239,7 @@
       </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11240,13 +11251,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G24" s="74" t="s">
         <v>526</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11264,7 +11275,7 @@
         <v>529</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11428,40 +11439,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
-        <v>750</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="A1" s="165" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="161" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="155" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="161" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="156"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="158"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="88">
@@ -11471,7 +11482,7 @@
         <v>191</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D4" s="90" t="s">
         <v>400</v>
@@ -11484,7 +11495,7 @@
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="74" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11495,7 +11506,7 @@
         <v>262</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D5" s="90" t="s">
         <v>400</v>
@@ -11508,7 +11519,7 @@
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11519,7 +11530,7 @@
         <v>240</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D6" s="90" t="s">
         <v>400</v>
@@ -11532,7 +11543,7 @@
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11543,7 +11554,7 @@
         <v>259</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>400</v>
@@ -11581,7 +11592,7 @@
         <v>109</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H8" s="74" t="s">
         <v>508</v>
@@ -11728,7 +11739,7 @@
         <v>533</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E14" s="88">
         <v>11</v>
@@ -11751,10 +11762,10 @@
         <v>256</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E15" s="88">
         <v>12</v>
@@ -11780,7 +11791,7 @@
         <v>526</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E16" s="88">
         <v>13</v>
@@ -11806,7 +11817,7 @@
         <v>529</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E17" s="88">
         <v>14</v>
@@ -11842,7 +11853,7 @@
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11866,7 +11877,7 @@
       </c>
       <c r="G19" s="74"/>
       <c r="H19" s="74" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11877,7 +11888,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D20" s="74" t="s">
         <v>555</v>
@@ -11890,7 +11901,7 @@
       </c>
       <c r="G20" s="74"/>
       <c r="H20" s="92" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11901,7 +11912,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D21" s="74" t="s">
         <v>505</v>
@@ -11914,7 +11925,7 @@
       </c>
       <c r="G21" s="74"/>
       <c r="H21" s="92" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11962,7 +11973,7 @@
       </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -11998,40 +12009,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="160" t="s">
-        <v>754</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="162"/>
+      <c r="A1" s="166" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="165"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="171"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
-        <v>720</v>
-      </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167" t="s">
-        <v>721</v>
-      </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="168"/>
+      <c r="A3" s="172" t="s">
+        <v>718</v>
+      </c>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173" t="s">
+        <v>719</v>
+      </c>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
@@ -12040,7 +12051,7 @@
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="75" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E4" s="72">
         <v>1</v>
@@ -12048,7 +12059,7 @@
       <c r="F4" s="73"/>
       <c r="G4" s="74"/>
       <c r="H4" s="73" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12083,7 +12094,7 @@
         <v>109</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D6" s="75" t="s">
         <v>508</v>
@@ -12096,7 +12107,7 @@
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="73" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12120,7 +12131,7 @@
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="73" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12140,11 +12151,11 @@
         <v>5</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="73" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12196,7 +12207,7 @@
         <v>526</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12222,7 +12233,7 @@
         <v>529</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12242,11 +12253,11 @@
         <v>9</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G12" s="74"/>
       <c r="H12" s="73" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12346,7 +12357,7 @@
         <v>130</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D17" s="75" t="s">
         <v>555</v>
@@ -12409,11 +12420,11 @@
         <v>17</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G20" s="74"/>
       <c r="H20" s="73" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12445,11 +12456,11 @@
         <v>19</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G22" s="74"/>
       <c r="H22" s="73" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.25">
@@ -12463,11 +12474,11 @@
         <v>20</v>
       </c>
       <c r="F23" s="128" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G23" s="129"/>
       <c r="H23" s="128" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFEA301-B7C0-45CF-B1BF-37F61845C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525EA127-D150-48AB-BD7C-B9C8814DCA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="6930" windowWidth="21600" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="6930" windowWidth="21600" windowHeight="12975" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="764">
   <si>
     <t>AWACS</t>
   </si>
@@ -653,9 +653,6 @@
   </si>
   <si>
     <t>33.00</t>
-  </si>
-  <si>
-    <t>139.100</t>
   </si>
   <si>
     <t>239.000</t>
@@ -3478,10 +3475,10 @@
     <xf numFmtId="49" fontId="22" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3951,7 +3948,7 @@
   <dimension ref="B3:AF51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,7 +3994,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="R3" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4042,26 +4039,26 @@
       </c>
       <c r="O4" s="46"/>
       <c r="R4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="V4" s="136" t="s">
+        <v>539</v>
+      </c>
+      <c r="V4" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Z4" s="136" t="s">
+      <c r="W4" s="135"/>
+      <c r="X4" s="135"/>
+      <c r="Z4" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AD4" s="136" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="135"/>
+      <c r="AD4" s="135" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE4" s="135"/>
+      <c r="AF4" s="135"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4105,10 +4102,10 @@
       </c>
       <c r="O5" s="46"/>
       <c r="R5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>3</v>
@@ -4117,25 +4114,25 @@
         <v>42</v>
       </c>
       <c r="X5" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA5" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB5" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AD5" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AE5" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF5" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4184,10 +4181,10 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>4</v>
@@ -4196,7 +4193,7 @@
         <v>113</v>
       </c>
       <c r="X6" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z6" s="8" t="s">
         <v>15</v>
@@ -4205,16 +4202,16 @@
         <v>60</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AD6" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF6" t="s">
         <v>495</v>
-      </c>
-      <c r="AE6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4259,14 +4256,14 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>5</v>
@@ -4275,7 +4272,7 @@
         <v>128</v>
       </c>
       <c r="X7" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Z7" s="8" t="s">
         <v>16</v>
@@ -4284,16 +4281,16 @@
         <v>106</v>
       </c>
       <c r="AB7" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AD7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AE7" s="12" t="s">
         <v>138</v>
       </c>
       <c r="AF7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4338,14 +4335,14 @@
       </c>
       <c r="O8" s="6"/>
       <c r="P8" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>6</v>
@@ -4354,7 +4351,7 @@
         <v>109</v>
       </c>
       <c r="X8" s="36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z8" s="8" t="s">
         <v>17</v>
@@ -4363,7 +4360,7 @@
         <v>130</v>
       </c>
       <c r="AB8" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4408,7 +4405,7 @@
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="S9" s="86"/>
@@ -4419,7 +4416,7 @@
         <v>39</v>
       </c>
       <c r="X9" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4464,20 +4461,20 @@
       </c>
       <c r="O10" s="47"/>
       <c r="P10" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S10" s="83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="W10" s="63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4526,10 +4523,10 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="87" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S11" s="65" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V11" s="8" t="s">
         <v>9</v>
@@ -4538,13 +4535,13 @@
         <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z11" s="136" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z11" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
@@ -4588,14 +4585,14 @@
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="87" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S12" s="65" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>10</v>
@@ -4604,16 +4601,16 @@
         <v>81</v>
       </c>
       <c r="X12" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Z12" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA12" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB12" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4636,7 +4633,7 @@
         <v>136</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>137</v>
@@ -4662,10 +4659,10 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="84" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S13" s="85" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>11</v>
@@ -4674,16 +4671,16 @@
         <v>41</v>
       </c>
       <c r="X13" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Z13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB13" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
@@ -4728,7 +4725,7 @@
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="V14" s="8" t="s">
@@ -4738,7 +4735,7 @@
         <v>156</v>
       </c>
       <c r="X14" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z14" s="8" t="s">
         <v>21</v>
@@ -4747,7 +4744,7 @@
         <v>201</v>
       </c>
       <c r="AB14" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4792,14 +4789,14 @@
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="82" t="s">
+        <v>615</v>
+      </c>
+      <c r="S15" s="83" t="s">
         <v>616</v>
-      </c>
-      <c r="S15" s="83" t="s">
-        <v>617</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>13</v>
@@ -4808,16 +4805,16 @@
         <v>117</v>
       </c>
       <c r="X15" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Z15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AB15" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4858,17 +4855,17 @@
       <c r="N16" s="1"/>
       <c r="O16" s="14"/>
       <c r="P16" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="84" t="s">
+        <v>613</v>
+      </c>
+      <c r="S16" s="85" t="s">
         <v>614</v>
       </c>
-      <c r="S16" s="85" t="s">
-        <v>615</v>
-      </c>
       <c r="V16" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W16" s="68">
         <v>301</v>
@@ -4916,11 +4913,11 @@
       </c>
       <c r="O17" s="16"/>
       <c r="P17" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="V17" s="67" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="W17">
         <v>300</v>
@@ -4968,14 +4965,14 @@
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="136" t="s">
+      <c r="R18" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
@@ -5019,17 +5016,17 @@
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S19" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V19" s="137" t="s">
         <v>1</v>
@@ -5038,13 +5035,13 @@
       <c r="X19" s="138"/>
       <c r="Y19" s="138"/>
       <c r="Z19" s="139"/>
-      <c r="AB19" s="136" t="s">
+      <c r="AB19" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="136"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="135"/>
+      <c r="AF19" s="135"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5071,476 +5068,476 @@
       <c r="I20" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="76">
+        <v>139.1</v>
+      </c>
+      <c r="K20" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="L20" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="M20" s="16" t="s">
         <v>211</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>212</v>
       </c>
       <c r="N20" s="52" t="s">
         <v>202</v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S20" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V20" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="W20" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X20" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y20" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z20" s="45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB20" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AC20" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AD20" s="45"/>
       <c r="AE20" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF20" s="45"/>
     </row>
     <row r="21" spans="2:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="D21" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="E21" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="F21" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="G21" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="H21" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="J21" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="K21" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="L21" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="M21" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>224</v>
-      </c>
       <c r="N21" s="52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O21" s="46"/>
       <c r="P21" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S21" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="W21" s="47" t="s">
         <v>104</v>
       </c>
       <c r="X21" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="Y21" s="4" t="s">
-        <v>624</v>
-      </c>
       <c r="AB21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="AD21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AE21" s="40" t="s">
         <v>135</v>
       </c>
       <c r="AF21" s="40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="2:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="F22" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="G22" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="I22" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="J22" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="K22" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="L22" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="M22" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="M22" s="34" t="s">
-        <v>236</v>
-      </c>
       <c r="N22" s="52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O22" s="46"/>
       <c r="P22" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="W22" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Y22" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Z22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB22" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AD22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AE22" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF22" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="D23" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="E23" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="G23" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="I23" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="J23" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="K23" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="L23" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="M23" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="M23" s="47" t="s">
-        <v>248</v>
-      </c>
       <c r="N23" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O23" s="46"/>
       <c r="P23" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AB23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AC23" s="9" t="s">
         <v>94</v>
       </c>
       <c r="AD23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AE23" s="9" t="s">
         <v>167</v>
       </c>
       <c r="AF23" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B24" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="D24" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="F24" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="G24" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="I24" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="J24" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="K24" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="34" t="s">
+      <c r="L24" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="M24" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="M24" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="N24" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O24" s="46"/>
       <c r="P24" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B25" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="E25" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="F25" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="G25" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="H25" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="I25" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="J25" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="K25" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="L25" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="M25" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="M25" s="34" t="s">
-        <v>272</v>
-      </c>
       <c r="N25" s="52" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="136" t="s">
-        <v>556</v>
-      </c>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
+      <c r="R25" s="135" t="s">
+        <v>555</v>
+      </c>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="D26" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="E26" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="H26" s="59" t="s">
         <v>278</v>
-      </c>
-      <c r="H26" s="59" t="s">
-        <v>279</v>
       </c>
       <c r="I26" s="59"/>
       <c r="J26" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M26" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>458</v>
-      </c>
       <c r="N26" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O26" s="46"/>
       <c r="P26" s="4"/>
       <c r="R26" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S26" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T26" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U26" s="66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B27" s="51" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="G27" s="60" t="s">
         <v>282</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>459</v>
-      </c>
-      <c r="D27" s="60" t="s">
-        <v>460</v>
-      </c>
-      <c r="E27" s="60" t="s">
-        <v>461</v>
-      </c>
-      <c r="F27" s="60" t="s">
+      <c r="H27" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>284</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M27" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="G27" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="H27" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>463</v>
-      </c>
       <c r="N27" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O27" s="46"/>
       <c r="R27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="S27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="U27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
@@ -5578,440 +5575,440 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
+        <v>742</v>
+      </c>
+      <c r="S28" t="s">
+        <v>557</v>
+      </c>
+      <c r="U28" t="s">
         <v>743</v>
-      </c>
-      <c r="S28" t="s">
-        <v>558</v>
-      </c>
-      <c r="U28" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S29">
         <v>280.60000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="135" t="s">
+        <v>311</v>
+      </c>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="J31" s="135" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="J31" s="136" t="s">
-        <v>313</v>
-      </c>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="U31" s="136" t="s">
-        <v>295</v>
-      </c>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="136"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="U31" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C32" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="D32" s="45" t="s">
-        <v>305</v>
-      </c>
       <c r="E32" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="F32" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="G32" s="45" t="s">
+      <c r="H32" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="H32" s="45" t="s">
-        <v>302</v>
-      </c>
       <c r="J32" s="45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L32" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="P32" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="U32" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="V32" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="W32" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="M32" s="45" t="s">
-        <v>300</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="O32" s="45" t="s">
+      <c r="X32" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y32" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="P32" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="U32" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="V32" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="W32" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="X32" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y32" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="Z32" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA32" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>176</v>
       </c>
       <c r="H33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O33" s="19" t="s">
         <v>86</v>
       </c>
       <c r="P33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="W33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X33" s="16" t="s">
         <v>191</v>
       </c>
       <c r="Y33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA33" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K34" t="s">
+        <v>482</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="N34" t="s">
         <v>483</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="N34" t="s">
-        <v>484</v>
       </c>
       <c r="O34" s="19" t="s">
         <v>199</v>
       </c>
       <c r="P34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X34" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Z34" s="17" t="s">
         <v>141</v>
       </c>
       <c r="AA34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H35" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N35" t="s">
+        <v>484</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="P35" t="s">
         <v>485</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="P35" t="s">
-        <v>486</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="V35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X35" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Y35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="Z35" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O36" s="19" t="s">
         <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="V36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="W36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X36" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z36" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O37" s="19" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T37">
         <v>5</v>
       </c>
       <c r="U37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="V37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Z37" s="17" t="s">
         <v>163</v>
       </c>
       <c r="AA37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
@@ -6019,154 +6016,154 @@
         <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O38" s="19" t="s">
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T38">
         <v>6</v>
       </c>
       <c r="U38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="V38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="W38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X38" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Z38" s="17" t="s">
         <v>151</v>
       </c>
       <c r="AA38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E39" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F39" t="s">
-        <v>634</v>
-      </c>
-      <c r="J39" s="135" t="s">
-        <v>493</v>
-      </c>
-      <c r="K39" s="135"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
-      <c r="N39" s="135"/>
-      <c r="O39" s="135"/>
-      <c r="P39" s="135"/>
+        <v>633</v>
+      </c>
+      <c r="J39" s="136" t="s">
+        <v>492</v>
+      </c>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
+      <c r="O39" s="136"/>
+      <c r="P39" s="136"/>
       <c r="T39">
         <v>7</v>
       </c>
       <c r="U39" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="V39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W39" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z39" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA39" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E40" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T40">
         <v>8</v>
       </c>
       <c r="U40" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="V40" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X40" s="16" t="s">
         <v>189</v>
       </c>
       <c r="Y40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Z40" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AA40" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E41" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="T41">
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="V41" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X41" s="16" t="s">
         <v>174</v>
       </c>
       <c r="Y41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Z41" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AA41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
@@ -6174,134 +6171,139 @@
         <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="T42">
         <v>10</v>
       </c>
       <c r="W42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="X42" s="16" t="s">
         <v>187</v>
       </c>
       <c r="Y42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Z42" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="U44" t="s">
+        <v>703</v>
+      </c>
+      <c r="W44" t="s">
         <v>704</v>
-      </c>
-      <c r="W44" t="s">
-        <v>705</v>
       </c>
       <c r="X44" s="16" t="s">
         <v>84</v>
       </c>
       <c r="Y44" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Z44" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AA44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W45" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="X45" s="16" t="s">
         <v>137</v>
       </c>
       <c r="Y45" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Z45" s="17" t="s">
         <v>70</v>
       </c>
       <c r="AA45" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="W46" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="X46" s="16" t="s">
         <v>115</v>
       </c>
       <c r="Y46" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z46" s="17" t="s">
         <v>205</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W49" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="X49" s="16" t="s">
         <v>100</v>
       </c>
       <c r="Y49" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Z49" s="17" t="s">
         <v>124</v>
       </c>
       <c r="AA49" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="X50" s="16" t="s">
         <v>158</v>
       </c>
       <c r="Y50" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Z50" s="17" t="s">
         <v>136</v>
       </c>
       <c r="AA50" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W51" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="X51" s="16" t="s">
         <v>74</v>
       </c>
       <c r="Y51" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Z51" s="17" t="s">
         <v>150</v>
       </c>
       <c r="AA51" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6309,11 +6311,6 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6340,7 +6337,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="175" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B1" s="175"/>
       <c r="C1" s="175"/>
@@ -6358,12 +6355,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="143" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" s="144"/>
       <c r="C3" s="145"/>
       <c r="D3" s="143" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E3" s="144"/>
       <c r="F3" s="145"/>
@@ -6376,16 +6373,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D4" s="48">
         <v>1</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6393,19 +6390,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D5" s="48">
         <v>2</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6413,19 +6410,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D6" s="48">
         <v>3</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>340</v>
-      </c>
-      <c r="F6" s="50" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6433,19 +6430,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" s="48">
         <v>4</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6454,16 +6451,16 @@
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="48">
         <v>5</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6472,16 +6469,16 @@
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="48">
         <v>6</v>
       </c>
       <c r="E9" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>346</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6489,10 +6486,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D10" s="48">
         <v>7</v>
@@ -6501,7 +6498,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6512,7 +6509,7 @@
         <v>197</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D11" s="48">
         <v>8</v>
@@ -6521,7 +6518,7 @@
         <v>81</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6529,10 +6526,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" s="48">
         <v>9</v>
@@ -6541,7 +6538,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6552,7 +6549,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" s="48">
         <v>10</v>
@@ -6561,7 +6558,7 @@
         <v>152</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6572,16 +6569,16 @@
         <v>73</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D14" s="48">
         <v>11</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6592,7 +6589,7 @@
         <v>112</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" s="48">
         <v>12</v>
@@ -6601,7 +6598,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6609,10 +6606,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D16" s="48">
         <v>13</v>
@@ -6621,7 +6618,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6629,10 +6626,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D17" s="48">
         <v>14</v>
@@ -6641,7 +6638,7 @@
         <v>73</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6649,10 +6646,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D18" s="48">
         <v>15</v>
@@ -6661,7 +6658,7 @@
         <v>112</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6672,16 +6669,16 @@
         <v>158</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D19" s="48">
         <v>16</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6692,16 +6689,16 @@
         <v>137</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D20" s="48">
         <v>17</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6712,16 +6709,16 @@
         <v>126</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D21" s="48">
         <v>18</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6732,7 +6729,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D22" s="48">
         <v>19</v>
@@ -6741,7 +6738,7 @@
         <v>158</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6752,7 +6749,7 @@
         <v>152</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D23" s="48">
         <v>20</v>
@@ -6761,7 +6758,7 @@
         <v>137</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6772,7 +6769,7 @@
         <v>155</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D24" s="48">
         <v>21</v>
@@ -6781,7 +6778,7 @@
         <v>126</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6792,7 +6789,7 @@
         <v>203</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D25" s="48">
         <v>22</v>
@@ -6801,7 +6798,7 @@
         <v>170</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6812,7 +6809,7 @@
         <v>162</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D26" s="48">
         <v>23</v>
@@ -6821,7 +6818,7 @@
         <v>205</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6832,16 +6829,16 @@
         <v>136</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D27" s="48">
         <v>24</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6850,16 +6847,16 @@
       </c>
       <c r="B28" s="49"/>
       <c r="C28" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D28" s="48">
         <v>25</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6867,19 +6864,19 @@
         <v>26</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" s="48">
         <v>26</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -6909,7 +6906,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="177" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="177"/>
       <c r="C1" s="177"/>
@@ -6919,7 +6916,7 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="178" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" s="178"/>
       <c r="D2" s="178"/>
@@ -6928,21 +6925,21 @@
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
       <c r="C3" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>378</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>379</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>56</v>
@@ -6951,22 +6948,22 @@
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>381</v>
-      </c>
       <c r="D5" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>382</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>383</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>51</v>
@@ -6975,52 +6972,52 @@
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>384</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>385</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>114</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>387</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>388</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>390</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>391</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>183</v>
@@ -7029,7 +7026,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="178" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C14" s="178"/>
       <c r="D14" s="178"/>
@@ -7038,21 +7035,21 @@
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
       <c r="C15" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>378</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>379</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>56</v>
@@ -7061,22 +7058,22 @@
     </row>
     <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>381</v>
-      </c>
       <c r="D17" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E17" s="38"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>382</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>383</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>51</v>
@@ -7085,46 +7082,46 @@
     </row>
     <row r="19" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>385</v>
-      </c>
       <c r="D19" s="40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" s="38"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>388</v>
-      </c>
       <c r="D20" s="40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="38"/>
     </row>
     <row r="21" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>391</v>
-      </c>
       <c r="D21" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E21" s="38"/>
     </row>
     <row r="22" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>183</v>
@@ -7158,257 +7155,257 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1" s="32">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1" s="32">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N1" s="32">
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B2" s="32">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2" s="32">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N2" s="32">
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B3" s="32">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H3" s="32">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N3" s="32">
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B4" s="32">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H4" s="32">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N4" s="32">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B5" s="32">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H5" s="32">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N5" s="32">
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B6" s="32">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H6" s="32">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N6" s="32">
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B7" s="32">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H7" s="32">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N7" s="32">
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B8" s="32">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H8" s="32">
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N8" s="32">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B9" s="32">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H9" s="32">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N9" s="69">
         <v>9</v>
@@ -7417,542 +7414,542 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H11" s="32">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N11" s="32">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B12" s="32">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H12" s="32">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N12" s="32">
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B13" s="32">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H13" s="32">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N13" s="32">
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B14" s="32">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G14" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H14" s="32">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N14" s="32">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B15" s="32">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H15" s="32">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N15" s="32">
         <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H16" s="32">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N16" s="32">
         <v>6</v>
       </c>
       <c r="O16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B17" s="32">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G17" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H17" s="32">
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N17" s="32">
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B18" s="32">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G18" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H18" s="32">
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N18" s="32">
         <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B19" s="32">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H19" s="32">
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N19" s="32">
         <v>9</v>
       </c>
       <c r="O19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B21" s="32">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H21" s="32">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N21" s="32">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B22" s="32">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H22" s="32">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N22" s="32">
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B23" s="32">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G23" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H23" s="32">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N23" s="32">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B24" s="32">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H24" s="32">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M24" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N24" s="32">
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B25" s="32">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H25" s="32">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M25" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B26" s="32">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H26" s="32">
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N26" s="32">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B27" s="32">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G27" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H27" s="32">
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N27" s="32">
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B28" s="32">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G28" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H28" s="32">
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M28" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N28" s="32">
         <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B29" s="32">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H29" s="69">
         <v>9</v>
       </c>
       <c r="I29" s="3"/>
       <c r="M29" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N29" s="32">
         <v>9</v>
       </c>
       <c r="O29" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H31" s="32">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N31" s="32">
         <v>1</v>
@@ -7960,22 +7957,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B32" s="32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G32" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H32" s="32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N32" s="32">
         <v>2</v>
@@ -7983,22 +7980,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B33" s="32">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H33" s="32">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N33" s="32">
         <v>3</v>
@@ -8006,22 +8003,22 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B34" s="32">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H34" s="32">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N34" s="32">
         <v>4</v>
@@ -8029,22 +8026,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B35" s="32">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H35" s="32">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8052,22 +8049,22 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B36" s="32">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H36" s="32">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N36" s="32">
         <v>6</v>
@@ -8075,22 +8072,22 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B37" s="32">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H37" s="32">
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N37" s="32">
         <v>7</v>
@@ -8098,20 +8095,20 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B38" s="69">
         <v>8</v>
       </c>
       <c r="C38" s="3"/>
       <c r="G38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H38" s="32">
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N38" s="32">
         <v>8</v>
@@ -8119,14 +8116,14 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B39" s="69">
         <v>9</v>
       </c>
       <c r="C39" s="3"/>
       <c r="G39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H39" s="32">
         <v>9</v>
@@ -8152,16 +8149,16 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>405</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>406</v>
-      </c>
-      <c r="E2" t="s">
-        <v>407</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -8170,188 +8167,188 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
         <v>409</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>410</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>411</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>412</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>413</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>414</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>415</v>
-      </c>
-      <c r="M3" t="s">
-        <v>416</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" t="s">
         <v>418</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>419</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>420</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>421</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>422</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>423</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>424</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>425</v>
-      </c>
-      <c r="P4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" t="s">
         <v>427</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>428</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>429</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>430</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>431</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>432</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>433</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>434</v>
-      </c>
-      <c r="P5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
         <v>436</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>437</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>438</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>439</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>440</v>
-      </c>
-      <c r="P6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>443</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>444</v>
-      </c>
-      <c r="P7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>445</v>
+      </c>
+      <c r="H8" t="s">
         <v>446</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>447</v>
       </c>
-      <c r="I8" t="s">
+      <c r="P8" t="s">
         <v>448</v>
-      </c>
-      <c r="P8" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="P12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -8378,7 +8375,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="140" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B1" s="141"/>
       <c r="C1" s="141"/>
@@ -8396,12 +8393,12 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="143" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="144"/>
       <c r="C3" s="145"/>
       <c r="D3" s="143" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E3" s="144"/>
       <c r="F3" s="145"/>
@@ -8661,7 +8658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -8675,7 +8672,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="146" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -8685,13 +8682,13 @@
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="109"/>
       <c r="B2" s="110" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="37"/>
     </row>
@@ -8700,13 +8697,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C3" s="109" t="s">
+        <v>559</v>
+      </c>
+      <c r="D3" s="111" t="s">
         <v>560</v>
-      </c>
-      <c r="D3" s="111" t="s">
-        <v>561</v>
       </c>
       <c r="E3" s="37"/>
     </row>
@@ -8715,13 +8712,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="111" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C4" s="109" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E4" s="37"/>
     </row>
@@ -8730,13 +8727,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E5" s="37"/>
     </row>
@@ -8745,13 +8742,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="111" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E6" s="37"/>
     </row>
@@ -8760,13 +8757,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E7" s="37"/>
     </row>
@@ -8775,13 +8772,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C8" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E8" s="37"/>
     </row>
@@ -8790,13 +8787,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -8805,13 +8802,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C10" s="109" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -8820,13 +8817,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -8835,13 +8832,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C12" s="109" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E12" s="37"/>
     </row>
@@ -8888,7 +8885,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="150" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -8900,7 +8897,7 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -8912,28 +8909,28 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="D3" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F3" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="H3" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8941,10 +8938,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="106" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>612</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>613</v>
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="104">
@@ -8957,7 +8954,7 @@
         <v>106</v>
       </c>
       <c r="H4" s="106" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8965,23 +8962,23 @@
         <v>2</v>
       </c>
       <c r="B5" s="106" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>614</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>615</v>
       </c>
       <c r="D5" s="106"/>
       <c r="E5" s="104">
         <v>12</v>
       </c>
       <c r="F5" s="106" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G5" s="106" t="s">
         <v>58</v>
       </c>
       <c r="H5" s="106" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8989,23 +8986,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="106" t="s">
+        <v>615</v>
+      </c>
+      <c r="C6" s="106" t="s">
         <v>616</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>617</v>
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="104">
         <v>13</v>
       </c>
       <c r="F6" s="106" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G6" s="106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" s="106" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9013,25 +9010,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C7" s="106" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E7" s="104">
         <v>14</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G7" s="106" t="s">
         <v>94</v>
       </c>
       <c r="H7" s="106" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9039,22 +9036,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C8" s="106" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E8" s="104">
         <v>15</v>
       </c>
       <c r="F8" s="106" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H8" s="106"/>
     </row>
@@ -9063,22 +9060,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C9" s="106" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="106" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E9" s="104">
         <v>16</v>
       </c>
       <c r="F9" s="106" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G9" s="106" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H9" s="106"/>
     </row>
@@ -9093,19 +9090,19 @@
         <v>81</v>
       </c>
       <c r="D10" s="106" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E10" s="104">
         <v>17</v>
       </c>
       <c r="F10" s="106" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>117</v>
       </c>
       <c r="H10" s="106" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9113,13 +9110,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E11" s="104">
         <v>18</v>
@@ -9128,10 +9125,10 @@
         <v>20</v>
       </c>
       <c r="G11" s="106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H11" s="106" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9139,13 +9136,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E12" s="104">
         <v>19</v>
@@ -9157,7 +9154,7 @@
         <v>201</v>
       </c>
       <c r="H12" s="106" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9171,16 +9168,16 @@
         <v>60</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E13" s="104">
         <v>20</v>
       </c>
       <c r="F13" s="106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G13" s="106" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H13" s="106"/>
     </row>
@@ -9196,7 +9193,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="147" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" s="148"/>
       <c r="C15" s="148"/>
@@ -9205,16 +9202,16 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="130" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="D16" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16"/>
     </row>
@@ -9223,13 +9220,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="132" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C17" s="133" t="s">
+        <v>559</v>
+      </c>
+      <c r="D17" s="132" t="s">
         <v>560</v>
-      </c>
-      <c r="D17" s="132" t="s">
-        <v>561</v>
       </c>
       <c r="E17"/>
     </row>
@@ -9238,13 +9235,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="132" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C18" s="133" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D18" s="133" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E18"/>
     </row>
@@ -9253,13 +9250,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="132" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C19" s="133" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D19" s="133" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E19"/>
     </row>
@@ -9268,13 +9265,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="132" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C20" s="133" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D20" s="133" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E20"/>
     </row>
@@ -9283,13 +9280,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="132" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C21" s="133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D21" s="133" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E21"/>
     </row>
@@ -9298,13 +9295,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="132" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C22" s="133" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D22" s="133" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E22"/>
     </row>
@@ -9313,13 +9310,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="132" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C23" s="133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="133" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E23"/>
     </row>
@@ -9328,13 +9325,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="132" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C24" s="133" t="s">
         <v>135</v>
       </c>
       <c r="D24" s="133" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E24"/>
     </row>
@@ -9343,13 +9340,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="132" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C25" s="133" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D25" s="133" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E25"/>
     </row>
@@ -9358,13 +9355,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="132" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C26" s="133" t="s">
         <v>167</v>
       </c>
       <c r="D26" s="133" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E26"/>
     </row>
@@ -9380,7 +9377,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="147" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B28" s="148"/>
       <c r="C28" s="148"/>
@@ -9389,16 +9386,16 @@
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="D29" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E29"/>
     </row>
@@ -9407,13 +9404,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="112" t="s">
+        <v>581</v>
+      </c>
+      <c r="C30" s="134" t="s">
         <v>582</v>
       </c>
-      <c r="C30" s="134" t="s">
+      <c r="D30" s="112" t="s">
         <v>583</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>584</v>
       </c>
       <c r="E30"/>
     </row>
@@ -9422,13 +9419,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="112" t="s">
+        <v>584</v>
+      </c>
+      <c r="C31" s="134" t="s">
         <v>585</v>
       </c>
-      <c r="C31" s="134" t="s">
+      <c r="D31" s="112" t="s">
         <v>586</v>
-      </c>
-      <c r="D31" s="112" t="s">
-        <v>587</v>
       </c>
       <c r="E31"/>
     </row>
@@ -9437,13 +9434,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="112" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" s="134" t="s">
         <v>588</v>
       </c>
-      <c r="C32" s="134" t="s">
+      <c r="D32" s="112" t="s">
         <v>589</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>590</v>
       </c>
       <c r="E32"/>
     </row>
@@ -9452,13 +9449,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="112" t="s">
+        <v>590</v>
+      </c>
+      <c r="C33" s="134" t="s">
         <v>591</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="D33" s="112" t="s">
         <v>592</v>
-      </c>
-      <c r="D33" s="112" t="s">
-        <v>593</v>
       </c>
       <c r="E33"/>
     </row>
@@ -9467,13 +9464,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="112" t="s">
+        <v>593</v>
+      </c>
+      <c r="C34" s="134" t="s">
         <v>594</v>
       </c>
-      <c r="C34" s="134" t="s">
+      <c r="D34" s="112" t="s">
         <v>595</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>596</v>
       </c>
       <c r="E34"/>
     </row>
@@ -9482,13 +9479,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="112" t="s">
+        <v>596</v>
+      </c>
+      <c r="C35" s="134" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="D35" s="112" t="s">
         <v>598</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>599</v>
       </c>
       <c r="E35"/>
     </row>
@@ -9497,13 +9494,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="112" t="s">
+        <v>599</v>
+      </c>
+      <c r="C36" s="134" t="s">
         <v>600</v>
       </c>
-      <c r="C36" s="134" t="s">
+      <c r="D36" s="112" t="s">
         <v>601</v>
-      </c>
-      <c r="D36" s="112" t="s">
-        <v>602</v>
       </c>
       <c r="E36"/>
     </row>
@@ -9512,13 +9509,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="112" t="s">
+        <v>602</v>
+      </c>
+      <c r="C37" s="134" t="s">
         <v>603</v>
       </c>
-      <c r="C37" s="134" t="s">
+      <c r="D37" s="112" t="s">
         <v>604</v>
-      </c>
-      <c r="D37" s="112" t="s">
-        <v>605</v>
       </c>
       <c r="E37"/>
     </row>
@@ -9527,13 +9524,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="112" t="s">
+        <v>605</v>
+      </c>
+      <c r="C38" s="134" t="s">
         <v>606</v>
       </c>
-      <c r="C38" s="134" t="s">
+      <c r="D38" s="112" t="s">
         <v>607</v>
-      </c>
-      <c r="D38" s="112" t="s">
-        <v>608</v>
       </c>
       <c r="E38"/>
     </row>
@@ -9542,13 +9539,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="112" t="s">
+        <v>608</v>
+      </c>
+      <c r="C39" s="134" t="s">
         <v>609</v>
       </c>
-      <c r="C39" s="134" t="s">
+      <c r="D39" s="112" t="s">
         <v>610</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>611</v>
       </c>
       <c r="E39"/>
     </row>
@@ -9587,7 +9584,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="151" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B1" s="151"/>
       <c r="C1" s="151"/>
@@ -9599,7 +9596,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -9612,23 +9609,23 @@
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="103"/>
       <c r="B3" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="D3" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E3" s="105"/>
       <c r="F3" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="H3" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -9636,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="113" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C4" s="113"/>
       <c r="D4" s="106"/>
@@ -9652,10 +9649,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="113" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C5" s="113" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D5" s="106"/>
       <c r="E5" s="104">
@@ -9670,10 +9667,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="104">
@@ -9688,7 +9685,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="113" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C7" s="113">
         <v>121.3</v>
@@ -9706,10 +9703,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="113" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C8" s="113" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="104">
@@ -9724,7 +9721,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="113" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C9" s="113" t="s">
         <v>117</v>
@@ -9742,7 +9739,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C10" s="113" t="s">
         <v>58</v>
@@ -9752,10 +9749,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="113" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G10" s="113" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H10" s="113"/>
       <c r="M10" s="36"/>
@@ -9769,17 +9766,17 @@
         <v>8</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C11" s="113" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="106"/>
       <c r="E11" s="104">
         <v>18</v>
       </c>
       <c r="F11" s="113" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G11" s="113">
         <v>126.2</v>
@@ -9796,20 +9793,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D12" s="106"/>
       <c r="E12" s="104">
         <v>19</v>
       </c>
       <c r="F12" s="113" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G12" s="113" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H12" s="113"/>
       <c r="M12" s="36"/>
@@ -9829,10 +9826,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="113" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G13" s="113" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H13" s="113"/>
       <c r="M13" s="36"/>
@@ -9843,7 +9840,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="147" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14" s="153"/>
       <c r="C14" s="153"/>
@@ -9861,23 +9858,23 @@
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="108"/>
       <c r="B15" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="114" t="s">
-        <v>322</v>
-      </c>
       <c r="D15" s="114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="115"/>
       <c r="F15" s="114" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="G15" s="114" t="s">
-        <v>322</v>
-      </c>
       <c r="H15" s="114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
@@ -9890,7 +9887,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="113" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C16" s="113"/>
       <c r="D16" s="113"/>
@@ -9901,10 +9898,10 @@
         <v>22</v>
       </c>
       <c r="G16" s="113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H16" s="113" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
@@ -9917,25 +9914,25 @@
         <v>2</v>
       </c>
       <c r="B17" s="113" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C17" s="113" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E17" s="114">
         <v>12</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G17" s="113" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="113" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -9948,25 +9945,25 @@
         <v>3</v>
       </c>
       <c r="B18" s="113" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C18" s="113" t="s">
         <v>109</v>
       </c>
       <c r="D18" s="113" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E18" s="114">
         <v>13</v>
       </c>
       <c r="F18" s="113" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G18" s="113" t="s">
         <v>106</v>
       </c>
       <c r="H18" s="113" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
@@ -9979,25 +9976,25 @@
         <v>4</v>
       </c>
       <c r="B19" s="113" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C19" s="113" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="113" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E19" s="114">
         <v>14</v>
       </c>
       <c r="F19" s="113" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G19" s="113" t="s">
         <v>130</v>
       </c>
       <c r="H19" s="113" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -10013,25 +10010,25 @@
         <v>5</v>
       </c>
       <c r="B20" s="113" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C20" s="113" t="s">
         <v>113</v>
       </c>
       <c r="D20" s="113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E20" s="114">
         <v>15</v>
       </c>
       <c r="F20" s="113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G20" s="113" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="113" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -10047,13 +10044,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="113" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C21" s="113" t="s">
         <v>128</v>
       </c>
       <c r="D21" s="113" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E21" s="114">
         <v>16</v>
@@ -10075,13 +10072,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="113" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C22" s="113" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E22" s="114">
         <v>17</v>
@@ -10103,13 +10100,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="113" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C23" s="113" t="s">
         <v>120</v>
       </c>
       <c r="D23" s="113" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E23" s="114">
         <v>18</v>
@@ -10134,10 +10131,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E24" s="114">
         <v>19</v>
@@ -10151,13 +10148,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C25" s="113" t="s">
         <v>201</v>
       </c>
       <c r="D25" s="113" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E25" s="114">
         <v>20</v>
@@ -10168,7 +10165,7 @@
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="147" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B26" s="153"/>
       <c r="C26" s="153"/>
@@ -10181,23 +10178,23 @@
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="103"/>
       <c r="B27" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="C27" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="D27" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" s="105"/>
       <c r="F27" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="G27" s="104" t="s">
-        <v>322</v>
-      </c>
       <c r="H27" s="104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10205,25 +10202,25 @@
         <v>1</v>
       </c>
       <c r="B28" s="112" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C28" s="112" t="s">
         <v>180</v>
       </c>
       <c r="D28" s="112" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E28" s="104">
         <v>11</v>
       </c>
       <c r="F28" s="112" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H28" s="112" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10231,25 +10228,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C29" s="112" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="112" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E29" s="104">
         <v>12</v>
       </c>
       <c r="F29" s="112" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G29" s="112" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H29" s="112" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10257,25 +10254,25 @@
         <v>3</v>
       </c>
       <c r="B30" s="112" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C30" s="112" t="s">
         <v>195</v>
       </c>
       <c r="D30" s="112" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E30" s="104">
         <v>13</v>
       </c>
       <c r="F30" s="112" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G30" s="112" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H30" s="112" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10283,25 +10280,25 @@
         <v>4</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C31" s="112" t="s">
         <v>200</v>
       </c>
       <c r="D31" s="112" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E31" s="104">
         <v>14</v>
       </c>
       <c r="F31" s="112" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G31" s="112" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H31" s="112" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10309,25 +10306,25 @@
         <v>5</v>
       </c>
       <c r="B32" s="112" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" s="112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E32" s="104">
         <v>15</v>
       </c>
       <c r="F32" s="112" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G32" s="112" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H32" s="112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10335,25 +10332,25 @@
         <v>6</v>
       </c>
       <c r="B33" s="112" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C33" s="112" t="s">
         <v>204</v>
       </c>
       <c r="D33" s="112" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E33" s="104">
         <v>16</v>
       </c>
       <c r="F33" s="112" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G33" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H33" s="112" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10361,25 +10358,25 @@
         <v>7</v>
       </c>
       <c r="B34" s="112" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E34" s="104">
         <v>17</v>
       </c>
       <c r="F34" s="112" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G34" s="112" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H34" s="112" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10387,25 +10384,25 @@
         <v>8</v>
       </c>
       <c r="B35" s="112" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C35" s="112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D35" s="112" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E35" s="104">
         <v>18</v>
       </c>
       <c r="F35" s="112" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G35" s="112" t="s">
         <v>135</v>
       </c>
       <c r="H35" s="112" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10413,25 +10410,25 @@
         <v>9</v>
       </c>
       <c r="B36" s="112" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D36" s="112" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E36" s="104">
         <v>19</v>
       </c>
       <c r="F36" s="112" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G36" s="112" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H36" s="112" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10439,25 +10436,25 @@
         <v>10</v>
       </c>
       <c r="B37" s="112" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C37" s="112" t="s">
         <v>177</v>
       </c>
       <c r="D37" s="112" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E37" s="104">
         <v>20</v>
       </c>
       <c r="F37" s="112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G37" s="112" t="s">
         <v>167</v>
       </c>
       <c r="H37" s="112" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
@@ -10706,7 +10703,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="155" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -10728,13 +10725,13 @@
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="161" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="162"/>
       <c r="C3" s="163"/>
       <c r="D3" s="164"/>
       <c r="E3" s="161" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F3" s="162"/>
       <c r="G3" s="163"/>
@@ -10748,10 +10745,10 @@
         <v>191</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E4" s="88">
         <v>1</v>
@@ -10761,7 +10758,7 @@
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="74" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10769,13 +10766,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E5" s="88">
         <v>2</v>
@@ -10785,7 +10782,7 @@
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10793,13 +10790,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E6" s="88">
         <v>3</v>
@@ -10809,7 +10806,7 @@
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10817,13 +10814,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" s="88">
         <v>4</v>
@@ -10832,10 +10829,10 @@
         <v>42</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10843,13 +10840,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="88">
         <v>5</v>
@@ -10858,10 +10855,10 @@
         <v>109</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H8" s="74" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10869,13 +10866,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E9" s="88">
         <v>6</v>
@@ -10884,10 +10881,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10895,13 +10892,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" s="88">
         <v>7</v>
@@ -10910,10 +10907,10 @@
         <v>113</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10924,10 +10921,10 @@
         <v>189</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E11" s="88">
         <v>8</v>
@@ -10936,10 +10933,10 @@
         <v>128</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10950,10 +10947,10 @@
         <v>174</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E12" s="88">
         <v>9</v>
@@ -10962,10 +10959,10 @@
         <v>117</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10976,10 +10973,10 @@
         <v>187</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E13" s="88">
         <v>10</v>
@@ -10988,10 +10985,10 @@
         <v>81</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H13" s="74" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10999,13 +10996,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E14" s="88">
         <v>11</v>
@@ -11014,10 +11011,10 @@
         <v>120</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H14" s="74" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11025,22 +11022,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D15" s="90" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E15" s="88">
         <v>12</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H15" s="74" t="s">
         <v>20</v>
@@ -11054,10 +11051,10 @@
         <v>245.75</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E16" s="88">
         <v>13</v>
@@ -11066,10 +11063,10 @@
         <v>201</v>
       </c>
       <c r="G16" s="74" t="s">
+        <v>516</v>
+      </c>
+      <c r="H16" s="74" t="s">
         <v>517</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11080,19 +11077,19 @@
         <v>67</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E17" s="88">
         <v>14</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H17" s="74" t="s">
         <v>22</v>
@@ -11106,10 +11103,10 @@
         <v>60</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D18" s="90" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E18" s="88">
         <v>15</v>
@@ -11119,7 +11116,7 @@
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11130,10 +11127,10 @@
         <v>106</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E19" s="88">
         <v>16</v>
@@ -11143,7 +11140,7 @@
       </c>
       <c r="G19" s="74"/>
       <c r="H19" s="74" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11154,10 +11151,10 @@
         <v>130</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E20" s="88">
         <v>17</v>
@@ -11167,7 +11164,7 @@
       </c>
       <c r="G20" s="74"/>
       <c r="H20" s="92" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11178,10 +11175,10 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E21" s="88">
         <v>18</v>
@@ -11191,7 +11188,7 @@
       </c>
       <c r="G21" s="74"/>
       <c r="H21" s="92" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11202,10 +11199,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" s="97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E22" s="88">
         <v>19</v>
@@ -11214,10 +11211,10 @@
         <v>41</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H22" s="74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11229,7 +11226,7 @@
       </c>
       <c r="C23" s="90"/>
       <c r="D23" s="90" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E23" s="88">
         <v>20</v>
@@ -11239,7 +11236,7 @@
       </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11251,13 +11248,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="73" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G24" s="74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11269,13 +11266,13 @@
         <v>22</v>
       </c>
       <c r="F25" s="73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G25" s="74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11291,7 +11288,7 @@
       </c>
       <c r="G26" s="74"/>
       <c r="H26" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11307,7 +11304,7 @@
       </c>
       <c r="G27" s="74"/>
       <c r="H27" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11323,7 +11320,7 @@
       </c>
       <c r="G28" s="74"/>
       <c r="H28" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11339,7 +11336,7 @@
       </c>
       <c r="G29" s="74"/>
       <c r="H29" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11355,7 +11352,7 @@
       </c>
       <c r="G30" s="74"/>
       <c r="H30" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11371,7 +11368,7 @@
       </c>
       <c r="G31" s="74"/>
       <c r="H31" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11387,7 +11384,7 @@
       </c>
       <c r="G32" s="74"/>
       <c r="H32" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11403,7 +11400,7 @@
       </c>
       <c r="G33" s="74"/>
       <c r="H33" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -11440,7 +11437,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="165" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1" s="165"/>
       <c r="C1" s="165"/>
@@ -11462,13 +11459,13 @@
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="161" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B3" s="162"/>
       <c r="C3" s="163"/>
       <c r="D3" s="164"/>
       <c r="E3" s="161" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F3" s="162"/>
       <c r="G3" s="163"/>
@@ -11482,10 +11479,10 @@
         <v>191</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E4" s="88">
         <v>1</v>
@@ -11495,7 +11492,7 @@
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="74" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11503,13 +11500,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E5" s="88">
         <v>2</v>
@@ -11519,7 +11516,7 @@
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="74" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11527,13 +11524,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E6" s="88">
         <v>3</v>
@@ -11543,7 +11540,7 @@
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="74" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11551,13 +11548,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="89" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" s="88">
         <v>4</v>
@@ -11566,10 +11563,10 @@
         <v>42</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11577,13 +11574,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="88">
         <v>5</v>
@@ -11592,10 +11589,10 @@
         <v>109</v>
       </c>
       <c r="G8" s="74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H8" s="74" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11603,13 +11600,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E9" s="88">
         <v>6</v>
@@ -11618,10 +11615,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H9" s="74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11629,13 +11626,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" s="88">
         <v>7</v>
@@ -11644,10 +11641,10 @@
         <v>113</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H10" s="74" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11658,10 +11655,10 @@
         <v>189</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E11" s="88">
         <v>8</v>
@@ -11670,10 +11667,10 @@
         <v>128</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="74" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11684,10 +11681,10 @@
         <v>174</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E12" s="88">
         <v>9</v>
@@ -11696,10 +11693,10 @@
         <v>117</v>
       </c>
       <c r="G12" s="74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H12" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11710,10 +11707,10 @@
         <v>187</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D13" s="90" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E13" s="88">
         <v>10</v>
@@ -11722,10 +11719,10 @@
         <v>81</v>
       </c>
       <c r="G13" s="74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H13" s="74" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11733,13 +11730,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E14" s="88">
         <v>11</v>
@@ -11748,10 +11745,10 @@
         <v>120</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H14" s="74" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11759,22 +11756,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E15" s="88">
         <v>12</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H15" s="74" t="s">
         <v>20</v>
@@ -11788,10 +11785,10 @@
         <v>58</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E16" s="88">
         <v>13</v>
@@ -11800,10 +11797,10 @@
         <v>201</v>
       </c>
       <c r="G16" s="74" t="s">
+        <v>516</v>
+      </c>
+      <c r="H16" s="74" t="s">
         <v>517</v>
-      </c>
-      <c r="H16" s="74" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11811,22 +11808,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E17" s="88">
         <v>14</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H17" s="74" t="s">
         <v>22</v>
@@ -11840,10 +11837,10 @@
         <v>60</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E18" s="88">
         <v>15</v>
@@ -11853,7 +11850,7 @@
       </c>
       <c r="G18" s="74"/>
       <c r="H18" s="74" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11864,10 +11861,10 @@
         <v>106</v>
       </c>
       <c r="C19" s="74" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E19" s="88">
         <v>16</v>
@@ -11877,7 +11874,7 @@
       </c>
       <c r="G19" s="74"/>
       <c r="H19" s="74" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11888,10 +11885,10 @@
         <v>130</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E20" s="88">
         <v>17</v>
@@ -11901,7 +11898,7 @@
       </c>
       <c r="G20" s="74"/>
       <c r="H20" s="92" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11912,10 +11909,10 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E21" s="88">
         <v>18</v>
@@ -11925,7 +11922,7 @@
       </c>
       <c r="G21" s="74"/>
       <c r="H21" s="92" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11936,10 +11933,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D22" s="92" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E22" s="88">
         <v>19</v>
@@ -11948,10 +11945,10 @@
         <v>41</v>
       </c>
       <c r="G22" s="74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H22" s="74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11963,7 +11960,7 @@
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="74" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E23" s="88">
         <v>20</v>
@@ -11973,7 +11970,7 @@
       </c>
       <c r="G23" s="74"/>
       <c r="H23" s="74" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -11994,7 +11991,7 @@
   </sheetPr>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -12010,7 +12007,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="166" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B1" s="167"/>
       <c r="C1" s="167"/>
@@ -12032,13 +12029,13 @@
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B3" s="173"/>
       <c r="C3" s="173"/>
       <c r="D3" s="173"/>
       <c r="E3" s="173" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F3" s="173"/>
       <c r="G3" s="173"/>
@@ -12051,7 +12048,7 @@
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="75" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E4" s="72">
         <v>1</v>
@@ -12059,7 +12056,7 @@
       <c r="F4" s="73"/>
       <c r="G4" s="74"/>
       <c r="H4" s="73" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12070,20 +12067,20 @@
         <v>42</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E5" s="72">
         <v>2</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12094,20 +12091,20 @@
         <v>109</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E6" s="72">
         <v>3</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G6" s="74"/>
       <c r="H6" s="73" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12118,10 +12115,10 @@
         <v>39</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E7" s="72">
         <v>4</v>
@@ -12131,7 +12128,7 @@
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="73" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12142,20 +12139,20 @@
         <v>113</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E8" s="72">
         <v>5</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="73" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12166,10 +12163,10 @@
         <v>128</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E9" s="72">
         <v>6</v>
@@ -12178,10 +12175,10 @@
         <v>117</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12192,10 +12189,10 @@
         <v>81</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E10" s="72">
         <v>7</v>
@@ -12204,10 +12201,10 @@
         <v>58</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12218,22 +12215,22 @@
         <v>120</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E11" s="72">
         <v>8</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12241,10 +12238,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D12" s="75" t="s">
         <v>20</v>
@@ -12253,11 +12250,11 @@
         <v>9</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G12" s="74"/>
       <c r="H12" s="73" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12268,10 +12265,10 @@
         <v>201</v>
       </c>
       <c r="C13" s="74" t="s">
+        <v>516</v>
+      </c>
+      <c r="D13" s="75" t="s">
         <v>517</v>
-      </c>
-      <c r="D13" s="75" t="s">
-        <v>518</v>
       </c>
       <c r="E13" s="72">
         <v>10</v>
@@ -12285,10 +12282,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>22</v>
@@ -12311,10 +12308,10 @@
         <v>60</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E15" s="72">
         <v>12</v>
@@ -12334,10 +12331,10 @@
         <v>106</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E16" s="72">
         <v>13</v>
@@ -12357,10 +12354,10 @@
         <v>130</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E17" s="72">
         <v>14</v>
@@ -12380,10 +12377,10 @@
         <v>41</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E18" s="72">
         <v>15</v>
@@ -12420,11 +12417,11 @@
         <v>17</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G20" s="74"/>
       <c r="H20" s="73" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12442,7 +12439,7 @@
       </c>
       <c r="G21" s="74"/>
       <c r="H21" s="73" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12456,11 +12453,11 @@
         <v>19</v>
       </c>
       <c r="F22" s="73" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G22" s="74"/>
       <c r="H22" s="73" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.25">
@@ -12474,11 +12471,11 @@
         <v>20</v>
       </c>
       <c r="F23" s="128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G23" s="129"/>
       <c r="H23" s="128" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525EA127-D150-48AB-BD7C-B9C8814DCA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142192E8-D403-4E92-B4B2-696C654418AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="6930" windowWidth="21600" windowHeight="12975" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="764">
   <si>
     <t>AWACS</t>
   </si>
@@ -3475,10 +3475,10 @@
     <xf numFmtId="49" fontId="22" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3948,7 +3948,7 @@
   <dimension ref="B3:AF51"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,21 +4044,21 @@
       <c r="S4" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="V4" s="135" t="s">
+      <c r="V4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Z4" s="135" t="s">
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Z4" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AD4" s="135" t="s">
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AD4" s="136" t="s">
         <v>292</v>
       </c>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4537,11 +4537,11 @@
       <c r="X11" t="s">
         <v>509</v>
       </c>
-      <c r="Z11" s="135" t="s">
+      <c r="Z11" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
+      <c r="AA11" s="136"/>
+      <c r="AB11" s="136"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
@@ -4968,11 +4968,11 @@
         <v>310</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="135" t="s">
+      <c r="R18" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
+      <c r="S18" s="136"/>
+      <c r="T18" s="136"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
@@ -5035,13 +5035,13 @@
       <c r="X19" s="138"/>
       <c r="Y19" s="138"/>
       <c r="Z19" s="139"/>
-      <c r="AB19" s="135" t="s">
+      <c r="AB19" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="135"/>
-      <c r="AF19" s="135"/>
+      <c r="AC19" s="136"/>
+      <c r="AD19" s="136"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="136"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5430,11 +5430,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="135" t="s">
+      <c r="R25" s="136" t="s">
         <v>555</v>
       </c>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5593,33 +5593,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="136" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="J31" s="135" t="s">
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="J31" s="136" t="s">
         <v>312</v>
       </c>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="135"/>
-      <c r="U31" s="135" t="s">
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="U31" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="136"/>
+      <c r="X31" s="136"/>
+      <c r="Y31" s="136"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -6068,15 +6068,15 @@
       <c r="F39" t="s">
         <v>633</v>
       </c>
-      <c r="J39" s="136" t="s">
+      <c r="J39" s="135" t="s">
         <v>492</v>
       </c>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="136"/>
-      <c r="N39" s="136"/>
-      <c r="O39" s="136"/>
-      <c r="P39" s="136"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="135"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6299,11 +6299,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6311,6 +6306,11 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9565,8 +9565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9828,8 +9828,8 @@
       <c r="F13" s="113" t="s">
         <v>755</v>
       </c>
-      <c r="G13" s="113" t="s">
-        <v>710</v>
+      <c r="G13" s="113">
+        <v>121.6</v>
       </c>
       <c r="H13" s="113"/>
       <c r="M13" s="36"/>
@@ -11991,7 +11991,7 @@
   </sheetPr>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142192E8-D403-4E92-B4B2-696C654418AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F3054-DB62-4679-A544-B88113427DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="2400" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="769">
   <si>
     <t>AWACS</t>
   </si>
@@ -2318,6 +2318,21 @@
   </si>
   <si>
     <t>KA-50 presets OPBH V1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILLBOX </t>
+  </si>
+  <si>
+    <t>White 1</t>
+  </si>
+  <si>
+    <t>Purple 2</t>
+  </si>
+  <si>
+    <t>Cherry 7</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3475,12 +3490,15 @@
     <xf numFmtId="49" fontId="22" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3605,6 +3623,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3947,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5028,13 +5055,13 @@
       <c r="T19" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="V19" s="137" t="s">
+      <c r="V19" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="140"/>
       <c r="AB19" s="136" t="s">
         <v>14</v>
       </c>
@@ -5620,6 +5647,11 @@
       <c r="Y31" s="136"/>
       <c r="Z31" s="136"/>
       <c r="AA31" s="136"/>
+      <c r="AC31" s="180" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD31" s="180"/>
+      <c r="AE31" s="180"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -5685,8 +5717,17 @@
       <c r="AA32" s="15" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC32" s="182" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD32" s="182" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE32" s="135" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>421</v>
       </c>
@@ -5750,8 +5791,17 @@
       <c r="AA33" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC33" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="181">
+        <v>126.25</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>408</v>
       </c>
@@ -5815,8 +5865,17 @@
       <c r="AA34" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC34" s="32">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="181">
+        <v>127</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>426</v>
       </c>
@@ -5880,8 +5939,17 @@
       <c r="AA35" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC35" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="181">
+        <v>132.1</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>435</v>
       </c>
@@ -5946,7 +6014,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>437</v>
       </c>
@@ -6011,7 +6079,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E38" s="13" t="s">
         <v>204</v>
       </c>
@@ -6061,22 +6129,22 @@
         <v>661</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E39" s="13" t="s">
         <v>229</v>
       </c>
       <c r="F39" t="s">
         <v>633</v>
       </c>
-      <c r="J39" s="135" t="s">
+      <c r="J39" s="137" t="s">
         <v>492</v>
       </c>
-      <c r="K39" s="135"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
-      <c r="N39" s="135"/>
-      <c r="O39" s="135"/>
-      <c r="P39" s="135"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6102,7 +6170,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E40" s="13" t="s">
         <v>254</v>
       </c>
@@ -6134,7 +6202,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E41" s="13" t="s">
         <v>253</v>
       </c>
@@ -6166,7 +6234,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E42" s="13" t="s">
         <v>177</v>
       </c>
@@ -6192,7 +6260,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="U44" t="s">
         <v>703</v>
       </c>
@@ -6212,7 +6280,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W45" t="s">
         <v>726</v>
       </c>
@@ -6229,7 +6297,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W46" t="s">
         <v>726</v>
       </c>
@@ -6298,7 +6366,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="AC31:AE31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6306,11 +6380,6 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6322,7 +6391,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6336,34 +6405,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="144" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="143" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="144" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48">
@@ -6905,22 +6974,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="178" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="179" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -7025,12 +7094,12 @@
       <c r="E10" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="179" t="s">
         <v>393</v>
       </c>
-      <c r="C14" s="178"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="179"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
@@ -8374,14 +8443,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="141" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="143"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8392,16 +8461,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="144" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="143" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="144" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="146"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8671,12 +8740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -8870,7 +8939,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8884,28 +8953,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>760</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
@@ -9192,12 +9261,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="148" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="149"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9376,12 +9445,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="148" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="149"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9565,8 +9634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9583,28 +9652,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="152" t="s">
         <v>762</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="148" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="103"/>
@@ -9839,16 +9908,16 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="148" t="s">
         <v>322</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="155"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -10164,16 +10233,16 @@
       <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="147" t="s">
+      <c r="A26" s="148" t="s">
         <v>323</v>
       </c>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="155"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="103"/>
@@ -10458,10 +10527,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
       <c r="F41" s="123"/>
       <c r="G41" s="123"/>
       <c r="H41" s="123"/>
@@ -10685,7 +10754,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10702,40 +10771,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="157"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="158"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="160"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="161"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="162" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="161" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="162" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="164"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="88">
@@ -11419,7 +11488,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11436,40 +11505,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="162" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="161" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="162" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="164"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="165"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="88">
@@ -11992,7 +12061,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12006,40 +12075,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>751</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="169"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="171"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="173" t="s">
         <v>717</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174" t="s">
         <v>718</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="175"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F3054-DB62-4679-A544-B88113427DF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81298B-C38C-4572-92EF-A0FAE779CF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="2400" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28365" yWindow="2865" windowWidth="21600" windowHeight="12975" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -3493,6 +3493,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3508,6 +3514,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3623,15 +3632,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3974,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AC42" sqref="AC42"/>
     </sheetView>
   </sheetViews>
@@ -4071,21 +4071,21 @@
       <c r="S4" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="V4" s="136" t="s">
+      <c r="V4" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Z4" s="136" t="s">
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Z4" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AD4" s="136" t="s">
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AD4" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4564,11 +4564,11 @@
       <c r="X11" t="s">
         <v>509</v>
       </c>
-      <c r="Z11" s="136" t="s">
+      <c r="Z11" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
@@ -4995,11 +4995,11 @@
         <v>310</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="136" t="s">
+      <c r="R18" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
@@ -5055,20 +5055,20 @@
       <c r="T19" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="V19" s="138" t="s">
+      <c r="V19" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="140"/>
-      <c r="AB19" s="136" t="s">
+      <c r="W19" s="141"/>
+      <c r="X19" s="141"/>
+      <c r="Y19" s="141"/>
+      <c r="Z19" s="142"/>
+      <c r="AB19" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="136"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="138"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5457,11 +5457,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="136" t="s">
+      <c r="R25" s="138" t="s">
         <v>555</v>
       </c>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5620,38 +5620,38 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="138" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="J31" s="136" t="s">
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="J31" s="138" t="s">
         <v>312</v>
       </c>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="U31" s="136" t="s">
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="138"/>
+      <c r="U31" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="136"/>
-      <c r="AC31" s="180" t="s">
+      <c r="V31" s="138"/>
+      <c r="W31" s="138"/>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="138"/>
+      <c r="Z31" s="138"/>
+      <c r="AA31" s="138"/>
+      <c r="AC31" s="143" t="s">
         <v>764</v>
       </c>
-      <c r="AD31" s="180"/>
-      <c r="AE31" s="180"/>
+      <c r="AD31" s="143"/>
+      <c r="AE31" s="143"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -5717,10 +5717,10 @@
       <c r="AA32" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="AC32" s="182" t="s">
+      <c r="AC32" s="137" t="s">
         <v>768</v>
       </c>
-      <c r="AD32" s="182" t="s">
+      <c r="AD32" s="137" t="s">
         <v>299</v>
       </c>
       <c r="AE32" s="135" t="s">
@@ -5794,7 +5794,7 @@
       <c r="AC33" s="32">
         <v>1</v>
       </c>
-      <c r="AD33" s="181">
+      <c r="AD33" s="136">
         <v>126.25</v>
       </c>
       <c r="AE33" t="s">
@@ -5868,7 +5868,7 @@
       <c r="AC34" s="32">
         <v>2</v>
       </c>
-      <c r="AD34" s="181">
+      <c r="AD34" s="136">
         <v>127</v>
       </c>
       <c r="AE34" t="s">
@@ -5942,7 +5942,7 @@
       <c r="AC35" s="32">
         <v>3</v>
       </c>
-      <c r="AD35" s="181">
+      <c r="AD35" s="136">
         <v>132.1</v>
       </c>
       <c r="AE35" t="s">
@@ -6136,15 +6136,15 @@
       <c r="F39" t="s">
         <v>633</v>
       </c>
-      <c r="J39" s="137" t="s">
+      <c r="J39" s="139" t="s">
         <v>492</v>
       </c>
-      <c r="K39" s="137"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
-      <c r="O39" s="137"/>
-      <c r="P39" s="137"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6405,34 +6405,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="179" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="147" t="s">
         <v>333</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48">
@@ -6974,22 +6974,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="181" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -7094,12 +7094,12 @@
       <c r="E10" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="182" t="s">
         <v>393</v>
       </c>
-      <c r="C14" s="179"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="179"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
@@ -8443,14 +8443,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="143"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8461,16 +8461,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="147" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="144" t="s">
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="147" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="146"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8740,12 +8740,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -8953,28 +8953,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="154" t="s">
         <v>760</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="151" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
@@ -9261,12 +9261,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="151" t="s">
         <v>326</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9445,12 +9445,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="153"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9652,28 +9652,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="155" t="s">
         <v>762</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="151" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="153"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="103"/>
@@ -9908,16 +9908,16 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="151" t="s">
         <v>322</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="155"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="158"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -10233,16 +10233,16 @@
       <c r="H25" s="113"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="151" t="s">
         <v>323</v>
       </c>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="155"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="158"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="103"/>
@@ -10527,10 +10527,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
       <c r="F41" s="123"/>
       <c r="G41" s="123"/>
       <c r="H41" s="123"/>
@@ -10771,40 +10771,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="159" t="s">
         <v>748</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="158"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="161"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="161"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="164"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="165" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="162" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="165" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="165"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="88">
@@ -11487,8 +11487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11505,40 +11505,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="169" t="s">
         <v>747</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="165" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="162" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="165" t="s">
         <v>398</v>
       </c>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="165"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="88">
@@ -12075,40 +12075,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="170" t="s">
         <v>751</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="169"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="172"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="172"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="176" t="s">
         <v>717</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174" t="s">
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177" t="s">
         <v>718</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="175"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="178"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81298B-C38C-4572-92EF-A0FAE779CF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAA0D40-3E21-4506-BE2E-7A995209038F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28365" yWindow="2865" windowWidth="21600" windowHeight="12975" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30345" yWindow="1860" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -3499,10 +3499,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3974,8 +3974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC42" sqref="AC42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,21 +4071,21 @@
       <c r="S4" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="V4" s="138" t="s">
+      <c r="V4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Z4" s="138" t="s">
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Z4" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AD4" s="138" t="s">
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AD4" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="138"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4409,7 +4409,7 @@
       <c r="G9" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="76" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="34" t="s">
@@ -4564,11 +4564,11 @@
       <c r="X11" t="s">
         <v>509</v>
       </c>
-      <c r="Z11" s="138" t="s">
+      <c r="Z11" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
@@ -4659,7 +4659,7 @@
       <c r="G13" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="76" t="s">
         <v>455</v>
       </c>
       <c r="I13" s="16" t="s">
@@ -4995,11 +4995,11 @@
         <v>310</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="138" t="s">
+      <c r="R18" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
@@ -5062,13 +5062,13 @@
       <c r="X19" s="141"/>
       <c r="Y19" s="141"/>
       <c r="Z19" s="142"/>
-      <c r="AB19" s="138" t="s">
+      <c r="AB19" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="138"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5457,11 +5457,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="138" t="s">
+      <c r="R25" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5620,33 +5620,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="J31" s="138" t="s">
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="J31" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="138"/>
-      <c r="U31" s="138" t="s">
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
+      <c r="U31" s="139" t="s">
         <v>294</v>
       </c>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
       <c r="AC31" s="143" t="s">
         <v>764</v>
       </c>
@@ -6136,15 +6136,15 @@
       <c r="F39" t="s">
         <v>633</v>
       </c>
-      <c r="J39" s="139" t="s">
+      <c r="J39" s="138" t="s">
         <v>492</v>
       </c>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="139"/>
-      <c r="P39" s="139"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6367,12 +6367,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="AC31:AE31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6380,6 +6374,12 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="AC31:AE31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11487,7 +11487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAA0D40-3E21-4506-BE2E-7A995209038F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E15AE1-988E-4E87-85DC-2C3223109224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30345" yWindow="1860" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25110" yWindow="2385" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -3499,10 +3499,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3974,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -4071,21 +4071,21 @@
       <c r="S4" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="V4" s="139" t="s">
+      <c r="V4" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Z4" s="139" t="s">
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Z4" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AD4" s="139" t="s">
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AD4" s="138" t="s">
         <v>292</v>
       </c>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
+      <c r="AE4" s="138"/>
+      <c r="AF4" s="138"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4564,11 +4564,11 @@
       <c r="X11" t="s">
         <v>509</v>
       </c>
-      <c r="Z11" s="139" t="s">
+      <c r="Z11" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="139"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
@@ -4995,11 +4995,11 @@
         <v>310</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="139" t="s">
+      <c r="R18" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
@@ -5062,13 +5062,13 @@
       <c r="X19" s="141"/>
       <c r="Y19" s="141"/>
       <c r="Z19" s="142"/>
-      <c r="AB19" s="139" t="s">
+      <c r="AB19" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="139"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="138"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5457,11 +5457,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="139" t="s">
+      <c r="R25" s="138" t="s">
         <v>555</v>
       </c>
-      <c r="S25" s="139"/>
-      <c r="T25" s="139"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5620,33 +5620,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="138" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="J31" s="139" t="s">
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="J31" s="138" t="s">
         <v>312</v>
       </c>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="139"/>
-      <c r="U31" s="139" t="s">
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="138"/>
+      <c r="U31" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="139"/>
+      <c r="V31" s="138"/>
+      <c r="W31" s="138"/>
+      <c r="X31" s="138"/>
+      <c r="Y31" s="138"/>
+      <c r="Z31" s="138"/>
+      <c r="AA31" s="138"/>
       <c r="AC31" s="143" t="s">
         <v>764</v>
       </c>
@@ -6136,15 +6136,15 @@
       <c r="F39" t="s">
         <v>633</v>
       </c>
-      <c r="J39" s="138" t="s">
+      <c r="J39" s="139" t="s">
         <v>492</v>
       </c>
-      <c r="K39" s="138"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="138"/>
-      <c r="N39" s="138"/>
-      <c r="O39" s="138"/>
-      <c r="P39" s="138"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="139"/>
+      <c r="M39" s="139"/>
+      <c r="N39" s="139"/>
+      <c r="O39" s="139"/>
+      <c r="P39" s="139"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6367,6 +6367,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="AC31:AE31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6374,12 +6380,6 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="AC31:AE31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E15AE1-988E-4E87-85DC-2C3223109224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124110EF-08C2-40A6-A817-611DF90C3198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25110" yWindow="2385" windowWidth="21600" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="770">
   <si>
     <t>AWACS</t>
   </si>
@@ -2333,6 +2333,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Ras Al Khaimah ATIS</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2345,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2543,6 +2546,13 @@
     <font>
       <sz val="14"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3180,7 +3190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3499,12 +3509,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3633,6 +3643,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3974,8 +3996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,21 +4093,21 @@
       <c r="S4" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="V4" s="138" t="s">
+      <c r="V4" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Z4" s="138" t="s">
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Z4" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AD4" s="138" t="s">
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AD4" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="AE4" s="138"/>
-      <c r="AF4" s="138"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4564,11 +4586,11 @@
       <c r="X11" t="s">
         <v>509</v>
       </c>
-      <c r="Z11" s="138" t="s">
+      <c r="Z11" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="51" t="s">
@@ -4995,11 +5017,11 @@
         <v>310</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="138" t="s">
+      <c r="R18" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
@@ -5062,13 +5084,13 @@
       <c r="X19" s="141"/>
       <c r="Y19" s="141"/>
       <c r="Z19" s="142"/>
-      <c r="AB19" s="138" t="s">
+      <c r="AB19" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="138"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5457,11 +5479,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="138" t="s">
+      <c r="R25" s="139" t="s">
         <v>555</v>
       </c>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5620,33 +5642,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="J31" s="138" t="s">
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="J31" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="K31" s="138"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="138"/>
-      <c r="U31" s="138" t="s">
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="139"/>
+      <c r="U31" s="139" t="s">
         <v>294</v>
       </c>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
       <c r="AC31" s="143" t="s">
         <v>764</v>
       </c>
@@ -6136,15 +6158,15 @@
       <c r="F39" t="s">
         <v>633</v>
       </c>
-      <c r="J39" s="139" t="s">
+      <c r="J39" s="138" t="s">
         <v>492</v>
       </c>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="139"/>
-      <c r="O39" s="139"/>
-      <c r="P39" s="139"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6298,6 +6320,12 @@
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="R46" s="183" t="s">
+        <v>755</v>
+      </c>
+      <c r="S46" s="186">
+        <v>118.2</v>
+      </c>
       <c r="W46" t="s">
         <v>726</v>
       </c>
@@ -6312,6 +6340,14 @@
       </c>
       <c r="AA46" s="2" t="s">
         <v>730</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="R47" s="185" t="s">
+        <v>769</v>
+      </c>
+      <c r="S47" s="184">
+        <v>118.1</v>
       </c>
     </row>
     <row r="49" spans="23:27" x14ac:dyDescent="0.25">
@@ -6367,12 +6403,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="AC31:AE31"/>
     <mergeCell ref="B31:H31"/>
     <mergeCell ref="R18:T18"/>
     <mergeCell ref="AB19:AF19"/>
@@ -6380,6 +6410,12 @@
     <mergeCell ref="V4:X4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="R25:T25"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="AC31:AE31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9635,7 +9671,7 @@
   <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9898,7 +9934,7 @@
         <v>755</v>
       </c>
       <c r="G13" s="113">
-        <v>121.6</v>
+        <v>118.2</v>
       </c>
       <c r="H13" s="113"/>
       <c r="M13" s="36"/>
@@ -12061,7 +12097,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C8AF3-EE08-48CF-BB8E-A1B9B5E6D0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E02E5C-A664-4CA5-AF69-C4ECE149054E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15435" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -2200,9 +2200,6 @@
     <t>Fujairah TWR</t>
   </si>
   <si>
-    <t>G Washington ATC</t>
-  </si>
-  <si>
     <t>G Washington LSO</t>
   </si>
   <si>
@@ -2354,6 +2351,9 @@
   </si>
   <si>
     <t>MI-8 presets OPBH V1.1</t>
+  </si>
+  <si>
+    <t>G Washington Marsh</t>
   </si>
 </sst>
 </file>
@@ -3573,6 +3573,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3586,9 +3670,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3669,6 +3750,12 @@
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3707,93 +3794,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4135,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF51"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="W2" s="138"/>
       <c r="X2" s="138"/>
-      <c r="Z2" s="142" t="s">
-        <v>766</v>
-      </c>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="144"/>
+      <c r="Z2" s="170" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="172"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C3" s="53">
@@ -4272,7 +4272,7 @@
         <v>492</v>
       </c>
       <c r="Z4" s="136" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AA4" s="137" t="s">
         <v>108</v>
@@ -4280,11 +4280,11 @@
       <c r="AB4" s="137" t="s">
         <v>492</v>
       </c>
-      <c r="AD4" s="146" t="s">
+      <c r="AD4" s="169" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="146"/>
+      <c r="AE4" s="169"/>
+      <c r="AF4" s="169"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4343,9 +4343,9 @@
         <v>494</v>
       </c>
       <c r="Z5" s="136" t="s">
-        <v>748</v>
-      </c>
-      <c r="AA5" s="187">
+        <v>747</v>
+      </c>
+      <c r="AA5" s="142">
         <v>234.5</v>
       </c>
       <c r="AB5" s="137" t="s">
@@ -4422,7 +4422,7 @@
         <v>493</v>
       </c>
       <c r="Z6" s="136" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AA6" s="34" t="s">
         <v>104</v>
@@ -4501,7 +4501,7 @@
         <v>495</v>
       </c>
       <c r="Z7" s="136" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AA7" s="137" t="s">
         <v>34</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="X8" s="136"/>
       <c r="Z8" s="136" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AA8" s="137" t="s">
         <v>151</v>
@@ -4643,7 +4643,7 @@
         <v>504</v>
       </c>
       <c r="Z9" s="136" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AA9" s="34" t="s">
         <v>236</v>
@@ -4713,7 +4713,7 @@
         <v>496</v>
       </c>
       <c r="Z10" s="136" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AA10" s="34" t="s">
         <v>196</v>
@@ -4783,7 +4783,7 @@
         <v>497</v>
       </c>
       <c r="Z11" s="136" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AA11" s="34" t="s">
         <v>228</v>
@@ -4853,7 +4853,7 @@
         <v>498</v>
       </c>
       <c r="Z12" s="136" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AA12" s="137" t="s">
         <v>55</v>
@@ -4923,7 +4923,7 @@
         <v>386</v>
       </c>
       <c r="Z13" s="136" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AA13" s="137" t="s">
         <v>101</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="X14" s="136"/>
       <c r="Z14" s="136" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AA14" s="137" t="s">
         <v>125</v>
@@ -5053,13 +5053,13 @@
       </c>
       <c r="X15" s="136"/>
       <c r="Z15" s="137" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AA15" s="137" t="s">
         <v>29</v>
       </c>
       <c r="AB15" s="137" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -5110,13 +5110,13 @@
         <v>603</v>
       </c>
       <c r="Z16" s="137" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AA16" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AB16" s="137" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
@@ -5165,13 +5165,13 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="Z17" s="137" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AA17" s="34" t="s">
         <v>244</v>
       </c>
       <c r="AB17" s="137" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
@@ -5219,19 +5219,19 @@
         <v>305</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="146" t="s">
+      <c r="R18" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
+      <c r="S18" s="169"/>
+      <c r="T18" s="169"/>
       <c r="Z18" s="137" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AA18" s="137" t="s">
         <v>144</v>
       </c>
       <c r="AB18" s="137" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
@@ -5288,20 +5288,20 @@
       <c r="T19" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="V19" s="142" t="s">
+      <c r="V19" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="143"/>
-      <c r="X19" s="143"/>
-      <c r="Y19" s="143"/>
-      <c r="Z19" s="144"/>
-      <c r="AB19" s="146" t="s">
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="171"/>
+      <c r="Z19" s="172"/>
+      <c r="AB19" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="146"/>
-      <c r="AD19" s="146"/>
-      <c r="AE19" s="146"/>
-      <c r="AF19" s="146"/>
+      <c r="AC19" s="169"/>
+      <c r="AD19" s="169"/>
+      <c r="AE19" s="169"/>
+      <c r="AF19" s="169"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5456,7 +5456,7 @@
         <v>612</v>
       </c>
       <c r="AB21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>53</v>
@@ -5522,7 +5522,7 @@
         <v>693</v>
       </c>
       <c r="Y22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z22" t="s">
         <v>612</v>
@@ -5690,11 +5690,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="146" t="s">
+      <c r="R25" s="169" t="s">
         <v>547</v>
       </c>
-      <c r="S25" s="146"/>
-      <c r="T25" s="146"/>
+      <c r="S25" s="169"/>
+      <c r="T25" s="169"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5797,7 +5797,7 @@
         <v>548</v>
       </c>
       <c r="U27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
@@ -5835,56 +5835,56 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="S28" t="s">
         <v>549</v>
       </c>
       <c r="U28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="S29">
         <v>280.60000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="146" t="s">
+      <c r="B31" s="169" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="J31" s="146" t="s">
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="169"/>
+      <c r="J31" s="169" t="s">
         <v>307</v>
       </c>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="U31" s="146" t="s">
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="169"/>
+      <c r="U31" s="169" t="s">
         <v>289</v>
       </c>
-      <c r="V31" s="146"/>
-      <c r="W31" s="146"/>
-      <c r="X31" s="146"/>
-      <c r="Y31" s="146"/>
-      <c r="Z31" s="146"/>
-      <c r="AA31" s="146"/>
-      <c r="AC31" s="147" t="s">
-        <v>741</v>
-      </c>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="147"/>
+      <c r="V31" s="169"/>
+      <c r="W31" s="169"/>
+      <c r="X31" s="169"/>
+      <c r="Y31" s="169"/>
+      <c r="Z31" s="169"/>
+      <c r="AA31" s="169"/>
+      <c r="AC31" s="174" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD31" s="174"/>
+      <c r="AE31" s="174"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -5951,7 +5951,7 @@
         <v>296</v>
       </c>
       <c r="AC32" s="131" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AD32" s="131" t="s">
         <v>294</v>
@@ -6031,7 +6031,7 @@
         <v>126.25</v>
       </c>
       <c r="AE33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
@@ -6105,7 +6105,7 @@
         <v>127</v>
       </c>
       <c r="AE34" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
@@ -6179,7 +6179,7 @@
         <v>132.1</v>
       </c>
       <c r="AE35" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
@@ -6369,15 +6369,15 @@
       <c r="F39" t="s">
         <v>622</v>
       </c>
-      <c r="J39" s="145" t="s">
+      <c r="J39" s="173" t="s">
         <v>487</v>
       </c>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="R46" s="132" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="S46" s="135">
         <v>118.2</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="R47" s="134" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="S47" s="133">
         <v>118.1</v>
@@ -6614,17 +6614,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6650,34 +6650,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="212" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
+      <c r="A2" s="213"/>
+      <c r="B2" s="213"/>
+      <c r="C2" s="213"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="178" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="151" t="s">
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="178" t="s">
         <v>328</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48">
@@ -7219,22 +7219,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="214" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="215" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -7339,12 +7339,12 @@
       <c r="E10" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="215" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="215"/>
+      <c r="E14" s="215"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
@@ -8688,14 +8688,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="175" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="150"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="177"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8706,16 +8706,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="178" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="151" t="s">
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="178" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="153"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="180"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8985,12 +8985,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="154" t="s">
-        <v>740</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="A1" s="181" t="s">
+        <v>739</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -9116,7 +9116,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C10" s="105" t="s">
         <v>130</v>
@@ -9131,7 +9131,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C11" s="105" t="s">
         <v>262</v>
@@ -9198,28 +9198,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="158" t="s">
-        <v>775</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
+      <c r="A1" s="185" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="182" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="184"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
@@ -9305,13 +9305,13 @@
       <c r="E6" s="100">
         <v>13</v>
       </c>
-      <c r="F6" s="207" t="s">
-        <v>747</v>
-      </c>
-      <c r="G6" s="208" t="s">
+      <c r="F6" s="160" t="s">
+        <v>746</v>
+      </c>
+      <c r="G6" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="206" t="s">
+      <c r="H6" s="159" t="s">
         <v>492</v>
       </c>
     </row>
@@ -9331,13 +9331,13 @@
       <c r="E7" s="100">
         <v>14</v>
       </c>
-      <c r="F7" s="207" t="s">
-        <v>748</v>
-      </c>
-      <c r="G7" s="209">
+      <c r="F7" s="160" t="s">
+        <v>747</v>
+      </c>
+      <c r="G7" s="162">
         <v>234.5</v>
       </c>
-      <c r="H7" s="206" t="s">
+      <c r="H7" s="159" t="s">
         <v>494</v>
       </c>
     </row>
@@ -9357,13 +9357,13 @@
       <c r="E8" s="100">
         <v>15</v>
       </c>
-      <c r="F8" s="207" t="s">
-        <v>749</v>
-      </c>
-      <c r="G8" s="210" t="s">
+      <c r="F8" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="G8" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="206" t="s">
+      <c r="H8" s="159" t="s">
         <v>493</v>
       </c>
     </row>
@@ -9383,13 +9383,13 @@
       <c r="E9" s="100">
         <v>16</v>
       </c>
-      <c r="F9" s="207" t="s">
-        <v>750</v>
-      </c>
-      <c r="G9" s="208" t="s">
+      <c r="F9" s="160" t="s">
+        <v>749</v>
+      </c>
+      <c r="G9" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="206" t="s">
+      <c r="H9" s="159" t="s">
         <v>495</v>
       </c>
     </row>
@@ -9409,13 +9409,13 @@
       <c r="E10" s="100">
         <v>17</v>
       </c>
-      <c r="F10" s="207" t="s">
-        <v>751</v>
-      </c>
-      <c r="G10" s="208" t="s">
+      <c r="F10" s="160" t="s">
+        <v>750</v>
+      </c>
+      <c r="G10" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="206" t="s">
+      <c r="H10" s="159" t="s">
         <v>498</v>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C11" s="108" t="s">
         <v>53</v>
@@ -9435,13 +9435,13 @@
       <c r="E11" s="100">
         <v>18</v>
       </c>
-      <c r="F11" s="207" t="s">
-        <v>752</v>
-      </c>
-      <c r="G11" s="211">
+      <c r="F11" s="160" t="s">
+        <v>751</v>
+      </c>
+      <c r="G11" s="164">
         <v>230.75</v>
       </c>
-      <c r="H11" s="206" t="s">
+      <c r="H11" s="159" t="s">
         <v>510</v>
       </c>
     </row>
@@ -9461,13 +9461,13 @@
       <c r="E12" s="100">
         <v>19</v>
       </c>
-      <c r="F12" s="207" t="s">
-        <v>753</v>
-      </c>
-      <c r="G12" s="210" t="s">
+      <c r="F12" s="160" t="s">
+        <v>752</v>
+      </c>
+      <c r="G12" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="H12" s="206" t="s">
+      <c r="H12" s="159" t="s">
         <v>511</v>
       </c>
     </row>
@@ -9488,7 +9488,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G13" s="108" t="s">
         <v>228</v>
@@ -9508,12 +9508,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="182" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9641,7 +9641,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="126" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C24" s="127" t="s">
         <v>130</v>
@@ -9656,7 +9656,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="126" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>262</v>
@@ -9692,12 +9692,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="182" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="157"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="184"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9899,28 +9899,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="159" t="s">
-        <v>774</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
+      <c r="A1" s="186" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="182" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="184"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
@@ -10001,7 +10001,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C7" s="109">
         <v>121.3</v>
@@ -10065,7 +10065,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G10" s="109" t="s">
         <v>603</v>
@@ -10109,7 +10109,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C12" s="109" t="s">
         <v>693</v>
@@ -10142,7 +10142,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="109" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G13" s="109">
         <v>118.2</v>
@@ -10155,16 +10155,16 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="182" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="161"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="162"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="189"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -10211,7 +10211,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G16" s="108" t="s">
         <v>228</v>
@@ -10242,7 +10242,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G17" s="108" t="s">
         <v>55</v>
@@ -10263,17 +10263,17 @@
       <c r="B18" s="109" t="s">
         <v>508</v>
       </c>
-      <c r="C18" s="205" t="s">
+      <c r="C18" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="205" t="s">
+      <c r="D18" s="158" t="s">
         <v>496</v>
       </c>
       <c r="E18" s="110">
         <v>13</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G18" s="108" t="s">
         <v>101</v>
@@ -10291,20 +10291,20 @@
       <c r="A19" s="100">
         <v>4</v>
       </c>
-      <c r="B19" s="207" t="s">
-        <v>747</v>
-      </c>
-      <c r="C19" s="208" t="s">
+      <c r="B19" s="160" t="s">
+        <v>746</v>
+      </c>
+      <c r="C19" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="206" t="s">
+      <c r="D19" s="159" t="s">
         <v>492</v>
       </c>
-      <c r="E19" s="204">
+      <c r="E19" s="157">
         <v>14</v>
       </c>
       <c r="F19" s="102" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G19" s="108" t="s">
         <v>125</v>
@@ -10325,22 +10325,22 @@
       <c r="A20" s="100">
         <v>5</v>
       </c>
-      <c r="B20" s="207" t="s">
-        <v>748</v>
-      </c>
-      <c r="C20" s="209">
+      <c r="B20" s="160" t="s">
+        <v>747</v>
+      </c>
+      <c r="C20" s="162">
         <v>234.5</v>
       </c>
-      <c r="D20" s="206" t="s">
+      <c r="D20" s="159" t="s">
         <v>494</v>
       </c>
-      <c r="E20" s="204">
+      <c r="E20" s="157">
         <v>15</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>771</v>
-      </c>
-      <c r="G20" s="212">
+        <v>770</v>
+      </c>
+      <c r="G20" s="165">
         <v>33.5</v>
       </c>
       <c r="H20" s="102" t="s">
@@ -10359,22 +10359,22 @@
       <c r="A21" s="100">
         <v>6</v>
       </c>
-      <c r="B21" s="207" t="s">
-        <v>749</v>
-      </c>
-      <c r="C21" s="210" t="s">
+      <c r="B21" s="160" t="s">
+        <v>748</v>
+      </c>
+      <c r="C21" s="163" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="206" t="s">
+      <c r="D21" s="159" t="s">
         <v>493</v>
       </c>
-      <c r="E21" s="204">
+      <c r="E21" s="157">
         <v>16</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>772</v>
-      </c>
-      <c r="G21" s="212">
+        <v>771</v>
+      </c>
+      <c r="G21" s="165">
         <v>38.5</v>
       </c>
       <c r="H21" s="102" t="s">
@@ -10393,22 +10393,22 @@
       <c r="A22" s="100">
         <v>7</v>
       </c>
-      <c r="B22" s="207" t="s">
-        <v>750</v>
-      </c>
-      <c r="C22" s="208" t="s">
+      <c r="B22" s="160" t="s">
+        <v>749</v>
+      </c>
+      <c r="C22" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="206" t="s">
+      <c r="D22" s="159" t="s">
         <v>495</v>
       </c>
-      <c r="E22" s="204">
+      <c r="E22" s="157">
         <v>17</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>770</v>
-      </c>
-      <c r="G22" s="212">
+        <v>769</v>
+      </c>
+      <c r="G22" s="165">
         <v>33.75</v>
       </c>
       <c r="H22" s="102" t="s">
@@ -10427,16 +10427,16 @@
       <c r="A23" s="100">
         <v>8</v>
       </c>
-      <c r="B23" s="207" t="s">
-        <v>751</v>
-      </c>
-      <c r="C23" s="208" t="s">
+      <c r="B23" s="160" t="s">
+        <v>750</v>
+      </c>
+      <c r="C23" s="161" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="206" t="s">
+      <c r="D23" s="159" t="s">
         <v>498</v>
       </c>
-      <c r="E23" s="204">
+      <c r="E23" s="157">
         <v>18</v>
       </c>
       <c r="F23" s="102" t="s">
@@ -10461,16 +10461,16 @@
       <c r="A24" s="100">
         <v>9</v>
       </c>
-      <c r="B24" s="207" t="s">
-        <v>752</v>
-      </c>
-      <c r="C24" s="211">
+      <c r="B24" s="160" t="s">
+        <v>751</v>
+      </c>
+      <c r="C24" s="164">
         <v>230.75</v>
       </c>
-      <c r="D24" s="206" t="s">
+      <c r="D24" s="159" t="s">
         <v>510</v>
       </c>
-      <c r="E24" s="204">
+      <c r="E24" s="157">
         <v>19</v>
       </c>
       <c r="F24" s="102" t="s">
@@ -10487,16 +10487,16 @@
       <c r="A25" s="100">
         <v>10</v>
       </c>
-      <c r="B25" s="207" t="s">
-        <v>753</v>
-      </c>
-      <c r="C25" s="210" t="s">
+      <c r="B25" s="160" t="s">
+        <v>752</v>
+      </c>
+      <c r="C25" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="206" t="s">
+      <c r="D25" s="159" t="s">
         <v>511</v>
       </c>
-      <c r="E25" s="204">
+      <c r="E25" s="157">
         <v>20</v>
       </c>
       <c r="F25" s="109"/>
@@ -10504,16 +10504,16 @@
       <c r="H25" s="109"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="155" t="s">
+      <c r="A26" s="182" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="162"/>
+      <c r="B26" s="188"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="189"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
@@ -10798,10 +10798,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
       <c r="F41" s="119"/>
       <c r="G41" s="119"/>
       <c r="H41" s="119"/>
@@ -11042,40 +11042,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="163" t="s">
-        <v>773</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="165"/>
+      <c r="A1" s="190" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="192"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="195"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="196" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="169" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="196" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84">
@@ -11101,13 +11101,13 @@
       <c r="A5" s="84">
         <v>2</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="167" t="s">
         <v>491</v>
       </c>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="168" t="s">
         <v>343</v>
       </c>
       <c r="E5" s="84">
@@ -11125,14 +11125,14 @@
       <c r="A6" s="84">
         <v>3</v>
       </c>
-      <c r="B6" s="192" t="s">
+      <c r="B6" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="145" t="s">
         <v>492</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E6" s="84">
         <v>3</v>
@@ -11142,21 +11142,21 @@
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84">
         <v>4</v>
       </c>
-      <c r="B7" s="196">
+      <c r="B7" s="149">
         <v>234.5</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="145" t="s">
         <v>494</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E7" s="84">
         <v>4</v>
@@ -11175,66 +11175,66 @@
       <c r="A8" s="84">
         <v>5</v>
       </c>
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="145" t="s">
         <v>493</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E8" s="84">
         <v>5</v>
       </c>
-      <c r="F8" s="195" t="s">
+      <c r="F8" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="192" t="s">
-        <v>763</v>
+      <c r="G8" s="145" t="s">
+        <v>762</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="84">
         <v>6</v>
       </c>
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="145" t="s">
         <v>495</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E9" s="84">
         <v>6</v>
       </c>
-      <c r="F9" s="192" t="s">
+      <c r="F9" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="192" t="s">
-        <v>765</v>
+      <c r="G9" s="145" t="s">
+        <v>764</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="84">
         <v>7</v>
       </c>
-      <c r="B10" s="192" t="s">
+      <c r="B10" s="145" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="145" t="s">
         <v>498</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E10" s="84">
         <v>7</v>
@@ -11247,14 +11247,14 @@
       <c r="A11" s="84">
         <v>8</v>
       </c>
-      <c r="B11" s="195">
+      <c r="B11" s="148">
         <v>230.75</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="145" t="s">
         <v>510</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E11" s="84">
         <v>8</v>
@@ -11267,14 +11267,14 @@
       <c r="A12" s="84">
         <v>9</v>
       </c>
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="145" t="s">
         <v>511</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E12" s="84">
         <v>9</v>
@@ -11293,14 +11293,14 @@
       <c r="A13" s="84">
         <v>10</v>
       </c>
-      <c r="B13" s="195" t="s">
+      <c r="B13" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="145" t="s">
         <v>513</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E13" s="84">
         <v>10</v>
@@ -11319,14 +11319,14 @@
       <c r="A14" s="84">
         <v>11</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="192" t="s">
+      <c r="C14" s="145" t="s">
         <v>544</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E14" s="84">
         <v>11</v>
@@ -11345,14 +11345,14 @@
       <c r="A15" s="84">
         <v>12</v>
       </c>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="145" t="s">
         <v>545</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E15" s="84">
         <v>12</v>
@@ -11365,14 +11365,14 @@
       <c r="A16" s="84">
         <v>13</v>
       </c>
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="145" t="s">
         <v>546</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E16" s="84">
         <v>13</v>
@@ -11385,14 +11385,14 @@
       <c r="A17" s="84">
         <v>14</v>
       </c>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="192" t="s">
-        <v>759</v>
+      <c r="C17" s="145" t="s">
+        <v>758</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E17" s="84">
         <v>14</v>
@@ -11405,14 +11405,14 @@
       <c r="A18" s="84">
         <v>15</v>
       </c>
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="192" t="s">
-        <v>761</v>
+      <c r="C18" s="145" t="s">
+        <v>760</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E18" s="84">
         <v>15</v>
@@ -11470,7 +11470,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="88" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11481,7 +11481,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>499</v>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="88" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11542,7 +11542,7 @@
       </c>
       <c r="G23" s="71"/>
       <c r="H23" s="71" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11742,53 +11742,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
-        <v>767</v>
-      </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
+      <c r="A1" s="200" t="s">
+        <v>766</v>
+      </c>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="196" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="169" t="s">
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="196" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="199"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="188">
+      <c r="A4" s="143">
         <v>1</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="192" t="s">
+      <c r="C4" s="145" t="s">
         <v>492</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E4" s="84">
         <v>1</v>
@@ -11802,17 +11802,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="188">
+      <c r="A5" s="143">
         <v>2</v>
       </c>
-      <c r="B5" s="196">
+      <c r="B5" s="149">
         <v>234.5</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="145" t="s">
         <v>494</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E5" s="84">
         <v>2</v>
@@ -11826,17 +11826,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="188">
+      <c r="A6" s="143">
         <v>3</v>
       </c>
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="145" t="s">
         <v>493</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E6" s="84">
         <v>3</v>
@@ -11846,21 +11846,21 @@
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="188">
+      <c r="A7" s="143">
         <v>4</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="145" t="s">
         <v>495</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E7" s="84">
         <v>4</v>
@@ -11876,17 +11876,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188">
+      <c r="A8" s="143">
         <v>5</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="145" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="145" t="s">
         <v>498</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E8" s="84">
         <v>5</v>
@@ -11902,17 +11902,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="188">
+      <c r="A9" s="143">
         <v>6</v>
       </c>
-      <c r="B9" s="195">
+      <c r="B9" s="148">
         <v>230.75</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="145" t="s">
         <v>510</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E9" s="84">
         <v>6</v>
@@ -11928,17 +11928,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="188">
+      <c r="A10" s="143">
         <v>7</v>
       </c>
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="145" t="s">
         <v>511</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E10" s="84">
         <v>7</v>
@@ -11954,17 +11954,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="188">
+      <c r="A11" s="143">
         <v>8</v>
       </c>
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="145" t="s">
         <v>513</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E11" s="84">
         <v>8</v>
@@ -11980,17 +11980,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="188">
+      <c r="A12" s="143">
         <v>9</v>
       </c>
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="145" t="s">
         <v>544</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E12" s="84">
         <v>9</v>
@@ -12006,17 +12006,17 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="188">
+      <c r="A13" s="143">
         <v>10</v>
       </c>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="145" t="s">
         <v>545</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E13" s="84">
         <v>10</v>
@@ -12032,17 +12032,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="188">
+      <c r="A14" s="143">
         <v>11</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="192" t="s">
+      <c r="C14" s="145" t="s">
         <v>546</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E14" s="84">
         <v>11</v>
@@ -12058,17 +12058,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="188">
+      <c r="A15" s="143">
         <v>12</v>
       </c>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="192" t="s">
-        <v>759</v>
+      <c r="C15" s="145" t="s">
+        <v>758</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E15" s="84">
         <v>12</v>
@@ -12084,17 +12084,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="188">
+      <c r="A16" s="143">
         <v>13</v>
       </c>
-      <c r="B16" s="195" t="s">
+      <c r="B16" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="192" t="s">
-        <v>761</v>
+      <c r="C16" s="145" t="s">
+        <v>760</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E16" s="84">
         <v>13</v>
@@ -12110,17 +12110,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="188">
+      <c r="A17" s="143">
         <v>14</v>
       </c>
-      <c r="B17" s="195" t="s">
+      <c r="B17" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="C17" s="192" t="s">
-        <v>763</v>
+      <c r="C17" s="145" t="s">
+        <v>762</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E17" s="84">
         <v>14</v>
@@ -12136,17 +12136,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="188">
+      <c r="A18" s="143">
         <v>15</v>
       </c>
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="192" t="s">
-        <v>765</v>
+      <c r="C18" s="145" t="s">
+        <v>764</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E18" s="84">
         <v>15</v>
@@ -12163,13 +12163,13 @@
       <c r="A19" s="84">
         <v>16</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="144" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="192" t="s">
+      <c r="C19" s="145" t="s">
         <v>527</v>
       </c>
-      <c r="D19" s="194" t="s">
+      <c r="D19" s="147" t="s">
         <v>716</v>
       </c>
       <c r="E19" s="84">
@@ -12187,13 +12187,13 @@
       <c r="A20" s="84">
         <v>17</v>
       </c>
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="145" t="s">
         <v>683</v>
       </c>
-      <c r="D20" s="194" t="s">
+      <c r="D20" s="147" t="s">
         <v>717</v>
       </c>
       <c r="E20" s="84">
@@ -12204,18 +12204,18 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="88" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84">
         <v>18</v>
       </c>
-      <c r="B21" s="193">
+      <c r="B21" s="146">
         <v>241.75</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>499</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="88" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12276,7 +12276,7 @@
       </c>
       <c r="G23" s="71"/>
       <c r="H23" s="71" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -12298,7 +12298,7 @@
   </sheetPr>
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -12313,40 +12313,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
-        <v>768</v>
-      </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="176"/>
+      <c r="A1" s="203" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="205"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="177"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179"/>
+      <c r="A2" s="206"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="208"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="209" t="s">
         <v>701</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181" t="s">
+      <c r="B3" s="210"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210" t="s">
         <v>702</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="182"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="211"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="199" t="s">
+      <c r="D4" s="152" t="s">
         <v>691</v>
       </c>
       <c r="E4" s="69">
@@ -12370,13 +12370,13 @@
       <c r="A5" s="68">
         <v>2</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="152" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="D5" s="199" t="s">
+      <c r="D5" s="152" t="s">
         <v>343</v>
       </c>
       <c r="E5" s="69">
@@ -12394,13 +12394,13 @@
       <c r="A6" s="68">
         <v>3</v>
       </c>
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="151" t="s">
         <v>496</v>
       </c>
-      <c r="D6" s="199" t="s">
+      <c r="D6" s="152" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="69">
@@ -12418,14 +12418,14 @@
       <c r="A7" s="68">
         <v>4</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="154" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="145" t="s">
         <v>492</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E7" s="69">
         <v>4</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="70" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12445,11 +12445,11 @@
       <c r="B8" s="89">
         <v>234.5</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="145" t="s">
         <v>494</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E8" s="69">
         <v>5</v>
@@ -12466,14 +12466,14 @@
       <c r="A9" s="68">
         <v>6</v>
       </c>
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="C9" s="145" t="s">
         <v>493</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E9" s="69">
         <v>6</v>
@@ -12492,14 +12492,14 @@
       <c r="A10" s="68">
         <v>7</v>
       </c>
-      <c r="B10" s="201" t="s">
+      <c r="B10" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="145" t="s">
         <v>495</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E10" s="69">
         <v>7</v>
@@ -12518,14 +12518,14 @@
       <c r="A11" s="68">
         <v>8</v>
       </c>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="145" t="s">
         <v>498</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E11" s="69">
         <v>8</v>
@@ -12544,14 +12544,14 @@
       <c r="A12" s="68">
         <v>9</v>
       </c>
-      <c r="B12" s="203">
+      <c r="B12" s="156">
         <v>230.75</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="145" t="s">
         <v>510</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E12" s="69">
         <v>9</v>
@@ -12561,21 +12561,21 @@
       </c>
       <c r="G12" s="71"/>
       <c r="H12" s="70" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>10</v>
       </c>
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="155" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="145" t="s">
         <v>511</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E13" s="69">
         <v>10</v>
@@ -12588,14 +12588,14 @@
       <c r="A14" s="68">
         <v>11</v>
       </c>
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="155" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="192" t="s">
+      <c r="C14" s="145" t="s">
         <v>513</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E14" s="69">
         <v>11</v>
@@ -12611,14 +12611,14 @@
       <c r="A15" s="68">
         <v>12</v>
       </c>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="192" t="s">
+      <c r="C15" s="145" t="s">
         <v>544</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E15" s="69">
         <v>12</v>
@@ -12634,14 +12634,14 @@
       <c r="A16" s="68">
         <v>13</v>
       </c>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="145" t="s">
         <v>545</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E16" s="69">
         <v>13</v>
@@ -12657,14 +12657,14 @@
       <c r="A17" s="68">
         <v>14</v>
       </c>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="192" t="s">
+      <c r="C17" s="145" t="s">
         <v>546</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E17" s="69">
         <v>14</v>
@@ -12680,14 +12680,14 @@
       <c r="A18" s="68">
         <v>15</v>
       </c>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="192" t="s">
-        <v>759</v>
+      <c r="C18" s="145" t="s">
+        <v>758</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E18" s="69">
         <v>15</v>
@@ -12703,14 +12703,14 @@
       <c r="A19" s="68">
         <v>16</v>
       </c>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="192" t="s">
-        <v>761</v>
+      <c r="C19" s="145" t="s">
+        <v>760</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E19" s="69">
         <v>16</v>
@@ -12723,14 +12723,14 @@
       <c r="A20" s="68">
         <v>17</v>
       </c>
-      <c r="B20" s="202" t="s">
+      <c r="B20" s="155" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="192" t="s">
-        <v>763</v>
+      <c r="C20" s="145" t="s">
+        <v>762</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E20" s="69">
         <v>17</v>
@@ -12747,14 +12747,14 @@
       <c r="A21" s="68">
         <v>18</v>
       </c>
-      <c r="B21" s="201" t="s">
+      <c r="B21" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="192" t="s">
-        <v>765</v>
+      <c r="C21" s="145" t="s">
+        <v>764</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E21" s="69">
         <v>18</v>
@@ -12771,14 +12771,14 @@
       <c r="A22" s="68">
         <v>19</v>
       </c>
-      <c r="B22" s="199" t="s">
+      <c r="B22" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="200" t="s">
+      <c r="C22" s="153" t="s">
         <v>497</v>
       </c>
-      <c r="D22" s="199" t="s">
-        <v>769</v>
+      <c r="D22" s="152" t="s">
+        <v>768</v>
       </c>
       <c r="E22" s="69">
         <v>19</v>
@@ -12795,13 +12795,13 @@
       <c r="A23" s="120">
         <v>20</v>
       </c>
-      <c r="B23" s="199" t="s">
+      <c r="B23" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="197" t="s">
+      <c r="C23" s="150" t="s">
         <v>497</v>
       </c>
-      <c r="D23" s="199" t="s">
+      <c r="D23" s="152" t="s">
         <v>349</v>
       </c>
       <c r="E23" s="121">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E02E5C-A664-4CA5-AF69-C4ECE149054E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC55F3F-D943-4D60-A2E1-DAB787247EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="755">
   <si>
     <t>AWACS</t>
   </si>
@@ -1222,72 +1222,33 @@
     <t>Harrier pri</t>
   </si>
   <si>
-    <t>A-10C</t>
-  </si>
-  <si>
     <t>KA-50</t>
   </si>
   <si>
-    <t>Mirage</t>
-  </si>
-  <si>
     <t>MI-8</t>
   </si>
   <si>
-    <t>Aggressors</t>
-  </si>
-  <si>
     <t>AXE</t>
   </si>
   <si>
     <t>COBRA</t>
   </si>
   <si>
-    <t>METAL</t>
-  </si>
-  <si>
     <t>BEAR</t>
   </si>
   <si>
-    <t>ANGRY</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>BLADE</t>
-  </si>
-  <si>
-    <t>Range Control</t>
-  </si>
-  <si>
     <t>F/A-18</t>
   </si>
   <si>
-    <t>BATMAN</t>
-  </si>
-  <si>
     <t>DRAGON</t>
   </si>
   <si>
-    <t>AMBUSH</t>
-  </si>
-  <si>
     <t>GRIZZLY</t>
   </si>
   <si>
     <t>BEAST</t>
   </si>
   <si>
-    <t>ARROW</t>
-  </si>
-  <si>
-    <t>DARKKNIGHT</t>
-  </si>
-  <si>
-    <t>MAGIC</t>
-  </si>
-  <si>
     <t>PANTHER</t>
   </si>
   <si>
@@ -1297,84 +1258,30 @@
     <t>SHARK</t>
   </si>
   <si>
-    <t>NINJA</t>
-  </si>
-  <si>
     <t>TIGER</t>
   </si>
   <si>
-    <t>CHEETAH</t>
-  </si>
-  <si>
-    <t>COWBOY</t>
-  </si>
-  <si>
-    <t>GOTHAM</t>
-  </si>
-  <si>
-    <t>DARKSTAR</t>
-  </si>
-  <si>
     <t>FALCON</t>
   </si>
   <si>
     <t>MISTY</t>
   </si>
   <si>
-    <t>SHADOW</t>
-  </si>
-  <si>
     <t>DEVIL</t>
   </si>
   <si>
-    <t>LIGHTNING</t>
-  </si>
-  <si>
-    <t>OVERLORD</t>
-  </si>
-  <si>
     <t>HAWK</t>
   </si>
   <si>
-    <t>KNIFE</t>
-  </si>
-  <si>
-    <t>EAGLE</t>
-  </si>
-  <si>
-    <t>WIZARD</t>
-  </si>
-  <si>
     <t>JEDI</t>
   </si>
   <si>
-    <t>STEEL</t>
-  </si>
-  <si>
     <t>HUNTER</t>
   </si>
   <si>
-    <t>FURY</t>
-  </si>
-  <si>
     <t>RAVEN</t>
   </si>
   <si>
-    <t>RAGE</t>
-  </si>
-  <si>
-    <t>PSYCHO</t>
-  </si>
-  <si>
-    <t>ROUGE</t>
-  </si>
-  <si>
-    <t>REAPER</t>
-  </si>
-  <si>
-    <t>RAZOR</t>
-  </si>
-  <si>
     <t>Viggen</t>
   </si>
   <si>
@@ -1954,12 +1861,6 @@
     <t>JACKAL</t>
   </si>
   <si>
-    <t>RHINO</t>
-  </si>
-  <si>
-    <t>WEASEL</t>
-  </si>
-  <si>
     <t>KNIGHT</t>
   </si>
   <si>
@@ -2354,6 +2255,42 @@
   </si>
   <si>
     <t>G Washington Marsh</t>
+  </si>
+  <si>
+    <t>1. Inquisitor </t>
+  </si>
+  <si>
+    <t>2. Bantha </t>
+  </si>
+  <si>
+    <t>3. Rouge </t>
+  </si>
+  <si>
+    <t>4. Jedi</t>
+  </si>
+  <si>
+    <t>5. Sith</t>
+  </si>
+  <si>
+    <t>6. Wookie</t>
+  </si>
+  <si>
+    <t>7. Jawa</t>
+  </si>
+  <si>
+    <t>8. Maul</t>
+  </si>
+  <si>
+    <t>9. Rebel</t>
+  </si>
+  <si>
+    <t>10. Nerf</t>
+  </si>
+  <si>
+    <t>11. Echo</t>
+  </si>
+  <si>
+    <t>12. Clone</t>
   </si>
 </sst>
 </file>
@@ -3244,7 +3181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3654,6 +3591,9 @@
     <xf numFmtId="0" fontId="19" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3666,9 +3606,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3794,6 +3731,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4135,8 +4075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4151,11 +4091,11 @@
       </c>
       <c r="W2" s="138"/>
       <c r="X2" s="138"/>
-      <c r="Z2" s="170" t="s">
-        <v>765</v>
-      </c>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="172"/>
+      <c r="Z2" s="171" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="173"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C3" s="53">
@@ -4203,7 +4143,7 @@
         <v>37</v>
       </c>
       <c r="X3" s="137" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="Z3" s="138" t="s">
         <v>296</v>
@@ -4257,10 +4197,10 @@
       </c>
       <c r="O4" s="46"/>
       <c r="R4" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="S4" s="30" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="V4" s="136" t="s">
         <v>4</v>
@@ -4269,22 +4209,22 @@
         <v>108</v>
       </c>
       <c r="X4" s="137" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="Z4" s="136" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="AA4" s="137" t="s">
         <v>108</v>
       </c>
       <c r="AB4" s="137" t="s">
-        <v>492</v>
-      </c>
-      <c r="AD4" s="169" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD4" s="170" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="169"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4328,10 +4268,10 @@
       </c>
       <c r="O5" s="46"/>
       <c r="R5" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="V5" s="136" t="s">
         <v>5</v>
@@ -4340,16 +4280,16 @@
         <v>123</v>
       </c>
       <c r="X5" s="137" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="Z5" s="136" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="AA5" s="142">
         <v>234.5</v>
       </c>
       <c r="AB5" s="137" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="AD5" s="45" t="s">
         <v>296</v>
@@ -4407,10 +4347,10 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="S6" s="30" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="V6" s="136" t="s">
         <v>6</v>
@@ -4419,25 +4359,25 @@
         <v>104</v>
       </c>
       <c r="X6" s="137" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="Z6" s="136" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="AA6" s="34" t="s">
         <v>104</v>
       </c>
       <c r="AB6" s="137" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="AD6" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="AE6" s="12" t="s">
         <v>218</v>
       </c>
       <c r="AF6" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4486,10 +4426,10 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="V7" s="136" t="s">
         <v>7</v>
@@ -4498,25 +4438,25 @@
         <v>34</v>
       </c>
       <c r="X7" s="137" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="Z7" s="136" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="AA7" s="137" t="s">
         <v>34</v>
       </c>
       <c r="AB7" s="137" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="AD7" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="AE7" s="12" t="s">
         <v>133</v>
       </c>
       <c r="AF7" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4565,26 +4505,26 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="S8" s="30" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="V8" s="136" t="s">
         <v>8</v>
       </c>
       <c r="W8" s="140" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="X8" s="136"/>
       <c r="Z8" s="136" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="AA8" s="137" t="s">
         <v>151</v>
       </c>
       <c r="AB8" s="137" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4640,16 +4580,16 @@
         <v>115</v>
       </c>
       <c r="X9" s="136" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="Z9" s="136" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="AA9" s="34" t="s">
         <v>236</v>
       </c>
       <c r="AB9" s="137" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4698,10 +4638,10 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="78" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="S10" s="79" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="V10" s="136" t="s">
         <v>10</v>
@@ -4710,16 +4650,16 @@
         <v>76</v>
       </c>
       <c r="X10" s="137" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="Z10" s="136" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="AA10" s="34" t="s">
         <v>196</v>
       </c>
       <c r="AB10" s="137" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4768,10 +4708,10 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="83" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="S11" s="64" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="V11" s="136" t="s">
         <v>11</v>
@@ -4780,16 +4720,16 @@
         <v>36</v>
       </c>
       <c r="X11" s="137" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="Z11" s="136" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="AA11" s="34" t="s">
         <v>228</v>
       </c>
       <c r="AB11" s="137" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4838,10 +4778,10 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="83" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
       <c r="S12" s="64" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
       <c r="V12" s="136" t="s">
         <v>12</v>
@@ -4850,16 +4790,16 @@
         <v>151</v>
       </c>
       <c r="X12" s="137" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="Z12" s="136" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="AA12" s="137" t="s">
         <v>55</v>
       </c>
       <c r="AB12" s="137" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -4882,7 +4822,7 @@
         <v>131</v>
       </c>
       <c r="H13" s="72" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>132</v>
@@ -4908,10 +4848,10 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="80" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
       <c r="S13" s="81" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="V13" s="136" t="s">
         <v>13</v>
@@ -4923,13 +4863,13 @@
         <v>386</v>
       </c>
       <c r="Z13" s="136" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="AA13" s="137" t="s">
         <v>101</v>
       </c>
       <c r="AB13" s="137" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
@@ -4978,20 +4918,20 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="V14" s="137" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="W14" s="141">
         <v>301</v>
       </c>
       <c r="X14" s="136"/>
       <c r="Z14" s="136" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="AA14" s="137" t="s">
         <v>125</v>
       </c>
       <c r="AB14" s="137" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -5040,26 +4980,26 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="78" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="S15" s="79" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="V15" s="137" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="W15" s="136">
         <v>300</v>
       </c>
       <c r="X15" s="136"/>
       <c r="Z15" s="137" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="AA15" s="137" t="s">
         <v>29</v>
       </c>
       <c r="AB15" s="137" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -5104,19 +5044,19 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="80" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="S16" s="81" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="Z16" s="137" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="AA16" s="34" t="s">
         <v>43</v>
       </c>
       <c r="AB16" s="137" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
@@ -5165,13 +5105,13 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="Z17" s="137" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="AA17" s="34" t="s">
         <v>244</v>
       </c>
       <c r="AB17" s="137" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
@@ -5219,19 +5159,19 @@
         <v>305</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="169" t="s">
+      <c r="R18" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="169"/>
-      <c r="T18" s="169"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="170"/>
       <c r="Z18" s="137" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="AA18" s="137" t="s">
         <v>144</v>
       </c>
       <c r="AB18" s="137" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
@@ -5288,20 +5228,20 @@
       <c r="T19" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="V19" s="170" t="s">
+      <c r="V19" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="171"/>
-      <c r="X19" s="171"/>
-      <c r="Y19" s="171"/>
-      <c r="Z19" s="172"/>
-      <c r="AB19" s="169" t="s">
+      <c r="W19" s="172"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="173"/>
+      <c r="AB19" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="169"/>
-      <c r="AD19" s="169"/>
-      <c r="AE19" s="169"/>
-      <c r="AF19" s="169"/>
+      <c r="AC19" s="170"/>
+      <c r="AD19" s="170"/>
+      <c r="AE19" s="170"/>
+      <c r="AF19" s="170"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5349,16 +5289,16 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="S20" s="47" t="s">
         <v>242</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="V20" s="45" t="s">
         <v>296</v>
@@ -5432,43 +5372,43 @@
         <v>395</v>
       </c>
       <c r="R21" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="S21" s="47" t="s">
         <v>250</v>
       </c>
       <c r="T21" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="U21" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="W21" s="47" t="s">
         <v>99</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="Y21" s="4" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="AB21" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD21" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="AE21" s="40" t="s">
         <v>130</v>
       </c>
       <c r="AF21" s="40" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="2:32" ht="18.75" x14ac:dyDescent="0.3">
@@ -5516,31 +5456,31 @@
         <v>396</v>
       </c>
       <c r="V22" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="W22" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="Y22" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="Z22" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="AB22" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="AC22" s="9" t="s">
         <v>263</v>
       </c>
       <c r="AD22" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="AE22" s="40" t="s">
         <v>262</v>
       </c>
       <c r="AF22" s="40" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="2:32" ht="18.75" x14ac:dyDescent="0.3">
@@ -5588,19 +5528,19 @@
         <v>397</v>
       </c>
       <c r="AB23" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="AC23" s="9" t="s">
         <v>89</v>
       </c>
       <c r="AD23" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="AE23" s="9" t="s">
         <v>162</v>
       </c>
       <c r="AF23" s="40" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.25">
@@ -5645,7 +5585,7 @@
       </c>
       <c r="O24" s="46"/>
       <c r="P24" s="4" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.25">
@@ -5690,11 +5630,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="169" t="s">
-        <v>547</v>
-      </c>
-      <c r="S25" s="169"/>
-      <c r="T25" s="169"/>
+      <c r="R25" s="170" t="s">
+        <v>516</v>
+      </c>
+      <c r="S25" s="170"/>
+      <c r="T25" s="170"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5720,7 +5660,7 @@
       </c>
       <c r="I26" s="59"/>
       <c r="J26" s="34" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>274</v>
@@ -5729,7 +5669,7 @@
         <v>275</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="N26" s="52" t="s">
         <v>267</v>
@@ -5754,16 +5694,16 @@
         <v>276</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="E27" s="60" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="G27" s="60" t="s">
         <v>277</v>
@@ -5784,20 +5724,20 @@
         <v>282</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="N27" s="52" t="s">
         <v>276</v>
       </c>
       <c r="O27" s="46"/>
       <c r="R27" t="s">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="S27" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="U27" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="2:32" x14ac:dyDescent="0.25">
@@ -5835,53 +5775,53 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
-        <v>775</v>
+        <v>742</v>
       </c>
       <c r="S28" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="U28" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="S29">
         <v>280.60000000000002</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="169" t="s">
+      <c r="B31" s="170" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="J31" s="169" t="s">
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="J31" s="170" t="s">
         <v>307</v>
       </c>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="169"/>
-      <c r="U31" s="169" t="s">
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
+      <c r="M31" s="170"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="170"/>
+      <c r="U31" s="170" t="s">
         <v>289</v>
       </c>
-      <c r="V31" s="169"/>
-      <c r="W31" s="169"/>
-      <c r="X31" s="169"/>
-      <c r="Y31" s="169"/>
-      <c r="Z31" s="169"/>
-      <c r="AA31" s="169"/>
+      <c r="V31" s="170"/>
+      <c r="W31" s="170"/>
+      <c r="X31" s="170"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="170"/>
       <c r="AC31" s="174" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="AD31" s="174"/>
       <c r="AE31" s="174"/>
@@ -5951,7 +5891,7 @@
         <v>296</v>
       </c>
       <c r="AC32" s="131" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="AD32" s="131" t="s">
         <v>294</v>
@@ -5962,67 +5902,67 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C33" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>175</v>
       </c>
       <c r="F33" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>171</v>
       </c>
       <c r="H33" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="J33" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="N33" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="O33" s="19" t="s">
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="T33">
         <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="V33" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="W33" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X33" s="16" t="s">
         <v>186</v>
       </c>
       <c r="Y33" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="Z33" s="17" t="s">
         <v>254</v>
       </c>
       <c r="AA33" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="AC33" s="32">
         <v>1</v>
@@ -6031,72 +5971,72 @@
         <v>126.25</v>
       </c>
       <c r="AE33" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="D34" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>274</v>
       </c>
       <c r="H34" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="J34" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="K34" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="N34" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="O34" s="19" t="s">
         <v>194</v>
       </c>
       <c r="P34" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="V34" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="W34" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X34" s="16" t="s">
         <v>256</v>
       </c>
       <c r="Y34" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="Z34" s="17" t="s">
         <v>136</v>
       </c>
       <c r="AA34" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="AC34" s="32">
         <v>2</v>
@@ -6105,72 +6045,72 @@
         <v>127</v>
       </c>
       <c r="AE34" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C35" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="D35" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>209</v>
       </c>
       <c r="H35" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="J35" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="K35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="N35" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="O35" s="19" t="s">
         <v>265</v>
       </c>
       <c r="P35" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="T35">
         <v>3</v>
       </c>
       <c r="U35" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="V35" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="W35" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X35" s="16" t="s">
         <v>234</v>
       </c>
       <c r="Y35" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="Z35" s="17" t="s">
         <v>229</v>
       </c>
       <c r="AA35" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="AC35" s="32">
         <v>3</v>
@@ -6179,137 +6119,137 @@
         <v>132.1</v>
       </c>
       <c r="AE35" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" t="s">
+        <v>612</v>
+      </c>
+      <c r="D36" t="s">
         <v>430</v>
-      </c>
-      <c r="C36" t="s">
-        <v>645</v>
-      </c>
-      <c r="D36" t="s">
-        <v>461</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>195</v>
       </c>
       <c r="F36" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>271</v>
       </c>
       <c r="H36" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="J36" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M36" s="18" t="s">
         <v>277</v>
       </c>
       <c r="N36" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="O36" s="19" t="s">
         <v>163</v>
       </c>
       <c r="P36" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="T36">
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="V36" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="W36" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X36" s="16" t="s">
         <v>253</v>
       </c>
       <c r="Y36" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="Z36" s="17" t="s">
         <v>241</v>
       </c>
       <c r="AA36" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="C37" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="D37" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>220</v>
       </c>
       <c r="F37" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="J37" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M37" s="18" t="s">
         <v>278</v>
       </c>
       <c r="N37" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="O37" s="19" t="s">
         <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="T37">
         <v>5</v>
       </c>
       <c r="U37" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="V37" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="W37" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X37" s="16" t="s">
         <v>251</v>
       </c>
       <c r="Y37" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="Z37" s="17" t="s">
         <v>158</v>
       </c>
       <c r="AA37" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
@@ -6317,49 +6257,49 @@
         <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="J38" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M38" s="18" t="s">
         <v>279</v>
       </c>
       <c r="N38" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="O38" s="19" t="s">
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="T38">
         <v>6</v>
       </c>
       <c r="U38" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="V38" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="W38" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X38" s="16" t="s">
         <v>206</v>
       </c>
       <c r="Y38" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="Z38" s="17" t="s">
         <v>146</v>
       </c>
       <c r="AA38" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -6367,40 +6307,40 @@
         <v>224</v>
       </c>
       <c r="F39" t="s">
-        <v>622</v>
-      </c>
-      <c r="J39" s="173" t="s">
-        <v>487</v>
-      </c>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
+        <v>591</v>
+      </c>
+      <c r="J39" s="169" t="s">
+        <v>456</v>
+      </c>
+      <c r="K39" s="169"/>
+      <c r="L39" s="169"/>
+      <c r="M39" s="169"/>
+      <c r="N39" s="169"/>
+      <c r="O39" s="169"/>
+      <c r="P39" s="169"/>
       <c r="T39">
         <v>7</v>
       </c>
       <c r="U39" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="V39" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="W39" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X39" s="16" t="s">
         <v>217</v>
       </c>
       <c r="Y39" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
       <c r="Z39" s="17" t="s">
         <v>214</v>
       </c>
       <c r="AA39" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
@@ -6408,31 +6348,31 @@
         <v>249</v>
       </c>
       <c r="F40" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="T40">
         <v>8</v>
       </c>
       <c r="U40" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="V40" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="W40" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X40" s="16" t="s">
         <v>184</v>
       </c>
       <c r="Y40" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="Z40" s="17" t="s">
         <v>270</v>
       </c>
       <c r="AA40" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
@@ -6440,31 +6380,31 @@
         <v>248</v>
       </c>
       <c r="F41" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="T41">
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="V41" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="W41" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X41" s="16" t="s">
         <v>169</v>
       </c>
       <c r="Y41" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="Z41" s="17" t="s">
         <v>213</v>
       </c>
       <c r="AA41" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
@@ -6472,90 +6412,90 @@
         <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="T42">
         <v>10</v>
       </c>
       <c r="W42" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="X42" s="16" t="s">
         <v>182</v>
       </c>
       <c r="Y42" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="Z42" s="17" t="s">
         <v>247</v>
       </c>
       <c r="AA42" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="U44" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="W44" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="X44" s="16" t="s">
         <v>79</v>
       </c>
       <c r="Y44" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="Z44" s="17" t="s">
         <v>140</v>
       </c>
       <c r="AA44" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W45" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="X45" s="16" t="s">
         <v>132</v>
       </c>
       <c r="Y45" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="Z45" s="17" t="s">
         <v>65</v>
       </c>
       <c r="AA45" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="R46" s="132" t="s">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="S46" s="135">
         <v>118.2</v>
       </c>
       <c r="W46" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="X46" s="16" t="s">
         <v>110</v>
       </c>
       <c r="Y46" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="Z46" s="17" t="s">
         <v>200</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="R47" s="134" t="s">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="S47" s="133">
         <v>118.1</v>
@@ -6563,68 +6503,68 @@
     </row>
     <row r="49" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W49" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="X49" s="16" t="s">
         <v>95</v>
       </c>
       <c r="Y49" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="Z49" s="17" t="s">
         <v>119</v>
       </c>
       <c r="AA49" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W50" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="X50" s="16" t="s">
         <v>153</v>
       </c>
       <c r="Y50" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="Z50" s="17" t="s">
         <v>131</v>
       </c>
       <c r="AA50" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="23:27" x14ac:dyDescent="0.25">
       <c r="W51" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="X51" s="16" t="s">
         <v>69</v>
       </c>
       <c r="Y51" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="Z51" s="17" t="s">
         <v>145</v>
       </c>
       <c r="AA51" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7469,257 +7409,257 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B1" s="32">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G1" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H1" s="32">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M1" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N1" s="32">
         <v>1</v>
       </c>
       <c r="O1" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B2" s="32">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G2" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H2" s="32">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M2" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N2" s="32">
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B3" s="32">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G3" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H3" s="32">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M3" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N3" s="32">
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B4" s="32">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G4" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H4" s="32">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M4" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N4" s="32">
         <v>4</v>
       </c>
       <c r="O4" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B5" s="32">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G5" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H5" s="32">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M5" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N5" s="32">
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B6" s="32">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G6" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H6" s="32">
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M6" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N6" s="32">
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B7" s="32">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G7" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H7" s="32">
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M7" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N7" s="32">
         <v>7</v>
       </c>
       <c r="O7" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B8" s="32">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G8" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H8" s="32">
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M8" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N8" s="32">
         <v>8</v>
       </c>
       <c r="O8" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B9" s="32">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G9" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="H9" s="32">
         <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N9" s="66">
         <v>9</v>
@@ -7728,542 +7668,542 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B11" s="32">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G11" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H11" s="32">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M11" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N11" s="32">
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B12" s="32">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G12" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H12" s="32">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M12" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N12" s="32">
         <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B13" s="32">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="G13" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H13" s="32">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="M13" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N13" s="32">
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B14" s="32">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G14" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H14" s="32">
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M14" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N14" s="32">
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B15" s="32">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G15" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H15" s="32">
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M15" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N15" s="32">
         <v>5</v>
       </c>
       <c r="O15" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G16" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H16" s="32">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M16" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N16" s="32">
         <v>6</v>
       </c>
       <c r="O16" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B17" s="32">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G17" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H17" s="32">
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M17" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N17" s="32">
         <v>7</v>
       </c>
       <c r="O17" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B18" s="32">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G18" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H18" s="32">
         <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M18" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N18" s="32">
         <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="B19" s="32">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G19" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H19" s="32">
         <v>9</v>
       </c>
       <c r="I19" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M19" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="N19" s="32">
         <v>9</v>
       </c>
       <c r="O19" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B21" s="32">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G21" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H21" s="32">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="M21" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N21" s="32">
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B22" s="32">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G22" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H22" s="32">
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="M22" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N22" s="32">
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B23" s="32">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G23" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H23" s="32">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="M23" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N23" s="32">
         <v>3</v>
       </c>
       <c r="O23" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B24" s="32">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G24" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H24" s="32">
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="M24" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N24" s="32">
         <v>4</v>
       </c>
       <c r="O24" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B25" s="32">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G25" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H25" s="32">
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="M25" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N25" s="32">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B26" s="32">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="G26" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H26" s="32">
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="M26" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N26" s="32">
         <v>6</v>
       </c>
       <c r="O26" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B27" s="32">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="G27" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H27" s="32">
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="M27" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N27" s="32">
         <v>7</v>
       </c>
       <c r="O27" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B28" s="32">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="G28" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H28" s="32">
         <v>8</v>
       </c>
       <c r="I28" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="M28" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N28" s="32">
         <v>8</v>
       </c>
       <c r="O28" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B29" s="32">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="H29" s="66">
         <v>9</v>
       </c>
       <c r="I29" s="3"/>
       <c r="M29" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N29" s="32">
         <v>9</v>
       </c>
       <c r="O29" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="G31" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H31" s="32">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N31" s="32">
         <v>1</v>
@@ -8271,22 +8211,22 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B32" s="32">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="G32" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H32" s="32">
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N32" s="32">
         <v>2</v>
@@ -8294,22 +8234,22 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B33" s="32">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="G33" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H33" s="32">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N33" s="32">
         <v>3</v>
@@ -8317,22 +8257,22 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B34" s="32">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="G34" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H34" s="32">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N34" s="32">
         <v>4</v>
@@ -8340,22 +8280,22 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B35" s="32">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="G35" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H35" s="32">
         <v>5</v>
       </c>
       <c r="I35" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N35" s="32">
         <v>5</v>
@@ -8363,22 +8303,22 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B36" s="32">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="G36" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H36" s="32">
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N36" s="32">
         <v>6</v>
@@ -8386,22 +8326,22 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B37" s="32">
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="G37" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H37" s="32">
         <v>7</v>
       </c>
       <c r="I37" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N37" s="32">
         <v>7</v>
@@ -8409,20 +8349,20 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B38" s="66">
         <v>8</v>
       </c>
       <c r="C38" s="3"/>
       <c r="G38" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H38" s="32">
         <v>8</v>
       </c>
       <c r="I38" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N38" s="32">
         <v>8</v>
@@ -8430,14 +8370,14 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B39" s="66">
         <v>9</v>
       </c>
       <c r="C39" s="3"/>
       <c r="G39" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="H39" s="32">
         <v>9</v>
@@ -8453,216 +8393,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:P13"/>
+  <dimension ref="C6:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" t="s">
-        <v>404</v>
-      </c>
-      <c r="D3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H3" t="s">
-        <v>407</v>
-      </c>
-      <c r="J3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K3" t="s">
-        <v>409</v>
-      </c>
-      <c r="M3" t="s">
-        <v>410</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D4" t="s">
-        <v>414</v>
-      </c>
-      <c r="E4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H4" t="s">
-        <v>416</v>
-      </c>
-      <c r="I4" t="s">
-        <v>417</v>
-      </c>
-      <c r="M4" t="s">
-        <v>418</v>
-      </c>
-      <c r="O4" t="s">
-        <v>419</v>
-      </c>
-      <c r="P4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" t="s">
-        <v>424</v>
-      </c>
-      <c r="H5" t="s">
-        <v>425</v>
-      </c>
-      <c r="I5" t="s">
-        <v>426</v>
-      </c>
-      <c r="M5" t="s">
-        <v>427</v>
-      </c>
-      <c r="O5" t="s">
-        <v>428</v>
-      </c>
-      <c r="P5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D6" t="s">
-        <v>431</v>
-      </c>
-      <c r="H6" t="s">
-        <v>432</v>
-      </c>
-      <c r="M6" t="s">
-        <v>433</v>
-      </c>
-      <c r="O6" t="s">
-        <v>434</v>
-      </c>
-      <c r="P6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>436</v>
-      </c>
-      <c r="I7" t="s">
-        <v>437</v>
-      </c>
-      <c r="M7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>440</v>
-      </c>
-      <c r="H8" t="s">
-        <v>441</v>
-      </c>
-      <c r="I8" t="s">
-        <v>442</v>
-      </c>
-      <c r="P8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>444</v>
-      </c>
-      <c r="P9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>445</v>
-      </c>
-      <c r="P10" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>446</v>
-      </c>
-      <c r="L11" t="s">
-        <v>643</v>
-      </c>
-      <c r="P11" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>447</v>
-      </c>
-      <c r="L12" t="s">
-        <v>642</v>
-      </c>
-      <c r="P12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>448</v>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="216" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="216" t="s">
+        <v>744</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="216" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="216" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="216" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="216" t="s">
+        <v>748</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="216" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="216" t="s">
+        <v>750</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="216" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="216" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="216" t="s">
+        <v>753</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="216" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -8986,7 +8789,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="181" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="B1" s="181"/>
       <c r="C1" s="181"/>
@@ -9011,13 +8814,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="D3" s="107" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="E3" s="37"/>
     </row>
@@ -9026,13 +8829,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="C4" s="105" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="D4" s="105" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="E4" s="37"/>
     </row>
@@ -9041,13 +8844,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="C5" s="105" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="D5" s="105" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="E5" s="37"/>
     </row>
@@ -9056,13 +8859,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="107" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="E6" s="37"/>
     </row>
@@ -9071,13 +8874,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="107" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="C7" s="105" t="s">
         <v>277</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="E7" s="37"/>
     </row>
@@ -9086,13 +8889,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="107" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C8" s="105" t="s">
         <v>278</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="E8" s="37"/>
     </row>
@@ -9101,13 +8904,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="107" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="C9" s="105" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="E9" s="37"/>
     </row>
@@ -9116,13 +8919,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="C10" s="105" t="s">
         <v>130</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -9131,13 +8934,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="107" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="C11" s="105" t="s">
         <v>262</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="E11" s="37"/>
     </row>
@@ -9146,13 +8949,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="107" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="C12" s="105" t="s">
         <v>162</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="E12" s="37"/>
     </row>
@@ -9199,7 +9002,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="185" t="s">
-        <v>774</v>
+        <v>741</v>
       </c>
       <c r="B1" s="185"/>
       <c r="C1" s="185"/>
@@ -9252,20 +9055,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="D4" s="108"/>
       <c r="E4" s="100">
         <v>11</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="G4" s="108" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="H4" s="108"/>
     </row>
@@ -9274,20 +9077,20 @@
         <v>2</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="C5" s="108" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="D5" s="108"/>
       <c r="E5" s="100">
         <v>12</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="G5" s="108" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="H5" s="108"/>
     </row>
@@ -9296,23 +9099,23 @@
         <v>3</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="D6" s="108"/>
       <c r="E6" s="100">
         <v>13</v>
       </c>
       <c r="F6" s="160" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="G6" s="161" t="s">
         <v>108</v>
       </c>
       <c r="H6" s="159" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9320,25 +9123,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="C7" s="108" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="E7" s="100">
         <v>14</v>
       </c>
       <c r="F7" s="160" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="G7" s="162">
         <v>234.5</v>
       </c>
       <c r="H7" s="159" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9352,19 +9155,19 @@
         <v>76</v>
       </c>
       <c r="D8" s="108" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="E8" s="100">
         <v>15</v>
       </c>
       <c r="F8" s="160" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="G8" s="163" t="s">
         <v>104</v>
       </c>
       <c r="H8" s="159" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9372,25 +9175,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="C9" s="108" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="E9" s="100">
         <v>16</v>
       </c>
       <c r="F9" s="160" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="G9" s="161" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="159" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9398,25 +9201,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="C10" s="108" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="E10" s="100">
         <v>17</v>
       </c>
       <c r="F10" s="160" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="G10" s="161" t="s">
         <v>151</v>
       </c>
       <c r="H10" s="159" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9424,25 +9227,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="C11" s="108" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="E11" s="100">
         <v>18</v>
       </c>
       <c r="F11" s="160" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="G11" s="164">
         <v>230.75</v>
       </c>
       <c r="H11" s="159" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9450,25 +9253,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="C12" s="108" t="s">
         <v>263</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="E12" s="100">
         <v>19</v>
       </c>
       <c r="F12" s="160" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="G12" s="163" t="s">
         <v>196</v>
       </c>
       <c r="H12" s="159" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9476,25 +9279,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="C13" s="108" t="s">
         <v>89</v>
       </c>
       <c r="D13" s="108" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="E13" s="100">
         <v>20</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="G13" s="108" t="s">
         <v>228</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9536,13 +9339,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="126" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="C17" s="127" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="D17" s="126" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="E17"/>
     </row>
@@ -9551,13 +9354,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="C18" s="127" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="D18" s="127" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="E18"/>
     </row>
@@ -9566,13 +9369,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="126" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="C19" s="127" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="D19" s="127" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="E19"/>
     </row>
@@ -9581,13 +9384,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="126" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="C20" s="127" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="D20" s="127" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="E20"/>
     </row>
@@ -9596,13 +9399,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="126" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="C21" s="127" t="s">
         <v>277</v>
       </c>
       <c r="D21" s="127" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="E21"/>
     </row>
@@ -9611,13 +9414,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="126" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="C22" s="127" t="s">
         <v>278</v>
       </c>
       <c r="D22" s="127" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="E22"/>
     </row>
@@ -9626,13 +9429,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="126" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="C23" s="127" t="s">
         <v>279</v>
       </c>
       <c r="D23" s="127" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="E23"/>
     </row>
@@ -9641,13 +9444,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="126" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="C24" s="127" t="s">
         <v>130</v>
       </c>
       <c r="D24" s="127" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="E24"/>
     </row>
@@ -9656,13 +9459,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="126" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="C25" s="127" t="s">
         <v>262</v>
       </c>
       <c r="D25" s="127" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="E25"/>
     </row>
@@ -9671,13 +9474,13 @@
         <v>10</v>
       </c>
       <c r="B26" s="126" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
       <c r="C26" s="127" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="127" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="E26"/>
     </row>
@@ -9720,13 +9523,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="108" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="C30" s="128" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="E30"/>
     </row>
@@ -9735,13 +9538,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="108" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="C31" s="128" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="E31"/>
     </row>
@@ -9750,13 +9553,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="C32" s="128" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="D32" s="108" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="E32"/>
     </row>
@@ -9765,13 +9568,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="108" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="C33" s="128" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="E33"/>
     </row>
@@ -9780,13 +9583,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="C34" s="128" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="E34"/>
     </row>
@@ -9795,13 +9598,13 @@
         <v>6</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="C35" s="128" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="E35"/>
     </row>
@@ -9810,13 +9613,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="108" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="C36" s="128" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="E36"/>
     </row>
@@ -9825,13 +9628,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="C37" s="128" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="D37" s="108" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="E37"/>
     </row>
@@ -9840,13 +9643,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="108" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="C38" s="128" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="D38" s="108" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="E38"/>
     </row>
@@ -9855,13 +9658,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="108" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="C39" s="128" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="D39" s="108" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="E39"/>
     </row>
@@ -9900,7 +9703,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="186" t="s">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="B1" s="186"/>
       <c r="C1" s="186"/>
@@ -9949,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="C4" s="109"/>
       <c r="D4" s="102"/>
@@ -9965,10 +9768,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="100">
@@ -9983,10 +9786,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="100">
@@ -10001,7 +9804,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
       <c r="C7" s="109">
         <v>121.3</v>
@@ -10019,10 +9822,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="C8" s="109" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="D8" s="102"/>
       <c r="E8" s="100">
@@ -10037,7 +9840,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="C9" s="109" t="s">
         <v>112</v>
@@ -10055,7 +9858,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="C10" s="109" t="s">
         <v>53</v>
@@ -10065,10 +9868,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="H10" s="109"/>
       <c r="M10" s="36"/>
@@ -10082,7 +9885,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="C11" s="109" t="s">
         <v>263</v>
@@ -10092,7 +9895,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="G11" s="109">
         <v>126.2</v>
@@ -10109,20 +9912,20 @@
         <v>9</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="D12" s="102"/>
       <c r="E12" s="100">
         <v>19</v>
       </c>
       <c r="F12" s="109" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="G12" s="109" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="H12" s="109"/>
       <c r="M12" s="36"/>
@@ -10142,7 +9945,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="109" t="s">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="G13" s="109">
         <v>118.2</v>
@@ -10203,7 +10006,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="C16" s="109"/>
       <c r="D16" s="109"/>
@@ -10211,13 +10014,13 @@
         <v>11</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="G16" s="108" t="s">
         <v>228</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
@@ -10236,19 +10039,19 @@
         <v>37</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="E17" s="110">
         <v>12</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="G17" s="108" t="s">
         <v>55</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -10261,25 +10064,25 @@
         <v>3</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="C18" s="158" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="158" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="E18" s="110">
         <v>13</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="G18" s="108" t="s">
         <v>101</v>
       </c>
       <c r="H18" s="102" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
@@ -10292,25 +10095,25 @@
         <v>4</v>
       </c>
       <c r="B19" s="160" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="C19" s="161" t="s">
         <v>108</v>
       </c>
       <c r="D19" s="159" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="E19" s="157">
         <v>14</v>
       </c>
       <c r="F19" s="102" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="G19" s="108" t="s">
         <v>125</v>
       </c>
       <c r="H19" s="102" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -10326,25 +10129,25 @@
         <v>5</v>
       </c>
       <c r="B20" s="160" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="C20" s="162">
         <v>234.5</v>
       </c>
       <c r="D20" s="159" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="E20" s="157">
         <v>15</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>770</v>
+        <v>737</v>
       </c>
       <c r="G20" s="165">
         <v>33.5</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
@@ -10360,25 +10163,25 @@
         <v>6</v>
       </c>
       <c r="B21" s="160" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="C21" s="163" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="159" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="E21" s="157">
         <v>16</v>
       </c>
       <c r="F21" s="102" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="G21" s="165">
         <v>38.5</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
@@ -10394,25 +10197,25 @@
         <v>7</v>
       </c>
       <c r="B22" s="160" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="C22" s="161" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="159" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="E22" s="157">
         <v>17</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="G22" s="165">
         <v>33.75</v>
       </c>
       <c r="H22" s="102" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
@@ -10428,13 +10231,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="160" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="C23" s="161" t="s">
         <v>151</v>
       </c>
       <c r="D23" s="159" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="E23" s="157">
         <v>18</v>
@@ -10446,7 +10249,7 @@
         <v>36</v>
       </c>
       <c r="H23" s="102" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
@@ -10462,13 +10265,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="160" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="C24" s="164">
         <v>230.75</v>
       </c>
       <c r="D24" s="159" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="E24" s="157">
         <v>19</v>
@@ -10480,7 +10283,7 @@
         <v>115</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10488,13 +10291,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="160" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="C25" s="163" t="s">
         <v>196</v>
       </c>
       <c r="D25" s="159" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="E25" s="157">
         <v>20</v>
@@ -10548,19 +10351,19 @@
         <v>175</v>
       </c>
       <c r="D28" s="108" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="E28" s="100">
         <v>11</v>
       </c>
       <c r="F28" s="108" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
       <c r="G28" s="108" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="H28" s="108" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10574,19 +10377,19 @@
         <v>177</v>
       </c>
       <c r="D29" s="108" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="E29" s="100">
         <v>12</v>
       </c>
       <c r="F29" s="108" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="G29" s="108" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="H29" s="108" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10600,19 +10403,19 @@
         <v>190</v>
       </c>
       <c r="D30" s="108" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="E30" s="100">
         <v>13</v>
       </c>
       <c r="F30" s="108" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="G30" s="108" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="H30" s="108" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10620,25 +10423,25 @@
         <v>4</v>
       </c>
       <c r="B31" s="108" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="C31" s="108" t="s">
         <v>195</v>
       </c>
       <c r="D31" s="108" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="E31" s="100">
         <v>14</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="G31" s="108" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="H31" s="108" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10646,25 +10449,25 @@
         <v>5</v>
       </c>
       <c r="B32" s="108" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="C32" s="108" t="s">
         <v>220</v>
       </c>
       <c r="D32" s="108" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="E32" s="100">
         <v>15</v>
       </c>
       <c r="F32" s="108" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="G32" s="108" t="s">
         <v>277</v>
       </c>
       <c r="H32" s="108" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10672,25 +10475,25 @@
         <v>6</v>
       </c>
       <c r="B33" s="108" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="C33" s="108" t="s">
         <v>199</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
       <c r="E33" s="100">
         <v>16</v>
       </c>
       <c r="F33" s="108" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="G33" s="108" t="s">
         <v>278</v>
       </c>
       <c r="H33" s="108" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10698,25 +10501,25 @@
         <v>7</v>
       </c>
       <c r="B34" s="108" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="C34" s="108" t="s">
         <v>224</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
       <c r="E34" s="100">
         <v>17</v>
       </c>
       <c r="F34" s="108" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="G34" s="108" t="s">
         <v>279</v>
       </c>
       <c r="H34" s="108" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10724,25 +10527,25 @@
         <v>8</v>
       </c>
       <c r="B35" s="108" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="C35" s="108" t="s">
         <v>249</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
       <c r="E35" s="100">
         <v>18</v>
       </c>
       <c r="F35" s="108" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="G35" s="108" t="s">
         <v>130</v>
       </c>
       <c r="H35" s="108" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10750,25 +10553,25 @@
         <v>9</v>
       </c>
       <c r="B36" s="108" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="C36" s="108" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="108" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
       <c r="E36" s="100">
         <v>19</v>
       </c>
       <c r="F36" s="108" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="G36" s="108" t="s">
         <v>262</v>
       </c>
       <c r="H36" s="108" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -10776,25 +10579,25 @@
         <v>10</v>
       </c>
       <c r="B37" s="108" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="C37" s="108" t="s">
         <v>172</v>
       </c>
       <c r="D37" s="108" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="E37" s="100">
         <v>20</v>
       </c>
       <c r="F37" s="108" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="G37" s="108" t="s">
         <v>162</v>
       </c>
       <c r="H37" s="108" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
@@ -11043,7 +10846,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
-        <v>772</v>
+        <v>739</v>
       </c>
       <c r="B1" s="191"/>
       <c r="C1" s="191"/>
@@ -11094,7 +10897,7 @@
       </c>
       <c r="G4" s="71"/>
       <c r="H4" s="71" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11105,7 +10908,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="167" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="D5" s="168" t="s">
         <v>343</v>
@@ -11118,7 +10921,7 @@
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11129,10 +10932,10 @@
         <v>108</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="E6" s="84">
         <v>3</v>
@@ -11142,7 +10945,7 @@
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11153,10 +10956,10 @@
         <v>234.5</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="E7" s="84">
         <v>4</v>
@@ -11165,7 +10968,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="H7" s="88" t="s">
         <v>343</v>
@@ -11179,10 +10982,10 @@
         <v>104</v>
       </c>
       <c r="C8" s="145" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="E8" s="84">
         <v>5</v>
@@ -11191,10 +10994,10 @@
         <v>244</v>
       </c>
       <c r="G8" s="145" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11205,10 +11008,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="E9" s="84">
         <v>6</v>
@@ -11217,10 +11020,10 @@
         <v>144</v>
       </c>
       <c r="G9" s="145" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11231,10 +11034,10 @@
         <v>151</v>
       </c>
       <c r="C10" s="145" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="E10" s="84">
         <v>7</v>
@@ -11251,10 +11054,10 @@
         <v>230.75</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="E11" s="84">
         <v>8</v>
@@ -11271,10 +11074,10 @@
         <v>196</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="E12" s="84">
         <v>9</v>
@@ -11286,7 +11089,7 @@
         <v>386</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11297,10 +11100,10 @@
         <v>228</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="E13" s="84">
         <v>10</v>
@@ -11309,10 +11112,10 @@
         <v>76</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11323,10 +11126,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="145" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="E14" s="84">
         <v>11</v>
@@ -11335,10 +11138,10 @@
         <v>115</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11349,10 +11152,10 @@
         <v>101</v>
       </c>
       <c r="C15" s="145" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="E15" s="84">
         <v>12</v>
@@ -11369,10 +11172,10 @@
         <v>125</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="E16" s="84">
         <v>13</v>
@@ -11389,10 +11192,10 @@
         <v>29</v>
       </c>
       <c r="C17" s="145" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="E17" s="84">
         <v>14</v>
@@ -11409,10 +11212,10 @@
         <v>43</v>
       </c>
       <c r="C18" s="145" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="E18" s="84">
         <v>15</v>
@@ -11422,7 +11225,7 @@
       </c>
       <c r="G18" s="71"/>
       <c r="H18" s="71" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11433,10 +11236,10 @@
         <v>242</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="E19" s="84">
         <v>16</v>
@@ -11446,7 +11249,7 @@
       </c>
       <c r="G19" s="71"/>
       <c r="H19" s="71" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11457,10 +11260,10 @@
         <v>250</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="D20" s="86" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="E20" s="84">
         <v>17</v>
@@ -11470,7 +11273,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="88" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11481,10 +11284,10 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="E21" s="84">
         <v>18</v>
@@ -11494,7 +11297,7 @@
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="88" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11505,7 +11308,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="86" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="D22" s="93" t="s">
         <v>349</v>
@@ -11517,7 +11320,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="H22" s="71" t="s">
         <v>349</v>
@@ -11532,7 +11335,7 @@
       </c>
       <c r="C23" s="86"/>
       <c r="D23" s="86" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="E23" s="84">
         <v>20</v>
@@ -11542,7 +11345,7 @@
       </c>
       <c r="G23" s="71"/>
       <c r="H23" s="71" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11554,13 +11357,13 @@
         <v>21</v>
       </c>
       <c r="F24" s="70" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="G24" s="71" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="H24" s="88" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11575,10 +11378,10 @@
         <v>263</v>
       </c>
       <c r="G25" s="71" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="H25" s="88" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11743,7 +11546,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="200" t="s">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="B1" s="200"/>
       <c r="C1" s="200"/>
@@ -11785,10 +11588,10 @@
         <v>108</v>
       </c>
       <c r="C4" s="145" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="E4" s="84">
         <v>1</v>
@@ -11798,7 +11601,7 @@
       </c>
       <c r="G4" s="71"/>
       <c r="H4" s="71" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11809,10 +11612,10 @@
         <v>234.5</v>
       </c>
       <c r="C5" s="145" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="E5" s="84">
         <v>2</v>
@@ -11822,7 +11625,7 @@
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11833,10 +11636,10 @@
         <v>104</v>
       </c>
       <c r="C6" s="145" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="E6" s="84">
         <v>3</v>
@@ -11846,7 +11649,7 @@
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11857,10 +11660,10 @@
         <v>34</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="E7" s="84">
         <v>4</v>
@@ -11869,7 +11672,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="71" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="H7" s="88" t="s">
         <v>343</v>
@@ -11883,10 +11686,10 @@
         <v>151</v>
       </c>
       <c r="C8" s="145" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="E8" s="84">
         <v>5</v>
@@ -11895,10 +11698,10 @@
         <v>104</v>
       </c>
       <c r="G8" s="71" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="H8" s="71" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11909,10 +11712,10 @@
         <v>230.75</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="E9" s="84">
         <v>6</v>
@@ -11921,10 +11724,10 @@
         <v>34</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="H9" s="71" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11935,10 +11738,10 @@
         <v>196</v>
       </c>
       <c r="C10" s="145" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="E10" s="84">
         <v>7</v>
@@ -11947,10 +11750,10 @@
         <v>108</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="H10" s="71" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11961,10 +11764,10 @@
         <v>228</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="E11" s="84">
         <v>8</v>
@@ -11973,10 +11776,10 @@
         <v>123</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="H11" s="71" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11987,10 +11790,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="E12" s="84">
         <v>9</v>
@@ -12002,7 +11805,7 @@
         <v>386</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12013,10 +11816,10 @@
         <v>101</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="E13" s="84">
         <v>10</v>
@@ -12025,10 +11828,10 @@
         <v>76</v>
       </c>
       <c r="G13" s="71" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12039,10 +11842,10 @@
         <v>125</v>
       </c>
       <c r="C14" s="145" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="E14" s="84">
         <v>11</v>
@@ -12051,10 +11854,10 @@
         <v>115</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12065,10 +11868,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="145" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="E15" s="84">
         <v>12</v>
@@ -12077,7 +11880,7 @@
         <v>236</v>
       </c>
       <c r="G15" s="71" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="H15" s="71" t="s">
         <v>16</v>
@@ -12091,10 +11894,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="E16" s="84">
         <v>13</v>
@@ -12103,10 +11906,10 @@
         <v>196</v>
       </c>
       <c r="G16" s="71" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="H16" s="71" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12117,10 +11920,10 @@
         <v>244</v>
       </c>
       <c r="C17" s="145" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="E17" s="84">
         <v>14</v>
@@ -12129,7 +11932,7 @@
         <v>228</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="H17" s="71" t="s">
         <v>17</v>
@@ -12143,10 +11946,10 @@
         <v>144</v>
       </c>
       <c r="C18" s="145" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="E18" s="84">
         <v>15</v>
@@ -12156,7 +11959,7 @@
       </c>
       <c r="G18" s="71"/>
       <c r="H18" s="71" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -12167,10 +11970,10 @@
         <v>242</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="D19" s="147" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="E19" s="84">
         <v>16</v>
@@ -12180,7 +11983,7 @@
       </c>
       <c r="G19" s="71"/>
       <c r="H19" s="71" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
@@ -12191,10 +11994,10 @@
         <v>250</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="D20" s="147" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="E20" s="84">
         <v>17</v>
@@ -12204,7 +12007,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="88" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12215,10 +12018,10 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="E21" s="84">
         <v>18</v>
@@ -12228,7 +12031,7 @@
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="88" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12239,7 +12042,7 @@
         <v>36</v>
       </c>
       <c r="C22" s="71" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="D22" s="88" t="s">
         <v>349</v>
@@ -12251,7 +12054,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="H22" s="71" t="s">
         <v>349</v>
@@ -12266,7 +12069,7 @@
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="71" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="E23" s="84">
         <v>20</v>
@@ -12276,7 +12079,7 @@
       </c>
       <c r="G23" s="71"/>
       <c r="H23" s="71" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -12314,7 +12117,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="203" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
       <c r="B1" s="204"/>
       <c r="C1" s="204"/>
@@ -12336,13 +12139,13 @@
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="B3" s="210"/>
       <c r="C3" s="210"/>
       <c r="D3" s="210"/>
       <c r="E3" s="210" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="F3" s="210"/>
       <c r="G3" s="210"/>
@@ -12355,7 +12158,7 @@
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="152" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="E4" s="69">
         <v>1</v>
@@ -12363,7 +12166,7 @@
       <c r="F4" s="70"/>
       <c r="G4" s="71"/>
       <c r="H4" s="70" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12374,7 +12177,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="D5" s="152" t="s">
         <v>343</v>
@@ -12383,11 +12186,11 @@
         <v>2</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="70" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12398,7 +12201,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="151" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="D6" s="152" t="s">
         <v>10</v>
@@ -12407,11 +12210,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="70" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12422,10 +12225,10 @@
         <v>108</v>
       </c>
       <c r="C7" s="145" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="E7" s="69">
         <v>4</v>
@@ -12435,7 +12238,7 @@
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="70" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12446,20 +12249,20 @@
         <v>234.5</v>
       </c>
       <c r="C8" s="145" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="E8" s="69">
         <v>5</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="G8" s="71"/>
       <c r="H8" s="70" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12470,10 +12273,10 @@
         <v>104</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="E9" s="69">
         <v>6</v>
@@ -12485,7 +12288,7 @@
         <v>386</v>
       </c>
       <c r="H9" s="70" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12496,10 +12299,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="145" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="E10" s="69">
         <v>7</v>
@@ -12508,10 +12311,10 @@
         <v>53</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12522,10 +12325,10 @@
         <v>151</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="E11" s="69">
         <v>8</v>
@@ -12534,10 +12337,10 @@
         <v>263</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12548,20 +12351,20 @@
         <v>230.75</v>
       </c>
       <c r="C12" s="145" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="E12" s="69">
         <v>9</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="G12" s="71"/>
       <c r="H12" s="70" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12572,10 +12375,10 @@
         <v>196</v>
       </c>
       <c r="C13" s="145" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="E13" s="69">
         <v>10</v>
@@ -12592,10 +12395,10 @@
         <v>228</v>
       </c>
       <c r="C14" s="145" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="E14" s="69">
         <v>11</v>
@@ -12615,10 +12418,10 @@
         <v>55</v>
       </c>
       <c r="C15" s="145" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="E15" s="69">
         <v>12</v>
@@ -12638,10 +12441,10 @@
         <v>101</v>
       </c>
       <c r="C16" s="145" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="E16" s="69">
         <v>13</v>
@@ -12661,10 +12464,10 @@
         <v>125</v>
       </c>
       <c r="C17" s="145" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="E17" s="69">
         <v>14</v>
@@ -12684,10 +12487,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="145" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="E18" s="69">
         <v>15</v>
@@ -12707,10 +12510,10 @@
         <v>43</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="E19" s="69">
         <v>16</v>
@@ -12727,20 +12530,20 @@
         <v>244</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="E20" s="69">
         <v>17</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="70" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12751,10 +12554,10 @@
         <v>144</v>
       </c>
       <c r="C21" s="145" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="E21" s="69">
         <v>18</v>
@@ -12764,7 +12567,7 @@
       </c>
       <c r="G21" s="71"/>
       <c r="H21" s="70" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12775,20 +12578,20 @@
         <v>36</v>
       </c>
       <c r="C22" s="153" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="D22" s="152" t="s">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="E22" s="69">
         <v>19</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="G22" s="71"/>
       <c r="H22" s="70" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12799,7 +12602,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="150" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="D23" s="152" t="s">
         <v>349</v>
@@ -12808,11 +12611,11 @@
         <v>20</v>
       </c>
       <c r="F23" s="122" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="G23" s="123"/>
       <c r="H23" s="122" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC55F3F-D943-4D60-A2E1-DAB787247EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7EB40-FCC1-4EB7-B174-CF69B0F1036E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3591,22 +3591,25 @@
     <xf numFmtId="0" fontId="19" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3731,9 +3734,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4075,8 +4075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5820,11 +5820,11 @@
       <c r="Y31" s="170"/>
       <c r="Z31" s="170"/>
       <c r="AA31" s="170"/>
-      <c r="AC31" s="174" t="s">
+      <c r="AC31" s="175" t="s">
         <v>707</v>
       </c>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="174"/>
+      <c r="AD31" s="175"/>
+      <c r="AE31" s="175"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -6309,15 +6309,15 @@
       <c r="F39" t="s">
         <v>591</v>
       </c>
-      <c r="J39" s="169" t="s">
+      <c r="J39" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
-      <c r="M39" s="169"/>
-      <c r="N39" s="169"/>
-      <c r="O39" s="169"/>
-      <c r="P39" s="169"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6554,17 +6554,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6590,34 +6590,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="213" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="213"/>
-      <c r="B2" s="213"/>
-      <c r="C2" s="213"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="213"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="179" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="178" t="s">
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="179" t="s">
         <v>328</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48">
@@ -7159,22 +7159,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="215" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="216" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -7279,12 +7279,12 @@
       <c r="E10" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="216" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="216"/>
+      <c r="E14" s="216"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
@@ -8396,7 +8396,7 @@
   <dimension ref="C6:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8405,68 +8405,72 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="216" t="s">
+      <c r="C6" s="169" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="216" t="s">
+      <c r="C7" s="169" t="s">
         <v>744</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="169" t="s">
         <v>745</v>
       </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="169" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="216" t="s">
+      <c r="C10" s="169" t="s">
         <v>747</v>
       </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="216" t="s">
+      <c r="C11" s="169" t="s">
         <v>748</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="216" t="s">
+      <c r="C12" s="169" t="s">
         <v>749</v>
       </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="216" t="s">
+      <c r="C13" s="169" t="s">
         <v>750</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="216" t="s">
+      <c r="C14" s="169" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="169" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="216" t="s">
+      <c r="C16" s="169" t="s">
         <v>753</v>
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="216" t="s">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="169" t="s">
         <v>754</v>
       </c>
+      <c r="D17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8491,14 +8495,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="178"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8509,16 +8513,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="179" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="178" t="s">
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="179" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="181"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8788,12 +8792,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="182" t="s">
         <v>706</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -9001,28 +9005,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="186" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="185"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
@@ -9311,12 +9315,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="183" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="185"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9495,12 +9499,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="183" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="185"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9702,28 +9706,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>740</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="185"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
@@ -9958,16 +9962,16 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="183" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="188"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="190"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -10307,16 +10311,16 @@
       <c r="H25" s="109"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="182" t="s">
+      <c r="A26" s="183" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="188"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="189"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="190"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
@@ -10601,10 +10605,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
       <c r="F41" s="119"/>
       <c r="G41" s="119"/>
       <c r="H41" s="119"/>
@@ -10845,40 +10849,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="191" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="192"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="193"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="193"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="195"/>
+      <c r="A2" s="194"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="196"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="196" t="s">
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="197" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84">
@@ -11545,40 +11549,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="200" t="s">
+      <c r="A1" s="201" t="s">
         <v>733</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
-      <c r="H1" s="200"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="194"/>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="196" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="197" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="143">
@@ -12116,40 +12120,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="204" t="s">
         <v>734</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="206"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="206"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="208"/>
+      <c r="A2" s="207"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="209"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="210" t="s">
         <v>668</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210" t="s">
+      <c r="B3" s="211"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211" t="s">
         <v>669</v>
       </c>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="212"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C7EB40-FCC1-4EB7-B174-CF69B0F1036E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88935384-9119-4B28-A50F-CDF76DC16DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -3181,7 +3181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3594,6 +3594,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3606,9 +3609,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3735,6 +3735,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4075,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
@@ -4091,11 +4092,11 @@
       </c>
       <c r="W2" s="138"/>
       <c r="X2" s="138"/>
-      <c r="Z2" s="171" t="s">
+      <c r="Z2" s="172" t="s">
         <v>732</v>
       </c>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="174"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C3" s="53">
@@ -4220,11 +4221,11 @@
       <c r="AB4" s="137" t="s">
         <v>461</v>
       </c>
-      <c r="AD4" s="170" t="s">
+      <c r="AD4" s="171" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -5159,11 +5160,11 @@
         <v>305</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="170" t="s">
+      <c r="R18" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
+      <c r="S18" s="171"/>
+      <c r="T18" s="171"/>
       <c r="Z18" s="137" t="s">
         <v>730</v>
       </c>
@@ -5228,20 +5229,20 @@
       <c r="T19" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="V19" s="171" t="s">
+      <c r="V19" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="173"/>
-      <c r="AB19" s="170" t="s">
+      <c r="W19" s="173"/>
+      <c r="X19" s="173"/>
+      <c r="Y19" s="173"/>
+      <c r="Z19" s="174"/>
+      <c r="AB19" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="170"/>
-      <c r="AD19" s="170"/>
-      <c r="AE19" s="170"/>
-      <c r="AF19" s="170"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="171"/>
+      <c r="AE19" s="171"/>
+      <c r="AF19" s="171"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5630,11 +5631,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="170" t="s">
+      <c r="R25" s="171" t="s">
         <v>516</v>
       </c>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5793,33 +5794,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="170" t="s">
+      <c r="B31" s="171" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="J31" s="170" t="s">
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="J31" s="171" t="s">
         <v>307</v>
       </c>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="U31" s="170" t="s">
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="U31" s="171" t="s">
         <v>289</v>
       </c>
-      <c r="V31" s="170"/>
-      <c r="W31" s="170"/>
-      <c r="X31" s="170"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="170"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
       <c r="AC31" s="175" t="s">
         <v>707</v>
       </c>
@@ -6309,15 +6310,15 @@
       <c r="F39" t="s">
         <v>591</v>
       </c>
-      <c r="J39" s="174" t="s">
+      <c r="J39" s="170" t="s">
         <v>456</v>
       </c>
-      <c r="K39" s="174"/>
-      <c r="L39" s="174"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
+      <c r="M39" s="170"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="170"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6554,17 +6555,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8395,8 +8396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C6:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8459,12 +8460,13 @@
       <c r="C15" s="169" t="s">
         <v>752</v>
       </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="169" t="s">
         <v>753</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="217"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="169" t="s">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88935384-9119-4B28-A50F-CDF76DC16DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DB3290-EF3C-4F14-9415-7BED11646B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="465" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="757">
   <si>
     <t>AWACS</t>
   </si>
@@ -2291,6 +2291,12 @@
   </si>
   <si>
     <t>12. Clone</t>
+  </si>
+  <si>
+    <t>INDIGO 3</t>
+  </si>
+  <si>
+    <t>PURPLE 10</t>
   </si>
 </sst>
 </file>
@@ -3181,7 +3187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3594,22 +3600,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3735,7 +3742,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4074,10 +4084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AF51"/>
+  <dimension ref="B2:AF52"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5821,11 +5831,11 @@
       <c r="Y31" s="171"/>
       <c r="Z31" s="171"/>
       <c r="AA31" s="171"/>
-      <c r="AC31" s="175" t="s">
+      <c r="AC31" s="176" t="s">
         <v>707</v>
       </c>
-      <c r="AD31" s="175"/>
-      <c r="AE31" s="175"/>
+      <c r="AD31" s="176"/>
+      <c r="AE31" s="176"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -6310,15 +6320,15 @@
       <c r="F39" t="s">
         <v>591</v>
       </c>
-      <c r="J39" s="170" t="s">
+      <c r="J39" s="175" t="s">
         <v>456</v>
       </c>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6553,19 +6563,36 @@
         <v>676</v>
       </c>
     </row>
+    <row r="52" spans="23:27" x14ac:dyDescent="0.25">
+      <c r="W52" s="219" t="s">
+        <v>670</v>
+      </c>
+      <c r="X52" s="220" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y52" s="219" t="s">
+        <v>755</v>
+      </c>
+      <c r="Z52" s="221" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA52" s="219" t="s">
+        <v>756</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6591,34 +6618,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="214" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="214"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="A2" s="215"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="180" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="179" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="180" t="s">
         <v>328</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48">
@@ -7160,22 +7187,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="216" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="217" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="217"/>
+      <c r="E2" s="217"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -7280,12 +7307,12 @@
       <c r="E10" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="216" t="s">
+      <c r="B14" s="217" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
@@ -8396,8 +8423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C6:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8455,6 +8482,7 @@
       <c r="C14" s="169" t="s">
         <v>751</v>
       </c>
+      <c r="D14" s="218"/>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="169" t="s">
@@ -8466,7 +8494,7 @@
       <c r="C16" s="169" t="s">
         <v>753</v>
       </c>
-      <c r="D16" s="217"/>
+      <c r="D16" s="170"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="169" t="s">
@@ -8497,14 +8525,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="178"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="179"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8515,16 +8543,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="180" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="179" t="s">
+      <c r="B3" s="181"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="180" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="180"/>
-      <c r="F3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8794,12 +8822,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="183" t="s">
         <v>706</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -9007,28 +9035,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="187" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="124" t="s">
@@ -9317,12 +9345,12 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="184" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="185"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="186"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9501,12 +9529,12 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="184" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="185"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="186"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9708,28 +9736,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="188" t="s">
         <v>740</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="99"/>
@@ -9964,16 +9992,16 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="183" t="s">
+      <c r="A14" s="184" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="190"/>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="191"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -10313,16 +10341,16 @@
       <c r="H25" s="109"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="184" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="190"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="191"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
@@ -10607,10 +10635,10 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
       <c r="F41" s="119"/>
       <c r="G41" s="119"/>
       <c r="H41" s="119"/>
@@ -10851,40 +10879,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="192" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="194"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="194"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="197"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="197" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="198"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="201"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84">
@@ -11551,40 +11579,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="202" t="s">
         <v>733</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
-      <c r="H1" s="201"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
+      <c r="A2" s="196"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="197" t="s">
+      <c r="B3" s="203"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="198" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="198"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="201"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="143">
@@ -12122,40 +12150,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="205" t="s">
         <v>734</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="206"/>
+      <c r="B1" s="206"/>
+      <c r="C1" s="206"/>
+      <c r="D1" s="206"/>
+      <c r="E1" s="206"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="207"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="207"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="209"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="210"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="211" t="s">
         <v>668</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211" t="s">
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212" t="s">
         <v>669</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="213"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DB3290-EF3C-4F14-9415-7BED11646B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6842B7-119D-4B89-9BC4-52F80AA35DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="465" windowWidth="21600" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52380" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="759">
   <si>
     <t>AWACS</t>
   </si>
@@ -2107,12 +2107,6 @@
     <t>73X</t>
   </si>
   <si>
-    <t>CVN-73 ATC</t>
-  </si>
-  <si>
-    <t>CVN-73 LSO</t>
-  </si>
-  <si>
     <t>Minhad ATIS</t>
   </si>
   <si>
@@ -2227,9 +2221,6 @@
     <t>TACTICAL FREQS</t>
   </si>
   <si>
-    <t>F/A-18C presets OPBH V1.1</t>
-  </si>
-  <si>
     <t>F-16C presets OPBH V1.1</t>
   </si>
   <si>
@@ -2245,9 +2236,6 @@
     <t>JACKAL SEC</t>
   </si>
   <si>
-    <t>F-14 presets OPBH V1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">A-10C presets  - OPBH v 1.1 </t>
   </si>
   <si>
@@ -2297,6 +2285,24 @@
   </si>
   <si>
     <t>PURPLE 10</t>
+  </si>
+  <si>
+    <t>G Washington Lights</t>
+  </si>
+  <si>
+    <t>CVN-73 TWR/LSO</t>
+  </si>
+  <si>
+    <t>CVN-73 MARSHAL</t>
+  </si>
+  <si>
+    <t>CVN-73 LIGHTS</t>
+  </si>
+  <si>
+    <t>F/A-18C presets OPBH V1.2</t>
+  </si>
+  <si>
+    <t>F-14 presets OPBH V1.2</t>
   </si>
 </sst>
 </file>
@@ -3187,7 +3193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3393,9 +3399,6 @@
     <xf numFmtId="164" fontId="15" fillId="19" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3601,151 +3604,151 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4086,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X57" sqref="X57"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4097,16 +4100,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="V2" s="138" t="s">
+      <c r="V2" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Z2" s="172" t="s">
-        <v>732</v>
-      </c>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="174"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="Z2" s="176" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="178"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C3" s="53">
@@ -4147,22 +4150,22 @@
       <c r="R3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="V3" s="136" t="s">
+      <c r="V3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="140" t="s">
+      <c r="W3" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="137" t="s">
+      <c r="X3" s="136" t="s">
         <v>460</v>
       </c>
-      <c r="Z3" s="138" t="s">
+      <c r="Z3" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="AA3" s="138" t="s">
+      <c r="AA3" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="AB3" s="138" t="s">
+      <c r="AB3" s="137" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4213,29 +4216,29 @@
       <c r="S4" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="V4" s="136" t="s">
+      <c r="V4" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="140" t="s">
+      <c r="W4" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="X4" s="137" t="s">
+      <c r="X4" s="136" t="s">
         <v>461</v>
       </c>
-      <c r="Z4" s="136" t="s">
-        <v>713</v>
-      </c>
-      <c r="AA4" s="137" t="s">
+      <c r="Z4" s="135" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA4" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="AB4" s="137" t="s">
+      <c r="AB4" s="136" t="s">
         <v>461</v>
       </c>
-      <c r="AD4" s="171" t="s">
+      <c r="AD4" s="175" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
+      <c r="AE4" s="175"/>
+      <c r="AF4" s="175"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -4284,22 +4287,22 @@
       <c r="S5" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="V5" s="136" t="s">
+      <c r="V5" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="140" t="s">
+      <c r="W5" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="137" t="s">
+      <c r="X5" s="136" t="s">
         <v>463</v>
       </c>
-      <c r="Z5" s="136" t="s">
-        <v>714</v>
-      </c>
-      <c r="AA5" s="142">
+      <c r="Z5" s="135" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA5" s="141">
         <v>234.5</v>
       </c>
-      <c r="AB5" s="137" t="s">
+      <c r="AB5" s="136" t="s">
         <v>463</v>
       </c>
       <c r="AD5" s="45" t="s">
@@ -4363,22 +4366,22 @@
       <c r="S6" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="V6" s="136" t="s">
+      <c r="V6" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="139" t="s">
+      <c r="W6" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="X6" s="137" t="s">
+      <c r="X6" s="136" t="s">
         <v>462</v>
       </c>
-      <c r="Z6" s="136" t="s">
-        <v>715</v>
+      <c r="Z6" s="135" t="s">
+        <v>713</v>
       </c>
       <c r="AA6" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AB6" s="137" t="s">
+      <c r="AB6" s="136" t="s">
         <v>462</v>
       </c>
       <c r="AD6" t="s">
@@ -4442,22 +4445,22 @@
       <c r="S7" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="V7" s="136" t="s">
+      <c r="V7" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="140" t="s">
+      <c r="W7" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="137" t="s">
+      <c r="X7" s="136" t="s">
         <v>464</v>
       </c>
-      <c r="Z7" s="136" t="s">
-        <v>716</v>
-      </c>
-      <c r="AA7" s="137" t="s">
+      <c r="Z7" s="135" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA7" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="137" t="s">
+      <c r="AB7" s="136" t="s">
         <v>464</v>
       </c>
       <c r="AD7" t="s">
@@ -4521,20 +4524,20 @@
       <c r="S8" s="30" t="s">
         <v>486</v>
       </c>
-      <c r="V8" s="136" t="s">
+      <c r="V8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="140" t="s">
+      <c r="W8" s="139" t="s">
         <v>421</v>
       </c>
-      <c r="X8" s="136"/>
-      <c r="Z8" s="136" t="s">
-        <v>717</v>
-      </c>
-      <c r="AA8" s="137" t="s">
+      <c r="X8" s="135"/>
+      <c r="Z8" s="135" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA8" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="AB8" s="137" t="s">
+      <c r="AB8" s="136" t="s">
         <v>467</v>
       </c>
     </row>
@@ -4584,22 +4587,22 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="S9" s="82"/>
-      <c r="V9" s="136" t="s">
+      <c r="V9" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="W9" s="140" t="s">
+      <c r="W9" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="X9" s="136" t="s">
+      <c r="X9" s="135" t="s">
         <v>473</v>
       </c>
-      <c r="Z9" s="136" t="s">
-        <v>718</v>
+      <c r="Z9" s="135" t="s">
+        <v>716</v>
       </c>
       <c r="AA9" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="AB9" s="137" t="s">
+      <c r="AB9" s="136" t="s">
         <v>479</v>
       </c>
     </row>
@@ -4654,22 +4657,22 @@
       <c r="S10" s="79" t="s">
         <v>509</v>
       </c>
-      <c r="V10" s="136" t="s">
+      <c r="V10" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="140" t="s">
+      <c r="W10" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="X10" s="137" t="s">
+      <c r="X10" s="136" t="s">
         <v>465</v>
       </c>
-      <c r="Z10" s="136" t="s">
-        <v>719</v>
+      <c r="Z10" s="135" t="s">
+        <v>717</v>
       </c>
       <c r="AA10" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="AB10" s="137" t="s">
+      <c r="AB10" s="136" t="s">
         <v>480</v>
       </c>
     </row>
@@ -4724,22 +4727,22 @@
       <c r="S11" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="V11" s="136" t="s">
+      <c r="V11" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="W11" s="139" t="s">
+      <c r="W11" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="137" t="s">
+      <c r="X11" s="136" t="s">
         <v>466</v>
       </c>
-      <c r="Z11" s="136" t="s">
-        <v>720</v>
+      <c r="Z11" s="135" t="s">
+        <v>718</v>
       </c>
       <c r="AA11" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="AB11" s="137" t="s">
+      <c r="AB11" s="136" t="s">
         <v>482</v>
       </c>
     </row>
@@ -4794,22 +4797,22 @@
       <c r="S12" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="V12" s="136" t="s">
+      <c r="V12" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="140" t="s">
+      <c r="W12" s="139" t="s">
         <v>151</v>
       </c>
-      <c r="X12" s="137" t="s">
+      <c r="X12" s="136" t="s">
         <v>467</v>
       </c>
-      <c r="Z12" s="136" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA12" s="137" t="s">
+      <c r="Z12" s="135" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA12" s="136" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="137" t="s">
+      <c r="AB12" s="136" t="s">
         <v>513</v>
       </c>
     </row>
@@ -4864,22 +4867,22 @@
       <c r="S13" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="V13" s="136" t="s">
+      <c r="V13" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="141" t="s">
+      <c r="W13" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="X13" s="137" t="s">
+      <c r="X13" s="136" t="s">
         <v>386</v>
       </c>
-      <c r="Z13" s="136" t="s">
-        <v>722</v>
-      </c>
-      <c r="AA13" s="137" t="s">
+      <c r="Z13" s="135" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA13" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="AB13" s="137" t="s">
+      <c r="AB13" s="136" t="s">
         <v>514</v>
       </c>
     </row>
@@ -4928,20 +4931,20 @@
         <v>287</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="V14" s="137" t="s">
+      <c r="V14" s="136" t="s">
         <v>535</v>
       </c>
-      <c r="W14" s="141">
+      <c r="W14" s="140">
         <v>301</v>
       </c>
-      <c r="X14" s="136"/>
-      <c r="Z14" s="136" t="s">
-        <v>723</v>
-      </c>
-      <c r="AA14" s="137" t="s">
+      <c r="X14" s="135"/>
+      <c r="Z14" s="135" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA14" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="AB14" s="137" t="s">
+      <c r="AB14" s="136" t="s">
         <v>515</v>
       </c>
     </row>
@@ -4996,21 +4999,21 @@
       <c r="S15" s="79" t="s">
         <v>574</v>
       </c>
-      <c r="V15" s="137" t="s">
+      <c r="V15" s="136" t="s">
         <v>579</v>
       </c>
-      <c r="W15" s="136">
+      <c r="W15" s="135">
         <v>300</v>
       </c>
-      <c r="X15" s="136"/>
-      <c r="Z15" s="137" t="s">
-        <v>724</v>
-      </c>
-      <c r="AA15" s="137" t="s">
+      <c r="X15" s="135"/>
+      <c r="Z15" s="136" t="s">
+        <v>722</v>
+      </c>
+      <c r="AA15" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="AB15" s="137" t="s">
-        <v>725</v>
+      <c r="AB15" s="136" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -5060,14 +5063,14 @@
       <c r="S16" s="81" t="s">
         <v>572</v>
       </c>
-      <c r="Z16" s="137" t="s">
-        <v>726</v>
+      <c r="Z16" s="136" t="s">
+        <v>724</v>
       </c>
       <c r="AA16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AB16" s="137" t="s">
-        <v>727</v>
+      <c r="AB16" s="136" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.25">
@@ -5115,14 +5118,14 @@
         <v>304</v>
       </c>
       <c r="Q17" s="4"/>
-      <c r="Z17" s="137" t="s">
-        <v>728</v>
+      <c r="Z17" s="136" t="s">
+        <v>726</v>
       </c>
       <c r="AA17" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="AB17" s="137" t="s">
-        <v>729</v>
+      <c r="AB17" s="136" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.25">
@@ -5170,19 +5173,19 @@
         <v>305</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="171" t="s">
+      <c r="R18" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="171"/>
-      <c r="T18" s="171"/>
-      <c r="Z18" s="137" t="s">
-        <v>730</v>
-      </c>
-      <c r="AA18" s="137" t="s">
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="Z18" s="136" t="s">
+        <v>728</v>
+      </c>
+      <c r="AA18" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="AB18" s="137" t="s">
-        <v>731</v>
+      <c r="AB18" s="136" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.25">
@@ -5239,20 +5242,20 @@
       <c r="T19" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="V19" s="172" t="s">
+      <c r="V19" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="174"/>
-      <c r="AB19" s="171" t="s">
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="178"/>
+      <c r="AB19" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="171"/>
-      <c r="AD19" s="171"/>
-      <c r="AE19" s="171"/>
-      <c r="AF19" s="171"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="175"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5407,7 +5410,7 @@
         <v>581</v>
       </c>
       <c r="AB21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>53</v>
@@ -5473,7 +5476,7 @@
         <v>660</v>
       </c>
       <c r="Y22" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Z22" t="s">
         <v>581</v>
@@ -5641,11 +5644,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="171" t="s">
+      <c r="R25" s="175" t="s">
         <v>516</v>
       </c>
-      <c r="S25" s="171"/>
-      <c r="T25" s="171"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5786,7 +5789,7 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="S28" t="s">
         <v>518</v>
@@ -5797,45 +5800,53 @@
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
+        <v>753</v>
+      </c>
+      <c r="S29">
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>703</v>
+      </c>
+      <c r="S30">
+        <v>280.60000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B31" s="175" t="s">
+        <v>306</v>
+      </c>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="J31" s="175" t="s">
+        <v>307</v>
+      </c>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="U31" s="175" t="s">
+        <v>289</v>
+      </c>
+      <c r="V31" s="175"/>
+      <c r="W31" s="175"/>
+      <c r="X31" s="175"/>
+      <c r="Y31" s="175"/>
+      <c r="Z31" s="175"/>
+      <c r="AA31" s="175"/>
+      <c r="AC31" s="179" t="s">
         <v>705</v>
       </c>
-      <c r="S29">
-        <v>280.60000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="171" t="s">
-        <v>306</v>
-      </c>
-      <c r="C31" s="171"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="J31" s="171" t="s">
-        <v>307</v>
-      </c>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="171"/>
-      <c r="O31" s="171"/>
-      <c r="P31" s="171"/>
-      <c r="U31" s="171" t="s">
-        <v>289</v>
-      </c>
-      <c r="V31" s="171"/>
-      <c r="W31" s="171"/>
-      <c r="X31" s="171"/>
-      <c r="Y31" s="171"/>
-      <c r="Z31" s="171"/>
-      <c r="AA31" s="171"/>
-      <c r="AC31" s="176" t="s">
-        <v>707</v>
-      </c>
-      <c r="AD31" s="176"/>
-      <c r="AE31" s="176"/>
+      <c r="AD31" s="179"/>
+      <c r="AE31" s="179"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -5901,13 +5912,13 @@
       <c r="AA32" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="AC32" s="131" t="s">
-        <v>711</v>
-      </c>
-      <c r="AD32" s="131" t="s">
+      <c r="AC32" s="130" t="s">
+        <v>709</v>
+      </c>
+      <c r="AD32" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="AE32" s="129" t="s">
+      <c r="AE32" s="128" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5978,11 +5989,11 @@
       <c r="AC33" s="32">
         <v>1</v>
       </c>
-      <c r="AD33" s="130">
+      <c r="AD33" s="129">
         <v>126.25</v>
       </c>
       <c r="AE33" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
@@ -6052,11 +6063,11 @@
       <c r="AC34" s="32">
         <v>2</v>
       </c>
-      <c r="AD34" s="130">
+      <c r="AD34" s="129">
         <v>127</v>
       </c>
       <c r="AE34" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
@@ -6126,11 +6137,11 @@
       <c r="AC35" s="32">
         <v>3</v>
       </c>
-      <c r="AD35" s="130">
+      <c r="AD35" s="129">
         <v>132.1</v>
       </c>
       <c r="AE35" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
@@ -6320,15 +6331,15 @@
       <c r="F39" t="s">
         <v>591</v>
       </c>
-      <c r="J39" s="175" t="s">
+      <c r="J39" s="174" t="s">
         <v>456</v>
       </c>
-      <c r="K39" s="175"/>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="175"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6482,10 +6493,10 @@
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="R46" s="132" t="s">
-        <v>700</v>
-      </c>
-      <c r="S46" s="135">
+      <c r="R46" s="131" t="s">
+        <v>698</v>
+      </c>
+      <c r="S46" s="134">
         <v>118.2</v>
       </c>
       <c r="W46" t="s">
@@ -6505,10 +6516,10 @@
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="R47" s="134" t="s">
-        <v>712</v>
-      </c>
-      <c r="S47" s="133">
+      <c r="R47" s="133" t="s">
+        <v>710</v>
+      </c>
+      <c r="S47" s="132">
         <v>118.1</v>
       </c>
     </row>
@@ -6564,35 +6575,35 @@
       </c>
     </row>
     <row r="52" spans="23:27" x14ac:dyDescent="0.25">
-      <c r="W52" s="219" t="s">
+      <c r="W52" s="171" t="s">
         <v>670</v>
       </c>
-      <c r="X52" s="220" t="s">
+      <c r="X52" s="172" t="s">
         <v>210</v>
       </c>
-      <c r="Y52" s="219" t="s">
-        <v>755</v>
-      </c>
-      <c r="Z52" s="221" t="s">
+      <c r="Y52" s="171" t="s">
+        <v>751</v>
+      </c>
+      <c r="Z52" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="AA52" s="219" t="s">
-        <v>756</v>
+      <c r="AA52" s="171" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6618,34 +6629,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="217" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="215"/>
-      <c r="B2" s="215"/>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="180" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="183" t="s">
         <v>328</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="185"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48">
@@ -7187,22 +7198,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="219" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="220" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="38"/>
@@ -7307,12 +7318,12 @@
       <c r="E10" s="38"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="220" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="217"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="217"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="220"/>
+      <c r="E14" s="220"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="38"/>
@@ -8433,72 +8444,72 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="168" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="168" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="168" t="s">
+        <v>741</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="168" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="168" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="169" t="s">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="168" t="s">
         <v>744</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="169" t="s">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="168" t="s">
         <v>745</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="169" t="s">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="168" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="169" t="s">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="168" t="s">
         <v>747</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="169" t="s">
+      <c r="D14" s="170"/>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="168" t="s">
         <v>748</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="169" t="s">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="168" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="169" t="s">
+      <c r="D16" s="169"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="168" t="s">
         <v>750</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="169" t="s">
-        <v>751</v>
-      </c>
-      <c r="D14" s="218"/>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="169" t="s">
-        <v>752</v>
-      </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="169" t="s">
-        <v>753</v>
-      </c>
-      <c r="D16" s="170"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="169" t="s">
-        <v>754</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -8525,14 +8536,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="180" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="179"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="182"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
@@ -8543,16 +8554,16 @@
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="183" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="180" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="183" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="185"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
@@ -8822,173 +8833,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="183" t="s">
-        <v>706</v>
-      </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
+      <c r="A1" s="186" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105" t="s">
         <v>315</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="105" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="105" t="s">
         <v>296</v>
       </c>
       <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="106">
+      <c r="A3" s="105">
         <v>1</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="106" t="s">
         <v>526</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="104" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="106" t="s">
         <v>521</v>
       </c>
       <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="106">
+      <c r="A4" s="105">
         <v>2</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="106" t="s">
         <v>527</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="104" t="s">
         <v>423</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="104" t="s">
         <v>444</v>
       </c>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="106">
+      <c r="A5" s="105">
         <v>3</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="104" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="104" t="s">
         <v>447</v>
       </c>
       <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="106">
+      <c r="A6" s="105">
         <v>4</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="106" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="104" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="104" t="s">
         <v>448</v>
       </c>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="106">
+      <c r="A7" s="105">
         <v>5</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="106" t="s">
         <v>530</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="104" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="104" t="s">
         <v>450</v>
       </c>
       <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="106">
+      <c r="A8" s="105">
         <v>6</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>531</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="104" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="104" t="s">
         <v>452</v>
       </c>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="106">
+      <c r="A9" s="105">
         <v>7</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="106" t="s">
         <v>532</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="104" t="s">
         <v>279</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="104" t="s">
         <v>454</v>
       </c>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="106">
+      <c r="A10" s="105">
         <v>8</v>
       </c>
-      <c r="B10" s="107" t="s">
-        <v>702</v>
-      </c>
-      <c r="C10" s="105" t="s">
+      <c r="B10" s="106" t="s">
+        <v>700</v>
+      </c>
+      <c r="C10" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="104" t="s">
         <v>522</v>
       </c>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="106">
+      <c r="A11" s="105">
         <v>9</v>
       </c>
-      <c r="B11" s="107" t="s">
-        <v>703</v>
-      </c>
-      <c r="C11" s="105" t="s">
+      <c r="B11" s="106" t="s">
+        <v>701</v>
+      </c>
+      <c r="C11" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="104" t="s">
         <v>523</v>
       </c>
       <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="106">
+      <c r="A12" s="105">
         <v>10</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="106" t="s">
         <v>525</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="104" t="s">
         <v>524</v>
       </c>
       <c r="E12" s="37"/>
@@ -9035,302 +9046,302 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
-        <v>741</v>
-      </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
+      <c r="A1" s="190" t="s">
+        <v>737</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="187" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="186"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="124" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="99" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100">
+      <c r="A4" s="99">
         <v>1</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="107" t="s">
         <v>569</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>570</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="100">
+      <c r="D4" s="107"/>
+      <c r="E4" s="99">
         <v>11</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="107" t="s">
         <v>506</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="107" t="s">
         <v>510</v>
       </c>
-      <c r="H4" s="108"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="100">
+      <c r="A5" s="99">
         <v>2</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>571</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="107" t="s">
         <v>572</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="100">
+      <c r="D5" s="107"/>
+      <c r="E5" s="99">
         <v>12</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="G5" s="108" t="s">
+      <c r="G5" s="107" t="s">
         <v>509</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="100">
+      <c r="A6" s="99">
         <v>3</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="107" t="s">
         <v>574</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="100">
+      <c r="D6" s="107"/>
+      <c r="E6" s="99">
         <v>13</v>
       </c>
-      <c r="F6" s="160" t="s">
+      <c r="F6" s="159" t="s">
+        <v>711</v>
+      </c>
+      <c r="G6" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="158" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="99">
+        <v>4</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>536</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" s="99">
+        <v>14</v>
+      </c>
+      <c r="F7" s="159" t="s">
+        <v>712</v>
+      </c>
+      <c r="G7" s="161">
+        <v>234.5</v>
+      </c>
+      <c r="H7" s="158" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="99">
+        <v>5</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="107" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="99">
+        <v>15</v>
+      </c>
+      <c r="F8" s="159" t="s">
         <v>713</v>
       </c>
-      <c r="G6" s="161" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="159" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="100">
-        <v>4</v>
-      </c>
-      <c r="B7" s="108" t="s">
-        <v>536</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="108" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7" s="100">
-        <v>14</v>
-      </c>
-      <c r="F7" s="160" t="s">
+      <c r="G8" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="158" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="99">
+        <v>6</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>576</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" s="99">
+        <v>16</v>
+      </c>
+      <c r="F9" s="159" t="s">
         <v>714</v>
       </c>
-      <c r="G7" s="162">
-        <v>234.5</v>
-      </c>
-      <c r="H7" s="159" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="100">
-        <v>5</v>
-      </c>
-      <c r="B8" s="108" t="s">
+      <c r="G9" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="158" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="99">
+        <v>7</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="107" t="s">
+        <v>473</v>
+      </c>
+      <c r="E10" s="99">
+        <v>17</v>
+      </c>
+      <c r="F10" s="159" t="s">
+        <v>715</v>
+      </c>
+      <c r="G10" s="160" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="158" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="99">
+        <v>8</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>699</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>489</v>
+      </c>
+      <c r="E11" s="99">
+        <v>18</v>
+      </c>
+      <c r="F11" s="159" t="s">
+        <v>716</v>
+      </c>
+      <c r="G11" s="163">
+        <v>230.75</v>
+      </c>
+      <c r="H11" s="158" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="99">
+        <v>9</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>610</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="107" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" s="99">
+        <v>19</v>
+      </c>
+      <c r="F12" s="159" t="s">
+        <v>717</v>
+      </c>
+      <c r="G12" s="162" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="158" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="99">
         <v>10</v>
       </c>
-      <c r="C8" s="108" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="108" t="s">
-        <v>465</v>
-      </c>
-      <c r="E8" s="100">
-        <v>15</v>
-      </c>
-      <c r="F8" s="160" t="s">
-        <v>715</v>
-      </c>
-      <c r="G8" s="163" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="159" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="100">
-        <v>6</v>
-      </c>
-      <c r="B9" s="108" t="s">
-        <v>576</v>
-      </c>
-      <c r="C9" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>466</v>
-      </c>
-      <c r="E9" s="100">
-        <v>16</v>
-      </c>
-      <c r="F9" s="160" t="s">
-        <v>716</v>
-      </c>
-      <c r="G9" s="161" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="159" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="100">
-        <v>7</v>
-      </c>
-      <c r="B10" s="108" t="s">
-        <v>537</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>473</v>
-      </c>
-      <c r="E10" s="100">
-        <v>17</v>
-      </c>
-      <c r="F10" s="160" t="s">
-        <v>717</v>
-      </c>
-      <c r="G10" s="161" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="159" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="100">
-        <v>8</v>
-      </c>
-      <c r="B11" s="108" t="s">
-        <v>701</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="108" t="s">
-        <v>489</v>
-      </c>
-      <c r="E11" s="100">
-        <v>18</v>
-      </c>
-      <c r="F11" s="160" t="s">
+      <c r="B13" s="107" t="s">
+        <v>577</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="107" t="s">
+        <v>578</v>
+      </c>
+      <c r="E13" s="99">
+        <v>20</v>
+      </c>
+      <c r="F13" s="107" t="s">
         <v>718</v>
       </c>
-      <c r="G11" s="164">
-        <v>230.75</v>
-      </c>
-      <c r="H11" s="159" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="100">
-        <v>9</v>
-      </c>
-      <c r="B12" s="108" t="s">
-        <v>610</v>
-      </c>
-      <c r="C12" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>492</v>
-      </c>
-      <c r="E12" s="100">
-        <v>19</v>
-      </c>
-      <c r="F12" s="160" t="s">
-        <v>719</v>
-      </c>
-      <c r="G12" s="163" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="159" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="100">
-        <v>10</v>
-      </c>
-      <c r="B13" s="108" t="s">
-        <v>577</v>
-      </c>
-      <c r="C13" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>578</v>
-      </c>
-      <c r="E13" s="100">
-        <v>20</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>720</v>
-      </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="107" t="s">
         <v>482</v>
       </c>
     </row>
@@ -9345,175 +9356,175 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="184" t="s">
+      <c r="A15" s="187" t="s">
         <v>321</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="189"/>
       <c r="E15"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="123" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="100" t="s">
+      <c r="B16" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="99" t="s">
         <v>296</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="100">
+      <c r="A17" s="99">
         <v>1</v>
       </c>
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="125" t="s">
         <v>526</v>
       </c>
-      <c r="C17" s="127" t="s">
+      <c r="C17" s="126" t="s">
         <v>520</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="125" t="s">
         <v>521</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="100">
+      <c r="A18" s="99">
         <v>2</v>
       </c>
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="125" t="s">
         <v>527</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="126" t="s">
         <v>423</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="126" t="s">
         <v>444</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="100">
+      <c r="A19" s="99">
         <v>3</v>
       </c>
-      <c r="B19" s="126" t="s">
+      <c r="B19" s="125" t="s">
         <v>528</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="126" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="126" t="s">
         <v>447</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="100">
+      <c r="A20" s="99">
         <v>4</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="125" t="s">
         <v>529</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="126" t="s">
         <v>425</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="126" t="s">
         <v>448</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="100">
+      <c r="A21" s="99">
         <v>5</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="125" t="s">
         <v>530</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="126" t="s">
         <v>450</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="100">
+      <c r="A22" s="99">
         <v>6</v>
       </c>
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="125" t="s">
         <v>531</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="D22" s="127" t="s">
+      <c r="D22" s="126" t="s">
         <v>452</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="100">
+      <c r="A23" s="99">
         <v>7</v>
       </c>
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="125" t="s">
         <v>532</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="126" t="s">
         <v>454</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="100">
+      <c r="A24" s="99">
         <v>8</v>
       </c>
-      <c r="B24" s="126" t="s">
-        <v>702</v>
-      </c>
-      <c r="C24" s="127" t="s">
+      <c r="B24" s="125" t="s">
+        <v>700</v>
+      </c>
+      <c r="C24" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="127" t="s">
+      <c r="D24" s="126" t="s">
         <v>522</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="100">
+      <c r="A25" s="99">
         <v>9</v>
       </c>
-      <c r="B25" s="126" t="s">
-        <v>703</v>
-      </c>
-      <c r="C25" s="127" t="s">
+      <c r="B25" s="125" t="s">
+        <v>701</v>
+      </c>
+      <c r="C25" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="126" t="s">
         <v>523</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="100">
+      <c r="A26" s="99">
         <v>10</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="125" t="s">
         <v>525</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="127" t="s">
+      <c r="D26" s="126" t="s">
         <v>524</v>
       </c>
       <c r="E26"/>
@@ -9529,175 +9540,175 @@
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="184" t="s">
+      <c r="A28" s="187" t="s">
         <v>322</v>
       </c>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="186"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="189"/>
       <c r="E28"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="99" t="s">
         <v>296</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="100">
+      <c r="A30" s="99">
         <v>1</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="107" t="s">
         <v>539</v>
       </c>
-      <c r="C30" s="128" t="s">
+      <c r="C30" s="127" t="s">
         <v>540</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="107" t="s">
         <v>541</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="100">
+      <c r="A31" s="99">
         <v>2</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="107" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="128" t="s">
+      <c r="C31" s="127" t="s">
         <v>543</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="107" t="s">
         <v>544</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="100">
+      <c r="A32" s="99">
         <v>3</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="107" t="s">
         <v>545</v>
       </c>
-      <c r="C32" s="128" t="s">
+      <c r="C32" s="127" t="s">
         <v>546</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="D32" s="107" t="s">
         <v>547</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="100">
+      <c r="A33" s="99">
         <v>4</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="107" t="s">
         <v>548</v>
       </c>
-      <c r="C33" s="128" t="s">
+      <c r="C33" s="127" t="s">
         <v>549</v>
       </c>
-      <c r="D33" s="108" t="s">
+      <c r="D33" s="107" t="s">
         <v>550</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="100">
+      <c r="A34" s="99">
         <v>5</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="107" t="s">
         <v>551</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="127" t="s">
         <v>552</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D34" s="107" t="s">
         <v>553</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="100">
+      <c r="A35" s="99">
         <v>6</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="107" t="s">
         <v>554</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="127" t="s">
         <v>555</v>
       </c>
-      <c r="D35" s="108" t="s">
+      <c r="D35" s="107" t="s">
         <v>556</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="100">
+      <c r="A36" s="99">
         <v>7</v>
       </c>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="107" t="s">
         <v>557</v>
       </c>
-      <c r="C36" s="128" t="s">
+      <c r="C36" s="127" t="s">
         <v>558</v>
       </c>
-      <c r="D36" s="108" t="s">
+      <c r="D36" s="107" t="s">
         <v>559</v>
       </c>
       <c r="E36"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="100">
+      <c r="A37" s="99">
         <v>8</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="107" t="s">
         <v>560</v>
       </c>
-      <c r="C37" s="128" t="s">
+      <c r="C37" s="127" t="s">
         <v>561</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="107" t="s">
         <v>562</v>
       </c>
       <c r="E37"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="100">
+      <c r="A38" s="99">
         <v>9</v>
       </c>
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="107" t="s">
         <v>563</v>
       </c>
-      <c r="C38" s="128" t="s">
+      <c r="C38" s="127" t="s">
         <v>564</v>
       </c>
-      <c r="D38" s="108" t="s">
+      <c r="D38" s="107" t="s">
         <v>565</v>
       </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="100">
+      <c r="A39" s="99">
         <v>10</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="107" t="s">
         <v>566</v>
       </c>
-      <c r="C39" s="128" t="s">
+      <c r="C39" s="127" t="s">
         <v>567</v>
       </c>
-      <c r="D39" s="108" t="s">
+      <c r="D39" s="107" t="s">
         <v>568</v>
       </c>
       <c r="E39"/>
@@ -9736,178 +9747,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="188" t="s">
-        <v>740</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
-      <c r="H1" s="188"/>
+      <c r="A1" s="191" t="s">
+        <v>736</v>
+      </c>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="187" t="s">
         <v>314</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="186"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="189"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100" t="s">
+      <c r="A3" s="98"/>
+      <c r="B3" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="100" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="99" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="100">
+      <c r="A4" s="99">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="108" t="s">
         <v>659</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="100">
+      <c r="C4" s="108"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="99">
         <v>11</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="100">
+      <c r="A5" s="99">
         <v>2</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>505</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="108" t="s">
         <v>509</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="100">
+      <c r="D5" s="101"/>
+      <c r="E5" s="99">
         <v>12</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="102"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="101"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="100">
+      <c r="A6" s="99">
         <v>3</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="108" t="s">
         <v>664</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="108" t="s">
         <v>510</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="100">
+      <c r="D6" s="101"/>
+      <c r="E6" s="99">
         <v>13</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="100">
+      <c r="A7" s="99">
         <v>4</v>
       </c>
-      <c r="B7" s="109" t="s">
-        <v>699</v>
-      </c>
-      <c r="C7" s="109">
+      <c r="B7" s="108" t="s">
+        <v>697</v>
+      </c>
+      <c r="C7" s="108">
         <v>121.3</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="100">
+      <c r="D7" s="101"/>
+      <c r="E7" s="99">
         <v>14</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="100">
+      <c r="A8" s="99">
         <v>5</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="108" t="s">
         <v>665</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="108" t="s">
         <v>661</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="100">
+      <c r="D8" s="101"/>
+      <c r="E8" s="99">
         <v>15</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="100">
+      <c r="A9" s="99">
         <v>6</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="108" t="s">
         <v>476</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="100">
+      <c r="D9" s="101"/>
+      <c r="E9" s="99">
         <v>16</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="100">
+      <c r="A10" s="99">
         <v>7</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="100">
+      <c r="D10" s="101"/>
+      <c r="E10" s="99">
         <v>17</v>
       </c>
-      <c r="F10" s="109" t="s">
-        <v>704</v>
-      </c>
-      <c r="G10" s="109" t="s">
+      <c r="F10" s="108" t="s">
+        <v>702</v>
+      </c>
+      <c r="G10" s="108" t="s">
         <v>572</v>
       </c>
-      <c r="H10" s="109"/>
+      <c r="H10" s="108"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
       <c r="O10" s="36"/>
@@ -9915,26 +9926,26 @@
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="100">
+      <c r="A11" s="99">
         <v>8</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="108" t="s">
         <v>686</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="108" t="s">
         <v>263</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="100">
+      <c r="D11" s="101"/>
+      <c r="E11" s="99">
         <v>18</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="108" t="s">
         <v>470</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G11" s="108">
         <v>126.2</v>
       </c>
-      <c r="H11" s="109"/>
+      <c r="H11" s="108"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
       <c r="O11" s="36"/>
@@ -9942,26 +9953,26 @@
       <c r="Q11" s="36"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="100">
+      <c r="A12" s="99">
         <v>9</v>
       </c>
-      <c r="B12" s="109" t="s">
-        <v>698</v>
-      </c>
-      <c r="C12" s="109" t="s">
+      <c r="B12" s="108" t="s">
+        <v>696</v>
+      </c>
+      <c r="C12" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="100">
+      <c r="D12" s="101"/>
+      <c r="E12" s="99">
         <v>19</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="108" t="s">
         <v>663</v>
       </c>
-      <c r="G12" s="109" t="s">
+      <c r="G12" s="108" t="s">
         <v>662</v>
       </c>
-      <c r="H12" s="109"/>
+      <c r="H12" s="108"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
@@ -9969,22 +9980,22 @@
       <c r="Q12" s="36"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="100">
+      <c r="A13" s="99">
         <v>10</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="100">
+      <c r="B13" s="101"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="99">
         <v>20</v>
       </c>
-      <c r="F13" s="109" t="s">
-        <v>700</v>
-      </c>
-      <c r="G13" s="109">
+      <c r="F13" s="108" t="s">
+        <v>698</v>
+      </c>
+      <c r="G13" s="108">
         <v>118.2</v>
       </c>
-      <c r="H13" s="109"/>
+      <c r="H13" s="108"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
       <c r="O13" s="36"/>
@@ -9992,16 +10003,16 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="184" t="s">
+      <c r="A14" s="187" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="190"/>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="191"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="194"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -10009,24 +10020,24 @@
       <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="110" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="109" t="s">
         <v>315</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="109" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="109" t="s">
         <v>296</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="110" t="s">
+      <c r="E15" s="110"/>
+      <c r="F15" s="109" t="s">
         <v>315</v>
       </c>
-      <c r="G15" s="110" t="s">
+      <c r="G15" s="109" t="s">
         <v>316</v>
       </c>
-      <c r="H15" s="110" t="s">
+      <c r="H15" s="109" t="s">
         <v>296</v>
       </c>
       <c r="M15" s="36"/>
@@ -10036,24 +10047,24 @@
       <c r="Q15" s="36"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="100">
+      <c r="A16" s="99">
         <v>1</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="108" t="s">
         <v>658</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110">
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109">
         <v>11</v>
       </c>
-      <c r="F16" s="102" t="s">
-        <v>720</v>
-      </c>
-      <c r="G16" s="108" t="s">
+      <c r="F16" s="101" t="s">
+        <v>718</v>
+      </c>
+      <c r="G16" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="102" t="s">
+      <c r="H16" s="101" t="s">
         <v>482</v>
       </c>
       <c r="M16" s="36"/>
@@ -10063,28 +10074,28 @@
       <c r="Q16" s="36"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="100">
+      <c r="A17" s="99">
         <v>2</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="108" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>460</v>
       </c>
-      <c r="E17" s="110">
+      <c r="E17" s="109">
         <v>12</v>
       </c>
-      <c r="F17" s="102" t="s">
-        <v>721</v>
-      </c>
-      <c r="G17" s="108" t="s">
+      <c r="F17" s="101" t="s">
+        <v>719</v>
+      </c>
+      <c r="G17" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="102" t="s">
+      <c r="H17" s="101" t="s">
         <v>513</v>
       </c>
       <c r="M17" s="36"/>
@@ -10094,28 +10105,28 @@
       <c r="Q17" s="36"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="100">
+      <c r="A18" s="99">
         <v>3</v>
       </c>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="108" t="s">
         <v>477</v>
       </c>
-      <c r="C18" s="158" t="s">
+      <c r="C18" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="157" t="s">
         <v>465</v>
       </c>
-      <c r="E18" s="110">
+      <c r="E18" s="109">
         <v>13</v>
       </c>
-      <c r="F18" s="102" t="s">
-        <v>722</v>
-      </c>
-      <c r="G18" s="108" t="s">
+      <c r="F18" s="101" t="s">
+        <v>720</v>
+      </c>
+      <c r="G18" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="102" t="s">
+      <c r="H18" s="101" t="s">
         <v>514</v>
       </c>
       <c r="M18" s="36"/>
@@ -10125,28 +10136,28 @@
       <c r="Q18" s="36"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="100">
+      <c r="A19" s="99">
         <v>4</v>
       </c>
-      <c r="B19" s="160" t="s">
-        <v>713</v>
-      </c>
-      <c r="C19" s="161" t="s">
+      <c r="B19" s="159" t="s">
+        <v>711</v>
+      </c>
+      <c r="C19" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="159" t="s">
+      <c r="D19" s="158" t="s">
         <v>461</v>
       </c>
-      <c r="E19" s="157">
+      <c r="E19" s="156">
         <v>14</v>
       </c>
-      <c r="F19" s="102" t="s">
-        <v>723</v>
-      </c>
-      <c r="G19" s="108" t="s">
+      <c r="F19" s="101" t="s">
+        <v>721</v>
+      </c>
+      <c r="G19" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="102" t="s">
+      <c r="H19" s="101" t="s">
         <v>515</v>
       </c>
       <c r="J19" s="36"/>
@@ -10159,28 +10170,28 @@
       <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="100">
+      <c r="A20" s="99">
         <v>5</v>
       </c>
-      <c r="B20" s="160" t="s">
-        <v>714</v>
-      </c>
-      <c r="C20" s="162">
+      <c r="B20" s="159" t="s">
+        <v>712</v>
+      </c>
+      <c r="C20" s="161">
         <v>234.5</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="158" t="s">
         <v>463</v>
       </c>
-      <c r="E20" s="157">
+      <c r="E20" s="156">
         <v>15</v>
       </c>
-      <c r="F20" s="102" t="s">
-        <v>737</v>
-      </c>
-      <c r="G20" s="165">
+      <c r="F20" s="101" t="s">
+        <v>734</v>
+      </c>
+      <c r="G20" s="164">
         <v>33.5</v>
       </c>
-      <c r="H20" s="102" t="s">
+      <c r="H20" s="101" t="s">
         <v>522</v>
       </c>
       <c r="J20" s="36"/>
@@ -10193,28 +10204,28 @@
       <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="100">
+      <c r="A21" s="99">
         <v>6</v>
       </c>
-      <c r="B21" s="160" t="s">
-        <v>715</v>
-      </c>
-      <c r="C21" s="163" t="s">
+      <c r="B21" s="159" t="s">
+        <v>713</v>
+      </c>
+      <c r="C21" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="D21" s="158" t="s">
         <v>462</v>
       </c>
-      <c r="E21" s="157">
+      <c r="E21" s="156">
         <v>16</v>
       </c>
-      <c r="F21" s="102" t="s">
-        <v>738</v>
-      </c>
-      <c r="G21" s="165">
+      <c r="F21" s="101" t="s">
+        <v>735</v>
+      </c>
+      <c r="G21" s="164">
         <v>38.5</v>
       </c>
-      <c r="H21" s="102" t="s">
+      <c r="H21" s="101" t="s">
         <v>523</v>
       </c>
       <c r="J21" s="36"/>
@@ -10227,28 +10238,28 @@
       <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="100">
+      <c r="A22" s="99">
         <v>7</v>
       </c>
-      <c r="B22" s="160" t="s">
-        <v>716</v>
-      </c>
-      <c r="C22" s="161" t="s">
+      <c r="B22" s="159" t="s">
+        <v>714</v>
+      </c>
+      <c r="C22" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="158" t="s">
         <v>464</v>
       </c>
-      <c r="E22" s="157">
+      <c r="E22" s="156">
         <v>17</v>
       </c>
-      <c r="F22" s="102" t="s">
-        <v>736</v>
-      </c>
-      <c r="G22" s="165">
+      <c r="F22" s="101" t="s">
+        <v>733</v>
+      </c>
+      <c r="G22" s="164">
         <v>33.75</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="101" t="s">
         <v>524</v>
       </c>
       <c r="J22" s="36"/>
@@ -10261,28 +10272,28 @@
       <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="100">
+      <c r="A23" s="99">
         <v>8</v>
       </c>
-      <c r="B23" s="160" t="s">
-        <v>717</v>
-      </c>
-      <c r="C23" s="161" t="s">
+      <c r="B23" s="159" t="s">
+        <v>715</v>
+      </c>
+      <c r="C23" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="158" t="s">
         <v>467</v>
       </c>
-      <c r="E23" s="157">
+      <c r="E23" s="156">
         <v>18</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="102" t="s">
+      <c r="H23" s="101" t="s">
         <v>466</v>
       </c>
       <c r="J23" s="36"/>
@@ -10295,554 +10306,554 @@
       <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="100">
+      <c r="A24" s="99">
         <v>9</v>
       </c>
-      <c r="B24" s="160" t="s">
-        <v>718</v>
-      </c>
-      <c r="C24" s="164">
+      <c r="B24" s="159" t="s">
+        <v>716</v>
+      </c>
+      <c r="C24" s="163">
         <v>230.75</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="158" t="s">
         <v>479</v>
       </c>
-      <c r="E24" s="157">
+      <c r="E24" s="156">
         <v>19</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="102" t="s">
+      <c r="H24" s="101" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="100">
+      <c r="A25" s="99">
         <v>10</v>
       </c>
-      <c r="B25" s="160" t="s">
-        <v>719</v>
-      </c>
-      <c r="C25" s="163" t="s">
+      <c r="B25" s="159" t="s">
+        <v>717</v>
+      </c>
+      <c r="C25" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="158" t="s">
         <v>480</v>
       </c>
-      <c r="E25" s="157">
+      <c r="E25" s="156">
         <v>20</v>
       </c>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="187" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="190"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="191"/>
+      <c r="B26" s="193"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="194"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="C27" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="100" t="s">
+      <c r="E27" s="100"/>
+      <c r="F27" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="G27" s="100" t="s">
+      <c r="G27" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="H27" s="100" t="s">
+      <c r="H27" s="99" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="100">
+      <c r="A28" s="99">
         <v>1</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="107" t="s">
         <v>379</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="107" t="s">
         <v>439</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E28" s="99">
         <v>11</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="107" t="s">
         <v>526</v>
       </c>
-      <c r="G28" s="108" t="s">
+      <c r="G28" s="107" t="s">
         <v>520</v>
       </c>
-      <c r="H28" s="108" t="s">
+      <c r="H28" s="107" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="100">
+      <c r="A29" s="99">
         <v>2</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="107" t="s">
         <v>382</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="107" t="s">
         <v>440</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="99">
         <v>12</v>
       </c>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="107" t="s">
         <v>584</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="H29" s="107" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="100">
+      <c r="A30" s="99">
         <v>3</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="107" t="s">
         <v>385</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="107" t="s">
         <v>441</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E30" s="99">
         <v>13</v>
       </c>
-      <c r="F30" s="108" t="s">
+      <c r="F30" s="107" t="s">
         <v>585</v>
       </c>
-      <c r="G30" s="108" t="s">
+      <c r="G30" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="H30" s="108" t="s">
+      <c r="H30" s="107" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="100">
+      <c r="A31" s="99">
         <v>4</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="107" t="s">
         <v>582</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C31" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="107" t="s">
         <v>442</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="99">
         <v>14</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="107" t="s">
         <v>586</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="107" t="s">
         <v>425</v>
       </c>
-      <c r="H31" s="108" t="s">
+      <c r="H31" s="107" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="100">
+      <c r="A32" s="99">
         <v>5</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="107" t="s">
         <v>583</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="D32" s="107" t="s">
         <v>443</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="99">
         <v>15</v>
       </c>
-      <c r="F32" s="108" t="s">
+      <c r="F32" s="107" t="s">
         <v>587</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H32" s="107" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="100">
+      <c r="A33" s="99">
         <v>6</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="107" t="s">
         <v>595</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="108" t="s">
+      <c r="D33" s="107" t="s">
         <v>590</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="99">
         <v>16</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="107" t="s">
         <v>588</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="H33" s="108" t="s">
+      <c r="H33" s="107" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="100">
+      <c r="A34" s="99">
         <v>7</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="107" t="s">
         <v>596</v>
       </c>
-      <c r="C34" s="108" t="s">
+      <c r="C34" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D34" s="107" t="s">
         <v>591</v>
       </c>
-      <c r="E34" s="100">
+      <c r="E34" s="99">
         <v>17</v>
       </c>
-      <c r="F34" s="108" t="s">
+      <c r="F34" s="107" t="s">
         <v>589</v>
       </c>
-      <c r="G34" s="108" t="s">
+      <c r="G34" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="H34" s="108" t="s">
+      <c r="H34" s="107" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="100">
+      <c r="A35" s="99">
         <v>8</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="107" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="107" t="s">
         <v>249</v>
       </c>
-      <c r="D35" s="108" t="s">
+      <c r="D35" s="107" t="s">
         <v>592</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="99">
         <v>18</v>
       </c>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="107" t="s">
         <v>490</v>
       </c>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="108" t="s">
+      <c r="H35" s="107" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="100">
+      <c r="A36" s="99">
         <v>9</v>
       </c>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="107" t="s">
         <v>598</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="107" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="108" t="s">
+      <c r="D36" s="107" t="s">
         <v>593</v>
       </c>
-      <c r="E36" s="100">
+      <c r="E36" s="99">
         <v>19</v>
       </c>
-      <c r="F36" s="108" t="s">
+      <c r="F36" s="107" t="s">
         <v>491</v>
       </c>
-      <c r="G36" s="108" t="s">
+      <c r="G36" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="108" t="s">
+      <c r="H36" s="107" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="100">
+      <c r="A37" s="99">
         <v>10</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="107" t="s">
         <v>599</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="107" t="s">
         <v>594</v>
       </c>
-      <c r="E37" s="100">
+      <c r="E37" s="99">
         <v>20</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="107" t="s">
         <v>577</v>
       </c>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="108" t="s">
+      <c r="H37" s="107" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="189"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
-      <c r="I41" s="119"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="118"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="117"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="118"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="117"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="116"/>
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="117"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="116"/>
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B45" s="114"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="114"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="117"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="116"/>
     </row>
     <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="117"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="116"/>
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="117"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="116"/>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B48" s="114"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="117"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="116"/>
     </row>
     <row r="49" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="117"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="116"/>
     </row>
     <row r="50" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="117"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="116"/>
     </row>
     <row r="51" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="114"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="117"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="116"/>
     </row>
     <row r="52" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="114"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="118"/>
-      <c r="I52" s="117"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="116"/>
     </row>
     <row r="53" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="114"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="118"/>
-      <c r="I53" s="117"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="116"/>
     </row>
     <row r="54" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B54" s="114"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="118"/>
-      <c r="I54" s="117"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="116"/>
     </row>
     <row r="55" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="114"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="117"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="116"/>
     </row>
     <row r="56" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="117"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="116"/>
     </row>
     <row r="57" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="117"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="116"/>
     </row>
     <row r="58" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="114"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="117"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="116"/>
     </row>
     <row r="59" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="114"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="117"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="116"/>
     </row>
     <row r="60" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="118"/>
-      <c r="I60" s="117"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="116"/>
     </row>
     <row r="61" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="114"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="114"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="118"/>
-      <c r="I61" s="117"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="116"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10862,7 +10873,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10879,40 +10890,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="192" t="s">
-        <v>739</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="194"/>
+      <c r="A1" s="195" t="s">
+        <v>758</v>
+      </c>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="197"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="195"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="197"/>
+      <c r="A2" s="198"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="200"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="201" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="198" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="201" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="201"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="84">
@@ -10927,73 +10938,73 @@
         <v>1</v>
       </c>
       <c r="F4" s="87">
-        <v>121.1</v>
-      </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71" t="s">
-        <v>687</v>
+        <v>280.7</v>
+      </c>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="84">
         <v>2</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="166" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="167" t="s">
         <v>343</v>
       </c>
       <c r="E5" s="84">
         <v>2</v>
       </c>
       <c r="F5" s="87">
-        <v>121.2</v>
-      </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71" t="s">
-        <v>688</v>
+        <v>280.89999999999998</v>
+      </c>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="84">
         <v>3</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="144" t="s">
         <v>461</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E6" s="84">
         <v>3</v>
       </c>
       <c r="F6" s="87">
-        <v>121.3</v>
-      </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71" t="s">
-        <v>699</v>
+        <v>280.8</v>
+      </c>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="84">
         <v>4</v>
       </c>
-      <c r="B7" s="149">
+      <c r="B7" s="148">
         <v>234.5</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="144" t="s">
         <v>463</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E7" s="84">
         <v>4</v>
@@ -11012,66 +11023,66 @@
       <c r="A8" s="84">
         <v>5</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="144" t="s">
         <v>462</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E8" s="84">
         <v>5</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="G8" s="145" t="s">
-        <v>729</v>
+      <c r="G8" s="144" t="s">
+        <v>727</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="84">
         <v>6</v>
       </c>
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="144" t="s">
         <v>464</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E9" s="84">
         <v>6</v>
       </c>
-      <c r="F9" s="145" t="s">
+      <c r="F9" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="145" t="s">
-        <v>731</v>
+      <c r="G9" s="144" t="s">
+        <v>729</v>
       </c>
       <c r="H9" s="86" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="84">
         <v>7</v>
       </c>
-      <c r="B10" s="145" t="s">
+      <c r="B10" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="144" t="s">
         <v>467</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E10" s="84">
         <v>7</v>
@@ -11084,14 +11095,14 @@
       <c r="A11" s="84">
         <v>8</v>
       </c>
-      <c r="B11" s="148">
+      <c r="B11" s="147">
         <v>230.75</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="144" t="s">
         <v>479</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E11" s="84">
         <v>8</v>
@@ -11104,14 +11115,14 @@
       <c r="A12" s="84">
         <v>9</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="144" t="s">
         <v>480</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E12" s="84">
         <v>9</v>
@@ -11130,14 +11141,14 @@
       <c r="A13" s="84">
         <v>10</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="144" t="s">
         <v>482</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E13" s="84">
         <v>10</v>
@@ -11156,14 +11167,14 @@
       <c r="A14" s="84">
         <v>11</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="144" t="s">
         <v>513</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E14" s="84">
         <v>11</v>
@@ -11182,14 +11193,14 @@
       <c r="A15" s="84">
         <v>12</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="144" t="s">
         <v>514</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E15" s="84">
         <v>12</v>
@@ -11202,14 +11213,14 @@
       <c r="A16" s="84">
         <v>13</v>
       </c>
-      <c r="B16" s="145" t="s">
+      <c r="B16" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="144" t="s">
         <v>515</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E16" s="84">
         <v>13</v>
@@ -11222,14 +11233,14 @@
       <c r="A17" s="84">
         <v>14</v>
       </c>
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="145" t="s">
-        <v>725</v>
+      <c r="C17" s="144" t="s">
+        <v>723</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E17" s="84">
         <v>14</v>
@@ -11242,14 +11253,14 @@
       <c r="A18" s="84">
         <v>15</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="145" t="s">
-        <v>727</v>
+      <c r="C18" s="144" t="s">
+        <v>725</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E18" s="84">
         <v>15</v>
@@ -11302,13 +11313,9 @@
       <c r="E20" s="84">
         <v>17</v>
       </c>
-      <c r="F20" s="89">
-        <v>280.7</v>
-      </c>
+      <c r="F20" s="89"/>
       <c r="G20" s="71"/>
-      <c r="H20" s="88" t="s">
-        <v>693</v>
-      </c>
+      <c r="H20" s="88"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84">
@@ -11318,7 +11325,7 @@
         <v>241.75</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>468</v>
@@ -11326,13 +11333,9 @@
       <c r="E21" s="84">
         <v>18</v>
       </c>
-      <c r="F21" s="87">
-        <v>280.89999999999998</v>
-      </c>
+      <c r="F21" s="87"/>
       <c r="G21" s="71"/>
-      <c r="H21" s="88" t="s">
-        <v>694</v>
-      </c>
+      <c r="H21" s="88"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="84">
@@ -11344,7 +11347,7 @@
       <c r="C22" s="86" t="s">
         <v>466</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="92" t="s">
         <v>349</v>
       </c>
       <c r="E22" s="84">
@@ -11364,7 +11367,7 @@
       <c r="A23" s="84">
         <v>20</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="93">
         <v>301</v>
       </c>
       <c r="C23" s="86"/>
@@ -11379,14 +11382,14 @@
       </c>
       <c r="G23" s="71"/>
       <c r="H23" s="71" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
       <c r="E24" s="84">
         <v>21</v>
       </c>
@@ -11401,10 +11404,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="84">
         <v>22</v>
       </c>
@@ -11419,58 +11422,58 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="84">
         <v>23</v>
       </c>
-      <c r="F26" s="70">
-        <v>260</v>
+      <c r="F26" s="87">
+        <v>121.1</v>
       </c>
       <c r="G26" s="71"/>
       <c r="H26" s="71" t="s">
-        <v>338</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="84">
         <v>24</v>
       </c>
-      <c r="F27" s="70">
-        <v>270</v>
+      <c r="F27" s="87">
+        <v>121.2</v>
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71" t="s">
-        <v>338</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
       <c r="E28" s="84">
         <v>25</v>
       </c>
-      <c r="F28" s="70">
-        <v>255</v>
+      <c r="F28" s="87">
+        <v>121.3</v>
       </c>
       <c r="G28" s="71"/>
       <c r="H28" s="71" t="s">
-        <v>338</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="84">
         <v>26</v>
       </c>
@@ -11483,10 +11486,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="84">
         <v>27</v>
       </c>
@@ -11499,10 +11502,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
       <c r="E31" s="84">
         <v>28</v>
       </c>
@@ -11515,10 +11518,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="84">
         <v>29</v>
       </c>
@@ -11531,10 +11534,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="84">
         <v>30</v>
       </c>
@@ -11561,8 +11564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D18"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11573,131 +11576,131 @@
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="202" t="s">
-        <v>733</v>
-      </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
+      <c r="A1" s="205" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="196"/>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="201" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="203"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="198" t="s">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="201" t="s">
         <v>393</v>
       </c>
-      <c r="F3" s="199"/>
-      <c r="G3" s="200"/>
-      <c r="H3" s="201"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="204"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="143">
+      <c r="A4" s="142">
         <v>1</v>
       </c>
-      <c r="B4" s="145" t="s">
+      <c r="B4" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>461</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E4" s="84">
         <v>1</v>
       </c>
       <c r="F4" s="87">
-        <v>121.1</v>
+        <v>280.7</v>
       </c>
       <c r="G4" s="71"/>
       <c r="H4" s="71" t="s">
-        <v>687</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="143">
+      <c r="A5" s="142">
         <v>2</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="148">
         <v>234.5</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="144" t="s">
         <v>463</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E5" s="84">
         <v>2</v>
       </c>
       <c r="F5" s="87">
-        <v>121.2</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>688</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143">
+      <c r="A6" s="142">
         <v>3</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="144" t="s">
         <v>462</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E6" s="84">
         <v>3</v>
       </c>
       <c r="F6" s="87">
-        <v>121.3</v>
+        <v>280.8</v>
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71" t="s">
-        <v>699</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="143">
+      <c r="A7" s="142">
         <v>4</v>
       </c>
-      <c r="B7" s="145" t="s">
+      <c r="B7" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="144" t="s">
         <v>464</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E7" s="84">
         <v>4</v>
@@ -11713,17 +11716,17 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="143">
+      <c r="A8" s="142">
         <v>5</v>
       </c>
-      <c r="B8" s="145" t="s">
+      <c r="B8" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="144" t="s">
         <v>467</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E8" s="84">
         <v>5</v>
@@ -11739,17 +11742,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="143">
+      <c r="A9" s="142">
         <v>6</v>
       </c>
-      <c r="B9" s="148">
+      <c r="B9" s="147">
         <v>230.75</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="144" t="s">
         <v>479</v>
       </c>
       <c r="D9" s="86" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E9" s="84">
         <v>6</v>
@@ -11765,17 +11768,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="143">
+      <c r="A10" s="142">
         <v>7</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="144" t="s">
         <v>480</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E10" s="84">
         <v>7</v>
@@ -11791,17 +11794,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="143">
+      <c r="A11" s="142">
         <v>8</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="144" t="s">
         <v>482</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E11" s="84">
         <v>8</v>
@@ -11817,17 +11820,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="143">
+      <c r="A12" s="142">
         <v>9</v>
       </c>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="144" t="s">
         <v>513</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E12" s="84">
         <v>9</v>
@@ -11843,17 +11846,17 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="143">
+      <c r="A13" s="142">
         <v>10</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="144" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="144" t="s">
         <v>514</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E13" s="84">
         <v>10</v>
@@ -11869,17 +11872,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="143">
+      <c r="A14" s="142">
         <v>11</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="144" t="s">
         <v>515</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E14" s="84">
         <v>11</v>
@@ -11895,17 +11898,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="143">
+      <c r="A15" s="142">
         <v>12</v>
       </c>
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="145" t="s">
-        <v>725</v>
+      <c r="C15" s="144" t="s">
+        <v>723</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E15" s="84">
         <v>12</v>
@@ -11921,17 +11924,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143">
+      <c r="A16" s="142">
         <v>13</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="145" t="s">
-        <v>727</v>
+      <c r="C16" s="144" t="s">
+        <v>725</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E16" s="84">
         <v>13</v>
@@ -11947,17 +11950,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="143">
+      <c r="A17" s="142">
         <v>14</v>
       </c>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="147" t="s">
         <v>244</v>
       </c>
-      <c r="C17" s="145" t="s">
-        <v>729</v>
+      <c r="C17" s="144" t="s">
+        <v>727</v>
       </c>
       <c r="D17" s="86" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E17" s="84">
         <v>14</v>
@@ -11973,17 +11976,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="143">
+      <c r="A18" s="142">
         <v>15</v>
       </c>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="145" t="s">
-        <v>731</v>
+      <c r="C18" s="144" t="s">
+        <v>729</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E18" s="84">
         <v>15</v>
@@ -12000,13 +12003,13 @@
       <c r="A19" s="84">
         <v>16</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="144" t="s">
         <v>496</v>
       </c>
-      <c r="D19" s="147" t="s">
+      <c r="D19" s="146" t="s">
         <v>683</v>
       </c>
       <c r="E19" s="84">
@@ -12024,35 +12027,35 @@
       <c r="A20" s="84">
         <v>17</v>
       </c>
-      <c r="B20" s="144" t="s">
+      <c r="B20" s="143" t="s">
         <v>250</v>
       </c>
-      <c r="C20" s="145" t="s">
+      <c r="C20" s="144" t="s">
         <v>650</v>
       </c>
-      <c r="D20" s="147" t="s">
+      <c r="D20" s="146" t="s">
         <v>684</v>
       </c>
       <c r="E20" s="84">
         <v>17</v>
       </c>
-      <c r="F20" s="89">
-        <v>280.7</v>
-      </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="88" t="s">
-        <v>693</v>
+      <c r="F20" s="87">
+        <v>121.1</v>
+      </c>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="84">
         <v>18</v>
       </c>
-      <c r="B21" s="146">
+      <c r="B21" s="145">
         <v>241.75</v>
       </c>
       <c r="C21" s="71" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D21" s="71" t="s">
         <v>468</v>
@@ -12061,11 +12064,11 @@
         <v>18</v>
       </c>
       <c r="F21" s="87">
-        <v>280.89999999999998</v>
-      </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="88" t="s">
-        <v>694</v>
+        <v>121.2</v>
+      </c>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12084,21 +12087,19 @@
       <c r="E22" s="84">
         <v>19</v>
       </c>
-      <c r="F22" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="H22" s="71" t="s">
-        <v>349</v>
+      <c r="F22" s="87">
+        <v>121.3</v>
+      </c>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="84">
         <v>20</v>
       </c>
-      <c r="B23" s="92">
+      <c r="B23" s="91">
         <v>301</v>
       </c>
       <c r="C23" s="71"/>
@@ -12113,7 +12114,7 @@
       </c>
       <c r="G23" s="71"/>
       <c r="H23" s="71" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -12125,6 +12126,9 @@
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F16:F17" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -12150,40 +12154,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
-        <v>734</v>
-      </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="207"/>
+      <c r="A1" s="208" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
+      <c r="F1" s="209"/>
+      <c r="G1" s="209"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="208"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="210"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="213"/>
     </row>
     <row r="3" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="214" t="s">
         <v>668</v>
       </c>
-      <c r="B3" s="212"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212" t="s">
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215" t="s">
         <v>669</v>
       </c>
-      <c r="F3" s="212"/>
-      <c r="G3" s="212"/>
-      <c r="H3" s="213"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="216"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
@@ -12191,7 +12195,7 @@
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="151" t="s">
         <v>658</v>
       </c>
       <c r="E4" s="69">
@@ -12207,13 +12211,13 @@
       <c r="A5" s="68">
         <v>2</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="151" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="151" t="s">
         <v>343</v>
       </c>
       <c r="E5" s="69">
@@ -12231,13 +12235,13 @@
       <c r="A6" s="68">
         <v>3</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="150" t="s">
         <v>465</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="151" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="69">
@@ -12255,14 +12259,14 @@
       <c r="A7" s="68">
         <v>4</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="145" t="s">
+      <c r="C7" s="144" t="s">
         <v>461</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E7" s="69">
         <v>4</v>
@@ -12272,7 +12276,7 @@
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="70" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12282,11 +12286,11 @@
       <c r="B8" s="89">
         <v>234.5</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="144" t="s">
         <v>463</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E8" s="69">
         <v>5</v>
@@ -12303,14 +12307,14 @@
       <c r="A9" s="68">
         <v>6</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="144" t="s">
         <v>462</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E9" s="69">
         <v>6</v>
@@ -12329,14 +12333,14 @@
       <c r="A10" s="68">
         <v>7</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="145" t="s">
+      <c r="C10" s="144" t="s">
         <v>464</v>
       </c>
       <c r="D10" s="85" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E10" s="69">
         <v>7</v>
@@ -12355,14 +12359,14 @@
       <c r="A11" s="68">
         <v>8</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="144" t="s">
         <v>467</v>
       </c>
       <c r="D11" s="85" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E11" s="69">
         <v>8</v>
@@ -12381,14 +12385,14 @@
       <c r="A12" s="68">
         <v>9</v>
       </c>
-      <c r="B12" s="156">
+      <c r="B12" s="155">
         <v>230.75</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="144" t="s">
         <v>479</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E12" s="69">
         <v>9</v>
@@ -12398,21 +12402,21 @@
       </c>
       <c r="G12" s="71"/>
       <c r="H12" s="70" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="68">
         <v>10</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="154" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="144" t="s">
         <v>480</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E13" s="69">
         <v>10</v>
@@ -12425,14 +12429,14 @@
       <c r="A14" s="68">
         <v>11</v>
       </c>
-      <c r="B14" s="155" t="s">
+      <c r="B14" s="154" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="144" t="s">
         <v>482</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E14" s="69">
         <v>11</v>
@@ -12448,14 +12452,14 @@
       <c r="A15" s="68">
         <v>12</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="144" t="s">
         <v>513</v>
       </c>
       <c r="D15" s="85" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E15" s="69">
         <v>12</v>
@@ -12471,14 +12475,14 @@
       <c r="A16" s="68">
         <v>13</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="153" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="144" t="s">
         <v>514</v>
       </c>
       <c r="D16" s="85" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E16" s="69">
         <v>13</v>
@@ -12494,14 +12498,14 @@
       <c r="A17" s="68">
         <v>14</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="144" t="s">
         <v>515</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E17" s="69">
         <v>14</v>
@@ -12517,14 +12521,14 @@
       <c r="A18" s="68">
         <v>15</v>
       </c>
-      <c r="B18" s="154" t="s">
+      <c r="B18" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="145" t="s">
-        <v>725</v>
+      <c r="C18" s="144" t="s">
+        <v>723</v>
       </c>
       <c r="D18" s="85" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E18" s="69">
         <v>15</v>
@@ -12540,14 +12544,14 @@
       <c r="A19" s="68">
         <v>16</v>
       </c>
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="145" t="s">
-        <v>727</v>
+      <c r="C19" s="144" t="s">
+        <v>725</v>
       </c>
       <c r="D19" s="85" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E19" s="69">
         <v>16</v>
@@ -12560,14 +12564,14 @@
       <c r="A20" s="68">
         <v>17</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="154" t="s">
         <v>244</v>
       </c>
-      <c r="C20" s="145" t="s">
-        <v>729</v>
+      <c r="C20" s="144" t="s">
+        <v>727</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E20" s="69">
         <v>17</v>
@@ -12584,14 +12588,14 @@
       <c r="A21" s="68">
         <v>18</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="145" t="s">
-        <v>731</v>
+      <c r="C21" s="144" t="s">
+        <v>729</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E21" s="69">
         <v>18</v>
@@ -12608,14 +12612,14 @@
       <c r="A22" s="68">
         <v>19</v>
       </c>
-      <c r="B22" s="152" t="s">
+      <c r="B22" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="153" t="s">
+      <c r="C22" s="152" t="s">
         <v>466</v>
       </c>
-      <c r="D22" s="152" t="s">
-        <v>735</v>
+      <c r="D22" s="151" t="s">
+        <v>732</v>
       </c>
       <c r="E22" s="69">
         <v>19</v>
@@ -12629,26 +12633,26 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120">
+      <c r="A23" s="119">
         <v>20</v>
       </c>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="149" t="s">
         <v>466</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="151" t="s">
         <v>349</v>
       </c>
-      <c r="E23" s="121">
+      <c r="E23" s="120">
         <v>20</v>
       </c>
-      <c r="F23" s="122" t="s">
+      <c r="F23" s="121" t="s">
         <v>661</v>
       </c>
-      <c r="G23" s="123"/>
-      <c r="H23" s="122" t="s">
+      <c r="G23" s="122"/>
+      <c r="H23" s="121" t="s">
         <v>667</v>
       </c>
     </row>
@@ -12841,7 +12845,7 @@
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
       <c r="M41" s="21"/>
-      <c r="N41" s="112"/>
+      <c r="N41" s="111"/>
       <c r="O41" s="21"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12854,7 +12858,7 @@
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
       <c r="M42" s="21"/>
-      <c r="N42" s="112"/>
+      <c r="N42" s="111"/>
       <c r="O42" s="21"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12867,7 +12871,7 @@
       <c r="G43" s="36"/>
       <c r="H43" s="36"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="112"/>
+      <c r="N43" s="111"/>
       <c r="O43" s="21"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12880,7 +12884,7 @@
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
       <c r="M44" s="21"/>
-      <c r="N44" s="112"/>
+      <c r="N44" s="111"/>
       <c r="O44" s="21"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12893,7 +12897,7 @@
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="112"/>
+      <c r="N45" s="111"/>
       <c r="O45" s="21"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12906,7 +12910,7 @@
       <c r="G46" s="36"/>
       <c r="H46" s="36"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="112"/>
+      <c r="N46" s="111"/>
       <c r="O46" s="21"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12919,7 +12923,7 @@
       <c r="G47" s="36"/>
       <c r="H47" s="36"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="113"/>
+      <c r="N47" s="112"/>
       <c r="O47" s="21"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12932,7 +12936,7 @@
       <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="113"/>
+      <c r="N48" s="112"/>
       <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12945,7 +12949,7 @@
       <c r="G49" s="36"/>
       <c r="H49" s="36"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="113"/>
+      <c r="N49" s="112"/>
       <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -12958,7 +12962,7 @@
       <c r="G50" s="36"/>
       <c r="H50" s="36"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="113"/>
+      <c r="N50" s="112"/>
       <c r="O50" s="21"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -12984,12 +12988,12 @@
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="113"/>
+      <c r="N52" s="112"/>
       <c r="O52" s="21"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M53" s="4"/>
-      <c r="N53" s="113"/>
+      <c r="N53" s="112"/>
       <c r="O53" s="21"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">

--- a/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
+++ b/FILES/OP BLUE HARVEST Frequency and Callsign master list.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6842B7-119D-4B89-9BC4-52F80AA35DBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9132DCD8-4B7D-470D-AD55-BF8979A62A92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52380" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="38700" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequencies" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="759">
   <si>
     <t>AWACS</t>
   </si>
@@ -2221,9 +2221,6 @@
     <t>TACTICAL FREQS</t>
   </si>
   <si>
-    <t>F-16C presets OPBH V1.1</t>
-  </si>
-  <si>
     <t>Alert Frequency</t>
   </si>
   <si>
@@ -2236,9 +2233,6 @@
     <t>JACKAL SEC</t>
   </si>
   <si>
-    <t xml:space="preserve">A-10C presets  - OPBH v 1.1 </t>
-  </si>
-  <si>
     <t>MI-8 presets OPBH V1.1</t>
   </si>
   <si>
@@ -2303,6 +2297,12 @@
   </si>
   <si>
     <t>F-14 presets OPBH V1.2</t>
+  </si>
+  <si>
+    <t>A-10C presets  - OPBH v 1.2</t>
+  </si>
+  <si>
+    <t>F-16C presets OPBH V1.2</t>
   </si>
 </sst>
 </file>
@@ -3608,9 +3608,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3621,6 +3618,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4089,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AF52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4105,11 +4105,11 @@
       </c>
       <c r="W2" s="137"/>
       <c r="X2" s="137"/>
-      <c r="Z2" s="176" t="s">
+      <c r="Z2" s="175" t="s">
         <v>730</v>
       </c>
-      <c r="AA2" s="177"/>
-      <c r="AB2" s="178"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="177"/>
     </row>
     <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C3" s="53">
@@ -4234,11 +4234,11 @@
       <c r="AB4" s="136" t="s">
         <v>461</v>
       </c>
-      <c r="AD4" s="175" t="s">
+      <c r="AD4" s="174" t="s">
         <v>287</v>
       </c>
-      <c r="AE4" s="175"/>
-      <c r="AF4" s="175"/>
+      <c r="AE4" s="174"/>
+      <c r="AF4" s="174"/>
     </row>
     <row r="5" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
@@ -5173,11 +5173,11 @@
         <v>305</v>
       </c>
       <c r="Q18" s="4"/>
-      <c r="R18" s="175" t="s">
+      <c r="R18" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="175"/>
-      <c r="T18" s="175"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
       <c r="Z18" s="136" t="s">
         <v>728</v>
       </c>
@@ -5242,20 +5242,20 @@
       <c r="T19" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="V19" s="176" t="s">
+      <c r="V19" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="W19" s="177"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="177"/>
-      <c r="Z19" s="178"/>
-      <c r="AB19" s="175" t="s">
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="176"/>
+      <c r="Z19" s="177"/>
+      <c r="AB19" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="AC19" s="175"/>
-      <c r="AD19" s="175"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="175"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="174"/>
+      <c r="AF19" s="174"/>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20" s="51" t="s">
@@ -5644,11 +5644,11 @@
       </c>
       <c r="O25" s="46"/>
       <c r="P25" s="4"/>
-      <c r="R25" s="175" t="s">
+      <c r="R25" s="174" t="s">
         <v>516</v>
       </c>
-      <c r="S25" s="175"/>
-      <c r="T25" s="175"/>
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B26" s="51" t="s">
@@ -5789,7 +5789,7 @@
         <v>11</v>
       </c>
       <c r="R28" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="S28" t="s">
         <v>518</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="S29">
         <v>280.8</v>
@@ -5815,33 +5815,33 @@
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="174" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="J31" s="175" t="s">
+      <c r="C31" s="174"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="J31" s="174" t="s">
         <v>307</v>
       </c>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="U31" s="175" t="s">
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="U31" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="V31" s="175"/>
-      <c r="W31" s="175"/>
-      <c r="X31" s="175"/>
-      <c r="Y31" s="175"/>
-      <c r="Z31" s="175"/>
-      <c r="AA31" s="175"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="174"/>
       <c r="AC31" s="179" t="s">
         <v>705</v>
       </c>
@@ -6331,15 +6331,15 @@
       <c r="F39" t="s">
         <v>591</v>
       </c>
-      <c r="J39" s="174" t="s">
+      <c r="J39" s="178" t="s">
         <v>456</v>
       </c>
-      <c r="K39" s="174"/>
-      <c r="L39" s="174"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="174"/>
-      <c r="P39" s="174"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="178"/>
+      <c r="O39" s="178"/>
+      <c r="P39" s="178"/>
       <c r="T39">
         <v>7</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>698</v>
       </c>
       <c r="S46" s="134">
-        <v>118.2</v>
+        <v>121.7</v>
       </c>
       <c r="W46" t="s">
         <v>677</v>
@@ -6582,28 +6582,28 @@
         <v>210</v>
       </c>
       <c r="Y52" s="171" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="Z52" s="173" t="s">
         <v>88</v>
       </c>
       <c r="AA52" s="171" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="J39:P39"/>
     <mergeCell ref="U31:AA31"/>
     <mergeCell ref="AD4:AF4"/>
     <mergeCell ref="V19:Z19"/>
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8445,71 +8445,71 @@
   <sheetData>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="168" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" s="168" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="168" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" s="168" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="168" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="168" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="168" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="168" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="168" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D14" s="170"/>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="168" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="168" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D16" s="169"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="168" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D17" s="7"/>
     </row>
@@ -9047,7 +9047,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="190" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B1" s="190"/>
       <c r="C1" s="190"/>
@@ -9729,8 +9729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9748,7 +9748,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="191" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="B1" s="191"/>
       <c r="C1" s="191"/>
@@ -9993,7 +9993,7 @@
         <v>698</v>
       </c>
       <c r="G13" s="108">
-        <v>118.2</v>
+        <v>121.7</v>
       </c>
       <c r="H13" s="108"/>
       <c r="M13" s="36"/>
@@ -10186,7 +10186,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G20" s="164">
         <v>33.5</v>
@@ -10220,7 +10220,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G21" s="164">
         <v>38.5</v>
@@ -10254,7 +10254,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="101" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G22" s="164">
         <v>33.75</v>
@@ -10891,7 +10891,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="195" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B1" s="196"/>
       <c r="C1" s="196"/>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="G4" s="166"/>
       <c r="H4" s="166" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10966,7 +10966,7 @@
       </c>
       <c r="G5" s="166"/>
       <c r="H5" s="166" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="G6" s="166"/>
       <c r="H6" s="166" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11564,7 +11564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -11583,7 +11583,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="205" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B1" s="205"/>
       <c r="C1" s="205"/>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="G4" s="71"/>
       <c r="H4" s="71" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="G5" s="71"/>
       <c r="H5" s="71" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="71" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12140,7 +12140,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12155,7 +12155,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="208" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="B1" s="209"/>
       <c r="C1" s="209"/>
@@ -12619,7 +12619,7 @@
         <v>466</v>
       </c>
       <c r="D22" s="151" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E22" s="69">
         <v>19</v>
@@ -12648,8 +12648,8 @@
       <c r="E23" s="120">
         <v>20</v>
       </c>
-      <c r="F23" s="121" t="s">
-        <v>661</v>
+      <c r="F23" s="121">
+        <v>121.7</v>
       </c>
       <c r="G23" s="122"/>
       <c r="H23" s="121" t="s">
